--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1067,9 +1067,6 @@
       <c r="H22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>千军破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,56 +484,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:H23"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2">
@@ -547,15 +555,18 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3">
@@ -571,22 +582,25 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>1.2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -599,15 +613,18 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5">
@@ -623,22 +640,25 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>1.5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -651,15 +671,18 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7">
@@ -675,22 +698,25 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
@@ -703,15 +729,18 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9">
@@ -727,43 +756,49 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>1.8</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.6</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.2</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11">
@@ -779,17 +814,20 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12">
@@ -805,17 +843,20 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13">
@@ -831,17 +872,20 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>102</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14">
@@ -857,17 +901,20 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15">
@@ -883,17 +930,20 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>104</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16">
@@ -909,18 +959,21 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>105</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" s="1">
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -935,18 +988,21 @@
         <v>1</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" s="1">
+        <v>2</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -961,18 +1017,21 @@
         <v>1</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>107</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" s="1">
+        <v>2</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -987,18 +1046,21 @@
         <v>1</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="C20" s="1">
+        <v>2</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1013,18 +1075,21 @@
         <v>1</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>109</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="C21" s="1">
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1039,18 +1104,21 @@
         <v>1</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>110</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="C22" s="1">
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1065,13 +1133,16 @@
         <v>1</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>射日击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一剑封喉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +145,58 @@
   </si>
   <si>
     <t>TargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无招即是有招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从背后悄悄接近并攻击，容易造成致命一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数箭齐发，同时射击场上全部敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速连续斩向对手，对时间轴造成强烈影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以退为进，瞬间制敌，可触发防守反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千军破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋力一跃，使用全力从高处制敌，造成巨大伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手戳刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手劈砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星追月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开天辟地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一剑封喉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -497,11 +545,12 @@
     <col min="7" max="7" width="9.625" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="70.875" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
     <col min="16" max="16" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -529,8 +578,11 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -558,8 +610,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -587,8 +642,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -616,8 +674,11 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -645,8 +706,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -674,8 +738,11 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -703,8 +770,11 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -732,8 +802,11 @@
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -761,8 +834,11 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -790,8 +866,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -819,8 +898,11 @@
       <c r="I11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -848,8 +930,11 @@
       <c r="I12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>101</v>
       </c>
@@ -877,8 +962,11 @@
       <c r="I13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>102</v>
       </c>
@@ -906,8 +994,11 @@
       <c r="I14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>103</v>
       </c>
@@ -935,8 +1026,11 @@
       <c r="I15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>104</v>
       </c>
@@ -964,8 +1058,11 @@
       <c r="I16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>105</v>
       </c>
@@ -993,16 +1090,19 @@
       <c r="I17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1022,13 +1122,16 @@
       <c r="I18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>107</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1051,13 +1154,16 @@
       <c r="I19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1080,8 +1186,11 @@
       <c r="I20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>109</v>
       </c>
@@ -1109,16 +1218,19 @@
       <c r="I21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>110</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1137,6 +1249,9 @@
       </c>
       <c r="I22">
         <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -199,12 +199,36 @@
     <t>一剑封喉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰弹术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在那个时代人人都会的火球术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在那个时代人人都会的冰弹术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在那个时代人人都会的闪电术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -221,6 +245,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,13 +276,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -532,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1252,6 +1285,102 @@
       </c>
       <c r="J22" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>201</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>202</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>203</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -222,6 +222,10 @@
   <si>
     <t>在那个时代人人都会的闪电术</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -276,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -565,25 +572,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="70.875" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
-    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="70.875" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -591,31 +599,34 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -625,7 +636,7 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2">
@@ -643,11 +654,14 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -655,9 +669,9 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3">
@@ -673,13 +687,16 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -687,14 +704,14 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>1.2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
         <v>1</v>
       </c>
@@ -707,11 +724,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -719,9 +739,9 @@
         <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5">
@@ -737,13 +757,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -751,14 +774,14 @@
         <v>16</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>1.5</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
         <v>1</v>
       </c>
@@ -771,11 +794,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -783,9 +809,9 @@
         <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7">
@@ -801,13 +827,16 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -815,14 +844,14 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="F8">
         <v>1</v>
       </c>
@@ -835,11 +864,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -847,9 +879,9 @@
         <v>20</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9">
@@ -865,13 +897,16 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -879,31 +914,34 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>1.8</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.6</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.2</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -911,9 +949,9 @@
         <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11">
@@ -929,13 +967,16 @@
         <v>1</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -943,9 +984,9 @@
         <v>19</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12">
@@ -961,13 +1002,16 @@
         <v>1</v>
       </c>
       <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>101</v>
       </c>
@@ -975,9 +1019,9 @@
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13">
@@ -993,13 +1037,16 @@
         <v>1</v>
       </c>
       <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>102</v>
       </c>
@@ -1007,9 +1054,9 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14">
@@ -1025,13 +1072,16 @@
         <v>1</v>
       </c>
       <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>2</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>103</v>
       </c>
@@ -1039,9 +1089,9 @@
         <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15">
@@ -1057,13 +1107,16 @@
         <v>1</v>
       </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>104</v>
       </c>
@@ -1071,9 +1124,9 @@
         <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16">
@@ -1089,13 +1142,16 @@
         <v>1</v>
       </c>
       <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>2</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>105</v>
       </c>
@@ -1103,11 +1159,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
@@ -1121,13 +1177,16 @@
         <v>1</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>3</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>106</v>
       </c>
@@ -1135,9 +1194,9 @@
         <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18">
@@ -1153,13 +1212,16 @@
         <v>1</v>
       </c>
       <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>3</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>107</v>
       </c>
@@ -1167,11 +1229,11 @@
         <v>27</v>
       </c>
       <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
@@ -1185,13 +1247,16 @@
         <v>1</v>
       </c>
       <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>3</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>108</v>
       </c>
@@ -1199,11 +1264,11 @@
         <v>26</v>
       </c>
       <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20">
         <v>1</v>
       </c>
@@ -1217,13 +1282,16 @@
         <v>1</v>
       </c>
       <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>3</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>109</v>
       </c>
@@ -1231,11 +1299,11 @@
         <v>24</v>
       </c>
       <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
         <v>1</v>
       </c>
@@ -1249,13 +1317,16 @@
         <v>1</v>
       </c>
       <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>3</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>110</v>
       </c>
@@ -1263,9 +1334,9 @@
         <v>39</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22">
@@ -1281,23 +1352,26 @@
         <v>1</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>3</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>201</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23">
@@ -1313,23 +1387,26 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>202</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24">
@@ -1345,23 +1422,26 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>203</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25">
@@ -1377,9 +1457,12 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChineseRoguelikeGame\Documents\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChineseRoguelikeGame\documents\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -684,10 +684,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -824,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J8">
         <v>1</v>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChineseRoguelikeGame\documents\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChineseRoguelikeGame\Documents\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28110" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28110" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CDTurn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单手戳刺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精确打击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>横砍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,14 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>千军破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奋力一跃，使用全力从高处制敌，造成巨大伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单手戳刺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,14 +169,6 @@
   </si>
   <si>
     <t>流星追月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开天辟地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一剑封喉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -212,19 +184,283 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在那个时代人人都会的火球术</t>
+    <t>buffID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并没有特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视对方格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视对方回避必定命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人即死,BOSS无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在发动前可触发防御反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋力一跃，使用全力从高处制敌，无视对方防守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准后的一击，必定命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一剑封喉，小概率秒杀对方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千军破，攻击敌方全体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百将鸣，攻击敌方全体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开天辟地，攻击敌方全体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在那个时代人人都会的冰弹术，令敌人减速</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在那个时代人人都会的冰弹术</t>
+    <t>在那个时代人人都会的火球术，令敌人烧伤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在那个时代人人都会的闪电术</t>
+    <t>在那个时代人人都会的闪电术，吸取敌人生命？</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SkillType</t>
+    <t>烧伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastTurns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3回合内行动前受到一定伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1回合内行动速度降低50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Magical</t>
+  </si>
+  <si>
+    <t>SingleEnemy</t>
+  </si>
+  <si>
+    <t>AllEnemies</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>percentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addOps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeOps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ehit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eady</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Always</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>one</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropMulti:speed,-0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropMulti:speed,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nstantDie</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbsorbDamage:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸取伤害的50%回复到自己生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageSelf:0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerOps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ddAtk:2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreDefence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MustHit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,14 +516,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -574,21 +809,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="70.875" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="17" max="17" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="49.25" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
+    <col min="12" max="12" width="70.875" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -598,32 +834,32 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -633,14 +869,14 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -657,8 +893,8 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>30</v>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -666,16 +902,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -684,16 +920,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -701,20 +937,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4">
         <v>1.2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
         <v>1</v>
       </c>
@@ -722,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>0.5</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -736,16 +972,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -760,10 +996,10 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -771,20 +1007,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6">
         <v>1.5</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
         <v>1</v>
       </c>
@@ -797,8 +1033,8 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>38</v>
+      <c r="K6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -806,16 +1042,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -824,16 +1060,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1.2</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
+        <v>1.2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -841,34 +1077,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0.9</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>0.9</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -876,16 +1112,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -900,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -911,34 +1147,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10">
         <v>1.8</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.6</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.2</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>23</v>
+      <c r="K10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -946,16 +1182,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -970,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -981,16 +1217,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1005,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -1016,16 +1252,16 @@
         <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1034,16 +1270,16 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -1051,16 +1287,16 @@
         <v>102</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1075,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -1086,16 +1322,16 @@
         <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1110,10 +1346,10 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -1121,16 +1357,16 @@
         <v>104</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1145,10 +1381,10 @@
         <v>1</v>
       </c>
       <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <v>2</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1156,16 +1392,16 @@
         <v>105</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1180,10 +1416,10 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1191,16 +1427,16 @@
         <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1215,10 +1451,10 @@
         <v>1</v>
       </c>
       <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
         <v>3</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1226,16 +1462,16 @@
         <v>107</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1250,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1261,16 +1497,16 @@
         <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1285,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1296,16 +1532,16 @@
         <v>109</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1320,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1331,16 +1567,16 @@
         <v>110</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1355,27 +1591,27 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>201</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1390,27 +1626,27 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>202</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1425,27 +1661,27 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>203</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1460,10 +1696,10 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1476,15 +1712,316 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="9" max="9" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -327,14 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addOps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>removeOps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PropMulti:speed,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>I</t>
     </r>
@@ -437,10 +425,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>triggerOps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>A</t>
     </r>
@@ -462,6 +446,13 @@
   <si>
     <t>MustHit</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FollowCommand</t>
   </si>
 </sst>
 </file>
@@ -810,7 +801,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -838,10 +829,10 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1712,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:I11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1723,12 +1714,11 @@
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="22.25" customWidth="1"/>
-    <col min="9" max="9" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="8" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1745,19 +1735,16 @@
         <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1773,20 +1760,17 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>84</v>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1802,20 +1786,17 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>93</v>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1831,20 +1812,17 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>94</v>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1860,20 +1838,17 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>87</v>
+      <c r="F5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1881,7 +1856,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1">
         <v>100</v>
@@ -1889,20 +1864,17 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>88</v>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1919,19 +1891,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1947,20 +1916,17 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>95</v>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1977,19 +1943,16 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2006,16 +1969,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,19 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28110" windowHeight="12630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28110" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
     <sheet name="Buff" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="118">
   <si>
     <t>name</t>
   </si>
@@ -458,6 +457,46 @@
   </si>
   <si>
     <t>效果ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILLTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TARGETTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFTRIGGER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -960,46 +999,48 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>0</v>
+      <c r="A3" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1008,44 +1049,48 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>1101</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>5</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1055,13 +1100,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>84</v>
@@ -1070,25 +1115,25 @@
         <v>16</v>
       </c>
       <c r="F5" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="J5" s="4">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="K5" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1101,13 +1146,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>84</v>
@@ -1116,32 +1161,28 @@
         <v>16</v>
       </c>
       <c r="F6" s="4">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="4">
         <v>2</v>
       </c>
-      <c r="I6" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
-        <v>100</v>
-      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1151,13 +1192,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>1201</v>
+        <v>1103</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>84</v>
@@ -1166,28 +1207,32 @@
         <v>16</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4">
         <v>1.2</v>
       </c>
       <c r="J7" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L7" s="4">
-        <v>3</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>100</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1197,13 +1242,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>84</v>
@@ -1212,7 +1257,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -1221,16 +1266,16 @@
         <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="J8" s="4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1243,13 +1288,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>84</v>
@@ -1258,32 +1303,28 @@
         <v>16</v>
       </c>
       <c r="F9" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J9" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K9" s="4">
         <v>1.5</v>
       </c>
       <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
         <v>2</v>
       </c>
-      <c r="N9" s="4">
-        <v>100</v>
-      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1293,13 +1334,13 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>1301</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>54</v>
+        <v>1203</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>84</v>
@@ -1308,28 +1349,32 @@
         <v>16</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L10" s="4">
-        <v>3</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>100</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1339,13 +1384,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>1302</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>1301</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>84</v>
@@ -1354,25 +1399,25 @@
         <v>16</v>
       </c>
       <c r="F11" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J11" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K11" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1385,13 +1430,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>1303</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>76</v>
+        <v>1302</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>84</v>
@@ -1400,32 +1445,28 @@
         <v>16</v>
       </c>
       <c r="F12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="4">
         <v>0.7</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J12" s="4">
         <v>0.7</v>
       </c>
       <c r="K12" s="4">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <v>3</v>
-      </c>
-      <c r="N12" s="4">
-        <v>100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1435,13 +1476,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>1401</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>1303</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>84</v>
@@ -1450,28 +1491,32 @@
         <v>16</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K13" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
         <v>3</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <v>100</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1481,13 +1526,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>84</v>
@@ -1496,25 +1541,25 @@
         <v>16</v>
       </c>
       <c r="F14" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J14" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
       </c>
       <c r="L14" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1527,13 +1572,13 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>84</v>
@@ -1542,7 +1587,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G15" s="4">
         <v>0.8</v>
@@ -1551,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="J15" s="4">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="K15" s="4">
         <v>1</v>
@@ -1562,12 +1607,8 @@
       <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="M15" s="4">
-        <v>4</v>
-      </c>
-      <c r="N15" s="4">
-        <v>100</v>
-      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1577,12 +1618,14 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>1501</v>
+        <v>1403</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>84</v>
       </c>
@@ -1590,28 +1633,32 @@
         <v>16</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
       </c>
       <c r="I16" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J16" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
       </c>
       <c r="L16" s="4">
-        <v>2</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>4</v>
+      </c>
+      <c r="N16" s="4">
+        <v>100</v>
+      </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1621,10 +1668,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
@@ -1652,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1665,14 +1712,12 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>90</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
         <v>84</v>
       </c>
@@ -1700,12 +1745,8 @@
       <c r="L18" s="4">
         <v>1</v>
       </c>
-      <c r="M18" s="4">
-        <v>5</v>
-      </c>
-      <c r="N18" s="4">
-        <v>100</v>
-      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1715,13 +1756,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
-        <v>1601</v>
+        <v>1503</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>84</v>
@@ -1750,8 +1791,12 @@
       <c r="L19" s="4">
         <v>1</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="M19" s="4">
+        <v>5</v>
+      </c>
+      <c r="N19" s="4">
+        <v>100</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1761,34 +1806,34 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F20" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J20" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -1807,13 +1852,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>84</v>
@@ -1822,32 +1867,28 @@
         <v>80</v>
       </c>
       <c r="F21" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G21" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J21" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4">
         <v>1</v>
       </c>
-      <c r="M21" s="4">
-        <v>6</v>
-      </c>
-      <c r="N21" s="4">
-        <v>100</v>
-      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1857,19 +1898,19 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>1701</v>
+        <v>1603</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1881,19 +1922,23 @@
         <v>1</v>
       </c>
       <c r="I22" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="4">
-        <v>4</v>
-      </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <v>6</v>
+      </c>
+      <c r="N22" s="4">
+        <v>100</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -1903,13 +1948,13 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>83</v>
@@ -1921,22 +1966,22 @@
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J23" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" s="4">
         <v>1</v>
       </c>
       <c r="L23" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1949,40 +1994,40 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="4">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H24" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J24" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
       </c>
       <c r="L24" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -1995,25 +2040,25 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>1801</v>
+        <v>1703</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
@@ -2022,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -2041,13 +2086,13 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>83</v>
@@ -2056,7 +2101,7 @@
         <v>16</v>
       </c>
       <c r="F26" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -2065,23 +2110,19 @@
         <v>1</v>
       </c>
       <c r="I26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
       </c>
       <c r="L26" s="4">
-        <v>1</v>
-      </c>
-      <c r="M26" s="4">
         <v>3</v>
       </c>
-      <c r="N26" s="4">
-        <v>100</v>
-      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -2091,13 +2132,13 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -2106,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -2115,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="I27" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K27" s="4">
         <v>1</v>
@@ -2126,8 +2167,12 @@
       <c r="L27" s="4">
         <v>1</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="M27" s="4">
+        <v>3</v>
+      </c>
+      <c r="N27" s="4">
+        <v>100</v>
+      </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -2136,18 +2181,42 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="A28" s="4">
+        <v>1803</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -2181,8 +2250,8 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="4"/>
@@ -2245,6 +2314,28 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
     </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
@@ -2255,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="A1:G3"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2266,7 +2357,7 @@
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="8" width="17.75" customWidth="1"/>
   </cols>
@@ -2318,60 +2409,60 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="A3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2382,16 +2473,19 @@
       <c r="F5" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2405,16 +2499,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -2425,16 +2519,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -2445,13 +2539,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2460,6 +2554,26 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>104</v>
       </c>
     </row>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -29,26 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>preSPDMul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postSPDMul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATKMul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCMul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRTMul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,30 +37,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并没有特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视对方回避必定命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>buffID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并没有特殊效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无视对方回避必定命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lastTurns</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skillID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +111,6 @@
   </si>
   <si>
     <t>攻击倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTMul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -498,6 +466,32 @@
   <si>
     <t>BUFFTRIGGER</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATKMultiplier</t>
+  </si>
+  <si>
+    <t>ACCMultiplier</t>
+  </si>
+  <si>
+    <t>CRTMultiplier</t>
+  </si>
+  <si>
+    <t>preSPDMultiplier</t>
+  </si>
+  <si>
+    <t>postSPDMultiplier</t>
+  </si>
+  <si>
+    <t>interruptMultiplier</t>
   </si>
 </sst>
 </file>
@@ -876,7 +870,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -885,7 +879,8 @@
     <col min="3" max="3" width="49.25" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="8" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="8" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="10" max="10" width="12.25" customWidth="1"/>
     <col min="11" max="11" width="9.125" customWidth="1"/>
@@ -900,46 +895,46 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -950,46 +945,46 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1000,46 +995,46 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1056,13 +1051,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1103,16 +1098,16 @@
         <v>1101</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1149,16 +1144,16 @@
         <v>1102</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4">
         <v>1.5</v>
@@ -1195,16 +1190,16 @@
         <v>1103</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4">
         <v>6</v>
@@ -1245,16 +1240,16 @@
         <v>1201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1291,16 +1286,16 @@
         <v>1202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4">
         <v>1.5</v>
@@ -1337,16 +1332,16 @@
         <v>1203</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -1387,16 +1382,16 @@
         <v>1301</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1433,16 +1428,16 @@
         <v>1302</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4">
         <v>1.5</v>
@@ -1479,16 +1474,16 @@
         <v>1303</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4">
         <v>0.7</v>
@@ -1529,16 +1524,16 @@
         <v>1401</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1575,16 +1570,16 @@
         <v>1402</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F15" s="4">
         <v>1.5</v>
@@ -1621,16 +1616,16 @@
         <v>1403</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -1671,14 +1666,14 @@
         <v>1501</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -1715,14 +1710,14 @@
         <v>1502</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1759,16 +1754,16 @@
         <v>1503</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1809,16 +1804,16 @@
         <v>1601</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -1855,16 +1850,16 @@
         <v>1602</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F21" s="4">
         <v>1.5</v>
@@ -1901,16 +1896,16 @@
         <v>1603</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1951,16 +1946,16 @@
         <v>1701</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1997,16 +1992,16 @@
         <v>1702</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -2043,16 +2038,16 @@
         <v>1703</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -2089,16 +2084,16 @@
         <v>1801</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -2135,16 +2130,16 @@
         <v>1802</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F27" s="4">
         <v>0.8</v>
@@ -2185,16 +2180,16 @@
         <v>1803</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -2349,7 +2344,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2364,71 +2359,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2436,22 +2431,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2459,22 +2454,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2482,19 +2477,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2502,19 +2497,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -2522,19 +2517,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -2542,19 +2537,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -2562,19 +2557,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChineseRoguelikeGame\Documents\ExcelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28110" windowHeight="12630"/>
+    <workbookView windowWidth="22935" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -20,518 +15,543 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+  <si>
+    <t>技能ID</t>
+  </si>
+  <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
+    <t>技能类型</t>
+  </si>
+  <si>
+    <t>目标类型</t>
+  </si>
+  <si>
+    <t>攻击倍率</t>
+  </si>
+  <si>
+    <t>命中倍率</t>
+  </si>
+  <si>
+    <t>暴击倍率</t>
+  </si>
+  <si>
+    <t>前摇倍率</t>
+  </si>
+  <si>
+    <t>后摇倍率</t>
+  </si>
+  <si>
+    <t>打断倍率</t>
+  </si>
+  <si>
+    <t>最大连击</t>
+  </si>
+  <si>
+    <t>特效ID</t>
+  </si>
+  <si>
+    <t>特效出现率</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>skillType</t>
+  </si>
+  <si>
+    <t>targetType</t>
+  </si>
+  <si>
+    <t>ATKMultiplier</t>
+  </si>
+  <si>
+    <t>ACCMultiplier</t>
+  </si>
+  <si>
+    <t>CRTMultiplier</t>
+  </si>
+  <si>
+    <t>preSPDMultiplier</t>
+  </si>
+  <si>
+    <t>postSPDMultiplier</t>
+  </si>
+  <si>
+    <t>interruptMultiplier</t>
+  </si>
+  <si>
+    <t>maxCombo</t>
+  </si>
+  <si>
+    <t>buffID</t>
+  </si>
+  <si>
+    <t>buffPercentage</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>SKILLTYPE</t>
+  </si>
+  <si>
+    <t>TARGETTYPE</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无招即是有招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>短剑轻攻击</t>
+  </si>
+  <si>
+    <t>几乎立即就可以出招的短剑轻击。</t>
+  </si>
+  <si>
+    <t>SingleEnemy</t>
+  </si>
+  <si>
+    <t>短剑重攻击</t>
+  </si>
+  <si>
+    <t>集中力量的突刺攻击。</t>
+  </si>
+  <si>
+    <t>短剑特殊技</t>
+  </si>
+  <si>
+    <t>背刺。</t>
+  </si>
+  <si>
+    <t>唐刀轻攻击</t>
+  </si>
+  <si>
+    <t>横扫。</t>
+  </si>
+  <si>
+    <t>唐刀重攻击</t>
+  </si>
+  <si>
+    <t>纵劈。</t>
+  </si>
+  <si>
+    <t>唐刀特殊技</t>
+  </si>
+  <si>
+    <t>拔刀术。</t>
+  </si>
+  <si>
+    <t>枪类轻攻击</t>
+  </si>
+  <si>
+    <t>枪类重攻击</t>
+  </si>
+  <si>
+    <t>枪类特殊技</t>
+  </si>
+  <si>
+    <t>三连击，不会暴击。</t>
+  </si>
+  <si>
+    <t>长剑轻攻击</t>
+  </si>
+  <si>
+    <t>朴实无华的轻砍。</t>
+  </si>
+  <si>
+    <t>长剑重攻击</t>
+  </si>
+  <si>
+    <t>重剑无锋的重砍。</t>
+  </si>
+  <si>
+    <t>长剑特殊技</t>
+  </si>
+  <si>
+    <t>削弱敌人的防御力。</t>
+  </si>
+  <si>
+    <t>大斧轻攻击</t>
+  </si>
+  <si>
+    <t>大斧重攻击</t>
+  </si>
+  <si>
+    <t>大斧特殊技</t>
+  </si>
+  <si>
+    <t>自身狂暴化，可能是一把双刃剑。</t>
+  </si>
+  <si>
+    <t>巨锤轻攻击</t>
+  </si>
+  <si>
+    <t>抡人。</t>
+  </si>
+  <si>
+    <t>巨锤重攻击</t>
+  </si>
+  <si>
+    <t>跳起砸地。全体攻击。</t>
+  </si>
+  <si>
+    <t>AllEnemies</t>
+  </si>
+  <si>
+    <t>巨锤特殊技</t>
+  </si>
+  <si>
+    <t>迷之旋转。全体攻击。必定击倒。</t>
+  </si>
+  <si>
+    <t>短弓轻攻击</t>
+  </si>
+  <si>
+    <t>快速射击。</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>短弓重攻击</t>
+  </si>
+  <si>
+    <t>瞄准后的一击，命中率和暴击率高。</t>
+  </si>
+  <si>
+    <t>短弓特殊技</t>
+  </si>
+  <si>
+    <t>同时射击全体，但准确度不高。</t>
+  </si>
+  <si>
+    <t>弩类轻攻击</t>
+  </si>
+  <si>
+    <t>攻击后换弹药。</t>
+  </si>
+  <si>
+    <t>弩类重攻击</t>
+  </si>
+  <si>
+    <t>将三发弹药一次击出。换弹时间长。</t>
+  </si>
+  <si>
+    <t>弩类特殊技</t>
+  </si>
+  <si>
+    <t>华丽的全体射击。</t>
+  </si>
+  <si>
+    <t>效果ID</t>
+  </si>
+  <si>
+    <t>效果名称</t>
+  </si>
+  <si>
+    <t>效果描述</t>
+  </si>
+  <si>
+    <t>持续回合</t>
+  </si>
+  <si>
+    <t>触发时机</t>
+  </si>
+  <si>
+    <t>效果函数</t>
+  </si>
+  <si>
+    <t>lastTurns</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>buffEffect</t>
+  </si>
+  <si>
+    <t>BUFFTRIGGER</t>
   </si>
   <si>
     <t>并没有特殊效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>不死</t>
+  </si>
+  <si>
+    <t>无论如何也不会死亡</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Revive</t>
   </si>
   <si>
     <t>必中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无视对方回避必定命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastTurns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleEnemy</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Always</t>
+  </si>
+  <si>
+    <t>Hit</t>
   </si>
   <si>
     <t>MustHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打断倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前摇倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后摇倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxCombo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大连击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短剑特殊技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背刺。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>几乎立即就可以出招的短剑轻击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffPercentage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效出现率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中力量的突刺攻击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐刀特殊技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拔刀术。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横扫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无法格挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无视对方格挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纵劈。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪类重攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪类轻攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐刀轻攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐刀重攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短剑重攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短剑轻攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪类特殊技</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长剑轻攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长剑重攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长剑特殊技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大斧轻攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大斧重攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大斧特殊技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨锤轻攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨锤重攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨锤特殊技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短弓轻攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短弓重攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短弓特殊技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弩类轻攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弩类重攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弩类特殊技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪类重攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>三连击，不会暴击。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>三连击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朴实无华的轻砍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重剑无锋的重砍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllEnemies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抡人。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳起砸地。全体攻击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三次伤害</t>
   </si>
   <si>
     <t>削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>敌减伤效果变为8</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0%</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>削弱敌人的防御力。</t>
   </si>
   <si>
     <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>连续攻击同一敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身狂暴化，可能是一把双刃剑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷之旋转。全体攻击。必定击倒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三次伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>击倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>将敌人击倒，令敌人跳过下回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞄准后的一击，命中率和暴击率高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时射击全体，但准确度不高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击后换弹药。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速射击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将三发弹药一次击出。换弹时间长。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华丽的全体射击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发时机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILLTYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TARGETTYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFTRIGGER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATKMultiplier</t>
-  </si>
-  <si>
-    <t>ACCMultiplier</t>
-  </si>
-  <si>
-    <t>CRTMultiplier</t>
-  </si>
-  <si>
-    <t>preSPDMultiplier</t>
-  </si>
-  <si>
-    <t>postSPDMultiplier</t>
-  </si>
-  <si>
-    <t>interruptMultiplier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,8 +564,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -553,9 +759,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -563,44 +1011,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -647,7 +1133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -682,7 +1168,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,23 +1343,19 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="49.25" customWidth="1"/>
@@ -893,48 +1375,48 @@
     <col min="27" max="27" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>37</v>
+    <row r="1" spans="1:20">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -943,48 +1425,48 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>36</v>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -993,48 +1475,48 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>100</v>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1043,47 +1525,47 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:20">
+      <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>0</v>
       </c>
       <c r="O4" s="4"/>
@@ -1093,21 +1575,21 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="A5" s="4">
         <v>1101</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1139,21 +1621,21 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20">
       <c r="A6" s="4">
         <v>1102</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F6" s="4">
         <v>1.5</v>
@@ -1185,21 +1667,21 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>1103</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4">
         <v>6</v>
@@ -1223,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="4">
         <v>100</v>
@@ -1235,21 +1717,21 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>1201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1281,21 +1763,21 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>1202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4">
         <v>1.5</v>
@@ -1327,21 +1809,21 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>1203</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -1365,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="4">
         <v>100</v>
@@ -1377,21 +1859,21 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>1301</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>46</v>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1423,21 +1905,21 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>1302</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4">
         <v>1.5</v>
@@ -1469,21 +1951,21 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20">
       <c r="A13" s="4">
         <v>1303</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>68</v>
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F13" s="4">
         <v>0.7</v>
@@ -1507,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="4">
         <v>100</v>
@@ -1519,21 +2001,21 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>1401</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1565,21 +2047,21 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20">
       <c r="A15" s="4">
         <v>1402</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F15" s="4">
         <v>1.5</v>
@@ -1611,21 +2093,21 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>1403</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -1649,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" s="4">
         <v>100</v>
@@ -1661,19 +2143,19 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20">
       <c r="A17" s="4">
         <v>1501</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -1705,19 +2187,19 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20">
       <c r="A18" s="4">
         <v>1502</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1749,21 +2231,21 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20">
       <c r="A19" s="4">
         <v>1503</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1787,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N19" s="4">
         <v>100</v>
@@ -1799,21 +2281,21 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20">
       <c r="A20" s="4">
         <v>1601</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -1845,21 +2327,21 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20">
       <c r="A21" s="4">
         <v>1602</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F21" s="4">
         <v>1.5</v>
@@ -1891,21 +2373,21 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20">
       <c r="A22" s="4">
         <v>1603</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1929,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N22" s="4">
         <v>100</v>
@@ -1941,21 +2423,21 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20">
       <c r="A23" s="4">
         <v>1701</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1987,21 +2469,21 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20">
       <c r="A24" s="4">
         <v>1702</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -2033,21 +2515,21 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20">
       <c r="A25" s="4">
         <v>1703</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -2079,21 +2561,21 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20">
       <c r="A26" s="4">
         <v>1801</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -2125,21 +2607,21 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20">
       <c r="A27" s="4">
         <v>1802</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F27" s="4">
         <v>0.8</v>
@@ -2163,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" s="4">
         <v>100</v>
@@ -2175,21 +2657,21 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20">
       <c r="A28" s="4">
         <v>1803</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -2221,7 +2703,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2243,7 +2725,7 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2265,10 +2747,10 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20">
       <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
@@ -2287,10 +2769,10 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20">
       <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
@@ -2309,10 +2791,10 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20">
       <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="4"/>
@@ -2332,22 +2814,22 @@
       <c r="T33" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="30.125" customWidth="1"/>
@@ -2357,225 +2839,247 @@
     <col min="7" max="8" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>84</v>
+      <c r="B7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
+      <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>81</v>
+      <c r="B9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>86</v>
+      <c r="B10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>96</v>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChineseRoguelikeGame\Documents\ExcelData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="138">
   <si>
     <t>技能ID</t>
   </si>
@@ -168,12 +173,6 @@
   </si>
   <si>
     <t>枪类轻攻击</t>
-  </si>
-  <si>
-    <t>枪类重攻击</t>
-  </si>
-  <si>
-    <t>枪类特殊技</t>
   </si>
   <si>
     <t>三连击，不会暴击。</t>
@@ -376,18 +375,111 @@
   <si>
     <t>将敌人击倒，令敌人跳过下回合</t>
   </si>
+  <si>
+    <t>咩爪轻攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咩爪重攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪类特殊技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咩爪特殊技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咩咩的愤怒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咩咩的愤怒（物理）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咩咩的愤怒（法术）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气爆发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵属性大招</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>万魔噬魂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴属性大招</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夸父之怒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳属性大招</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴气弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳气弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋利的大斧向敌人的头上砍去。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大斧蓄力攻击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪类重攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻型戳刺。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型戳刺。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵属性基础攻击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴属性基础攻击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳属性基础攻击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -400,158 +492,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,194 +524,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -759,255 +533,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,64 +561,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1347,15 +846,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:T33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="D36" sqref="D36:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="49.25" customWidth="1"/>
@@ -1375,7 +873,7 @@
     <col min="27" max="27" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +923,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1475,7 +973,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -1525,7 +1023,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1575,7 +1073,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>1101</v>
       </c>
@@ -1621,7 +1119,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>1102</v>
       </c>
@@ -1667,7 +1165,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>1103</v>
       </c>
@@ -1717,7 +1215,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>1201</v>
       </c>
@@ -1763,7 +1261,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>1202</v>
       </c>
@@ -1809,7 +1307,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>1203</v>
       </c>
@@ -1859,15 +1357,15 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>1301</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>50</v>
+      <c r="C11" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>35</v>
@@ -1905,15 +1403,15 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>1302</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>51</v>
+      <c r="B12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>35</v>
@@ -1951,15 +1449,15 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>1303</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>52</v>
+      <c r="B13" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>35</v>
@@ -2001,15 +1499,15 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>1401</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>35</v>
@@ -2047,15 +1545,15 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>1402</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>35</v>
@@ -2093,15 +1591,15 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>1403</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>35</v>
@@ -2143,14 +1641,16 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1501</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>35</v>
       </c>
@@ -2187,14 +1687,16 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>1502</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>35</v>
       </c>
@@ -2231,15 +1733,15 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>1503</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>35</v>
@@ -2281,15 +1783,15 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>1601</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>35</v>
@@ -2327,21 +1829,21 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>1602</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="4">
         <v>1.5</v>
@@ -2373,21 +1875,21 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>1603</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -2423,18 +1925,18 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>1701</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>39</v>
@@ -2469,18 +1971,18 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>1702</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>39</v>
@@ -2515,21 +2017,21 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>1703</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -2561,18 +2063,18 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>1801</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>39</v>
@@ -2607,18 +2109,18 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>1802</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>39</v>
@@ -2657,18 +2159,18 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>1803</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>39</v>
@@ -2703,19 +2205,43 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -2725,19 +2251,43 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2747,19 +2297,43 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="4"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2769,19 +2343,43 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="4"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
+        <v>3001</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4">
+        <v>3</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -2791,19 +2389,43 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="4"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
+        <v>3002</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4">
+        <v>3</v>
+      </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2813,23 +2435,281 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
     </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
+        <v>3003</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2</v>
+      </c>
+      <c r="J34" s="4">
+        <v>2</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4">
+        <v>3</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
+        <v>3004</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
+        <v>3</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
+        <v>4001</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
+        <v>4002</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
+        <v>4003</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
+        <v>4004</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="30.125" customWidth="1"/>
@@ -2839,30 +2719,30 @@
     <col min="7" max="8" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2873,19 +2753,19 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2902,13 +2782,13 @@
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -2916,7 +2796,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -2925,21 +2805,21 @@
         <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -2948,21 +2828,21 @@
         <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2971,21 +2851,21 @@
         <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2994,18 +2874,18 @@
         <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3014,18 +2894,18 @@
         <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -3034,18 +2914,18 @@
         <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3054,18 +2934,18 @@
         <v>36</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3074,12 +2954,13 @@
         <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -472,7 +472,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Magic</t>
+    <t>Neutral</t>
   </si>
 </sst>
 </file>
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="168">
   <si>
     <t>技能ID</t>
   </si>
@@ -133,139 +133,16 @@
     <t>Self</t>
   </si>
   <si>
-    <t>短剑轻攻击</t>
-  </si>
-  <si>
-    <t>几乎立即就可以出招的短剑轻击。</t>
-  </si>
-  <si>
     <t>SingleEnemy</t>
   </si>
   <si>
-    <t>短剑重攻击</t>
-  </si>
-  <si>
     <t>集中力量的突刺攻击。</t>
   </si>
   <si>
-    <t>短剑特殊技</t>
-  </si>
-  <si>
-    <t>背刺。</t>
-  </si>
-  <si>
-    <t>唐刀轻攻击</t>
-  </si>
-  <si>
-    <t>横扫。</t>
-  </si>
-  <si>
-    <t>唐刀重攻击</t>
-  </si>
-  <si>
-    <t>纵劈。</t>
-  </si>
-  <si>
-    <t>唐刀特殊技</t>
-  </si>
-  <si>
-    <t>拔刀术。</t>
-  </si>
-  <si>
-    <t>枪类轻攻击</t>
-  </si>
-  <si>
-    <t>三连击，不会暴击。</t>
-  </si>
-  <si>
-    <t>长剑轻攻击</t>
-  </si>
-  <si>
-    <t>朴实无华的轻砍。</t>
-  </si>
-  <si>
-    <t>长剑重攻击</t>
-  </si>
-  <si>
-    <t>重剑无锋的重砍。</t>
-  </si>
-  <si>
-    <t>长剑特殊技</t>
-  </si>
-  <si>
-    <t>削弱敌人的防御力。</t>
-  </si>
-  <si>
-    <t>大斧轻攻击</t>
-  </si>
-  <si>
-    <t>大斧重攻击</t>
-  </si>
-  <si>
-    <t>大斧特殊技</t>
-  </si>
-  <si>
-    <t>自身狂暴化，可能是一把双刃剑。</t>
-  </si>
-  <si>
-    <t>巨锤轻攻击</t>
-  </si>
-  <si>
-    <t>抡人。</t>
-  </si>
-  <si>
-    <t>巨锤重攻击</t>
-  </si>
-  <si>
-    <t>跳起砸地。全体攻击。</t>
-  </si>
-  <si>
     <t>AllEnemies</t>
   </si>
   <si>
-    <t>巨锤特殊技</t>
-  </si>
-  <si>
-    <t>迷之旋转。全体攻击。必定击倒。</t>
-  </si>
-  <si>
-    <t>短弓轻攻击</t>
-  </si>
-  <si>
-    <t>快速射击。</t>
-  </si>
-  <si>
     <t>Range</t>
-  </si>
-  <si>
-    <t>短弓重攻击</t>
-  </si>
-  <si>
-    <t>瞄准后的一击，命中率和暴击率高。</t>
-  </si>
-  <si>
-    <t>短弓特殊技</t>
-  </si>
-  <si>
-    <t>同时射击全体，但准确度不高。</t>
-  </si>
-  <si>
-    <t>弩类轻攻击</t>
-  </si>
-  <si>
-    <t>攻击后换弹药。</t>
-  </si>
-  <si>
-    <t>弩类重攻击</t>
-  </si>
-  <si>
-    <t>将三发弹药一次击出。换弹时间长。</t>
-  </si>
-  <si>
-    <t>弩类特殊技</t>
-  </si>
-  <si>
-    <t>华丽的全体射击。</t>
   </si>
   <si>
     <t>效果ID</t>
@@ -384,10 +261,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>枪类特殊技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>咩爪特殊技</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -440,26 +313,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>锋利的大斧向敌人的头上砍去。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大斧蓄力攻击。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪类重攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻型戳刺。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重型戳刺。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>灵属性基础攻击。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -473,13 +326,332 @@
   </si>
   <si>
     <t>Neutral</t>
+  </si>
+  <si>
+    <t>短剑系轻攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短剑系重攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背刺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭投掷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度极快，几乎立即可以出招。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼肠剑的绝技。隐藏自身的杀气，悄悄绕到敌人背后进行攻击。如果不被敌人察觉，则可造成巨大伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜突刺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附带冰霜之力的三连击，有机会将敌人冰冻。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限突刺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀系轻攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀系重攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵劈。各方面都中规中矩，稳扎稳打。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫，虽然攻击力更有优势，但是速度和命中略逊一筹。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔刀术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞爪的绝技。将飞爪向敌人投掷出去。虽然能够造成很大杀伤，缺点却是显而易见的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜刺剑的绝技。只要不被敌人攻击到，就可以无限连击的突刺攻击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐刀的绝技。将刀刃拔出的一闪攻击，虽然收刀是一个危险的举动，但拔刀的威力确实诱人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫·改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然同样是横扫，长船的刀身使得它可以同时攻击战场上的全部敌人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>居合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备前长船的绝技。与拔刀术类似，从收刀开始出招，力图瞬间将敌人斩杀的强力技能。不同的是出招较慢，但却非常容易暴击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>献身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切开自己的身体，进入流血状态。这种行为恐怕不仅仅是为了给敌人震慑，而是有着更大的阴谋。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤影的绝技。为了弥补渴求血液的自身，让敌人血债血偿。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长剑系轻攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长剑系重攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习武之人最常练习的攻击动作。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>势大力沉的一劈，简单却好用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石破天惊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次元斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不直接物理接触，而是通过斩出的剑气伤害敌人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ange</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制裁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧系轻攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧系重攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向斩击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳劈，虽然威力很大，但命中率较差。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厄运一击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂一击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开天辟地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弩系轻攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弩系重攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的箭矢射击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力射击，瞄准时间长，但必中。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刃二段打</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用弓的刃部发起攻击，也许会有奇效。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连火焰矢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟雾弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖传石剑的绝技。麓元自己研习的招式，威力虽大却极耗体力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真空之刃的绝技。以肉眼看不见的速度斩向全部敌人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湛卢的绝技。制裁对手，但手下留情。效果与双方的实力差距有关。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶之花的绝技。邪恶的一击，虽然攻击力很高甚至能秒杀敌人，但也存在着反噬自己的可能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂人之斧的绝技。无视敌我攻击战场上全部单位的一击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘古巨斧的绝技。攻击全体，无视对方减伤与防御状态，并且霸体。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续远程射击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖弩的绝技。虽然攻击很弱，但可以降低对手的命中率。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击弩。将当前弹药库存全部射出依次攻击全部敌人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰天巨锤轻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰天巨锤重击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刃弓的绝技。利用弓箭的火之力点燃箭矢，并且三连发。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣盾之枪轻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣盾之枪重击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>威震八方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰天巨锤的绝技。击倒全体。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗节奏控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没钱玩个毛线！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要加入一条临时需求！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有条不紊地控制战斗节奏吧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪的刺击，附带的雷属性效果有几率让敌人进入麻痹状态。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>架起盾，能够抵挡近战攻击并使敌人进入麻痹状态。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对麻痹状态的敌人使用，能够极大地击退敌人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -510,6 +682,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -539,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,20 +744,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -847,16 +1039,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
@@ -1036,8 +1228,8 @@
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
+      <c r="E4" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1077,17 +1269,17 @@
       <c r="A5" s="4">
         <v>1101</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
+      <c r="B5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1123,38 +1315,38 @@
       <c r="A6" s="4">
         <v>1102</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
+      <c r="B6" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4">
         <v>1.5</v>
       </c>
       <c r="G6" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K6" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1165,21 +1357,21 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>1103</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>93</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4">
         <v>6</v>
@@ -1188,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="4">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="J7" s="4">
         <v>1.2</v>
@@ -1202,12 +1394,8 @@
       <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="4">
-        <v>2</v>
-      </c>
-      <c r="N7" s="4">
-        <v>100</v>
-      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1215,24 +1403,24 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>1201</v>
+        <v>1104</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>94</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -1241,16 +1429,16 @@
         <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="J8" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K8" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L8" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1263,22 +1451,22 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>1202</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>1105</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -1287,16 +1475,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="J9" s="4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1309,47 +1497,43 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>1203</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>1106</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <v>5</v>
-      </c>
       <c r="J10" s="4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K10" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L10" s="4">
         <v>1</v>
       </c>
-      <c r="M10" s="4">
-        <v>3</v>
-      </c>
-      <c r="N10" s="4">
-        <v>100</v>
-      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1359,19 +1543,19 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>1301</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>132</v>
+        <v>1201</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1405,25 +1589,25 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>1302</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>133</v>
+        <v>1202</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G12" s="4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
@@ -1432,7 +1616,7 @@
         <v>0.7</v>
       </c>
       <c r="J12" s="4">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4">
         <v>1.5</v>
@@ -1449,49 +1633,45 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>1303</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>1203</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" s="4">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K13" s="4">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="L13" s="4">
         <v>1</v>
       </c>
-      <c r="M13" s="4">
-        <v>4</v>
-      </c>
-      <c r="N13" s="4">
-        <v>100</v>
-      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1499,15 +1679,15 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>1401</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>1204</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>35</v>
@@ -1516,25 +1696,25 @@
         <v>39</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L14" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1545,27 +1725,27 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>1402</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>55</v>
+        <v>1205</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -1574,7 +1754,7 @@
         <v>0.7</v>
       </c>
       <c r="J15" s="4">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="K15" s="4">
         <v>1</v>
@@ -1591,49 +1771,45 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>1403</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>1206</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>39</v>
+      <c r="E16" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
       </c>
       <c r="I16" s="4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4">
         <v>1</v>
       </c>
-      <c r="M16" s="4">
-        <v>5</v>
-      </c>
-      <c r="N16" s="4">
-        <v>100</v>
-      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1641,15 +1817,15 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>1501</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>129</v>
+        <v>1207</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>35</v>
@@ -1658,7 +1834,7 @@
         <v>39</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -1667,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="I17" s="4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J17" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1689,19 +1865,19 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>1502</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>130</v>
+        <v>1301</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1722,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1735,47 +1911,43 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
-        <v>1503</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>61</v>
+        <v>1302</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" s="4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G19" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H19" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I19" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J19" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K19" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L19" s="4">
         <v>1</v>
       </c>
-      <c r="M19" s="4">
-        <v>6</v>
-      </c>
-      <c r="N19" s="4">
-        <v>100</v>
-      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1783,42 +1955,42 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
-        <v>1601</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>63</v>
+        <v>1303</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J20" s="4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
       </c>
       <c r="L20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -1831,34 +2003,34 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
-        <v>1602</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>65</v>
+        <v>1304</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F21" s="4">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="G21" s="4">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
         <v>2</v>
       </c>
-      <c r="I21" s="4">
-        <v>0.8</v>
-      </c>
       <c r="J21" s="4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>
@@ -1877,47 +2049,43 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>1603</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>1305</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F22" s="4">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="G22" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J22" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K22" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L22" s="4">
         <v>2</v>
       </c>
-      <c r="L22" s="4">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4">
-        <v>7</v>
-      </c>
-      <c r="N22" s="4">
-        <v>100</v>
-      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -1925,42 +2093,42 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>1701</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>70</v>
+        <v>1306</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
       </c>
       <c r="I23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1973,37 +2141,37 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>1702</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>73</v>
+        <v>1401</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J24" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K24" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L24" s="4">
         <v>2</v>
@@ -2019,40 +2187,40 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>1703</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>75</v>
+        <v>1402</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F25" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G25" s="4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H25" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I25" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J25" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K25" s="4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L25" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2063,42 +2231,42 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>1801</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>77</v>
+        <v>1403</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F26" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G26" s="4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="H26" s="4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I26" s="4">
         <v>1</v>
       </c>
       <c r="J26" s="4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
       </c>
       <c r="L26" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2111,34 +2279,34 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>1802</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>79</v>
+        <v>1404</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="4">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="G27" s="4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="H27" s="4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="4">
         <v>1</v>
@@ -2146,12 +2314,8 @@
       <c r="L27" s="4">
         <v>1</v>
       </c>
-      <c r="M27" s="4">
-        <v>4</v>
-      </c>
-      <c r="N27" s="4">
-        <v>100</v>
-      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -2159,30 +2323,30 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
-        <v>1803</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>81</v>
+        <v>1405</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F28" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G28" s="4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="H28" s="4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I28" s="4">
         <v>1</v>
@@ -2207,19 +2371,19 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
-        <v>2001</v>
+        <v>1501</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>137</v>
+      <c r="C29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -2234,13 +2398,13 @@
         <v>1</v>
       </c>
       <c r="J29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2253,37 +2417,37 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
-        <v>2002</v>
+        <v>1502</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>137</v>
       </c>
+      <c r="D30" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="E30" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
       </c>
       <c r="H30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J30" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="4">
         <v>1</v>
@@ -2299,22 +2463,22 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
-        <v>2003</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>137</v>
+        <v>1503</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F31" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -2323,16 +2487,16 @@
         <v>1</v>
       </c>
       <c r="I31" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J31" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -2345,19 +2509,19 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
-        <v>3001</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>35</v>
+        <v>1504</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -2378,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -2391,22 +2555,22 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
-        <v>3002</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>35</v>
+        <v>1505</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -2415,16 +2579,16 @@
         <v>1</v>
       </c>
       <c r="I33" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J33" s="4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K33" s="4">
         <v>1</v>
       </c>
       <c r="L33" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -2437,40 +2601,40 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
-        <v>3003</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>35</v>
+        <v>1506</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="4">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="G34" s="4">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H34" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2483,19 +2647,17 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
-        <v>3004</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>118</v>
-      </c>
+        <v>1601</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="6"/>
       <c r="D35" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -2529,19 +2691,17 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
-        <v>4001</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>137</v>
+        <v>1602</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -2556,10 +2716,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="4">
         <v>1</v>
@@ -2575,19 +2735,19 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
-        <v>4002</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>137</v>
+        <v>1603</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -2602,32 +2762,38 @@
         <v>1</v>
       </c>
       <c r="J37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="4">
         <v>1</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
-        <v>4003</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>137</v>
+        <v>1604</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -2642,35 +2808,41 @@
         <v>1</v>
       </c>
       <c r="J38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
-        <v>4004</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>39</v>
+        <v>1605</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -2682,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4">
         <v>0</v>
@@ -2692,11 +2864,689 @@
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
+        <v>1606</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>60</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
+        <v>1607</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
+        <v>1608</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A43" s="4">
+        <v>1609</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
+      </c>
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A44" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A45" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A46" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A47" s="4">
+        <v>3001</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" s="4">
+        <v>3</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
+        <v>3002</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+      <c r="L48" s="4">
+        <v>3</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A49" s="4">
+        <v>3003</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>2</v>
+      </c>
+      <c r="H49" s="4">
+        <v>2</v>
+      </c>
+      <c r="I49" s="4">
+        <v>2</v>
+      </c>
+      <c r="J49" s="4">
+        <v>2</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+      <c r="L49" s="4">
+        <v>3</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A50" s="4">
+        <v>3004</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1</v>
+      </c>
+      <c r="L50" s="4">
+        <v>3</v>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A51" s="4">
+        <v>4001</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A52" s="4">
+        <v>4002</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A53" s="4">
+        <v>4003</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>1</v>
+      </c>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A54" s="4">
+        <v>4004</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2721,25 +3571,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2753,16 +3603,16 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2782,7 +3632,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>29</v>
@@ -2796,7 +3646,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -2805,10 +3655,10 @@
         <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2816,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -2828,10 +3678,10 @@
         <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2839,10 +3689,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2851,10 +3701,10 @@
         <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2862,10 +3712,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2874,7 +3724,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -2882,10 +3732,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2894,7 +3744,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -2902,10 +3752,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -2914,7 +3764,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -2922,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2934,7 +3784,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -2942,10 +3792,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2954,7 +3804,7 @@
         <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChineseRoguelikeGame\Documents\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\殊瑞\Desktop\ChineseRoguelikeGame\Documents\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="184">
   <si>
     <t>技能ID</t>
   </si>
@@ -646,11 +646,75 @@
     <t>对麻痹状态的敌人使用，能够极大地击退敌人。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>吸水提卢枪轻攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水提卢枪重攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水提卢枪绝技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红光第一个法术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红光第二个法术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龟壳冲撞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龟缩之术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将身体缩入壳中，可以回复体力，并且防御力大增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊角冲撞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用尖利的羊角冲撞对手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊尾横扫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊蹄蹬踢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用九条尾巴横扫对手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用有力的后蹄踢对手，非常强力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵的注视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“被幽灵注视着，不自觉地全身酥麻，绵软无力”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -725,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +828,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1039,15 +1104,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="51.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
@@ -3543,6 +3608,109 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A55" s="4">
+        <v>3005</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A56" s="4">
+        <v>3006</v>
+      </c>
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A57" s="4">
+        <v>3007</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A58" s="4">
+        <v>4005</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A59" s="4">
+        <v>4006</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A60" s="4">
+        <v>3008</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A61" s="4">
+        <v>4007</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A62" s="4">
+        <v>3009</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A63" s="4">
+        <v>3010</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A64" s="4">
+        <v>3011</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="4">
+        <v>4008</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
@@ -3556,7 +3724,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\殊瑞\Desktop\ChineseRoguelikeGame\Documents\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChineseRoguelikeGame\Documents\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -227,6 +227,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>敌减伤效果变为8</t>
@@ -235,6 +236,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0%</t>
@@ -714,7 +716,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -725,6 +727,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1106,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2175,13 +2178,13 @@
         <v>37</v>
       </c>
       <c r="F23" s="4">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G23" s="4">
         <v>1.3</v>
       </c>
       <c r="H23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4">
         <v>2</v>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9885" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
     <sheet name="Buff" sheetId="2" r:id="rId2"/>
+    <sheet name="SkillEffect" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="209">
   <si>
     <t>技能ID</t>
   </si>
@@ -130,9 +131,6 @@
     <t>Melee</t>
   </si>
   <si>
-    <t>Self</t>
-  </si>
-  <si>
     <t>SingleEnemy</t>
   </si>
   <si>
@@ -154,18 +152,12 @@
     <t>效果描述</t>
   </si>
   <si>
-    <t>持续回合</t>
-  </si>
-  <si>
     <t>触发时机</t>
   </si>
   <si>
     <t>效果函数</t>
   </si>
   <si>
-    <t>lastTurns</t>
-  </si>
-  <si>
     <t>trigger</t>
   </si>
   <si>
@@ -194,65 +186,6 @@
   </si>
   <si>
     <t>Revive</t>
-  </si>
-  <si>
-    <t>必中</t>
-  </si>
-  <si>
-    <t>无视对方回避必定命中</t>
-  </si>
-  <si>
-    <t>Hit</t>
-  </si>
-  <si>
-    <t>MustHit</t>
-  </si>
-  <si>
-    <t>无法格挡</t>
-  </si>
-  <si>
-    <t>无视对方格挡</t>
-  </si>
-  <si>
-    <t>三连击</t>
-  </si>
-  <si>
-    <t>三次伤害</t>
-  </si>
-  <si>
-    <t>削弱</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>敌减伤效果变为8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0%</t>
-    </r>
-  </si>
-  <si>
-    <t>狂暴</t>
-  </si>
-  <si>
-    <t>连续攻击同一敌人</t>
-  </si>
-  <si>
-    <t>击倒</t>
-  </si>
-  <si>
-    <t>将敌人击倒，令敌人跳过下回合</t>
   </si>
   <si>
     <t>咩爪轻攻击</t>
@@ -712,12 +645,395 @@
     <t>“被幽灵注视着，不自觉地全身酥麻，绵软无力”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>切换攻击</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>witchWeapon</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>witchAttack</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬杀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>背刺</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eforeHit</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterDamage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nstantKill</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackStab</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若敌人处于前摇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或后摇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时则强制命中，否则强制不中</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害强制更改为对象当前HP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前装备武器变为空手</t>
+  </si>
+  <si>
+    <t>OnDamage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加2次伤害结算</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连击</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throw</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>吸取伤害的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回复到自己生命</t>
+    </r>
+  </si>
+  <si>
+    <t>吸血</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbsorbDamage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectString</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFECTTRIGGER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽类杀手</t>
+  </si>
+  <si>
+    <r>
+      <t>若对象带有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”Tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。若对象为灵气型，则伤害为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>BeastKiller</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该回合伤害将敌方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>置为自身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 1</t>
+    </r>
+  </si>
+  <si>
+    <t>厄运一击</t>
+  </si>
+  <si>
+    <r>
+      <t>若对方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低于自己则有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率秒杀敌人，否则有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率伤害自己。</t>
+    </r>
+  </si>
+  <si>
+    <t>DevilHit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>制裁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sanction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>必中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制命中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MustHit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视防御</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视对方的防御状态。命中率与伤害值照常计算</t>
+  </si>
+  <si>
+    <t>必暴击</t>
+  </si>
+  <si>
+    <t>若对方未格挡，则强制暴击</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MustCrit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreDefence</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>以切换后的武器发动轻攻击一次</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -763,6 +1079,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -792,7 +1118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,6 +1158,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1109,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -1297,7 +1638,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1338,16 +1679,16 @@
         <v>1101</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1384,16 +1725,16 @@
         <v>1102</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4">
         <v>1.5</v>
@@ -1430,16 +1771,16 @@
         <v>1103</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4">
         <v>6</v>
@@ -1476,16 +1817,16 @@
         <v>1104</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4">
         <v>10</v>
@@ -1522,16 +1863,16 @@
         <v>1105</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4">
         <v>0.5</v>
@@ -1568,16 +1909,16 @@
         <v>1106</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4">
         <v>0.8</v>
@@ -1614,16 +1955,16 @@
         <v>1201</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1660,16 +2001,16 @@
         <v>1202</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4">
         <v>1.2</v>
@@ -1706,16 +2047,16 @@
         <v>1203</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4">
         <v>3</v>
@@ -1752,16 +2093,16 @@
         <v>1204</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="4">
         <v>1.2</v>
@@ -1798,16 +2139,16 @@
         <v>1205</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1844,16 +2185,16 @@
         <v>1206</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -1890,16 +2231,16 @@
         <v>1207</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="4">
         <v>1.6</v>
@@ -1936,16 +2277,16 @@
         <v>1301</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1982,16 +2323,16 @@
         <v>1302</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="4">
         <v>1.3</v>
@@ -2028,16 +2369,16 @@
         <v>1303</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -2074,16 +2415,16 @@
         <v>1304</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="4">
         <v>0.7</v>
@@ -2120,16 +2461,16 @@
         <v>1305</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="4">
         <v>1.9</v>
@@ -2166,16 +2507,16 @@
         <v>1306</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="4">
         <v>2.5</v>
@@ -2212,16 +2553,16 @@
         <v>1401</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -2258,16 +2599,16 @@
         <v>1402</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="4">
         <v>1.5</v>
@@ -2304,16 +2645,16 @@
         <v>1403</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="4">
         <v>1.5</v>
@@ -2350,16 +2691,16 @@
         <v>1404</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -2396,16 +2737,16 @@
         <v>1405</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" s="4">
         <v>0.8</v>
@@ -2442,16 +2783,16 @@
         <v>1501</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -2488,16 +2829,16 @@
         <v>1502</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="4">
         <v>1.2</v>
@@ -2534,16 +2875,16 @@
         <v>1503</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="4">
         <v>0.8</v>
@@ -2580,16 +2921,16 @@
         <v>1504</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -2626,16 +2967,16 @@
         <v>1505</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -2672,16 +3013,16 @@
         <v>1506</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34" s="4">
         <v>0.3</v>
@@ -2718,14 +3059,14 @@
         <v>1601</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -2762,14 +3103,14 @@
         <v>1602</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -2806,16 +3147,16 @@
         <v>1603</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -2852,16 +3193,16 @@
         <v>1604</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -2898,16 +3239,16 @@
         <v>1605</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -2944,16 +3285,16 @@
         <v>1606</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -2990,16 +3331,16 @@
         <v>1607</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -3036,16 +3377,16 @@
         <v>1608</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -3082,16 +3423,16 @@
         <v>1609</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -3128,16 +3469,16 @@
         <v>2001</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -3174,16 +3515,16 @@
         <v>2002</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -3220,16 +3561,16 @@
         <v>2003</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -3266,16 +3607,16 @@
         <v>3001</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -3312,16 +3653,16 @@
         <v>3002</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -3358,16 +3699,16 @@
         <v>3003</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -3404,16 +3745,16 @@
         <v>3004</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -3450,16 +3791,16 @@
         <v>4001</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -3496,16 +3837,16 @@
         <v>4002</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -3536,16 +3877,16 @@
         <v>4003</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -3576,16 +3917,16 @@
         <v>4004</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -3616,7 +3957,7 @@
         <v>3005</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.15">
@@ -3624,7 +3965,7 @@
         <v>3006</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.15">
@@ -3632,7 +3973,7 @@
         <v>3007</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.15">
@@ -3640,7 +3981,7 @@
         <v>4005</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.15">
@@ -3648,7 +3989,7 @@
         <v>4006</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.15">
@@ -3656,7 +3997,7 @@
         <v>3008</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.15">
@@ -3664,10 +4005,10 @@
         <v>4007</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.15">
@@ -3675,10 +4016,10 @@
         <v>3009</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.15">
@@ -3686,10 +4027,10 @@
         <v>3010</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.15">
@@ -3697,10 +4038,10 @@
         <v>3011</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -3708,10 +4049,10 @@
         <v>4008</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3724,46 +4065,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="30.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="8" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="6" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -3774,19 +4107,13 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -3797,19 +4124,13 @@
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -3817,166 +4138,62 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3984,4 +4201,299 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="37.375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>101</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>103</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9825" activeTab="2"/>
+    <workbookView windowWidth="22935" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359">
   <si>
     <t>技能ID</t>
   </si>
@@ -150,6 +150,9 @@
     <t>Self</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>短剑系轻攻击</t>
   </si>
   <si>
@@ -330,21 +333,24 @@
     <t>9</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>疯狂一击</t>
   </si>
   <si>
     <t>狂人之斧的绝技。无视敌我攻击战场上全部单位的一击。</t>
   </si>
   <si>
+    <t>EveryoneElse</t>
+  </si>
+  <si>
     <t>开天辟地</t>
   </si>
   <si>
     <t>盘古巨斧的绝技。攻击全体，无视对方减伤与防御状态。</t>
   </si>
   <si>
-    <t>EveryoneElse</t>
-  </si>
-  <si>
     <t>103</t>
   </si>
   <si>
@@ -435,25 +441,392 @@
     <t>我要加入一条临时需求！</t>
   </si>
   <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>灵气箭</t>
+  </si>
+  <si>
+    <t>最基础的灵属性单体法术</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>强力灵气箭</t>
+  </si>
+  <si>
+    <t>更强力的灵气箭</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>灵气弹</t>
   </si>
   <si>
-    <t>灵属性基础攻击。</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>阴气弹</t>
-  </si>
-  <si>
-    <t>阴属性基础攻击。</t>
-  </si>
-  <si>
-    <t>阳气弹</t>
-  </si>
-  <si>
-    <t>阳属性基础攻击。</t>
+    <t>将灵气汇聚成球状，攻击敌方全体</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>灵气乱射</t>
+  </si>
+  <si>
+    <t>发射大量不稳定的灵气箭随机攻击敌人</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>灵气循环</t>
+  </si>
+  <si>
+    <t>光环：灵力恢复速度上升</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>终极灵气箭</t>
+  </si>
+  <si>
+    <t>最为强力的灵气箭</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>强力灵气弹</t>
+  </si>
+  <si>
+    <t>更强力的灵气弹</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>灵气共鸣</t>
+  </si>
+  <si>
+    <t>损失20%体力，对敌全体造成等量伤害，对灵力型角色伤害翻倍</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>狂化灵气乱射</t>
+  </si>
+  <si>
+    <t>更强力的灵气乱射，但可能造成自己狂乱</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>灵之幻境</t>
+  </si>
+  <si>
+    <t>幻境：所有人只会受到灵属性攻击的伤害</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>灵噬</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>灵爆</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>灵力解放</t>
+  </si>
+  <si>
+    <t>光环：法术威力、吟唱速度、消耗上升，命中率下降</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>冰封术</t>
+  </si>
+  <si>
+    <t>利用灵力冻结敌人，可能造成冰冻</t>
+  </si>
+  <si>
+    <t>Yin</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>强力冰封术</t>
+  </si>
+  <si>
+    <t>更强力的冰封术，冰冻几率上升</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>吸星术</t>
+  </si>
+  <si>
+    <t>吸取敌人的生命值</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>狂风枪</t>
+  </si>
+  <si>
+    <t>快速而稳定的攻击，无视敌方防御</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>灵力侵蚀</t>
+  </si>
+  <si>
+    <t>对敌全体进行侵蚀，使敌人中毒</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>终极冰封术</t>
+  </si>
+  <si>
+    <t>最强力的冰封术，可攻击全部敌人</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>暗之原力</t>
+  </si>
+  <si>
+    <t>阴法术本质的一击，可能造成失魂</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>月之领域</t>
+  </si>
+  <si>
+    <t>幻境：我方免疫阴属性伤害，并且所有攻击无视对方防御状态</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>诅咒</t>
+  </si>
+  <si>
+    <t>令自己和敌方全体进入诅咒状态，直到自身失去战斗能力</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>灵气偷取</t>
+  </si>
+  <si>
+    <t>偷取对方的生命上限并转换为自身的灵气</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>万魔散魂</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>暗月影</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>阳炎术</t>
+  </si>
+  <si>
+    <t>利用灵力燃烧敌人，可能造成点燃</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>强力阳炎术</t>
+  </si>
+  <si>
+    <t>更强力的阳炎术，点燃几率上升</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>雷暴术</t>
+  </si>
+  <si>
+    <t>雷电攻击全体，命中率较低但高几率造成麻痹效果</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>圣光</t>
+  </si>
+  <si>
+    <t>令角色进入激昂状态，攻防速上升</t>
+  </si>
+  <si>
+    <t>SingleAlly</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>灵气净化</t>
+  </si>
+  <si>
+    <t>取消目标身上附带的一切效果，并根据数量回复生命</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>终极阳炎术</t>
+  </si>
+  <si>
+    <t>最强力的阳炎术，可攻击全部敌人</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>光之原力</t>
+  </si>
+  <si>
+    <t>阳法术本质的一击，可能令自己祝福</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>日之领域</t>
+  </si>
+  <si>
+    <t>幻境：我方免疫阴属性伤害，并且所有攻击必定将敌方打断</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>天启</t>
+  </si>
+  <si>
+    <r>
+      <t>召唤陨石</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击战场全体，蓄力速度极快</t>
+    </r>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>灵气过载</t>
+  </si>
+  <si>
+    <t>光环：灵力无穷，但3回合后失去战斗力</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>夸父之怒</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>阳光盾</t>
   </si>
   <si>
     <t>咩爪轻攻击</t>
@@ -472,24 +845,6 @@
   </si>
   <si>
     <t>咩咩的愤怒（法术）</t>
-  </si>
-  <si>
-    <t>灵气爆发</t>
-  </si>
-  <si>
-    <t>灵属性大招</t>
-  </si>
-  <si>
-    <t>万魔噬魂</t>
-  </si>
-  <si>
-    <t>阴属性大招</t>
-  </si>
-  <si>
-    <t>夸父之怒</t>
-  </si>
-  <si>
-    <t>阳属性大招</t>
   </si>
   <si>
     <t>吸水提卢枪轻攻击</t>
@@ -839,6 +1194,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>若对象带有</t>
     </r>
     <r>
@@ -1050,12 +1410,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1063,11 +1423,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1090,7 +1445,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1098,6 +1452,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1134,38 +1489,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,9 +1504,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,20 +1521,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1219,9 +1536,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1233,16 +1565,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,15 +1591,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1281,7 +1631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1667,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,13 +1751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,25 +1763,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,43 +1793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,55 +1811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,29 +1827,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1515,30 +1845,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1572,157 +1878,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1735,38 +2085,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2082,74 +2435,74 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16" style="9" customWidth="1"/>
-    <col min="3" max="3" width="47.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16" style="9" customWidth="1"/>
-    <col min="6" max="12" width="10.25" style="9" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="9" customWidth="1"/>
-    <col min="14" max="15" width="12.5" style="9" customWidth="1"/>
-    <col min="16" max="16" width="8" style="9" customWidth="1"/>
-    <col min="17" max="17" width="11.875" style="9" customWidth="1"/>
-    <col min="18" max="20" width="11.25" style="9" customWidth="1"/>
-    <col min="21" max="21" width="70.875" style="9" customWidth="1"/>
-    <col min="22" max="23" width="9" style="9"/>
-    <col min="24" max="24" width="10.5" style="9" customWidth="1"/>
-    <col min="25" max="26" width="9" style="9"/>
-    <col min="27" max="27" width="11.625" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="8.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16" style="8" customWidth="1"/>
+    <col min="3" max="3" width="47.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16" style="8" customWidth="1"/>
+    <col min="6" max="12" width="10.25" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="8" customWidth="1"/>
+    <col min="14" max="15" width="12.5" style="8" customWidth="1"/>
+    <col min="16" max="16" width="8" style="8" customWidth="1"/>
+    <col min="17" max="17" width="11.875" style="8" customWidth="1"/>
+    <col min="18" max="20" width="11.25" style="8" customWidth="1"/>
+    <col min="21" max="21" width="70.875" style="8" customWidth="1"/>
+    <col min="22" max="23" width="9" style="8"/>
+    <col min="24" max="24" width="10.5" style="8" customWidth="1"/>
+    <col min="25" max="26" width="9" style="8"/>
+    <col min="27" max="27" width="11.625" style="8" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="13" t="s">
@@ -2158,51 +2511,51 @@
       <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:17">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="O2" s="13" t="s">
@@ -2216,40 +2569,40 @@
       </c>
     </row>
     <row r="3" ht="27" spans="1:17">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="M3" s="13" t="s">
@@ -2269,83 +2622,83 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="F4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>1101</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="E5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
         <v>3</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>3</v>
       </c>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11">
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10">
         <v>5</v>
       </c>
       <c r="M5" s="14"/>
@@ -2355,40 +2708,40 @@
       <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>1102</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>1.5</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>0.9</v>
       </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
         <v>2</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>3</v>
       </c>
       <c r="M6" s="14"/>
@@ -2398,40 +2751,40 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" ht="27" spans="1:17">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>1103</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="10">
         <v>6</v>
       </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
         <v>3</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>0.25</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>1.2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>0.5</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>1</v>
       </c>
       <c r="M7" s="14"/>
@@ -2445,140 +2798,140 @@
       </c>
     </row>
     <row r="8" ht="27" spans="1:17">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>1104</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="E8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="10">
         <v>10</v>
       </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
         <v>10</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>0.25</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>10</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>1</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>1105</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="10">
         <v>0.5</v>
       </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
         <v>0.3</v>
       </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
         <v>2</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>1</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:17">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>1106</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="10">
         <v>0.8</v>
       </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
         <v>2</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>0.2</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>0</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>1</v>
       </c>
       <c r="M10" s="14"/>
@@ -2588,40 +2941,40 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>1201</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11">
+      <c r="E11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
         <v>3</v>
       </c>
       <c r="M11" s="14"/>
@@ -2631,40 +2984,40 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>1202</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="E12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="10">
         <v>1.2</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>0.8</v>
       </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10">
         <v>0.7</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>2</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>1.5</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>2</v>
       </c>
       <c r="M12" s="14"/>
@@ -2674,89 +3027,89 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" ht="27" spans="1:17">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>1203</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="E13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="10">
         <v>3</v>
       </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
         <v>2</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>5</v>
       </c>
-      <c r="J13" s="11">
-        <v>1</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
         <v>3</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>1</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
     </row>
     <row r="14" ht="27" spans="1:17">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>1204</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="E14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="10">
         <v>1.2</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>0.8</v>
       </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
         <v>0.7</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>2</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>1.5</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>1</v>
       </c>
       <c r="M14" s="14"/>
@@ -2766,40 +3119,40 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" ht="27" spans="1:17">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>1205</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="E15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10">
         <v>0.7</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>0.3</v>
       </c>
-      <c r="K15" s="11">
-        <v>1</v>
-      </c>
-      <c r="L15" s="11">
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10">
         <v>1</v>
       </c>
       <c r="M15" s="14"/>
@@ -2809,136 +3162,136 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" ht="27" spans="1:17">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>1206</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
-      <c r="J16" s="11">
-        <v>1</v>
-      </c>
-      <c r="K16" s="11">
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
         <v>0</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>1</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
     </row>
     <row r="17" ht="27" spans="1:17">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>1207</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="E17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="10">
         <v>1.6</v>
       </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11">
-        <v>1</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
         <v>0.3</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="10">
         <v>0.7</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>2</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>1</v>
       </c>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>1301</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1</v>
-      </c>
-      <c r="I18" s="11">
-        <v>1</v>
-      </c>
-      <c r="J18" s="11">
-        <v>1</v>
-      </c>
-      <c r="K18" s="11">
-        <v>1</v>
-      </c>
-      <c r="L18" s="11">
+      <c r="E18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10">
         <v>3</v>
       </c>
       <c r="M18" s="14"/>
@@ -2948,40 +3301,40 @@
       <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>1302</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="E19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="10">
         <v>1.3</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>0.9</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>1.2</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>0.8</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="10">
         <v>0.5</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>1.5</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>1</v>
       </c>
       <c r="M19" s="14"/>
@@ -2991,40 +3344,40 @@
       <c r="Q19" s="14"/>
     </row>
     <row r="20" ht="27" spans="1:17">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>1303</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="11">
+      <c r="E20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="10">
         <v>2</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>0.8</v>
       </c>
-      <c r="H20" s="11">
-        <v>1</v>
-      </c>
-      <c r="I20" s="11">
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
         <v>0.7</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="10">
         <v>0.3</v>
       </c>
-      <c r="K20" s="11">
-        <v>1</v>
-      </c>
-      <c r="L20" s="11">
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10">
         <v>2</v>
       </c>
       <c r="M20" s="14"/>
@@ -3034,89 +3387,89 @@
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>1304</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="E21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="10">
         <v>0.7</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>1.3</v>
       </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10">
         <v>2</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="10">
         <v>0.5</v>
       </c>
-      <c r="K21" s="11">
-        <v>1</v>
-      </c>
-      <c r="L21" s="11">
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10">
         <v>1</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>1305</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="D22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="10">
         <v>1.9</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>0.7</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>2</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>0.75</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="10">
         <v>2</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>0.9</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>2</v>
       </c>
       <c r="M22" s="14"/>
@@ -3126,87 +3479,87 @@
       <c r="Q22" s="14"/>
     </row>
     <row r="23" ht="27" spans="1:17">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>1306</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="E23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="10">
         <v>2.5</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>1.3</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>0</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>2</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="10">
         <v>2</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <v>0</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>1</v>
       </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>1401</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1</v>
-      </c>
-      <c r="I24" s="11">
-        <v>1</v>
-      </c>
-      <c r="J24" s="11">
-        <v>1</v>
-      </c>
-      <c r="K24" s="11">
+      <c r="E24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10">
         <v>0.8</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>2</v>
       </c>
       <c r="M24" s="14"/>
@@ -3216,40 +3569,40 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>1402</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="E25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="10">
         <v>1.5</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>0.7</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>1.2</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>0.7</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="10">
         <v>0.7</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <v>1.3</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>1</v>
       </c>
       <c r="M25" s="14"/>
@@ -3259,87 +3612,87 @@
       <c r="Q25" s="14"/>
     </row>
     <row r="26" ht="27" spans="1:17">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>1403</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="11">
+      <c r="E26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="10">
         <v>1.5</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>1.25</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>1.25</v>
       </c>
-      <c r="I26" s="11">
-        <v>1</v>
-      </c>
-      <c r="J26" s="11">
-        <v>1</v>
-      </c>
-      <c r="K26" s="11">
-        <v>1</v>
-      </c>
-      <c r="L26" s="11">
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10">
         <v>1</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="14" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>1404</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="B27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="E27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="10">
         <v>2</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>1.25</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <v>1.25</v>
       </c>
-      <c r="I27" s="11">
-        <v>1</v>
-      </c>
-      <c r="J27" s="11">
-        <v>1</v>
-      </c>
-      <c r="K27" s="11">
-        <v>1</v>
-      </c>
-      <c r="L27" s="11">
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10">
         <v>1</v>
       </c>
       <c r="M27" s="14"/>
@@ -3349,1436 +3702,2329 @@
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>1405</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="B28" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="E28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="10">
         <v>0.8</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>1.25</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>1.25</v>
       </c>
-      <c r="I28" s="11">
-        <v>1</v>
-      </c>
-      <c r="J28" s="11">
-        <v>1</v>
-      </c>
-      <c r="K28" s="11">
-        <v>1</v>
-      </c>
-      <c r="L28" s="11">
-        <v>1</v>
-      </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q28" s="11" t="s">
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1</v>
+      </c>
+      <c r="L28" s="10">
+        <v>1</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="10">
+        <v>1501</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10">
+        <v>3</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="10">
+        <v>1502</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10">
+        <v>2</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10">
+        <v>1</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="10">
+        <v>1503</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="J31" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="10">
+        <v>3</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:17">
+      <c r="A32" s="10">
+        <v>1504</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10">
+        <v>1</v>
+      </c>
+      <c r="J32" s="10">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10">
+        <v>1</v>
+      </c>
+      <c r="L32" s="10">
+        <v>2</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="11">
-        <v>1501</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11">
-        <v>1</v>
-      </c>
-      <c r="I29" s="11">
-        <v>1</v>
-      </c>
-      <c r="J29" s="11">
-        <v>1</v>
-      </c>
-      <c r="K29" s="11">
-        <v>1</v>
-      </c>
-      <c r="L29" s="11">
+      <c r="Q32" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="10">
+        <v>1505</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K33" s="10">
+        <v>1</v>
+      </c>
+      <c r="L33" s="10">
+        <v>1</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="10">
+        <v>1506</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10">
+        <v>1</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="10">
+        <v>1601</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="10">
         <v>3</v>
       </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="11">
-        <v>1502</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="G30" s="11">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="10">
+        <v>1602</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1</v>
+      </c>
+      <c r="I36" s="10">
+        <v>1</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1</v>
+      </c>
+      <c r="K36" s="10">
+        <v>1</v>
+      </c>
+      <c r="L36" s="10">
+        <v>1</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="10">
+        <v>1603</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10">
+        <v>1</v>
+      </c>
+      <c r="J37" s="10">
+        <v>1</v>
+      </c>
+      <c r="K37" s="10">
+        <v>1</v>
+      </c>
+      <c r="L37" s="10">
+        <v>1</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" ht="27" spans="1:17">
+      <c r="A38" s="10">
+        <v>1604</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+      <c r="I38" s="10">
+        <v>1</v>
+      </c>
+      <c r="J38" s="10">
+        <v>1</v>
+      </c>
+      <c r="K38" s="10">
+        <v>1</v>
+      </c>
+      <c r="L38" s="10">
+        <v>3</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="10">
+        <v>1605</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1</v>
+      </c>
+      <c r="I39" s="10">
+        <v>1</v>
+      </c>
+      <c r="J39" s="10">
+        <v>1</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10">
+        <v>1</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="10">
+        <v>1606</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10">
+        <v>60</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K40" s="10">
+        <v>1</v>
+      </c>
+      <c r="L40" s="10">
+        <v>1</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="10">
+        <v>1607</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10">
+        <v>1</v>
+      </c>
+      <c r="I41" s="10">
+        <v>1</v>
+      </c>
+      <c r="J41" s="10">
+        <v>1</v>
+      </c>
+      <c r="K41" s="10">
+        <v>1</v>
+      </c>
+      <c r="L41" s="10">
+        <v>1</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="10">
+        <v>1608</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1</v>
+      </c>
+      <c r="H42" s="10">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1</v>
+      </c>
+      <c r="J42" s="10">
+        <v>1</v>
+      </c>
+      <c r="K42" s="10">
+        <v>1</v>
+      </c>
+      <c r="L42" s="10">
+        <v>1</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="10">
+        <v>1609</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="H43" s="10">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10">
+        <v>1</v>
+      </c>
+      <c r="J43" s="10">
+        <v>1</v>
+      </c>
+      <c r="K43" s="10">
+        <v>1</v>
+      </c>
+      <c r="L43" s="10">
+        <v>1</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" ht="27" spans="1:17">
+      <c r="A52" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+    </row>
+    <row r="65" ht="27" spans="1:17">
+      <c r="A65" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+    </row>
+    <row r="77" ht="27" spans="1:17">
+      <c r="A77" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="10">
+        <v>3001</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" s="10">
+        <v>1</v>
+      </c>
+      <c r="G83" s="10">
+        <v>1</v>
+      </c>
+      <c r="H83" s="10">
+        <v>1</v>
+      </c>
+      <c r="I83" s="10">
+        <v>1</v>
+      </c>
+      <c r="J83" s="10">
+        <v>1</v>
+      </c>
+      <c r="K83" s="10">
+        <v>1</v>
+      </c>
+      <c r="L83" s="10">
+        <v>3</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="10">
+        <v>3002</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="10">
+        <v>1</v>
+      </c>
+      <c r="G84" s="10">
+        <v>1</v>
+      </c>
+      <c r="H84" s="10">
+        <v>1</v>
+      </c>
+      <c r="I84" s="10">
+        <v>1</v>
+      </c>
+      <c r="J84" s="10">
+        <v>1</v>
+      </c>
+      <c r="K84" s="10">
+        <v>1</v>
+      </c>
+      <c r="L84" s="10">
+        <v>3</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="10">
+        <v>3003</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" s="10">
+        <v>1</v>
+      </c>
+      <c r="G85" s="10">
         <v>2</v>
       </c>
-      <c r="I30" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="J30" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="K30" s="11">
-        <v>1</v>
-      </c>
-      <c r="L30" s="11">
-        <v>1</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="11">
-        <v>1503</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="G31" s="11">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11">
-        <v>1</v>
-      </c>
-      <c r="I31" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="J31" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="K31" s="11">
-        <v>1</v>
-      </c>
-      <c r="L31" s="11">
+      <c r="H85" s="10">
+        <v>2</v>
+      </c>
+      <c r="I85" s="10">
+        <v>2</v>
+      </c>
+      <c r="J85" s="10">
+        <v>2</v>
+      </c>
+      <c r="K85" s="10">
+        <v>1</v>
+      </c>
+      <c r="L85" s="10">
         <v>3</v>
       </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" ht="27" spans="1:17">
-      <c r="A32" s="11">
-        <v>1504</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="11">
-        <v>1</v>
-      </c>
-      <c r="G32" s="11">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11">
-        <v>1</v>
-      </c>
-      <c r="I32" s="11">
-        <v>1</v>
-      </c>
-      <c r="J32" s="11">
-        <v>1</v>
-      </c>
-      <c r="K32" s="11">
-        <v>1</v>
-      </c>
-      <c r="L32" s="11">
-        <v>2</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q32" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="11">
-        <v>1505</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="11">
-        <v>1</v>
-      </c>
-      <c r="G33" s="11">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11">
-        <v>1</v>
-      </c>
-      <c r="I33" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="J33" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="K33" s="11">
-        <v>1</v>
-      </c>
-      <c r="L33" s="11">
-        <v>1</v>
-      </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="11">
-        <v>1506</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="G34" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="H34" s="11">
-        <v>1</v>
-      </c>
-      <c r="I34" s="11">
-        <v>1</v>
-      </c>
-      <c r="J34" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="K34" s="11">
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="10">
+        <v>3004</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86" s="10">
+        <v>1</v>
+      </c>
+      <c r="G86" s="10">
+        <v>1</v>
+      </c>
+      <c r="H86" s="10">
+        <v>1</v>
+      </c>
+      <c r="I86" s="10">
+        <v>1</v>
+      </c>
+      <c r="J86" s="10">
+        <v>1</v>
+      </c>
+      <c r="K86" s="10">
+        <v>1</v>
+      </c>
+      <c r="L86" s="10">
+        <v>3</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="10">
+        <v>4001</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F87" s="10">
+        <v>1</v>
+      </c>
+      <c r="G87" s="10">
+        <v>1</v>
+      </c>
+      <c r="H87" s="10">
+        <v>1</v>
+      </c>
+      <c r="I87" s="10">
+        <v>1</v>
+      </c>
+      <c r="J87" s="10">
         <v>0</v>
       </c>
-      <c r="L34" s="11">
-        <v>1</v>
-      </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="11">
-        <v>1601</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="11">
-        <v>1</v>
-      </c>
-      <c r="G35" s="11">
-        <v>1</v>
-      </c>
-      <c r="H35" s="11">
-        <v>1</v>
-      </c>
-      <c r="I35" s="11">
-        <v>1</v>
-      </c>
-      <c r="J35" s="11">
-        <v>1</v>
-      </c>
-      <c r="K35" s="11">
-        <v>1</v>
-      </c>
-      <c r="L35" s="11">
-        <v>3</v>
-      </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="11">
-        <v>1602</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="11">
-        <v>1</v>
-      </c>
-      <c r="G36" s="11">
-        <v>1</v>
-      </c>
-      <c r="H36" s="11">
-        <v>1</v>
-      </c>
-      <c r="I36" s="11">
-        <v>1</v>
-      </c>
-      <c r="J36" s="11">
-        <v>1</v>
-      </c>
-      <c r="K36" s="11">
-        <v>1</v>
-      </c>
-      <c r="L36" s="11">
-        <v>1</v>
-      </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="11">
-        <v>1603</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="11">
-        <v>1</v>
-      </c>
-      <c r="G37" s="11">
-        <v>1</v>
-      </c>
-      <c r="H37" s="11">
-        <v>1</v>
-      </c>
-      <c r="I37" s="11">
-        <v>1</v>
-      </c>
-      <c r="J37" s="11">
-        <v>1</v>
-      </c>
-      <c r="K37" s="11">
-        <v>1</v>
-      </c>
-      <c r="L37" s="11">
-        <v>1</v>
-      </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-    </row>
-    <row r="38" ht="27" spans="1:17">
-      <c r="A38" s="11">
-        <v>1604</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="11">
-        <v>1</v>
-      </c>
-      <c r="G38" s="11">
-        <v>1</v>
-      </c>
-      <c r="H38" s="11">
-        <v>1</v>
-      </c>
-      <c r="I38" s="11">
-        <v>1</v>
-      </c>
-      <c r="J38" s="11">
-        <v>1</v>
-      </c>
-      <c r="K38" s="11">
-        <v>1</v>
-      </c>
-      <c r="L38" s="11">
-        <v>3</v>
-      </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="11">
-        <v>1605</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="11">
+      <c r="K87" s="10">
         <v>0</v>
       </c>
-      <c r="G39" s="11">
-        <v>1</v>
-      </c>
-      <c r="H39" s="11">
-        <v>1</v>
-      </c>
-      <c r="I39" s="11">
-        <v>1</v>
-      </c>
-      <c r="J39" s="11">
-        <v>1</v>
-      </c>
-      <c r="K39" s="11">
-        <v>0</v>
-      </c>
-      <c r="L39" s="11">
-        <v>1</v>
-      </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="11">
-        <v>1606</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="11">
-        <v>1</v>
-      </c>
-      <c r="G40" s="11">
-        <v>1</v>
-      </c>
-      <c r="H40" s="11">
-        <v>1</v>
-      </c>
-      <c r="I40" s="11">
-        <v>60</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="K40" s="11">
-        <v>1</v>
-      </c>
-      <c r="L40" s="11">
-        <v>1</v>
-      </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="11">
-        <v>1607</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="11">
-        <v>1</v>
-      </c>
-      <c r="G41" s="11">
-        <v>1</v>
-      </c>
-      <c r="H41" s="11">
-        <v>1</v>
-      </c>
-      <c r="I41" s="11">
-        <v>1</v>
-      </c>
-      <c r="J41" s="11">
-        <v>1</v>
-      </c>
-      <c r="K41" s="11">
-        <v>1</v>
-      </c>
-      <c r="L41" s="11">
-        <v>1</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="11">
-        <v>1608</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="11">
-        <v>1</v>
-      </c>
-      <c r="G42" s="11">
-        <v>1</v>
-      </c>
-      <c r="H42" s="11">
-        <v>1</v>
-      </c>
-      <c r="I42" s="11">
-        <v>1</v>
-      </c>
-      <c r="J42" s="11">
-        <v>1</v>
-      </c>
-      <c r="K42" s="11">
-        <v>1</v>
-      </c>
-      <c r="L42" s="11">
-        <v>1</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="11">
-        <v>1609</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="11">
-        <v>1</v>
-      </c>
-      <c r="G43" s="11">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11">
-        <v>1</v>
-      </c>
-      <c r="I43" s="11">
-        <v>1</v>
-      </c>
-      <c r="J43" s="11">
-        <v>1</v>
-      </c>
-      <c r="K43" s="11">
-        <v>1</v>
-      </c>
-      <c r="L43" s="11">
-        <v>1</v>
-      </c>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="11">
-        <v>2001</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="11">
-        <v>1</v>
-      </c>
-      <c r="G44" s="11">
-        <v>1</v>
-      </c>
-      <c r="H44" s="11">
-        <v>1</v>
-      </c>
-      <c r="I44" s="11">
-        <v>1</v>
-      </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <v>1</v>
-      </c>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="11">
-        <v>2002</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="11">
-        <v>1</v>
-      </c>
-      <c r="G45" s="11">
-        <v>1</v>
-      </c>
-      <c r="H45" s="11">
-        <v>1</v>
-      </c>
-      <c r="I45" s="11">
-        <v>1</v>
-      </c>
-      <c r="J45" s="11">
-        <v>0</v>
-      </c>
-      <c r="K45" s="11">
-        <v>0</v>
-      </c>
-      <c r="L45" s="11">
-        <v>1</v>
-      </c>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="11">
-        <v>2003</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="11">
-        <v>1</v>
-      </c>
-      <c r="G46" s="11">
-        <v>1</v>
-      </c>
-      <c r="H46" s="11">
-        <v>1</v>
-      </c>
-      <c r="I46" s="11">
-        <v>1</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>1</v>
-      </c>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="11">
-        <v>3001</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="11">
-        <v>1</v>
-      </c>
-      <c r="G47" s="11">
-        <v>1</v>
-      </c>
-      <c r="H47" s="11">
-        <v>1</v>
-      </c>
-      <c r="I47" s="11">
-        <v>1</v>
-      </c>
-      <c r="J47" s="11">
-        <v>1</v>
-      </c>
-      <c r="K47" s="11">
-        <v>1</v>
-      </c>
-      <c r="L47" s="11">
-        <v>3</v>
-      </c>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="11">
-        <v>3002</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="11">
-        <v>1</v>
-      </c>
-      <c r="G48" s="11">
-        <v>1</v>
-      </c>
-      <c r="H48" s="11">
-        <v>1</v>
-      </c>
-      <c r="I48" s="11">
-        <v>1</v>
-      </c>
-      <c r="J48" s="11">
-        <v>1</v>
-      </c>
-      <c r="K48" s="11">
-        <v>1</v>
-      </c>
-      <c r="L48" s="11">
-        <v>3</v>
-      </c>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="11">
-        <v>3003</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="11">
-        <v>1</v>
-      </c>
-      <c r="G49" s="11">
-        <v>2</v>
-      </c>
-      <c r="H49" s="11">
-        <v>2</v>
-      </c>
-      <c r="I49" s="11">
-        <v>2</v>
-      </c>
-      <c r="J49" s="11">
-        <v>2</v>
-      </c>
-      <c r="K49" s="11">
-        <v>1</v>
-      </c>
-      <c r="L49" s="11">
-        <v>3</v>
-      </c>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="11">
-        <v>3004</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="11">
-        <v>1</v>
-      </c>
-      <c r="G50" s="11">
-        <v>1</v>
-      </c>
-      <c r="H50" s="11">
-        <v>1</v>
-      </c>
-      <c r="I50" s="11">
-        <v>1</v>
-      </c>
-      <c r="J50" s="11">
-        <v>1</v>
-      </c>
-      <c r="K50" s="11">
-        <v>1</v>
-      </c>
-      <c r="L50" s="11">
-        <v>3</v>
-      </c>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="11">
-        <v>4001</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" s="11">
-        <v>1</v>
-      </c>
-      <c r="G51" s="11">
-        <v>1</v>
-      </c>
-      <c r="H51" s="11">
-        <v>1</v>
-      </c>
-      <c r="I51" s="11">
-        <v>1</v>
-      </c>
-      <c r="J51" s="11">
-        <v>0</v>
-      </c>
-      <c r="K51" s="11">
-        <v>0</v>
-      </c>
-      <c r="L51" s="11">
-        <v>1</v>
-      </c>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="11">
-        <v>4002</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="11">
-        <v>1</v>
-      </c>
-      <c r="G52" s="11">
-        <v>1</v>
-      </c>
-      <c r="H52" s="11">
-        <v>1</v>
-      </c>
-      <c r="I52" s="11">
-        <v>1</v>
-      </c>
-      <c r="J52" s="11">
-        <v>0</v>
-      </c>
-      <c r="K52" s="11">
-        <v>0</v>
-      </c>
-      <c r="L52" s="11">
-        <v>1</v>
-      </c>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="11">
-        <v>4003</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" s="11">
-        <v>1</v>
-      </c>
-      <c r="G53" s="11">
-        <v>1</v>
-      </c>
-      <c r="H53" s="11">
-        <v>1</v>
-      </c>
-      <c r="I53" s="11">
-        <v>1</v>
-      </c>
-      <c r="J53" s="11">
-        <v>0</v>
-      </c>
-      <c r="K53" s="11">
-        <v>0</v>
-      </c>
-      <c r="L53" s="11">
-        <v>1</v>
-      </c>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="11">
-        <v>4004</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="11">
-        <v>1</v>
-      </c>
-      <c r="G54" s="11">
-        <v>1</v>
-      </c>
-      <c r="H54" s="11">
-        <v>1</v>
-      </c>
-      <c r="I54" s="11">
-        <v>1</v>
-      </c>
-      <c r="J54" s="11">
-        <v>0</v>
-      </c>
-      <c r="K54" s="11">
-        <v>0</v>
-      </c>
-      <c r="L54" s="11">
-        <v>1</v>
-      </c>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="11">
+      <c r="L87" s="10">
+        <v>1</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="10">
         <v>3005</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="11">
+      <c r="B88" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="10">
         <v>3006</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="11">
+      <c r="B89" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="10">
         <v>3007</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="11">
+      <c r="B90" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="10">
         <v>4005</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="11">
+      <c r="B91" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="10">
         <v>4006</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="11">
+      <c r="B92" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="10">
         <v>3008</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="11">
+      <c r="B93" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="10">
         <v>4007</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="11">
+      <c r="B94" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="10">
         <v>3009</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="11">
+      <c r="B95" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="10">
         <v>3010</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="11">
+      <c r="B96" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="10">
         <v>3011</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="11">
+      <c r="B97" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="10">
         <v>4008</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
+      <c r="B98" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
@@ -4806,19 +6052,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>178</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4832,10 +6078,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4849,7 +6095,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -4863,97 +6109,97 @@
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>188</v>
+      <c r="B5" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>192</v>
+      <c r="B6" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>195</v>
+      <c r="B7" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>196</v>
+      <c r="B8" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>198</v>
+        <v>312</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
@@ -4967,8 +6213,8 @@
   <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4981,19 +6227,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>178</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5007,10 +6253,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>199</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5024,7 +6270,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -5038,13 +6284,13 @@
         <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5052,16 +6298,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>203</v>
+        <v>318</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5069,16 +6315,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>206</v>
+        <v>321</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>207</v>
+        <v>322</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>208</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:5">
@@ -5086,16 +6332,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>209</v>
+        <v>324</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>211</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5103,16 +6349,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5120,16 +6366,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>216</v>
+        <v>331</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>217</v>
+        <v>332</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>218</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
@@ -5137,16 +6383,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>221</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" ht="31.5" spans="1:5">
@@ -5154,16 +6400,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>222</v>
+        <v>337</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>224</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
@@ -5171,16 +6417,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>225</v>
+        <v>340</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>226</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" ht="31.5" spans="1:5">
@@ -5188,16 +6434,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>227</v>
+        <v>342</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>228</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -5211,16 +6457,16 @@
         <v>101</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>231</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5228,16 +6474,16 @@
         <v>102</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>232</v>
+        <v>347</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>233</v>
+        <v>348</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>234</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5245,16 +6491,16 @@
         <v>103</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>236</v>
+        <v>351</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>237</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5262,16 +6508,16 @@
         <v>104</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>238</v>
+        <v>353</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>239</v>
+        <v>354</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>240</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5279,16 +6525,16 @@
         <v>105</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>241</v>
+        <v>356</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>243</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372">
   <si>
     <t>技能ID</t>
   </si>
@@ -447,7 +447,7 @@
     <t>灵气箭</t>
   </si>
   <si>
-    <t>最基础的灵属性单体法术</t>
+    <t>将灵气汇聚成箭的形状射向对手，对其造成灵属性伤害。</t>
   </si>
   <si>
     <t>Neutral</t>
@@ -459,7 +459,7 @@
     <t>强力灵气箭</t>
   </si>
   <si>
-    <t>更强力的灵气箭</t>
+    <t>发射更大的灵气箭，造成灵属性伤害。</t>
   </si>
   <si>
     <t>30</t>
@@ -471,7 +471,7 @@
     <t>灵气弹</t>
   </si>
   <si>
-    <t>将灵气汇聚成球状，攻击敌方全体</t>
+    <t>将大量灵气汇聚成球状掷向对手，可伤害敌方全体。</t>
   </si>
   <si>
     <t>2004</t>
@@ -480,7 +480,7 @@
     <t>灵气乱射</t>
   </si>
   <si>
-    <t>发射大量不稳定的灵气箭随机攻击敌人</t>
+    <t>迅速发射大量不稳定的灵气箭随机攻击对手。</t>
   </si>
   <si>
     <t>Random</t>
@@ -582,7 +582,7 @@
     <t>冰封术</t>
   </si>
   <si>
-    <t>利用灵力冻结敌人，可能造成冰冻</t>
+    <t>利用阴之力产生冰块冻结对手，可能造成冰冻。</t>
   </si>
   <si>
     <t>Yin</t>
@@ -594,19 +594,32 @@
     <t>强力冰封术</t>
   </si>
   <si>
-    <t>更强力的冰封术，冰冻几率上升</t>
+    <t>产生更大的冰块冻结对手，更易造成冰冻。</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>2103</t>
   </si>
   <si>
     <t>吸星术</t>
   </si>
   <si>
-    <t>吸取敌人的生命值</t>
+    <r>
+      <t>使用诡异禁术吸取对方全体的灵气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>36</t>
@@ -618,10 +631,20 @@
     <t>狂风枪</t>
   </si>
   <si>
-    <t>快速而稳定的攻击，无视敌方防御</t>
-  </si>
-  <si>
-    <t>32</t>
+    <r>
+      <t>将灵力融进风之力化为尖枪掷出，很难躲过的一击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>2105</t>
@@ -630,10 +653,7 @@
     <t>灵力侵蚀</t>
   </si>
   <si>
-    <t>对敌全体进行侵蚀，使敌人中毒</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>利用阴气的力量侵蚀对方全体，使其中毒。</t>
   </si>
   <si>
     <t>2106</t>
@@ -708,7 +728,7 @@
     <t>阳炎术</t>
   </si>
   <si>
-    <t>利用灵力燃烧敌人，可能造成点燃</t>
+    <t>利用阳之力产生火焰点燃对手，可能造成烧伤。</t>
   </si>
   <si>
     <t>Yang</t>
@@ -720,7 +740,7 @@
     <t>强力阳炎术</t>
   </si>
   <si>
-    <t>更强力的阳炎术，点燃几率上升</t>
+    <t>产生更强的火焰点燃对手，更易造成烧伤。</t>
   </si>
   <si>
     <t>25</t>
@@ -732,7 +752,10 @@
     <t>雷暴术</t>
   </si>
   <si>
-    <t>雷电攻击全体，命中率较低但高几率造成麻痹效果</t>
+    <t>召唤天雷攻击对手全体，可能造成麻痹。</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>2204</t>
@@ -741,7 +764,7 @@
     <t>圣光</t>
   </si>
   <si>
-    <t>令角色进入激昂状态，攻防速上升</t>
+    <t>光环：令角色进入激昂状态，攻防速上升</t>
   </si>
   <si>
     <t>SingleAlly</t>
@@ -793,6 +816,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>召唤陨石</t>
     </r>
     <r>
@@ -1013,6 +1041,42 @@
       </rPr>
       <t>rozen</t>
     </r>
+  </si>
+  <si>
+    <t>烧伤</t>
+  </si>
+  <si>
+    <t>攻防下降50%</t>
+  </si>
+  <si>
+    <t>Burnt</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>逐渐流失生命</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>麻痹</t>
+  </si>
+  <si>
+    <t>命中回避暴击抗暴下降</t>
+  </si>
+  <si>
+    <t>Paralized</t>
+  </si>
+  <si>
+    <t>击倒</t>
+  </si>
+  <si>
+    <t>回到时间轴0点，并且容易被暴击</t>
+  </si>
+  <si>
+    <t>Knockout</t>
   </si>
   <si>
     <t>effectString</t>
@@ -1410,12 +1474,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1445,13 +1509,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1467,6 +1524,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1476,7 +1548,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1496,16 +1568,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1513,30 +1577,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1550,31 +1590,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1590,6 +1629,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1597,15 +1660,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1616,7 +1673,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,7 +1688,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,13 +1712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,19 +1730,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,31 +1772,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,7 +1796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1733,19 +1820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,49 +1850,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,15 +1885,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1845,6 +1899,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1864,17 +1927,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1899,6 +1956,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1913,162 +1985,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2109,16 +2172,16 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2435,10 +2498,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3918,9 +3981,15 @@
       <c r="L32" s="10">
         <v>2</v>
       </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+      <c r="M32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="P32" s="10" t="s">
         <v>61</v>
       </c>
@@ -4578,7 +4647,7 @@
       <c r="B50" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
       <c r="D50" s="10" t="s">
@@ -4609,7 +4678,7 @@
       <c r="B51" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="12" t="s">
         <v>166</v>
       </c>
       <c r="D51" s="10" t="s">
@@ -4640,7 +4709,7 @@
       <c r="B52" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D52" s="10" t="s">
@@ -4671,7 +4740,7 @@
       <c r="B53" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="12" t="s">
         <v>173</v>
       </c>
       <c r="D53" s="10" t="s">
@@ -4702,7 +4771,7 @@
       <c r="B54" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="12" t="s">
         <v>177</v>
       </c>
       <c r="D54" s="10" t="s">
@@ -4733,7 +4802,7 @@
       <c r="B55" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C55" s="10"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="10" t="s">
         <v>144</v>
       </c>
@@ -4760,7 +4829,7 @@
       <c r="B56" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="10" t="s">
         <v>144</v>
       </c>
@@ -4787,7 +4856,7 @@
       <c r="B57" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="12" t="s">
         <v>185</v>
       </c>
       <c r="D57" s="10" t="s">
@@ -4810,28 +4879,16 @@
       <c r="Q57" s="10"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
@@ -4842,13 +4899,13 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>189</v>
@@ -4861,118 +4918,138 @@
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
+      <c r="M59" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
+      <c r="M60" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
+      <c r="P61" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
+      <c r="P62" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q62" s="10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>189</v>
@@ -4985,69 +5062,81 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
+      <c r="M63" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
+      <c r="M64" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="O64" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
     </row>
-    <row r="65" ht="27" spans="1:17">
+    <row r="65" spans="1:17">
       <c r="A65" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
@@ -5057,28 +5146,28 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" ht="27" spans="1:17">
       <c r="A66" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
@@ -5090,26 +5179,26 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
@@ -5121,21 +5210,27 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C68" s="10"/>
+        <v>220</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>222</v>
+      </c>
       <c r="D68" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
+      <c r="J68" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
@@ -5146,12 +5241,12 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C69" s="10"/>
+        <v>224</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="12"/>
       <c r="D69" s="10" t="s">
         <v>189</v>
       </c>
@@ -5171,27 +5266,21 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>230</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" s="12"/>
       <c r="D70" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>47</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="J70" s="10"/>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
@@ -5201,28 +5290,16 @@
       <c r="Q70" s="10"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="A71" s="10"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="10" t="s">
-        <v>235</v>
-      </c>
+      <c r="J71" s="10"/>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
@@ -5233,119 +5310,137 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>237</v>
+        <v>228</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>231</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="10" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
+      <c r="M72" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>240</v>
+        <v>232</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>231</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
+      <c r="M73" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>244</v>
+        <v>236</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>231</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="10" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
+      <c r="M74" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>231</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="10" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
@@ -5357,26 +5452,26 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>251</v>
+        <v>244</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>231</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>47</v>
+        <v>243</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="10" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -5386,28 +5481,28 @@
       <c r="P76" s="10"/>
       <c r="Q76" s="10"/>
     </row>
-    <row r="77" ht="27" spans="1:17">
+    <row r="77" spans="1:17">
       <c r="A77" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>255</v>
+        <v>247</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>231</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="10" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -5419,26 +5514,26 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>258</v>
+        <v>251</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>231</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
@@ -5448,28 +5543,28 @@
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" ht="27" spans="1:17">
       <c r="A79" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>231</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10" t="s">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
@@ -5481,21 +5576,27 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C80" s="10"/>
+        <v>257</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="D80" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E80" s="10"/>
+      <c r="E80" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
+      <c r="J80" s="10" t="s">
+        <v>174</v>
+      </c>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
@@ -5506,21 +5607,27 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C81" s="10"/>
+        <v>260</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>262</v>
+      </c>
       <c r="D81" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E81" s="10"/>
+      <c r="E81" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
+      <c r="J81" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
       <c r="M81" s="10"/>
@@ -5530,10 +5637,16 @@
       <c r="Q81" s="10"/>
     </row>
     <row r="82" spans="1:17">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
+      <c r="A82" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="10" t="s">
+        <v>231</v>
+      </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -5549,42 +5662,24 @@
       <c r="Q82" s="10"/>
     </row>
     <row r="83" spans="1:17">
-      <c r="A83" s="10">
-        <v>3001</v>
-      </c>
-      <c r="B83" s="10" t="s">
+      <c r="A83" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B83" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>267</v>
-      </c>
+      <c r="C83" s="12"/>
       <c r="D83" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" s="10">
-        <v>1</v>
-      </c>
-      <c r="G83" s="10">
-        <v>1</v>
-      </c>
-      <c r="H83" s="10">
-        <v>1</v>
-      </c>
-      <c r="I83" s="10">
-        <v>1</v>
-      </c>
-      <c r="J83" s="10">
-        <v>1</v>
-      </c>
-      <c r="K83" s="10">
-        <v>1</v>
-      </c>
-      <c r="L83" s="10">
-        <v>3</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
@@ -5592,42 +5687,18 @@
       <c r="Q83" s="10"/>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="10">
-        <v>3002</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" s="10">
-        <v>1</v>
-      </c>
-      <c r="G84" s="10">
-        <v>1</v>
-      </c>
-      <c r="H84" s="10">
-        <v>1</v>
-      </c>
-      <c r="I84" s="10">
-        <v>1</v>
-      </c>
-      <c r="J84" s="10">
-        <v>1</v>
-      </c>
-      <c r="K84" s="10">
-        <v>1</v>
-      </c>
-      <c r="L84" s="10">
-        <v>3</v>
-      </c>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
@@ -5636,13 +5707,13 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="10">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>42</v>
@@ -5654,16 +5725,16 @@
         <v>1</v>
       </c>
       <c r="G85" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K85" s="10">
         <v>1</v>
@@ -5679,19 +5750,19 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="10">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F86" s="10">
         <v>1</v>
@@ -5722,40 +5793,40 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="10">
-        <v>4001</v>
+        <v>3003</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>270</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F87" s="10">
         <v>1</v>
       </c>
       <c r="G87" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
@@ -5765,21 +5836,41 @@
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="10">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
+        <v>271</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" s="10">
+        <v>1</v>
+      </c>
+      <c r="G88" s="10">
+        <v>1</v>
+      </c>
+      <c r="H88" s="10">
+        <v>1</v>
+      </c>
+      <c r="I88" s="10">
+        <v>1</v>
+      </c>
+      <c r="J88" s="10">
+        <v>1</v>
+      </c>
+      <c r="K88" s="10">
+        <v>1</v>
+      </c>
+      <c r="L88" s="10">
+        <v>3</v>
+      </c>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
@@ -5788,21 +5879,41 @@
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="10">
-        <v>3006</v>
+        <v>4001</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
+        <v>271</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F89" s="10">
+        <v>1</v>
+      </c>
+      <c r="G89" s="10">
+        <v>1</v>
+      </c>
+      <c r="H89" s="10">
+        <v>1</v>
+      </c>
+      <c r="I89" s="10">
+        <v>1</v>
+      </c>
+      <c r="J89" s="10">
+        <v>0</v>
+      </c>
+      <c r="K89" s="10">
+        <v>0</v>
+      </c>
+      <c r="L89" s="10">
+        <v>1</v>
+      </c>
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
@@ -5811,10 +5922,10 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="10">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
@@ -5834,10 +5945,10 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="10">
-        <v>4005</v>
+        <v>3006</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -5857,10 +5968,10 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="10">
-        <v>4006</v>
+        <v>3007</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -5880,10 +5991,10 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="10">
-        <v>3008</v>
+        <v>4005</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -5903,14 +6014,12 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="10">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>280</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
@@ -5928,14 +6037,12 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="10">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>282</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C95" s="10"/>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
@@ -5953,13 +6060,13 @@
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="10">
-        <v>3010</v>
+        <v>4007</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
@@ -5978,13 +6085,13 @@
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="10">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
@@ -6003,13 +6110,13 @@
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="10">
-        <v>4008</v>
+        <v>3010</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -6026,6 +6133,56 @@
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
     </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="10">
+        <v>3011</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="10">
+        <v>4008</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6036,10 +6193,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -6052,19 +6209,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6078,10 +6235,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6095,7 +6252,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -6109,13 +6266,13 @@
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6123,16 +6280,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
@@ -6140,16 +6297,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
@@ -6157,16 +6314,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6174,32 +6331,85 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" t="s">
+        <v>326</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
@@ -6214,7 +6424,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -6227,19 +6437,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6253,10 +6463,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6270,7 +6480,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -6284,13 +6494,13 @@
         <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6298,16 +6508,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6315,16 +6525,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:5">
@@ -6335,13 +6545,13 @@
         <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6349,16 +6559,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6366,16 +6576,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
@@ -6383,16 +6593,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" ht="31.5" spans="1:5">
@@ -6400,16 +6610,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
@@ -6420,13 +6630,13 @@
         <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" ht="31.5" spans="1:5">
@@ -6437,13 +6647,13 @@
         <v>102</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -6457,16 +6667,16 @@
         <v>101</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6474,16 +6684,16 @@
         <v>102</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6491,16 +6701,16 @@
         <v>103</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6508,16 +6718,16 @@
         <v>104</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6525,16 +6735,16 @@
         <v>105</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9825"/>
+    <workbookView windowWidth="22935" windowHeight="9825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389">
   <si>
     <t>技能ID</t>
   </si>
@@ -507,7 +507,22 @@
     <t>终极灵气箭</t>
   </si>
   <si>
-    <t>最为强力的灵气箭</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发射大小惊人的灵气箭，容易产生暴击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>2007</t>
@@ -516,7 +531,7 @@
     <t>强力灵气弹</t>
   </si>
   <si>
-    <t>更强力的灵气弹</t>
+    <t>掷出大体积的灵气弹，造成更多伤害的同时也会消耗更多元神。</t>
   </si>
   <si>
     <t>120</t>
@@ -528,7 +543,10 @@
     <t>灵气共鸣</t>
   </si>
   <si>
-    <t>损失20%体力，对敌全体造成等量伤害，对灵力型角色伤害翻倍</t>
+    <t>光环：停止法力回复，每回合对对方全体造成回复量相等的伤害。</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>2009</t>
@@ -537,10 +555,10 @@
     <t>狂化灵气乱射</t>
   </si>
   <si>
-    <t>更强力的灵气乱射，但可能造成自己狂乱</t>
-  </si>
-  <si>
-    <t>150</t>
+    <t>疯狂发射强大的灵气箭随机攻击对手，但可能造成自身狂乱。</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t>2010</t>
@@ -549,12 +567,15 @@
     <t>灵之幻境</t>
   </si>
   <si>
-    <t>幻境：所有人只会受到灵属性攻击的伤害</t>
+    <t>创造一个幻境，只有灵属性法术可以造成伤害，且提升伤害值。</t>
   </si>
   <si>
     <t>Everyone</t>
   </si>
   <si>
+    <t>0.15</t>
+  </si>
+  <si>
     <t>2011</t>
   </si>
   <si>
@@ -573,9 +594,6 @@
     <t>灵力解放</t>
   </si>
   <si>
-    <t>光环：法术威力、吟唱速度、消耗上升，命中率下降</t>
-  </si>
-  <si>
     <t>2101</t>
   </si>
   <si>
@@ -610,6 +628,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>使用诡异禁术吸取对方全体的灵气</t>
     </r>
     <r>
@@ -632,6 +655,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>将灵力融进风之力化为尖枪掷出，很难躲过的一击</t>
     </r>
     <r>
@@ -662,28 +690,31 @@
     <t>终极冰封术</t>
   </si>
   <si>
-    <t>最强力的冰封术，可攻击全部敌人</t>
+    <t>召唤密不透风的巨型冰柱，对所有对手造成伤害，并可能造成冰冻。</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>暗之原力</t>
+  </si>
+  <si>
+    <t>阴法术本质的一击，可能造成失魂</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>暗之原力</t>
-  </si>
-  <si>
-    <t>阴法术本质的一击，可能造成失魂</t>
-  </si>
-  <si>
     <t>2108</t>
   </si>
   <si>
     <t>月之领域</t>
   </si>
   <si>
-    <t>幻境：我方免疫阴属性伤害，并且所有攻击无视对方防御状态</t>
+    <t>创造一个幻境，令我方免疫全部的阴属性伤害并且攻击对方防御状态。</t>
+  </si>
+  <si>
+    <t>0.12</t>
   </si>
   <si>
     <t>2109</t>
@@ -692,7 +723,7 @@
     <t>诅咒</t>
   </si>
   <si>
-    <t>令自己和敌方全体进入诅咒状态，直到自身失去战斗能力</t>
+    <t>令自己和对方指定对象进入诅咒状态，直到有一方不能战斗。</t>
   </si>
   <si>
     <t>88</t>
@@ -704,7 +735,7 @@
     <t>灵气偷取</t>
   </si>
   <si>
-    <t>偷取对方的生命上限并转换为自身的灵气</t>
+    <t>光环：偷取对方的生命上限并转换为自身的灵气，但若对方死亡则自身受到巨大伤害。</t>
   </si>
   <si>
     <t>66</t>
@@ -785,19 +816,19 @@
     <t>终极阳炎术</t>
   </si>
   <si>
-    <t>最强力的阳炎术，可攻击全部敌人</t>
+    <t>召唤滔天业火，对所有对手造成伤害，并可能造成点燃。</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>光之原力</t>
+  </si>
+  <si>
+    <t>阳法术本质的一击，可能令自己祝福</t>
   </si>
   <si>
     <t>90</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>光之原力</t>
-  </si>
-  <si>
-    <t>阳法术本质的一击，可能令自己祝福</t>
   </si>
   <si>
     <t>2208</t>
@@ -833,16 +864,16 @@
     </r>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>2210</t>
   </si>
   <si>
     <t>灵气过载</t>
   </si>
   <si>
-    <t>光环：灵力无穷，但3回合后失去战斗力</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>光环：灵力暂时无穷，但几回合后会失去战斗能力。</t>
   </si>
   <si>
     <t>2211</t>
@@ -1077,6 +1108,66 @@
   </si>
   <si>
     <t>Knockout</t>
+  </si>
+  <si>
+    <t>狂乱</t>
+  </si>
+  <si>
+    <t>攻击力上升，但行动不受限制且可能攻击友方</t>
+  </si>
+  <si>
+    <t>Bezerk</t>
+  </si>
+  <si>
+    <t>失魂</t>
+  </si>
+  <si>
+    <t>只能选择[跳过]</t>
+  </si>
+  <si>
+    <t>Insane</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>完全抵御下次伤害</t>
+  </si>
+  <si>
+    <t>Blessed</t>
+  </si>
+  <si>
+    <t>诅咒(1)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Cursed1</t>
+  </si>
+  <si>
+    <t>诅咒(2）</t>
+  </si>
+  <si>
+    <t>造成的伤害100%反噬给自己</t>
+  </si>
+  <si>
+    <t>Cursed2</t>
   </si>
   <si>
     <t>effectString</t>
@@ -1474,10 +1565,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1531,11 +1622,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1554,20 +1720,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1575,78 +1728,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,9 +1752,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1694,13 +1785,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,7 +1911,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1730,151 +1959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,69 +1979,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1971,6 +2003,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1985,6 +2067,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1993,10 +2084,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2005,137 +2096,137 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2159,6 +2250,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2500,3688 +2594,3686 @@
   <sheetPr/>
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+    <sheetView topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16" style="8" customWidth="1"/>
-    <col min="3" max="3" width="47.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16" style="8" customWidth="1"/>
-    <col min="6" max="12" width="10.25" style="8" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="8" customWidth="1"/>
-    <col min="14" max="15" width="12.5" style="8" customWidth="1"/>
-    <col min="16" max="16" width="8" style="8" customWidth="1"/>
-    <col min="17" max="17" width="11.875" style="8" customWidth="1"/>
-    <col min="18" max="20" width="11.25" style="8" customWidth="1"/>
-    <col min="21" max="21" width="70.875" style="8" customWidth="1"/>
-    <col min="22" max="23" width="9" style="8"/>
-    <col min="24" max="24" width="10.5" style="8" customWidth="1"/>
-    <col min="25" max="26" width="9" style="8"/>
-    <col min="27" max="27" width="11.625" style="8" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="8.25" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="3" max="3" width="47.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16" style="9" customWidth="1"/>
+    <col min="6" max="12" width="10.25" style="9" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="9" customWidth="1"/>
+    <col min="14" max="15" width="12.5" style="9" customWidth="1"/>
+    <col min="16" max="16" width="8" style="9" customWidth="1"/>
+    <col min="17" max="17" width="11.875" style="9" customWidth="1"/>
+    <col min="18" max="20" width="11.25" style="9" customWidth="1"/>
+    <col min="21" max="21" width="70.875" style="9" customWidth="1"/>
+    <col min="22" max="23" width="9" style="9"/>
+    <col min="24" max="24" width="10.5" style="9" customWidth="1"/>
+    <col min="25" max="26" width="9" style="9"/>
+    <col min="27" max="27" width="11.625" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:17">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:17">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>1101</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
         <v>3</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="11">
         <v>3</v>
       </c>
-      <c r="K5" s="10">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10">
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>1102</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>1.5</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="11">
         <v>0.9</v>
       </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
         <v>2</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="11">
         <v>3</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" ht="27" spans="1:17">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>1103</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <v>6</v>
       </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
         <v>3</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <v>0.25</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="11">
         <v>1.2</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="11">
         <v>0.5</v>
       </c>
-      <c r="L7" s="10">
-        <v>1</v>
-      </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14">
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15">
         <v>3</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:17">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>1104</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>10</v>
       </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
         <v>10</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="11">
         <v>0.25</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="11">
         <v>10</v>
       </c>
-      <c r="L8" s="10">
-        <v>1</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14" t="s">
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>1105</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>0.5</v>
       </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11">
         <v>0.3</v>
       </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10">
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11">
         <v>2</v>
       </c>
-      <c r="L9" s="10">
-        <v>1</v>
-      </c>
-      <c r="M9" s="14" t="s">
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:17">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>1106</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <v>0.8</v>
       </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11">
         <v>2</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="11">
         <v>0.2</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <v>0</v>
       </c>
-      <c r="L10" s="10">
-        <v>1</v>
-      </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>1201</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10">
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11">
         <v>3</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>1202</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="11">
         <v>1.2</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="11">
         <v>0.8</v>
       </c>
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
         <v>0.7</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="11">
         <v>2</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="11">
         <v>1.5</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="11">
         <v>2</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" ht="27" spans="1:17">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>1203</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="11">
         <v>3</v>
       </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
         <v>2</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="11">
         <v>5</v>
       </c>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11">
         <v>3</v>
       </c>
-      <c r="L13" s="10">
-        <v>1</v>
-      </c>
-      <c r="M13" s="14" t="s">
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+      <c r="M13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" ht="27" spans="1:17">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>1204</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>1.2</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="11">
         <v>0.8</v>
       </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
         <v>0.7</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="11">
         <v>2</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="11">
         <v>1.5</v>
       </c>
-      <c r="L14" s="10">
-        <v>1</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="L14" s="11">
+        <v>1</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" ht="27" spans="1:17">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>1205</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10">
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
         <v>0.7</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="11">
         <v>0.3</v>
       </c>
-      <c r="K15" s="10">
-        <v>1</v>
-      </c>
-      <c r="L15" s="10">
-        <v>1</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="K15" s="11">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" ht="27" spans="1:17">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>1206</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1</v>
-      </c>
-      <c r="I16" s="10">
-        <v>1</v>
-      </c>
-      <c r="J16" s="10">
-        <v>1</v>
-      </c>
-      <c r="K16" s="10">
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11">
         <v>0</v>
       </c>
-      <c r="L16" s="10">
-        <v>1</v>
-      </c>
-      <c r="M16" s="14" t="s">
+      <c r="L16" s="11">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" ht="27" spans="1:17">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>1207</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="11">
         <v>1.6</v>
       </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10">
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11">
         <v>0.3</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="11">
         <v>0.7</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="11">
         <v>2</v>
       </c>
-      <c r="L17" s="10">
-        <v>1</v>
-      </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14" t="s">
+      <c r="L17" s="11">
+        <v>1</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>1301</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10">
-        <v>1</v>
-      </c>
-      <c r="J18" s="10">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10">
-        <v>1</v>
-      </c>
-      <c r="L18" s="10">
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11">
         <v>3</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="10">
+      <c r="A19" s="11">
         <v>1302</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="11">
         <v>1.3</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="11">
         <v>0.9</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="11">
         <v>1.2</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="11">
         <v>0.8</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="11">
         <v>0.5</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="11">
         <v>1.5</v>
       </c>
-      <c r="L19" s="10">
-        <v>1</v>
-      </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
     </row>
     <row r="20" ht="27" spans="1:17">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>1303</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="11">
         <v>2</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="11">
         <v>0.8</v>
       </c>
-      <c r="H20" s="10">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10">
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11">
         <v>0.7</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="11">
         <v>0.3</v>
       </c>
-      <c r="K20" s="10">
-        <v>1</v>
-      </c>
-      <c r="L20" s="10">
+      <c r="K20" s="11">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11">
         <v>2</v>
       </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="10">
+      <c r="A21" s="11">
         <v>1304</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <v>0.7</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="11">
         <v>1.3</v>
       </c>
-      <c r="H21" s="10">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="H21" s="11">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11">
         <v>2</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="11">
         <v>0.5</v>
       </c>
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10">
-        <v>1</v>
-      </c>
-      <c r="M21" s="14" t="s">
+      <c r="K21" s="11">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11">
+        <v>1</v>
+      </c>
+      <c r="M21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="10">
+      <c r="A22" s="11">
         <v>1305</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="11">
         <v>1.9</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="11">
         <v>0.7</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="11">
         <v>2</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="11">
         <v>0.75</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="11">
         <v>2</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="11">
         <v>0.9</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="11">
         <v>2</v>
       </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" ht="27" spans="1:17">
-      <c r="A23" s="10">
+      <c r="A23" s="11">
         <v>1306</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="11">
         <v>2.5</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="11">
         <v>1.3</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="11">
         <v>0</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="11">
         <v>2</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="11">
         <v>2</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="11">
         <v>0</v>
       </c>
-      <c r="L23" s="10">
-        <v>1</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14" t="s">
+      <c r="L23" s="11">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="Q23" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="10">
+      <c r="A24" s="11">
         <v>1401</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-      <c r="I24" s="10">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10">
-        <v>1</v>
-      </c>
-      <c r="K24" s="10">
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1</v>
+      </c>
+      <c r="K24" s="11">
         <v>0.8</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="11">
         <v>2</v>
       </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="10">
+      <c r="A25" s="11">
         <v>1402</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="11">
         <v>1.5</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="11">
         <v>0.7</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="11">
         <v>1.2</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="11">
         <v>0.7</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="11">
         <v>0.7</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="11">
         <v>1.3</v>
       </c>
-      <c r="L25" s="10">
-        <v>1</v>
-      </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
+      <c r="L25" s="11">
+        <v>1</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="26" ht="27" spans="1:17">
-      <c r="A26" s="10">
+      <c r="A26" s="11">
         <v>1403</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="11">
         <v>1.5</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="11">
         <v>1.25</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="11">
         <v>1.25</v>
       </c>
-      <c r="I26" s="10">
-        <v>1</v>
-      </c>
-      <c r="J26" s="10">
-        <v>1</v>
-      </c>
-      <c r="K26" s="10">
-        <v>1</v>
-      </c>
-      <c r="L26" s="10">
-        <v>1</v>
-      </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14" t="s">
+      <c r="I26" s="11">
+        <v>1</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="Q26" s="14" t="s">
+      <c r="Q26" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="10">
+      <c r="A27" s="11">
         <v>1404</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="11">
         <v>2</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="11">
         <v>1.25</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="11">
         <v>1.25</v>
       </c>
-      <c r="I27" s="10">
-        <v>1</v>
-      </c>
-      <c r="J27" s="10">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10">
-        <v>1</v>
-      </c>
-      <c r="L27" s="10">
-        <v>1</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
+      <c r="I27" s="11">
+        <v>1</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1</v>
+      </c>
+      <c r="K27" s="11">
+        <v>1</v>
+      </c>
+      <c r="L27" s="11">
+        <v>1</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="10">
+      <c r="A28" s="11">
         <v>1405</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="11">
         <v>0.8</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="11">
         <v>1.25</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="11">
         <v>1.25</v>
       </c>
-      <c r="I28" s="10">
-        <v>1</v>
-      </c>
-      <c r="J28" s="10">
-        <v>1</v>
-      </c>
-      <c r="K28" s="10">
-        <v>1</v>
-      </c>
-      <c r="L28" s="10">
-        <v>1</v>
-      </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10" t="s">
+      <c r="I28" s="11">
+        <v>1</v>
+      </c>
+      <c r="J28" s="11">
+        <v>1</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1</v>
+      </c>
+      <c r="L28" s="11">
+        <v>1</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="Q28" s="10" t="s">
+      <c r="Q28" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="10">
+      <c r="A29" s="11">
         <v>1501</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="10">
-        <v>1</v>
-      </c>
-      <c r="J29" s="10">
-        <v>1</v>
-      </c>
-      <c r="K29" s="10">
-        <v>1</v>
-      </c>
-      <c r="L29" s="10">
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1</v>
+      </c>
+      <c r="L29" s="11">
         <v>3</v>
       </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="10">
+      <c r="A30" s="11">
         <v>1502</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="11">
         <v>1.2</v>
       </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="10">
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11">
         <v>2</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="11">
         <v>0.25</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="11">
         <v>0.8</v>
       </c>
-      <c r="K30" s="10">
-        <v>1</v>
-      </c>
-      <c r="L30" s="10">
-        <v>1</v>
-      </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
+      <c r="K30" s="11">
+        <v>1</v>
+      </c>
+      <c r="L30" s="11">
+        <v>1</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="10">
+      <c r="A31" s="11">
         <v>1503</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="11">
         <v>0.8</v>
       </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10">
-        <v>1</v>
-      </c>
-      <c r="I31" s="10">
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1</v>
+      </c>
+      <c r="I31" s="11">
         <v>1.5</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="11">
         <v>1.5</v>
       </c>
-      <c r="K31" s="10">
-        <v>1</v>
-      </c>
-      <c r="L31" s="10">
+      <c r="K31" s="11">
+        <v>1</v>
+      </c>
+      <c r="L31" s="11">
         <v>3</v>
       </c>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10" t="s">
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="Q31" s="10" t="s">
+      <c r="Q31" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" ht="27" spans="1:17">
-      <c r="A32" s="10">
+      <c r="A32" s="11">
         <v>1504</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="10">
-        <v>1</v>
-      </c>
-      <c r="I32" s="10">
-        <v>1</v>
-      </c>
-      <c r="J32" s="10">
-        <v>1</v>
-      </c>
-      <c r="K32" s="10">
-        <v>1</v>
-      </c>
-      <c r="L32" s="10">
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1</v>
+      </c>
+      <c r="J32" s="11">
+        <v>1</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
         <v>2</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="N32" s="10" t="s">
+      <c r="N32" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="O32" s="10" t="s">
+      <c r="O32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="P32" s="10" t="s">
+      <c r="P32" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Q32" s="10" t="s">
+      <c r="Q32" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="10">
+      <c r="A33" s="11">
         <v>1505</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="10">
-        <v>1</v>
-      </c>
-      <c r="I33" s="10">
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1</v>
+      </c>
+      <c r="I33" s="11">
         <v>1.5</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="11">
         <v>0.2</v>
       </c>
-      <c r="K33" s="10">
-        <v>1</v>
-      </c>
-      <c r="L33" s="10">
-        <v>1</v>
-      </c>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="K33" s="11">
+        <v>1</v>
+      </c>
+      <c r="L33" s="11">
+        <v>1</v>
+      </c>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="10">
+      <c r="A34" s="11">
         <v>1506</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="11">
         <v>0.3</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="11">
         <v>1.2</v>
       </c>
-      <c r="H34" s="10">
-        <v>1</v>
-      </c>
-      <c r="I34" s="10">
-        <v>1</v>
-      </c>
-      <c r="J34" s="10">
+      <c r="H34" s="11">
+        <v>1</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1</v>
+      </c>
+      <c r="J34" s="11">
         <v>0.5</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="11">
         <v>0</v>
       </c>
-      <c r="L34" s="10">
-        <v>1</v>
-      </c>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
+      <c r="L34" s="11">
+        <v>1</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="10">
+      <c r="A35" s="11">
         <v>1601</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10">
-        <v>1</v>
-      </c>
-      <c r="I35" s="10">
-        <v>1</v>
-      </c>
-      <c r="J35" s="10">
-        <v>1</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10">
+      <c r="F35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11">
+        <v>1</v>
+      </c>
+      <c r="I35" s="11">
+        <v>1</v>
+      </c>
+      <c r="J35" s="11">
+        <v>1</v>
+      </c>
+      <c r="K35" s="11">
+        <v>1</v>
+      </c>
+      <c r="L35" s="11">
         <v>3</v>
       </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="10">
+      <c r="A36" s="11">
         <v>1602</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="10">
-        <v>1</v>
-      </c>
-      <c r="I36" s="10">
-        <v>1</v>
-      </c>
-      <c r="J36" s="10">
-        <v>1</v>
-      </c>
-      <c r="K36" s="10">
-        <v>1</v>
-      </c>
-      <c r="L36" s="10">
-        <v>1</v>
-      </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
+      <c r="F36" s="11">
+        <v>1</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1</v>
+      </c>
+      <c r="J36" s="11">
+        <v>1</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1</v>
+      </c>
+      <c r="L36" s="11">
+        <v>1</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="10">
+      <c r="A37" s="11">
         <v>1603</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10">
-        <v>1</v>
-      </c>
-      <c r="H37" s="10">
-        <v>1</v>
-      </c>
-      <c r="I37" s="10">
-        <v>1</v>
-      </c>
-      <c r="J37" s="10">
-        <v>1</v>
-      </c>
-      <c r="K37" s="10">
-        <v>1</v>
-      </c>
-      <c r="L37" s="10">
-        <v>1</v>
-      </c>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
+      <c r="F37" s="11">
+        <v>1</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11">
+        <v>1</v>
+      </c>
+      <c r="I37" s="11">
+        <v>1</v>
+      </c>
+      <c r="J37" s="11">
+        <v>1</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1</v>
+      </c>
+      <c r="L37" s="11">
+        <v>1</v>
+      </c>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
     </row>
     <row r="38" ht="27" spans="1:17">
-      <c r="A38" s="10">
+      <c r="A38" s="11">
         <v>1604</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="10">
-        <v>1</v>
-      </c>
-      <c r="I38" s="10">
-        <v>1</v>
-      </c>
-      <c r="J38" s="10">
-        <v>1</v>
-      </c>
-      <c r="K38" s="10">
-        <v>1</v>
-      </c>
-      <c r="L38" s="10">
+      <c r="F38" s="11">
+        <v>1</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1</v>
+      </c>
+      <c r="J38" s="11">
+        <v>1</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1</v>
+      </c>
+      <c r="L38" s="11">
         <v>3</v>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="10">
+      <c r="A39" s="11">
         <v>1605</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="11">
         <v>0</v>
       </c>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="10">
-        <v>1</v>
-      </c>
-      <c r="I39" s="10">
-        <v>1</v>
-      </c>
-      <c r="J39" s="10">
-        <v>1</v>
-      </c>
-      <c r="K39" s="10">
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1</v>
+      </c>
+      <c r="J39" s="11">
+        <v>1</v>
+      </c>
+      <c r="K39" s="11">
         <v>0</v>
       </c>
-      <c r="L39" s="10">
-        <v>1</v>
-      </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
+      <c r="L39" s="11">
+        <v>1</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="10">
+      <c r="A40" s="11">
         <v>1606</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1</v>
-      </c>
-      <c r="H40" s="10">
-        <v>1</v>
-      </c>
-      <c r="I40" s="10">
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1</v>
+      </c>
+      <c r="I40" s="11">
         <v>60</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="11">
         <v>0.5</v>
       </c>
-      <c r="K40" s="10">
-        <v>1</v>
-      </c>
-      <c r="L40" s="10">
-        <v>1</v>
-      </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
+      <c r="K40" s="11">
+        <v>1</v>
+      </c>
+      <c r="L40" s="11">
+        <v>1</v>
+      </c>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="10">
+      <c r="A41" s="11">
         <v>1607</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="10">
-        <v>1</v>
-      </c>
-      <c r="I41" s="10">
-        <v>1</v>
-      </c>
-      <c r="J41" s="10">
-        <v>1</v>
-      </c>
-      <c r="K41" s="10">
-        <v>1</v>
-      </c>
-      <c r="L41" s="10">
-        <v>1</v>
-      </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" s="11">
+        <v>1</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1</v>
+      </c>
+      <c r="J41" s="11">
+        <v>1</v>
+      </c>
+      <c r="K41" s="11">
+        <v>1</v>
+      </c>
+      <c r="L41" s="11">
+        <v>1</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="10">
+      <c r="A42" s="11">
         <v>1608</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="10">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10">
-        <v>1</v>
-      </c>
-      <c r="H42" s="10">
-        <v>1</v>
-      </c>
-      <c r="I42" s="10">
-        <v>1</v>
-      </c>
-      <c r="J42" s="10">
-        <v>1</v>
-      </c>
-      <c r="K42" s="10">
-        <v>1</v>
-      </c>
-      <c r="L42" s="10">
-        <v>1</v>
-      </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+      <c r="F42" s="11">
+        <v>1</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1</v>
+      </c>
+      <c r="J42" s="11">
+        <v>1</v>
+      </c>
+      <c r="K42" s="11">
+        <v>1</v>
+      </c>
+      <c r="L42" s="11">
+        <v>1</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="10">
+      <c r="A43" s="11">
         <v>1609</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="10">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10">
-        <v>1</v>
-      </c>
-      <c r="H43" s="10">
-        <v>1</v>
-      </c>
-      <c r="I43" s="10">
-        <v>1</v>
-      </c>
-      <c r="J43" s="10">
-        <v>1</v>
-      </c>
-      <c r="K43" s="10">
-        <v>1</v>
-      </c>
-      <c r="L43" s="10">
-        <v>1</v>
-      </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
+      <c r="F43" s="11">
+        <v>1</v>
+      </c>
+      <c r="G43" s="11">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11">
+        <v>1</v>
+      </c>
+      <c r="I43" s="11">
+        <v>1</v>
+      </c>
+      <c r="J43" s="11">
+        <v>1</v>
+      </c>
+      <c r="K43" s="11">
+        <v>1</v>
+      </c>
+      <c r="L43" s="11">
+        <v>1</v>
+      </c>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10" t="s">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10" t="s">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10" t="s">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10" t="s">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10" t="s">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="10" t="s">
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+    </row>
+    <row r="51" ht="27" spans="1:17">
+      <c r="A51" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
     </row>
     <row r="52" ht="27" spans="1:17">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="10" t="s">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+    </row>
+    <row r="53" ht="27" spans="1:17">
+      <c r="A53" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="C53" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="10" t="s">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+    </row>
+    <row r="54" ht="27" spans="1:17">
+      <c r="A54" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="C54" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
+      <c r="E54" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q61" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q62" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O63" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+    </row>
+    <row r="64" ht="27" spans="1:17">
+      <c r="A64" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="O64" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+    </row>
+    <row r="66" ht="27" spans="1:17">
+      <c r="A66" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="10" t="s">
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+    </row>
+    <row r="67" ht="27" spans="1:17">
+      <c r="A67" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+    </row>
+    <row r="68" ht="27" spans="1:17">
+      <c r="A68" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="11"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="O73" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+    </row>
+    <row r="79" ht="27" spans="1:17">
+      <c r="A79" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="11">
+        <v>3001</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" s="11">
+        <v>1</v>
+      </c>
+      <c r="G85" s="11">
+        <v>1</v>
+      </c>
+      <c r="H85" s="11">
+        <v>1</v>
+      </c>
+      <c r="I85" s="11">
+        <v>1</v>
+      </c>
+      <c r="J85" s="11">
+        <v>1</v>
+      </c>
+      <c r="K85" s="11">
+        <v>1</v>
+      </c>
+      <c r="L85" s="11">
+        <v>3</v>
+      </c>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="11">
+        <v>3002</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" s="11">
+        <v>1</v>
+      </c>
+      <c r="G86" s="11">
+        <v>1</v>
+      </c>
+      <c r="H86" s="11">
+        <v>1</v>
+      </c>
+      <c r="I86" s="11">
+        <v>1</v>
+      </c>
+      <c r="J86" s="11">
+        <v>1</v>
+      </c>
+      <c r="K86" s="11">
+        <v>1</v>
+      </c>
+      <c r="L86" s="11">
+        <v>3</v>
+      </c>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="11">
+        <v>3003</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" s="11">
+        <v>1</v>
+      </c>
+      <c r="G87" s="11">
+        <v>2</v>
+      </c>
+      <c r="H87" s="11">
+        <v>2</v>
+      </c>
+      <c r="I87" s="11">
+        <v>2</v>
+      </c>
+      <c r="J87" s="11">
+        <v>2</v>
+      </c>
+      <c r="K87" s="11">
+        <v>1</v>
+      </c>
+      <c r="L87" s="11">
+        <v>3</v>
+      </c>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="11">
+        <v>3004</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" s="11">
+        <v>1</v>
+      </c>
+      <c r="G88" s="11">
+        <v>1</v>
+      </c>
+      <c r="H88" s="11">
+        <v>1</v>
+      </c>
+      <c r="I88" s="11">
+        <v>1</v>
+      </c>
+      <c r="J88" s="11">
+        <v>1</v>
+      </c>
+      <c r="K88" s="11">
+        <v>1</v>
+      </c>
+      <c r="L88" s="11">
+        <v>3</v>
+      </c>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="11">
+        <v>4001</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E56" s="10" t="s">
+      <c r="E89" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N59" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O59" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N60" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="O60" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q61" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q62" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N63" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O63" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N64" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="O64" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-    </row>
-    <row r="66" ht="27" spans="1:17">
-      <c r="A66" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="10"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="N72" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O72" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="N73" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="O73" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="N74" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O74" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-    </row>
-    <row r="79" ht="27" spans="1:17">
-      <c r="A79" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="10">
-        <v>3001</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" s="10">
-        <v>1</v>
-      </c>
-      <c r="G85" s="10">
-        <v>1</v>
-      </c>
-      <c r="H85" s="10">
-        <v>1</v>
-      </c>
-      <c r="I85" s="10">
-        <v>1</v>
-      </c>
-      <c r="J85" s="10">
-        <v>1</v>
-      </c>
-      <c r="K85" s="10">
-        <v>1</v>
-      </c>
-      <c r="L85" s="10">
-        <v>3</v>
-      </c>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="10">
-        <v>3002</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F86" s="10">
-        <v>1</v>
-      </c>
-      <c r="G86" s="10">
-        <v>1</v>
-      </c>
-      <c r="H86" s="10">
-        <v>1</v>
-      </c>
-      <c r="I86" s="10">
-        <v>1</v>
-      </c>
-      <c r="J86" s="10">
-        <v>1</v>
-      </c>
-      <c r="K86" s="10">
-        <v>1</v>
-      </c>
-      <c r="L86" s="10">
-        <v>3</v>
-      </c>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="10">
-        <v>3003</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" s="10">
-        <v>1</v>
-      </c>
-      <c r="G87" s="10">
-        <v>2</v>
-      </c>
-      <c r="H87" s="10">
-        <v>2</v>
-      </c>
-      <c r="I87" s="10">
-        <v>2</v>
-      </c>
-      <c r="J87" s="10">
-        <v>2</v>
-      </c>
-      <c r="K87" s="10">
-        <v>1</v>
-      </c>
-      <c r="L87" s="10">
-        <v>3</v>
-      </c>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="10">
-        <v>3004</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F88" s="10">
-        <v>1</v>
-      </c>
-      <c r="G88" s="10">
-        <v>1</v>
-      </c>
-      <c r="H88" s="10">
-        <v>1</v>
-      </c>
-      <c r="I88" s="10">
-        <v>1</v>
-      </c>
-      <c r="J88" s="10">
-        <v>1</v>
-      </c>
-      <c r="K88" s="10">
-        <v>1</v>
-      </c>
-      <c r="L88" s="10">
-        <v>3</v>
-      </c>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="10">
-        <v>4001</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F89" s="10">
-        <v>1</v>
-      </c>
-      <c r="G89" s="10">
-        <v>1</v>
-      </c>
-      <c r="H89" s="10">
-        <v>1</v>
-      </c>
-      <c r="I89" s="10">
-        <v>1</v>
-      </c>
-      <c r="J89" s="10">
+      <c r="F89" s="11">
+        <v>1</v>
+      </c>
+      <c r="G89" s="11">
+        <v>1</v>
+      </c>
+      <c r="H89" s="11">
+        <v>1</v>
+      </c>
+      <c r="I89" s="11">
+        <v>1</v>
+      </c>
+      <c r="J89" s="11">
         <v>0</v>
       </c>
-      <c r="K89" s="10">
+      <c r="K89" s="11">
         <v>0</v>
       </c>
-      <c r="L89" s="10">
-        <v>1</v>
-      </c>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
+      <c r="L89" s="11">
+        <v>1</v>
+      </c>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
     </row>
     <row r="90" spans="1:17">
-      <c r="A90" s="10">
+      <c r="A90" s="11">
         <v>3005</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
-      <c r="Q90" s="10"/>
+      <c r="B90" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="10">
+      <c r="A91" s="11">
         <v>3006</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="10"/>
+      <c r="B91" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
     </row>
     <row r="92" spans="1:17">
-      <c r="A92" s="10">
+      <c r="A92" s="11">
         <v>3007</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
-      <c r="Q92" s="10"/>
+      <c r="B92" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="A93" s="10">
+      <c r="A93" s="11">
         <v>4005</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
-      <c r="Q93" s="10"/>
+      <c r="B93" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="10">
+      <c r="A94" s="11">
         <v>4006</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
-      <c r="Q94" s="10"/>
+      <c r="B94" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="10">
+      <c r="A95" s="11">
         <v>3008</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
-      <c r="Q95" s="10"/>
+      <c r="B95" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
     </row>
     <row r="96" spans="1:17">
-      <c r="A96" s="10">
+      <c r="A96" s="11">
         <v>4007</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
-      <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
-      <c r="Q96" s="10"/>
+      <c r="B96" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
     </row>
     <row r="97" spans="1:17">
-      <c r="A97" s="10">
+      <c r="A97" s="11">
         <v>3009</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-      <c r="Q97" s="10"/>
+      <c r="B97" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="10">
+      <c r="A98" s="11">
         <v>3010</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="10"/>
+      <c r="B98" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="10">
+      <c r="A99" s="11">
         <v>3011</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-      <c r="Q99" s="10"/>
+      <c r="B99" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="10">
+      <c r="A100" s="11">
         <v>4008</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="10"/>
+      <c r="B100" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
@@ -6193,35 +6285,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="6" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6235,10 +6327,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6252,7 +6344,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -6266,13 +6358,13 @@
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6280,16 +6372,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
@@ -6297,16 +6389,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
@@ -6314,16 +6406,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6331,16 +6423,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6348,16 +6440,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6365,16 +6457,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6382,16 +6474,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6399,16 +6491,94 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E12" t="s">
-        <v>326</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:5">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6424,7 +6594,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -6437,19 +6607,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6463,10 +6633,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6480,7 +6650,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -6494,13 +6664,13 @@
         <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6508,16 +6678,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6525,16 +6695,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:5">
@@ -6545,13 +6715,13 @@
         <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6559,16 +6729,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6576,16 +6746,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
@@ -6593,16 +6763,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" ht="31.5" spans="1:5">
@@ -6610,16 +6780,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
@@ -6630,13 +6800,13 @@
         <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" ht="31.5" spans="1:5">
@@ -6647,13 +6817,13 @@
         <v>102</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -6667,16 +6837,16 @@
         <v>101</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6684,16 +6854,16 @@
         <v>102</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6701,16 +6871,16 @@
         <v>103</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6718,16 +6888,16 @@
         <v>104</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6735,16 +6905,16 @@
         <v>105</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9825" activeTab="1"/>
+    <workbookView windowWidth="22935" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
   <si>
     <t>技能ID</t>
   </si>
@@ -507,385 +507,376 @@
     <t>终极灵气箭</t>
   </si>
   <si>
+    <t>发射大小惊人的灵气箭，容易产生暴击。</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>强力灵气弹</t>
+  </si>
+  <si>
+    <t>掷出大体积的灵气弹，造成更多伤害的同时也会消耗更多元神。</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>灵气共鸣</t>
+  </si>
+  <si>
+    <t>光环：停止法力回复，每回合对对方全体造成回复量相等的伤害。</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>狂化灵气乱射</t>
+  </si>
+  <si>
+    <t>疯狂发射强大的灵气箭随机攻击对手，但可能造成自身狂乱。</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>灵之幻境</t>
+  </si>
+  <si>
+    <t>创造一个幻境，只有灵属性法术可以造成伤害，且提升伤害值。</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>灵噬</t>
+  </si>
+  <si>
+    <t>令灵气从四面八方吞噬对手的秘术。</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>灵爆</t>
+  </si>
+  <si>
+    <t>将灵力结晶掷向对方全体，并在接触时令其爆炸的秘术。</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>灵力解放</t>
+  </si>
+  <si>
+    <t>光环：极大地增强法术威力和吟唱速度，但同时提高消耗。</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>冰封术</t>
+  </si>
+  <si>
+    <t>利用阴之力产生冰块冻结对手，可能造成冰冻。</t>
+  </si>
+  <si>
+    <t>Yin</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>强力冰封术</t>
+  </si>
+  <si>
+    <t>产生更大的冰块冻结对手，更易造成冰冻。</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>吸星术</t>
+  </si>
+  <si>
+    <t>使用诡异禁术吸取对方全体的灵气。</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>狂风枪</t>
+  </si>
+  <si>
+    <t>将灵力融进风之力化为尖枪掷出，很难躲过的一击。</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>灵力侵蚀</t>
+  </si>
+  <si>
+    <t>利用阴气的力量侵蚀对方全体，使其中毒。</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>终极冰封术</t>
+  </si>
+  <si>
+    <t>召唤密不透风的巨型冰柱，对所有对手造成伤害，并可能造成冰冻。</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>暗之原力</t>
+  </si>
+  <si>
+    <t>阴法术本质的一击，可能造成失魂</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>月之领域</t>
+  </si>
+  <si>
+    <t>创造一个幻境，令我方免疫全部的阴属性伤害并且攻击对方防御状态。</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>诅咒</t>
+  </si>
+  <si>
+    <t>令自己和对方指定对象进入诅咒状态，直到有一方不能战斗。</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>灵气偷取</t>
+  </si>
+  <si>
+    <t>光环：偷取对方的生命上限并转换为自身的灵气，但若对方死亡则自身受到巨大伤害。</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>黑暗洪流</t>
+  </si>
+  <si>
+    <t>令黑暗如洪水般涌出攻击对手的秘术。可能诅咒对手。</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>暗月魔影</t>
+  </si>
+  <si>
+    <t>秘术光环：自身所有攻击变为全体攻击并能够击倒对手。</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>阳炎术</t>
+  </si>
+  <si>
+    <t>利用阳之力产生火焰点燃对手，可能造成烧伤。</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>强力阳炎术</t>
+  </si>
+  <si>
+    <t>产生更强的火焰点燃对手，更易造成烧伤。</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>雷暴术</t>
+  </si>
+  <si>
+    <t>召唤天雷攻击对手全体，可能造成麻痹。</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>圣光</t>
+  </si>
+  <si>
+    <t>光环：令角色进入激昂状态，攻防速上升</t>
+  </si>
+  <si>
+    <t>SingleAlly</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>灵气净化</t>
+  </si>
+  <si>
+    <t>取消目标身上附带的一切效果，并根据数量回复生命</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>终极阳炎术</t>
+  </si>
+  <si>
+    <t>召唤滔天业火，对所有对手造成伤害，并可能造成点燃。</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>光之原力</t>
+  </si>
+  <si>
+    <t>阳法术本质的一击，可能令自己祝福</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>日之领域</t>
+  </si>
+  <si>
+    <t>幻境：我方免疫阴属性伤害，并且所有攻击必定将敌方打断</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>天启</t>
+  </si>
+  <si>
+    <t>召唤陨石攻击战场全体，蓄力速度极快</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>灵气过载</t>
+  </si>
+  <si>
+    <t>光环：灵力暂时无穷，但几回合后会失去战斗能力。</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>太阳风暴</t>
+  </si>
+  <si>
+    <t>召唤一个吞没一切的火焰风暴攻击对手，可能令自己激昂。</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>光辉灵盾</t>
+  </si>
+  <si>
+    <r>
+      <t>秘术光环：吸收全队受到伤害的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>发射大小惊人的灵气箭，容易产生暴击</t>
+      <t>并在光环取消时双倍返还给对手。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>强力灵气弹</t>
-  </si>
-  <si>
-    <t>掷出大体积的灵气弹，造成更多伤害的同时也会消耗更多元神。</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>灵气共鸣</t>
-  </si>
-  <si>
-    <t>光环：停止法力回复，每回合对对方全体造成回复量相等的伤害。</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>狂化灵气乱射</t>
-  </si>
-  <si>
-    <t>疯狂发射强大的灵气箭随机攻击对手，但可能造成自身狂乱。</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>灵之幻境</t>
-  </si>
-  <si>
-    <t>创造一个幻境，只有灵属性法术可以造成伤害，且提升伤害值。</t>
-  </si>
-  <si>
-    <t>Everyone</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>灵噬</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>灵爆</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>灵力解放</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>冰封术</t>
-  </si>
-  <si>
-    <t>利用阴之力产生冰块冻结对手，可能造成冰冻。</t>
-  </si>
-  <si>
-    <t>Yin</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>强力冰封术</t>
-  </si>
-  <si>
-    <t>产生更大的冰块冻结对手，更易造成冰冻。</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>吸星术</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用诡异禁术吸取对方全体的灵气</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>狂风枪</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将灵力融进风之力化为尖枪掷出，很难躲过的一击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>灵力侵蚀</t>
-  </si>
-  <si>
-    <t>利用阴气的力量侵蚀对方全体，使其中毒。</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>终极冰封术</t>
-  </si>
-  <si>
-    <t>召唤密不透风的巨型冰柱，对所有对手造成伤害，并可能造成冰冻。</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>暗之原力</t>
-  </si>
-  <si>
-    <t>阴法术本质的一击，可能造成失魂</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>月之领域</t>
-  </si>
-  <si>
-    <t>创造一个幻境，令我方免疫全部的阴属性伤害并且攻击对方防御状态。</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>诅咒</t>
-  </si>
-  <si>
-    <t>令自己和对方指定对象进入诅咒状态，直到有一方不能战斗。</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>灵气偷取</t>
-  </si>
-  <si>
-    <t>光环：偷取对方的生命上限并转换为自身的灵气，但若对方死亡则自身受到巨大伤害。</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>万魔散魂</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>暗月影</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>阳炎术</t>
-  </si>
-  <si>
-    <t>利用阳之力产生火焰点燃对手，可能造成烧伤。</t>
-  </si>
-  <si>
-    <t>Yang</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>强力阳炎术</t>
-  </si>
-  <si>
-    <t>产生更强的火焰点燃对手，更易造成烧伤。</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>雷暴术</t>
-  </si>
-  <si>
-    <t>召唤天雷攻击对手全体，可能造成麻痹。</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>圣光</t>
-  </si>
-  <si>
-    <t>光环：令角色进入激昂状态，攻防速上升</t>
-  </si>
-  <si>
-    <t>SingleAlly</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>灵气净化</t>
-  </si>
-  <si>
-    <t>取消目标身上附带的一切效果，并根据数量回复生命</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>终极阳炎术</t>
-  </si>
-  <si>
-    <t>召唤滔天业火，对所有对手造成伤害，并可能造成点燃。</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>光之原力</t>
-  </si>
-  <si>
-    <t>阳法术本质的一击，可能令自己祝福</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>日之领域</t>
-  </si>
-  <si>
-    <t>幻境：我方免疫阴属性伤害，并且所有攻击必定将敌方打断</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>天启</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>召唤陨石</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻击战场全体，蓄力速度极快</t>
-    </r>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>灵气过载</t>
-  </si>
-  <si>
-    <t>光环：灵力暂时无穷，但几回合后会失去战斗能力。</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>夸父之怒</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>阳光盾</t>
   </si>
   <si>
     <t>咩爪轻攻击</t>
@@ -1567,10 +1558,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1618,22 +1609,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1646,37 +1638,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1691,9 +1653,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1714,23 +1713,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1746,14 +1729,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1763,8 +1761,13 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1779,7 +1782,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,151 +1842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,19 +1866,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,46 +1976,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2034,21 +2002,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2071,8 +2024,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2084,10 +2081,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2096,31 +2093,31 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2129,104 +2126,104 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2266,16 +2263,19 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2592,10 +2592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="B60" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2662,10 +2662,10 @@
       <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="10" t="s">
@@ -2715,13 +2715,13 @@
       <c r="N2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2762,19 +2762,19 @@
       <c r="L3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2817,9 +2817,9 @@
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="11">
@@ -2858,11 +2858,11 @@
       <c r="L5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -2901,11 +2901,11 @@
       <c r="L6" s="11">
         <v>3</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" ht="27" spans="1:17">
       <c r="A7" s="11">
@@ -2944,13 +2944,13 @@
       <c r="L7" s="11">
         <v>1</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14">
         <v>3</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="14">
         <v>100</v>
       </c>
     </row>
@@ -2991,13 +2991,13 @@
       <c r="L8" s="11">
         <v>1</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15" t="s">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3038,19 +3038,19 @@
       <c r="L9" s="11">
         <v>1</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3091,11 +3091,11 @@
       <c r="L10" s="11">
         <v>1</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="11">
@@ -3134,11 +3134,11 @@
       <c r="L11" s="11">
         <v>3</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="11">
@@ -3177,11 +3177,11 @@
       <c r="L12" s="11">
         <v>2</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" ht="27" spans="1:17">
       <c r="A13" s="11">
@@ -3220,17 +3220,17 @@
       <c r="L13" s="11">
         <v>1</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" ht="27" spans="1:17">
       <c r="A14" s="11">
@@ -3269,11 +3269,11 @@
       <c r="L14" s="11">
         <v>1</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
     </row>
     <row r="15" ht="27" spans="1:17">
       <c r="A15" s="11">
@@ -3312,11 +3312,11 @@
       <c r="L15" s="11">
         <v>1</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
     </row>
     <row r="16" ht="27" spans="1:17">
       <c r="A16" s="11">
@@ -3355,17 +3355,17 @@
       <c r="L16" s="11">
         <v>1</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
     </row>
     <row r="17" ht="27" spans="1:17">
       <c r="A17" s="11">
@@ -3404,13 +3404,13 @@
       <c r="L17" s="11">
         <v>1</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15" t="s">
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3451,11 +3451,11 @@
       <c r="L18" s="11">
         <v>3</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="11">
@@ -3494,11 +3494,11 @@
       <c r="L19" s="11">
         <v>1</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
     </row>
     <row r="20" ht="27" spans="1:17">
       <c r="A20" s="11">
@@ -3537,11 +3537,11 @@
       <c r="L20" s="11">
         <v>2</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="11">
@@ -3580,17 +3580,17 @@
       <c r="L21" s="11">
         <v>1</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="11">
@@ -3629,11 +3629,11 @@
       <c r="L22" s="11">
         <v>2</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
     </row>
     <row r="23" ht="27" spans="1:17">
       <c r="A23" s="11">
@@ -3672,13 +3672,13 @@
       <c r="L23" s="11">
         <v>1</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15" t="s">
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="Q23" s="15" t="s">
+      <c r="Q23" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3719,11 +3719,11 @@
       <c r="L24" s="11">
         <v>2</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="11">
@@ -3762,11 +3762,11 @@
       <c r="L25" s="11">
         <v>1</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
     </row>
     <row r="26" ht="27" spans="1:17">
       <c r="A26" s="11">
@@ -3805,13 +3805,13 @@
       <c r="L26" s="11">
         <v>1</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15" t="s">
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3852,11 +3852,11 @@
       <c r="L27" s="11">
         <v>1</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="11">
@@ -4896,7 +4896,9 @@
       <c r="B55" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="13"/>
+      <c r="C55" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="D55" s="11" t="s">
         <v>144</v>
       </c>
@@ -4907,7 +4909,9 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
+      <c r="J55" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
@@ -4918,12 +4922,14 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C56" s="13"/>
+        <v>186</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="D56" s="11" t="s">
         <v>144</v>
       </c>
@@ -4934,7 +4940,9 @@
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
+      <c r="J56" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
@@ -4943,14 +4951,16 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" ht="27" spans="1:17">
       <c r="A57" s="11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="13"/>
+        <v>190</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="D57" s="11" t="s">
         <v>144</v>
       </c>
@@ -4961,7 +4971,9 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
+      <c r="J57" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
@@ -4991,16 +5003,16 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>47</v>
@@ -5028,16 +5040,16 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>47</v>
@@ -5047,7 +5059,7 @@
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
@@ -5055,7 +5067,7 @@
         <v>58</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O60" s="11" t="s">
         <v>60</v>
@@ -5065,16 +5077,16 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>75</v>
@@ -5084,7 +5096,7 @@
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
@@ -5100,16 +5112,16 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>47</v>
@@ -5119,7 +5131,7 @@
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
@@ -5135,16 +5147,16 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>75</v>
@@ -5154,7 +5166,7 @@
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
@@ -5172,16 +5184,16 @@
     </row>
     <row r="64" ht="27" spans="1:17">
       <c r="A64" s="11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>75</v>
@@ -5199,7 +5211,7 @@
         <v>58</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O64" s="11" t="s">
         <v>60</v>
@@ -5209,16 +5221,16 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>47</v>
@@ -5228,7 +5240,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
@@ -5240,16 +5252,16 @@
     </row>
     <row r="66" ht="27" spans="1:17">
       <c r="A66" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>179</v>
@@ -5259,7 +5271,7 @@
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
@@ -5271,16 +5283,16 @@
     </row>
     <row r="67" ht="27" spans="1:17">
       <c r="A67" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>219</v>
+        <v>223</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>75</v>
@@ -5290,7 +5302,7 @@
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
@@ -5302,16 +5314,16 @@
     </row>
     <row r="68" ht="27" spans="1:17">
       <c r="A68" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>223</v>
+        <v>227</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>47</v>
@@ -5321,7 +5333,7 @@
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
@@ -5333,21 +5345,27 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C69" s="13"/>
+        <v>231</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>233</v>
+      </c>
       <c r="D69" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E69" s="11"/>
+        <v>195</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
+      <c r="J69" s="11" t="s">
+        <v>234</v>
+      </c>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
@@ -5358,21 +5376,27 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C70" s="13"/>
+        <v>235</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>237</v>
+      </c>
       <c r="D70" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E70" s="11"/>
+        <v>195</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
+      <c r="J70" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
@@ -5402,16 +5426,16 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="11" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>47</v>
@@ -5439,16 +5463,16 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>235</v>
+        <v>243</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>47</v>
@@ -5458,7 +5482,7 @@
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
@@ -5466,7 +5490,7 @@
         <v>72</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O73" s="11" t="s">
         <v>72</v>
@@ -5476,16 +5500,16 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>239</v>
+        <v>247</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>75</v>
@@ -5495,12 +5519,12 @@
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
       <c r="M74" s="11" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="N74" s="11" t="s">
         <v>59</v>
@@ -5513,26 +5537,26 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="E75" s="11" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
@@ -5544,19 +5568,19 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>247</v>
+        <v>255</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -5575,16 +5599,16 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>250</v>
+        <v>258</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>75</v>
@@ -5606,16 +5630,16 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>253</v>
+        <v>261</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>262</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>47</v>
@@ -5625,7 +5649,7 @@
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
@@ -5637,16 +5661,16 @@
     </row>
     <row r="79" ht="27" spans="1:17">
       <c r="A79" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>257</v>
+        <v>265</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>179</v>
@@ -5656,7 +5680,7 @@
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
@@ -5668,16 +5692,16 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>260</v>
+        <v>268</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>179</v>
@@ -5687,7 +5711,7 @@
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
@@ -5699,16 +5723,16 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>264</v>
+        <v>271</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>43</v>
@@ -5728,23 +5752,29 @@
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" ht="27" spans="1:17">
       <c r="A82" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="13"/>
+        <v>274</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="D82" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" s="11"/>
+        <v>242</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
+      <c r="J82" s="11" t="s">
+        <v>277</v>
+      </c>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
@@ -5753,23 +5783,29 @@
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" ht="28.5" spans="1:17">
       <c r="A83" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C83" s="13"/>
+        <v>278</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="D83" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E83" s="11"/>
+        <v>242</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
+      <c r="J83" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
@@ -5802,10 +5838,10 @@
         <v>3001</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>42</v>
@@ -5845,10 +5881,10 @@
         <v>3002</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>42</v>
@@ -5888,10 +5924,10 @@
         <v>3003</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>42</v>
@@ -5931,10 +5967,10 @@
         <v>3004</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>94</v>
@@ -5974,10 +6010,10 @@
         <v>4001</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>144</v>
@@ -6017,7 +6053,7 @@
         <v>3005</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -6040,7 +6076,7 @@
         <v>3006</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -6063,7 +6099,7 @@
         <v>3007</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -6086,7 +6122,7 @@
         <v>4005</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -6109,7 +6145,7 @@
         <v>4006</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -6132,7 +6168,7 @@
         <v>3008</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -6155,10 +6191,10 @@
         <v>4007</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
@@ -6180,10 +6216,10 @@
         <v>3009</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
@@ -6205,10 +6241,10 @@
         <v>3010</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
@@ -6230,10 +6266,10 @@
         <v>3011</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -6255,10 +6291,10 @@
         <v>4008</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
@@ -6275,6 +6311,20 @@
       <c r="P100" s="11"/>
       <c r="Q100" s="11"/>
     </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6287,8 +6337,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -6301,19 +6351,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6327,10 +6377,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6344,7 +6394,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -6358,13 +6408,13 @@
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6372,16 +6422,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
@@ -6389,16 +6439,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
@@ -6406,16 +6456,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6423,16 +6473,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6440,16 +6490,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E9" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6457,16 +6507,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="E10" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6474,16 +6524,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6491,16 +6541,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6508,16 +6558,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="D13" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="E13" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6525,16 +6575,16 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C14" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="D14" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="E14" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6542,14 +6592,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
-      </c>
-      <c r="D15"/>
+        <v>347</v>
+      </c>
       <c r="E15" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:5">
@@ -6557,13 +6606,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="E16" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6571,14 +6620,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="C17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D17"/>
+        <v>353</v>
+      </c>
       <c r="E17" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -6607,19 +6655,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6633,10 +6681,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6650,7 +6698,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -6664,13 +6712,13 @@
         <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6678,16 +6726,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6695,16 +6743,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:5">
@@ -6715,13 +6763,13 @@
         <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6729,16 +6777,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6746,16 +6794,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
@@ -6763,16 +6811,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" ht="31.5" spans="1:5">
@@ -6780,16 +6828,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
@@ -6800,13 +6848,13 @@
         <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" ht="31.5" spans="1:5">
@@ -6817,13 +6865,13 @@
         <v>102</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -6837,16 +6885,16 @@
         <v>101</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6854,16 +6902,16 @@
         <v>102</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6871,16 +6919,16 @@
         <v>103</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6888,16 +6936,16 @@
         <v>104</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6905,16 +6953,16 @@
         <v>105</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="405">
   <si>
     <t>技能ID</t>
   </si>
@@ -467,9 +467,6 @@
     <t>发射更大的灵气箭，造成灵属性伤害。</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>2003</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
     <t>Random</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>2005</t>
   </si>
   <si>
@@ -503,9 +497,6 @@
     <t>光环：灵力恢复速度上升</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>2006</t>
   </si>
   <si>
@@ -524,9 +515,6 @@
     <t>掷出大体积的灵气弹，造成更多伤害的同时也会消耗更多元神。</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>2008</t>
   </si>
   <si>
@@ -548,9 +536,6 @@
     <t>疯狂发射强大的灵气箭随机攻击对手，但可能造成自身狂乱。</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>2010</t>
   </si>
   <si>
@@ -563,9 +548,6 @@
     <t>Everyone</t>
   </si>
   <si>
-    <t>0.15</t>
-  </si>
-  <si>
     <t>2011</t>
   </si>
   <si>
@@ -575,9 +557,6 @@
     <t>令灵气从四面八方吞噬对手的秘术。</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>2012</t>
   </si>
   <si>
@@ -587,9 +566,6 @@
     <t>将灵力结晶掷向对方全体，并在接触时令其爆炸的秘术。</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
@@ -617,9 +593,6 @@
     <t>产生更大的冰块冻结对手，更易造成冰冻。</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -632,9 +605,6 @@
     <t>使用诡异禁术吸取对方全体的灵气。</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>2104</t>
   </si>
   <si>
@@ -644,9 +614,6 @@
     <t>将灵力融进风之力化为尖枪掷出，很难躲过的一击。</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>2105</t>
   </si>
   <si>
@@ -674,9 +641,6 @@
     <t>阴法术本质的一击，可能造成失魂</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>2108</t>
   </si>
   <si>
@@ -686,9 +650,6 @@
     <t>创造一个幻境，令我方免疫全部的阴属性伤害并且攻击对方防御状态。</t>
   </si>
   <si>
-    <t>0.12</t>
-  </si>
-  <si>
     <t>2109</t>
   </si>
   <si>
@@ -698,9 +659,6 @@
     <t>令自己和对方指定对象进入诅咒状态，直到有一方不能战斗。</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>2110</t>
   </si>
   <si>
@@ -710,9 +668,6 @@
     <t>光环：偷取对方的生命上限并转换为自身的灵气，但若对方死亡则自身受到巨大伤害。</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>2111</t>
   </si>
   <si>
@@ -722,18 +677,12 @@
     <t>令黑暗如洪水般涌出攻击对手的秘术。可能诅咒对手。</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
     <t>2112</t>
   </si>
   <si>
     <t>暗月魔影</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>2201</t>
   </si>
   <si>
@@ -755,9 +704,6 @@
     <t>产生更强的火焰点燃对手，更易造成烧伤。</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>2203</t>
   </si>
   <si>
@@ -809,9 +755,6 @@
     <t>阳法术本质的一击，可能令自己祝福</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>2208</t>
   </si>
   <si>
@@ -846,9 +789,6 @@
   </si>
   <si>
     <t>召唤一个吞没一切的火焰风暴攻击对手，可能令自己激昂。</t>
-  </si>
-  <si>
-    <t>133</t>
   </si>
   <si>
     <t>2212</t>
@@ -1644,6 +1584,26 @@
   </si>
   <si>
     <t>Behit</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2118,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4123,8 +4083,8 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
-      <c r="J45" s="10" t="s">
-        <v>59</v>
+      <c r="J45" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
@@ -4154,8 +4114,8 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
-      <c r="J46" s="10" t="s">
-        <v>148</v>
+      <c r="J46" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
@@ -4167,13 +4127,13 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>144</v>
@@ -4185,8 +4145,8 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
-      <c r="J47" s="10" t="s">
-        <v>105</v>
+      <c r="J47" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -4198,26 +4158,26 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>144</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
-      <c r="J48" s="10" t="s">
-        <v>156</v>
+      <c r="J48" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -4229,13 +4189,13 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>144</v>
@@ -4247,8 +4207,8 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
-      <c r="J49" s="10" t="s">
-        <v>160</v>
+      <c r="J49" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -4260,13 +4220,13 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>144</v>
@@ -4278,8 +4238,8 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
-      <c r="J50" s="10" t="s">
-        <v>62</v>
+      <c r="J50" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -4291,13 +4251,13 @@
     </row>
     <row r="51" spans="1:17" ht="27">
       <c r="A51" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>144</v>
@@ -4309,8 +4269,8 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
-      <c r="J51" s="10" t="s">
-        <v>167</v>
+      <c r="J51" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -4322,13 +4282,13 @@
     </row>
     <row r="52" spans="1:17" ht="27">
       <c r="A52" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>144</v>
@@ -4341,7 +4301,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -4353,26 +4313,26 @@
     </row>
     <row r="53" spans="1:17" ht="27">
       <c r="A53" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>144</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
-      <c r="J53" s="10" t="s">
-        <v>175</v>
+      <c r="J53" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -4384,26 +4344,26 @@
     </row>
     <row r="54" spans="1:17" ht="27">
       <c r="A54" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>144</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="10" t="s">
-        <v>180</v>
+      <c r="J54" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -4415,13 +4375,13 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>144</v>
@@ -4433,8 +4393,8 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
-      <c r="J55" s="10" t="s">
-        <v>184</v>
+      <c r="J55" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -4446,13 +4406,13 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>144</v>
@@ -4464,8 +4424,8 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
-      <c r="J56" s="10" t="s">
-        <v>188</v>
+      <c r="J56" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
@@ -4477,13 +4437,13 @@
     </row>
     <row r="57" spans="1:17" ht="27">
       <c r="A57" s="10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>144</v>
@@ -4496,7 +4456,7 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -4527,16 +4487,16 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>47</v>
@@ -4545,8 +4505,8 @@
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="10" t="s">
-        <v>97</v>
+      <c r="J59" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
@@ -4564,16 +4524,16 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>47</v>
@@ -4582,8 +4542,8 @@
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="10" t="s">
-        <v>198</v>
+      <c r="J60" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
@@ -4591,7 +4551,7 @@
         <v>58</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="O60" s="10" t="s">
         <v>60</v>
@@ -4601,16 +4561,16 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="10" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>75</v>
@@ -4619,8 +4579,8 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
-      <c r="J61" s="10" t="s">
-        <v>203</v>
+      <c r="J61" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
@@ -4636,16 +4596,16 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="10" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>47</v>
@@ -4654,8 +4614,8 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="10" t="s">
-        <v>207</v>
+      <c r="J62" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
@@ -4671,16 +4631,16 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>75</v>
@@ -4689,8 +4649,8 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="10" t="s">
-        <v>199</v>
+      <c r="J63" s="19" t="s">
+        <v>401</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
@@ -4708,16 +4668,16 @@
     </row>
     <row r="64" spans="1:17" ht="27">
       <c r="A64" s="10" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>75</v>
@@ -4726,8 +4686,8 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="10" t="s">
-        <v>167</v>
+      <c r="J64" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
@@ -4735,7 +4695,7 @@
         <v>58</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="O64" s="10" t="s">
         <v>60</v>
@@ -4745,16 +4705,16 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="10" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>47</v>
@@ -4763,8 +4723,8 @@
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
-      <c r="J65" s="10" t="s">
-        <v>217</v>
+      <c r="J65" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
@@ -4776,26 +4736,26 @@
     </row>
     <row r="66" spans="1:17" ht="27">
       <c r="A66" s="10" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="10" t="s">
-        <v>221</v>
+      <c r="J66" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
@@ -4807,16 +4767,16 @@
     </row>
     <row r="67" spans="1:17" ht="27">
       <c r="A67" s="10" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>75</v>
@@ -4825,8 +4785,8 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="10" t="s">
-        <v>225</v>
+      <c r="J67" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
@@ -4838,16 +4798,16 @@
     </row>
     <row r="68" spans="1:17" ht="27">
       <c r="A68" s="10" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>47</v>
@@ -4856,8 +4816,8 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="10" t="s">
-        <v>229</v>
+      <c r="J68" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
@@ -4869,16 +4829,16 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="10" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>47</v>
@@ -4887,8 +4847,8 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="10" t="s">
-        <v>233</v>
+      <c r="J69" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -4900,16 +4860,16 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="10" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>43</v>
@@ -4918,8 +4878,8 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="10" t="s">
-        <v>236</v>
+      <c r="J70" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
@@ -4950,16 +4910,16 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="10" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>47</v>
@@ -4968,8 +4928,8 @@
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="10" t="s">
-        <v>104</v>
+      <c r="J72" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
@@ -4987,16 +4947,16 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="10" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>47</v>
@@ -5005,8 +4965,8 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
-      <c r="J73" s="10" t="s">
-        <v>244</v>
+      <c r="J73" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
@@ -5014,7 +4974,7 @@
         <v>72</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="O73" s="10" t="s">
         <v>72</v>
@@ -5024,16 +4984,16 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="10" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>75</v>
@@ -5042,13 +5002,13 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="10" t="s">
-        <v>203</v>
+      <c r="J74" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
       <c r="M74" s="10" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>59</v>
@@ -5061,26 +5021,26 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="10" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
-      <c r="J75" s="10" t="s">
-        <v>198</v>
+      <c r="J75" s="19" t="s">
+        <v>402</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
@@ -5092,26 +5052,26 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="10" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
-      <c r="J76" s="10" t="s">
-        <v>105</v>
+      <c r="J76" s="19" t="s">
+        <v>401</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -5123,16 +5083,16 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="10" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>75</v>
@@ -5141,8 +5101,8 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
-      <c r="J77" s="10" t="s">
-        <v>167</v>
+      <c r="J77" s="19" t="s">
+        <v>403</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -5154,16 +5114,16 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="10" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>47</v>
@@ -5172,8 +5132,8 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
-      <c r="J78" s="10" t="s">
-        <v>262</v>
+      <c r="J78" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
@@ -5185,26 +5145,26 @@
     </row>
     <row r="79" spans="1:17" ht="27">
       <c r="A79" s="10" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
-      <c r="J79" s="10" t="s">
-        <v>221</v>
+      <c r="J79" s="19" t="s">
+        <v>404</v>
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
@@ -5216,26 +5176,26 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="10" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
-      <c r="J80" s="10" t="s">
-        <v>184</v>
+      <c r="J80" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
@@ -5247,16 +5207,16 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="10" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>43</v>
@@ -5265,8 +5225,8 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
-      <c r="J81" s="10" t="s">
-        <v>171</v>
+      <c r="J81" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -5278,16 +5238,16 @@
     </row>
     <row r="82" spans="1:17" ht="27">
       <c r="A82" s="10" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>47</v>
@@ -5296,8 +5256,8 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
-      <c r="J82" s="10" t="s">
-        <v>275</v>
+      <c r="J82" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -5309,16 +5269,16 @@
     </row>
     <row r="83" spans="1:17" ht="28.5">
       <c r="A83" s="10" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>43</v>
@@ -5327,8 +5287,8 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
-      <c r="J83" s="10" t="s">
-        <v>236</v>
+      <c r="J83" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -5362,10 +5322,10 @@
         <v>3001</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>42</v>
@@ -5405,10 +5365,10 @@
         <v>3002</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>42</v>
@@ -5448,10 +5408,10 @@
         <v>3003</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>42</v>
@@ -5491,10 +5451,10 @@
         <v>3004</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>94</v>
@@ -5534,10 +5494,10 @@
         <v>4001</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>144</v>
@@ -5577,7 +5537,7 @@
         <v>3005</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
@@ -5600,7 +5560,7 @@
         <v>3006</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -5623,7 +5583,7 @@
         <v>3007</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -5646,7 +5606,7 @@
         <v>4005</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -5669,7 +5629,7 @@
         <v>4006</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -5692,7 +5652,7 @@
         <v>3008</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -5715,10 +5675,10 @@
         <v>4007</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
@@ -5740,10 +5700,10 @@
         <v>3009</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
@@ -5765,10 +5725,10 @@
         <v>3010</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -5790,10 +5750,10 @@
         <v>3011</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
@@ -5815,10 +5775,10 @@
         <v>4008</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
@@ -5861,7 +5821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -5875,19 +5835,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5901,10 +5861,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5918,7 +5878,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -5932,13 +5892,13 @@
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5946,16 +5906,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
@@ -5963,16 +5923,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -5980,16 +5940,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5997,16 +5957,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6014,16 +5974,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6031,16 +5991,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6048,16 +6008,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6065,16 +6025,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6082,16 +6042,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C13" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6099,16 +6059,16 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C14" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="D14" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6116,16 +6076,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="D15" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
@@ -6133,16 +6093,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="D16" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6150,16 +6110,16 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C17" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D17" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6167,16 +6127,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6190,7 +6150,7 @@
         <v>101</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6198,7 +6158,7 @@
         <v>102</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6206,7 +6166,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6214,7 +6174,7 @@
         <v>104</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6222,7 +6182,7 @@
         <v>105</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6230,7 +6190,7 @@
         <v>106</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6238,7 +6198,7 @@
         <v>107</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6246,7 +6206,7 @@
         <v>201</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6254,7 +6214,7 @@
         <v>202</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6262,7 +6222,7 @@
         <v>203</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6291,19 +6251,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6317,10 +6277,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6334,7 +6294,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -6348,13 +6308,13 @@
         <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6362,16 +6322,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6379,16 +6339,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5">
@@ -6399,13 +6359,13 @@
         <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6413,16 +6373,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6430,16 +6390,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -6447,16 +6407,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31.5">
@@ -6464,16 +6424,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
@@ -6484,13 +6444,13 @@
         <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.5">
@@ -6501,13 +6461,13 @@
         <v>102</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6515,16 +6475,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6538,16 +6498,16 @@
         <v>101</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6555,16 +6515,16 @@
         <v>102</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6572,16 +6532,16 @@
         <v>103</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6589,16 +6549,16 @@
         <v>104</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6606,16 +6566,16 @@
         <v>105</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.5">
@@ -6623,16 +6583,16 @@
         <v>106</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -1007,28 +1007,16 @@
     <t>烧伤</t>
   </si>
   <si>
-    <t>攻防下降50%</t>
-  </si>
-  <si>
     <t>Burnt</t>
   </si>
   <si>
     <t>中毒</t>
   </si>
   <si>
-    <t>逐渐流失生命</t>
-  </si>
-  <si>
     <t>Poison</t>
   </si>
   <si>
     <t>麻痹</t>
-  </si>
-  <si>
-    <t>命中回避暴击抗暴下降</t>
-  </si>
-  <si>
-    <t>Paralized</t>
   </si>
   <si>
     <t>击倒</t>
@@ -1603,6 +1591,22 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中回避暴击抗暴下降</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐渐流失生命</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻防下降50%</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paralized</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1731,7 +1735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1799,6 +1803,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2078,7 +2088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
@@ -4084,7 +4094,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
@@ -4115,7 +4125,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
@@ -4146,7 +4156,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -4177,7 +4187,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -4208,7 +4218,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -4239,7 +4249,7 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -4270,7 +4280,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -4332,7 +4342,7 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -4363,7 +4373,7 @@
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -4394,7 +4404,7 @@
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -4425,7 +4435,7 @@
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
@@ -4443,7 +4453,7 @@
         <v>182</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>144</v>
@@ -4506,7 +4516,7 @@
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
@@ -4543,7 +4553,7 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
@@ -4580,7 +4590,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
@@ -4615,7 +4625,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
@@ -4650,7 +4660,7 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
@@ -4687,7 +4697,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
@@ -4724,7 +4734,7 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
@@ -4755,7 +4765,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
@@ -4786,7 +4796,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
@@ -4817,7 +4827,7 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
@@ -4848,7 +4858,7 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -4866,7 +4876,7 @@
         <v>219</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>186</v>
@@ -4879,7 +4889,7 @@
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
@@ -4929,7 +4939,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
@@ -4966,7 +4976,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
@@ -5003,7 +5013,7 @@
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
@@ -5040,7 +5050,7 @@
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="19" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
@@ -5071,7 +5081,7 @@
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -5102,7 +5112,7 @@
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -5133,7 +5143,7 @@
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
@@ -5164,7 +5174,7 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
@@ -5195,7 +5205,7 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
@@ -5226,7 +5236,7 @@
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -5257,7 +5267,7 @@
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -5272,7 +5282,7 @@
         <v>256</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>258</v>
@@ -5288,7 +5298,7 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -5822,7 +5832,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5965,7 +5975,7 @@
       <c r="D8" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="23" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5977,13 +5987,13 @@
         <v>306</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>307</v>
+        <v>403</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>308</v>
+      <c r="E9" s="24" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5991,16 +6001,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>310</v>
+        <v>402</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>311</v>
+      <c r="E10" s="24" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6008,16 +6018,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>313</v>
+        <v>401</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>314</v>
+      <c r="E11" s="24" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6025,16 +6035,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>290</v>
+        <v>312</v>
+      </c>
+      <c r="D12" t="s">
+        <v>395</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6042,16 +6052,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D13" t="s">
         <v>298</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6059,16 +6069,16 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
         <v>298</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6076,16 +6086,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D15" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
@@ -6093,16 +6103,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C16" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6110,16 +6120,16 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6127,16 +6137,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>396</v>
+      <c r="E18" s="23" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6150,7 +6160,7 @@
         <v>101</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6158,7 +6168,7 @@
         <v>102</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6166,7 +6176,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6174,7 +6184,7 @@
         <v>104</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6182,7 +6192,7 @@
         <v>105</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6190,7 +6200,7 @@
         <v>106</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6206,7 +6216,7 @@
         <v>201</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6214,7 +6224,7 @@
         <v>202</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6222,7 +6232,7 @@
         <v>203</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -6237,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6280,7 +6290,7 @@
         <v>286</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6294,7 +6304,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -6311,7 +6321,7 @@
         <v>289</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>291</v>
@@ -6322,16 +6332,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6339,16 +6349,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5">
@@ -6359,13 +6369,13 @@
         <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6373,16 +6383,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6390,16 +6400,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -6407,16 +6417,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31.5">
@@ -6424,16 +6434,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
@@ -6444,13 +6454,13 @@
         <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.5">
@@ -6461,13 +6471,13 @@
         <v>102</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6475,16 +6485,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6498,16 +6508,16 @@
         <v>101</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6515,16 +6525,16 @@
         <v>102</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6532,16 +6542,16 @@
         <v>103</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6549,16 +6559,16 @@
         <v>104</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6566,16 +6576,16 @@
         <v>105</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.5">
@@ -6583,16 +6593,16 @@
         <v>106</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
     <sheet name="Buff" sheetId="2" r:id="rId2"/>
     <sheet name="SkillEffect" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="446">
   <si>
     <t>技能ID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>打断倍率</t>
   </si>
   <si>
-    <t>最大连击</t>
-  </si>
-  <si>
     <t>BuffID</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>interruptMultiplier</t>
   </si>
   <si>
-    <t>maxCombo</t>
-  </si>
-  <si>
     <t>buffID</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>无招即是有招</t>
   </si>
   <si>
-    <t>Melee</t>
-  </si>
-  <si>
     <t>Self</t>
   </si>
   <si>
@@ -161,42 +152,18 @@
     <t>短剑系轻攻击</t>
   </si>
   <si>
-    <t>速度极快，几乎立即可以出招。</t>
-  </si>
-  <si>
     <t>SingleEnemy</t>
   </si>
   <si>
     <t>短剑系重攻击</t>
   </si>
   <si>
-    <t>集中力量的突刺攻击。</t>
-  </si>
-  <si>
     <t>背刺</t>
   </si>
   <si>
-    <t>鱼肠剑的绝技。隐藏自身的杀气，悄悄绕到敌人背后进行攻击。如果不被敌人察觉，则可造成巨大伤害。</t>
-  </si>
-  <si>
-    <t>毁灭投掷</t>
-  </si>
-  <si>
-    <t>飞爪的绝技。将飞爪向敌人投掷出去。虽然能够造成很大杀伤，缺点却是显而易见的。</t>
-  </si>
-  <si>
-    <t>4,101,102,103</t>
-  </si>
-  <si>
-    <t>100,100,100,100</t>
-  </si>
-  <si>
     <t>冰霜突刺</t>
   </si>
   <si>
-    <t>附带冰霜之力的三连击，有机会将敌人冰冻。</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -212,30 +179,15 @@
     <t>100</t>
   </si>
   <si>
-    <t>无限突刺</t>
-  </si>
-  <si>
-    <t>冰霜刺剑的绝技。只要不被敌人攻击到，就可以无限连击的突刺攻击。</t>
-  </si>
-  <si>
     <t>刀系轻攻击</t>
   </si>
   <si>
-    <t>纵劈。各方面都中规中矩，稳扎稳打。</t>
-  </si>
-  <si>
     <t>刀系重攻击</t>
   </si>
   <si>
-    <t>横扫，虽然攻击力更有优势，但是速度和命中略逊一筹。</t>
-  </si>
-  <si>
     <t>拔刀术·十字斩</t>
   </si>
   <si>
-    <t>日罡·月煞的绝技。将刀刃拔出的一闪攻击，虽然收刀是一个危险的举动，但拔刀的威力确实诱人。</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -245,187 +197,70 @@
     <t>横扫·改</t>
   </si>
   <si>
-    <t>虽然同样是横扫，长船的刀身使得它可以同时攻击战场上的全部敌人。</t>
-  </si>
-  <si>
     <t>AllEnemies</t>
   </si>
   <si>
     <t>拔刀术·居合</t>
   </si>
   <si>
-    <t>备前长船的绝技。从收刀开始出招，力图瞬间将敌人斩杀的强力技能。出招较慢，但却非常容易暴击。</t>
-  </si>
-  <si>
     <t>献身</t>
   </si>
   <si>
-    <t>切开自己的身体，进入流血状态。这种行为恐怕不仅仅是为了给敌人震慑，而是有着更大的阴谋。</t>
-  </si>
-  <si>
     <t>拔刀术·血祭</t>
   </si>
   <si>
-    <t>赤影的绝技。为了弥补渴求血液的自身，让敌人血债血偿。</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
     <t>长剑系轻攻击</t>
   </si>
   <si>
-    <t>习武之人最常练习的攻击动作。</t>
-  </si>
-  <si>
     <t>长剑系重攻击</t>
   </si>
   <si>
-    <t>势大力沉的一劈，简单却好用。</t>
-  </si>
-  <si>
-    <t>石破天惊</t>
-  </si>
-  <si>
-    <t>祖传石剑的绝技。麓元自己研习的招式，威力虽大却极耗体力。</t>
-  </si>
-  <si>
-    <t>次元斩</t>
-  </si>
-  <si>
-    <t>真空之刃的绝技。以肉眼看不见的速度斩向全部敌人。</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>剑气</t>
   </si>
   <si>
-    <t>不直接物理接触，而是通过斩出的剑气伤害敌人。</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
     <t>制裁</t>
   </si>
   <si>
-    <t>湛卢的绝技。制裁对手，但手下留情。效果与双方的实力差距有关。</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>斧系轻攻击</t>
-  </si>
-  <si>
-    <t>横向斩击。</t>
-  </si>
-  <si>
-    <t>斧系重攻击</t>
-  </si>
-  <si>
-    <t>跳劈，虽然威力很大，但命中率较差。</t>
-  </si>
-  <si>
     <t>厄运一击</t>
   </si>
   <si>
-    <t>恶之花的绝技。邪恶的一击，虽然攻击力很高甚至能秒杀敌人，但也存在着反噬自己的可能。</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>疯狂一击</t>
-  </si>
-  <si>
-    <t>狂人之斧的绝技。无视敌我攻击战场上全部单位的一击。</t>
-  </si>
-  <si>
     <t>EveryoneElse</t>
   </si>
   <si>
-    <t>开天辟地</t>
-  </si>
-  <si>
-    <t>盘古巨斧的绝技。攻击全体，无视对方减伤与防御状态。</t>
-  </si>
-  <si>
     <t>103</t>
   </si>
   <si>
     <t>弓弩系轻攻击</t>
   </si>
   <si>
-    <t>普通的箭矢射击。</t>
-  </si>
-  <si>
     <t>弓弩系重攻击</t>
   </si>
   <si>
-    <t>蓄力射击，瞄准时间长，但必中。</t>
-  </si>
-  <si>
     <t>双刃二段打</t>
   </si>
   <si>
-    <t>利用弓的刃部发起攻击，也许会有奇效。</t>
-  </si>
-  <si>
     <t>105</t>
   </si>
   <si>
-    <t>三连火焰矢</t>
-  </si>
-  <si>
-    <t>双刃弓的绝技。利用弓箭的火之力点燃箭矢，并且三连发。</t>
-  </si>
-  <si>
-    <t>连续远程射击</t>
-  </si>
-  <si>
-    <t>狙击弩。将当前弹药库存全部射出依次攻击全部敌人。</t>
-  </si>
-  <si>
-    <t>烟雾弹</t>
-  </si>
-  <si>
-    <t>袖弩的绝技。虽然攻击很弱，但可以降低对手的命中率。</t>
-  </si>
-  <si>
-    <t>轰天巨锤轻击</t>
-  </si>
-  <si>
-    <t>轰天巨锤重击</t>
-  </si>
-  <si>
     <t>威震八方</t>
   </si>
   <si>
-    <t>轰天巨锤的绝技。击倒全体。</t>
-  </si>
-  <si>
-    <t>圣盾之枪轻击</t>
-  </si>
-  <si>
-    <t>枪的刺击，附带的雷属性效果有几率让敌人进入麻痹状态。</t>
-  </si>
-  <si>
-    <t>圣盾之枪重击</t>
-  </si>
-  <si>
-    <t>架起盾，能够抵挡近战攻击并使敌人进入麻痹状态。</t>
-  </si>
-  <si>
     <t>审判</t>
-  </si>
-  <si>
-    <t>对麻痹状态的敌人使用，能够极大地击退敌人。</t>
   </si>
   <si>
     <t>战斗节奏控制</t>
@@ -1425,9 +1260,6 @@
   </si>
   <si>
     <t>ForceCrit</t>
-  </si>
-  <si>
-    <t>无视防御</t>
   </si>
   <si>
     <t>无视对方的防御状态。命中率与伤害值照常计算</t>
@@ -1609,12 +1441,547 @@
     <t>Paralized</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被击退</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸体</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ndure</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用兽牙尖利的一面刺向敌人。</t>
+  </si>
+  <si>
+    <t>巨兽之牙轻击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨兽之牙重击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>将兽牙像大锤一样轮向敌人。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰天巨锤的绝技。震慑全体。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣盾之环轻击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣盾之环重击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>架起盾，能够抵挡近战攻击并使敌人进入麻痹状态。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>掷出环，附带的雷属性效果有几率让敌人进入麻痹状态。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash</t>
+  </si>
+  <si>
+    <t>绝技：背刺</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏自身的杀气，悄悄绕到敌人背后进行攻击。如果不被敌人察觉，则可造成巨大伤害。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thrust</t>
+  </si>
+  <si>
+    <t>快速冲到对方面前挥出一击，适合偷袭。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用尽全力向对方刺去。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：毁灭投掷</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：无限突刺</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>将钩爪向敌人投掷出去，虽然能够造成很大杀伤，但却会暂时失去武器。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视防御力</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视防御状态</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方防御力视为0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lunt</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>附带冰霜之力的三连击，有机会将敌人冰冻。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜刺剑的绝技。只要不被敌人攻击到，就可以无限连击的突刺攻击。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔刀向敌人头顶竖直砍去。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔刀横扫敌人，造成更多伤害，但速度和命中略逊一筹。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>将刀刃拔出的一闪攻击，会使目标流血。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔刀横扫全部敌人，造成更多伤害，但速度和命中略逊一筹。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>从收刀开始出招，力图瞬间将敌人斩杀的强力技能。出招较慢，但却非常容易暴击。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了弥补渴求血液的自身，让敌人血债血偿。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>切开自己的身体，进入流血状态。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>麓元自己研习的招式，威力虽大却极耗体力。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：石破天惊</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：次元斩</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>以肉眼看不见的速度斩向全部敌人，会使目标气虚。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：制裁</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>制裁对手，但手下留情。效果与双方的实力差距有关。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重武系轻攻击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重武系重攻击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩出一道剑气伤害敌人。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手持剑，刺向敌人。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手持剑，砍向敌人。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向挥舞的斩击。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳劈，虽然威力很大，但命中率较差。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：厄运一击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：疯狂一击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：开天辟地</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lunt</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶的一击，虽然攻击力很高甚至能秒杀敌人，但也存在着反噬自己的可能。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视敌我攻击战场上全部单位的强力一击。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>威震八方的一击，大几率将对方击倒。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出一箭，刺穿敌人。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力射击，瞄准时间长，但几乎必中。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：三连火焰矢</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：连续狙击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用弓箭的火之力点燃三发箭矢同时击出，可能点燃敌人。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用弓的刃部发起攻击，不消耗弹药。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>将当前弹药库存全部射出依次攻击全部敌人。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>506</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>507</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒弹</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂乱弹</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中后释放毒气，虽然威力很弱，但可能令敌方中毒。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中后释放迷烟，虽然威力很弱，但可能令敌方狂乱。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>对麻痹状态的敌人使用，能够极大地击退敌人。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>one</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thrust</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,102,107</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1700,6 +2067,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1735,7 +2116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1810,6 +2191,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2099,21 +2489,21 @@
     <col min="3" max="3" width="47.875" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="8" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
-    <col min="6" max="12" width="10.25" style="8" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="8" customWidth="1"/>
-    <col min="14" max="15" width="12.5" style="8" customWidth="1"/>
-    <col min="16" max="16" width="8" style="8" customWidth="1"/>
-    <col min="17" max="17" width="11.875" style="8" customWidth="1"/>
-    <col min="18" max="20" width="11.25" style="8" customWidth="1"/>
-    <col min="21" max="21" width="70.875" style="8" customWidth="1"/>
-    <col min="22" max="23" width="9" style="8"/>
-    <col min="24" max="24" width="10.5" style="8" customWidth="1"/>
-    <col min="25" max="26" width="9" style="8"/>
-    <col min="27" max="27" width="11.625" style="8" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="8"/>
+    <col min="6" max="11" width="10.25" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="8" customWidth="1"/>
+    <col min="13" max="14" width="12.5" style="8" customWidth="1"/>
+    <col min="15" max="15" width="8" style="8" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="8" customWidth="1"/>
+    <col min="17" max="18" width="11.25" style="8" customWidth="1"/>
+    <col min="19" max="19" width="70.875" style="8" customWidth="1"/>
+    <col min="20" max="21" width="9" style="8"/>
+    <col min="22" max="22" width="10.5" style="8" customWidth="1"/>
+    <col min="23" max="24" width="9" style="8"/>
+    <col min="25" max="25" width="11.625" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2153,183 +2543,171 @@
       <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="40.5">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="40.5">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:16" ht="27">
+      <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="27">
-      <c r="A3" s="9" t="s">
+      <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="M3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="9">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="10">
         <v>1101</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>377</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -2349,30 +2727,27 @@
       <c r="K5" s="10">
         <v>1</v>
       </c>
-      <c r="L5" s="10">
-        <v>5</v>
-      </c>
+      <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="10">
         <v>1102</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F6" s="10">
         <v>1.5</v>
@@ -2392,30 +2767,27 @@
       <c r="K6" s="10">
         <v>2</v>
       </c>
-      <c r="L6" s="10">
-        <v>3</v>
-      </c>
+      <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:17" ht="27">
+    </row>
+    <row r="7" spans="1:16" ht="27">
       <c r="A7" s="10">
         <v>1103</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>51</v>
+      <c r="B7" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>375</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7" s="10">
         <v>6</v>
@@ -2435,37 +2807,34 @@
       <c r="K7" s="10">
         <v>0.5</v>
       </c>
-      <c r="L7" s="10">
-        <v>1</v>
-      </c>
+      <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="O7" s="13">
+        <v>3</v>
+      </c>
       <c r="P7" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27">
+    <row r="8" spans="1:16" ht="27">
       <c r="A8" s="10">
         <v>1104</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>42</v>
+      <c r="B8" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="10">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>385</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -2482,34 +2851,31 @@
       <c r="K8" s="10">
         <v>10</v>
       </c>
-      <c r="L8" s="10">
-        <v>1</v>
-      </c>
+      <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="O8" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="10">
         <v>1105</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>387</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F9" s="10">
         <v>0.5</v>
@@ -2529,40 +2895,37 @@
       <c r="K9" s="10">
         <v>2</v>
       </c>
-      <c r="L9" s="10">
-        <v>1</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>58</v>
+      <c r="L9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>388</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="27">
       <c r="A10" s="10">
         <v>1106</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>64</v>
+      <c r="B10" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>389</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="10">
         <v>0.8</v>
@@ -2582,30 +2945,27 @@
       <c r="K10" s="10">
         <v>0</v>
       </c>
-      <c r="L10" s="10">
-        <v>1</v>
-      </c>
+      <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:17">
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="10">
         <v>1201</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>390</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
@@ -2625,30 +2985,27 @@
       <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="10">
-        <v>3</v>
-      </c>
+      <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:17">
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="10">
         <v>1202</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>391</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F12" s="10">
         <v>1.2</v>
@@ -2668,30 +3025,27 @@
       <c r="K12" s="10">
         <v>1.5</v>
       </c>
-      <c r="L12" s="10">
-        <v>2</v>
-      </c>
+      <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" ht="27">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="10">
         <v>1203</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>392</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F13" s="10">
         <v>3</v>
@@ -2711,36 +3065,33 @@
       <c r="K13" s="10">
         <v>3</v>
       </c>
-      <c r="L13" s="10">
-        <v>1</v>
+      <c r="L13" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>72</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="O13" s="13"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:17" ht="27">
+    </row>
+    <row r="14" spans="1:16" ht="27">
       <c r="A14" s="10">
         <v>1204</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>393</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F14" s="10">
         <v>1.2</v>
@@ -2760,30 +3111,27 @@
       <c r="K14" s="10">
         <v>1.5</v>
       </c>
-      <c r="L14" s="10">
-        <v>1</v>
-      </c>
+      <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="1:17" ht="27">
+    </row>
+    <row r="15" spans="1:16" ht="27">
       <c r="A15" s="10">
         <v>1205</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>77</v>
+        <v>59</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>394</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -2791,8 +3139,8 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="10">
-        <v>1</v>
+      <c r="H15" s="19" t="s">
+        <v>395</v>
       </c>
       <c r="I15" s="10">
         <v>0.7</v>
@@ -2803,30 +3151,31 @@
       <c r="K15" s="10">
         <v>1</v>
       </c>
-      <c r="L15" s="10">
-        <v>1</v>
-      </c>
+      <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:17" ht="27">
+      <c r="O15" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="10">
         <v>1206</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>79</v>
+        <v>60</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16" s="10">
         <v>1</v>
@@ -2846,36 +3195,33 @@
       <c r="K16" s="10">
         <v>0</v>
       </c>
-      <c r="L16" s="10">
-        <v>1</v>
+      <c r="L16" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>72</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="O16" s="13"/>
       <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:17" ht="27">
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="10">
         <v>1207</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>398</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F17" s="10">
         <v>1.6</v>
@@ -2895,34 +3241,31 @@
       <c r="K17" s="10">
         <v>2</v>
       </c>
-      <c r="L17" s="10">
-        <v>1</v>
-      </c>
+      <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="O17" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="P17" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="10">
         <v>1301</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>409</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
@@ -2942,30 +3285,27 @@
       <c r="K18" s="10">
         <v>1</v>
       </c>
-      <c r="L18" s="10">
-        <v>3</v>
-      </c>
+      <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="10">
         <v>1302</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>86</v>
+        <v>64</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>410</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" s="10">
         <v>1.3</v>
@@ -2985,30 +3325,27 @@
       <c r="K19" s="10">
         <v>1.5</v>
       </c>
-      <c r="L19" s="10">
-        <v>1</v>
-      </c>
+      <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:17" ht="27">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="10">
         <v>1303</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>42</v>
+      <c r="B20" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F20" s="10">
         <v>2</v>
@@ -3028,30 +3365,33 @@
       <c r="K20" s="10">
         <v>1</v>
       </c>
-      <c r="L20" s="10">
-        <v>2</v>
-      </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="L20" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>351</v>
+      </c>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="10">
         <v>1304</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>90</v>
+      <c r="B21" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>403</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F21" s="10">
         <v>0.7</v>
@@ -3071,36 +3411,33 @@
       <c r="K21" s="10">
         <v>1</v>
       </c>
-      <c r="L21" s="10">
-        <v>1</v>
+      <c r="L21" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>91</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O21" s="13"/>
       <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="10">
         <v>1305</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>93</v>
+        <v>66</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>408</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>94</v>
+        <v>373</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F22" s="10">
         <v>1.9</v>
@@ -3120,30 +3457,27 @@
       <c r="K22" s="10">
         <v>0.9</v>
       </c>
-      <c r="L22" s="10">
-        <v>2</v>
-      </c>
+      <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="1:17" ht="27">
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="10">
         <v>1306</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>42</v>
+      <c r="B23" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F23" s="10">
         <v>2.5</v>
@@ -3163,34 +3497,31 @@
       <c r="K23" s="10">
         <v>0</v>
       </c>
-      <c r="L23" s="10">
-        <v>1</v>
-      </c>
+      <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="O23" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="P23" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="10">
         <v>1401</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>99</v>
+      <c r="B24" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>411</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
@@ -3210,30 +3541,27 @@
       <c r="K24" s="10">
         <v>0.8</v>
       </c>
-      <c r="L24" s="10">
-        <v>2</v>
-      </c>
+      <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="10">
         <v>1402</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>101</v>
+      <c r="B25" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>412</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F25" s="10">
         <v>1.5</v>
@@ -3253,30 +3581,27 @@
       <c r="K25" s="10">
         <v>1.3</v>
       </c>
-      <c r="L25" s="10">
-        <v>1</v>
-      </c>
+      <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" spans="1:17" ht="27">
+    </row>
+    <row r="26" spans="1:16" ht="27">
       <c r="A26" s="10">
         <v>1403</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>103</v>
+      <c r="B26" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>417</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F26" s="10">
         <v>1.5</v>
@@ -3296,34 +3621,31 @@
       <c r="K26" s="10">
         <v>1</v>
       </c>
-      <c r="L26" s="10">
-        <v>1</v>
-      </c>
+      <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
+      <c r="O26" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="P26" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="10">
         <v>1404</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>42</v>
+      <c r="B27" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>416</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F27" s="10">
         <v>2</v>
@@ -3343,30 +3665,27 @@
       <c r="K27" s="10">
         <v>1</v>
       </c>
-      <c r="L27" s="10">
-        <v>1</v>
-      </c>
+      <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" spans="1:17">
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="10">
         <v>1405</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>42</v>
+      <c r="B28" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>416</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F28" s="10">
         <v>0.8</v>
@@ -3386,34 +3705,33 @@
       <c r="K28" s="10">
         <v>1</v>
       </c>
-      <c r="L28" s="10">
-        <v>1</v>
-      </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="L28" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>357</v>
+      </c>
       <c r="O28" s="10"/>
-      <c r="P28" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="10">
         <v>1501</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>113</v>
+        <v>74</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>420</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>94</v>
+        <v>376</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F29" s="10">
         <v>1</v>
@@ -3433,30 +3751,27 @@
       <c r="K29" s="10">
         <v>1</v>
       </c>
-      <c r="L29" s="10">
-        <v>3</v>
-      </c>
+      <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="1:17">
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="10">
         <v>1502</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>115</v>
+        <v>75</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>421</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>94</v>
+        <v>376</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F30" s="10">
         <v>1.2</v>
@@ -3476,30 +3791,27 @@
       <c r="K30" s="10">
         <v>1</v>
       </c>
-      <c r="L30" s="10">
-        <v>1</v>
-      </c>
+      <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="1:17">
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="10">
         <v>1503</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>117</v>
+        <v>76</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>425</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F31" s="10">
         <v>0.8</v>
@@ -3519,34 +3831,31 @@
       <c r="K31" s="10">
         <v>1</v>
       </c>
-      <c r="L31" s="10">
-        <v>3</v>
-      </c>
+      <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+      <c r="O31" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="P31" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q31" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="27">
       <c r="A32" s="10">
         <v>1504</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>120</v>
+      <c r="B32" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>424</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>94</v>
+        <v>376</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F32" s="10">
         <v>1</v>
@@ -3566,40 +3875,37 @@
       <c r="K32" s="10">
         <v>1</v>
       </c>
-      <c r="L32" s="10">
-        <v>2</v>
+      <c r="L32" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q32" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="10">
         <v>1505</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>122</v>
+      <c r="B33" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>426</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>94</v>
+        <v>376</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F33" s="10">
         <v>1</v>
@@ -3619,77 +3925,73 @@
       <c r="K33" s="10">
         <v>1</v>
       </c>
-      <c r="L33" s="10">
-        <v>1</v>
-      </c>
+      <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="10">
-        <v>1506</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>94</v>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="H34" s="10">
-        <v>1</v>
-      </c>
-      <c r="I34" s="10">
-        <v>1</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K34" s="10">
-        <v>0</v>
-      </c>
-      <c r="L34" s="10">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="10">
-        <v>1601</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10" t="s">
-        <v>42</v>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>434</v>
       </c>
       <c r="H35" s="10">
         <v>1</v>
@@ -3697,34 +3999,33 @@
       <c r="I35" s="10">
         <v>1</v>
       </c>
-      <c r="J35" s="10">
-        <v>1</v>
+      <c r="J35" s="19" t="s">
+        <v>434</v>
       </c>
       <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="1:17">
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="10">
-        <v>1602</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="10"/>
+        <v>1601</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>358</v>
+      </c>
       <c r="D36" s="10" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F36" s="10">
         <v>1</v>
@@ -3744,119 +4045,110 @@
       <c r="K36" s="10">
         <v>1</v>
       </c>
-      <c r="L36" s="10">
-        <v>1</v>
-      </c>
+      <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="1:17">
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="10">
-        <v>1603</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>42</v>
+        <v>1602</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10">
-        <v>1</v>
-      </c>
-      <c r="H37" s="10">
-        <v>1</v>
-      </c>
-      <c r="I37" s="10">
-        <v>1</v>
-      </c>
-      <c r="J37" s="10">
-        <v>1</v>
-      </c>
-      <c r="K37" s="10">
-        <v>1</v>
-      </c>
-      <c r="L37" s="10">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="1:17" ht="27">
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="10">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>42</v>
+        <v>78</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="10">
-        <v>1</v>
-      </c>
-      <c r="I38" s="10">
-        <v>1</v>
-      </c>
-      <c r="J38" s="10">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>366</v>
       </c>
       <c r="K38" s="10">
         <v>1</v>
       </c>
-      <c r="L38" s="10">
-        <v>3</v>
-      </c>
+      <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="1:17">
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="10">
-        <v>1605</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>42</v>
+        <v>1604</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="10">
         <v>1</v>
@@ -3871,35 +4163,32 @@
         <v>1</v>
       </c>
       <c r="K39" s="10">
-        <v>0</v>
-      </c>
-      <c r="L39" s="10">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="1:17">
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="10">
-        <v>1606</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>42</v>
+        <v>1605</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>445</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F40" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="10">
         <v>1</v>
@@ -3908,38 +4197,35 @@
         <v>1</v>
       </c>
       <c r="I40" s="10">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J40" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K40" s="10">
-        <v>1</v>
-      </c>
-      <c r="L40" s="10">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="1:17">
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="10">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>42</v>
+        <v>79</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>439</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F41" s="10">
         <v>1</v>
@@ -3951,38 +4237,35 @@
         <v>1</v>
       </c>
       <c r="I41" s="10">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J41" s="10">
-        <v>1</v>
-      </c>
-      <c r="K41" s="10">
-        <v>1</v>
-      </c>
-      <c r="L41" s="10">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="1:17">
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="10">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>42</v>
+        <v>81</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F42" s="10">
         <v>1</v>
@@ -4002,30 +4285,27 @@
       <c r="K42" s="10">
         <v>1</v>
       </c>
-      <c r="L42" s="10">
-        <v>1</v>
-      </c>
+      <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="1:17">
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="10">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>42</v>
+        <v>83</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F43" s="10">
         <v>1</v>
@@ -4045,87 +4325,92 @@
       <c r="K43" s="10">
         <v>1</v>
       </c>
-      <c r="L43" s="10">
-        <v>1</v>
-      </c>
+      <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="10">
+        <v>1609</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10">
+        <v>1</v>
+      </c>
+      <c r="H44" s="10">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1</v>
+      </c>
+      <c r="J44" s="10">
+        <v>1</v>
+      </c>
+      <c r="K44" s="10">
+        <v>1</v>
+      </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
-      <c r="J45" s="19" t="s">
-        <v>396</v>
-      </c>
+      <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="1:17">
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="10" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
@@ -4133,30 +4418,29 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="1:17">
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="10" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -4164,30 +4448,29 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-    </row>
-    <row r="48" spans="1:17">
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="10" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -4195,30 +4478,29 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-    </row>
-    <row r="49" spans="1:17">
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="10" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -4226,30 +4508,29 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-    </row>
-    <row r="50" spans="1:17">
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="10" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -4257,30 +4538,29 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-    </row>
-    <row r="51" spans="1:17" ht="27">
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="10" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -4288,30 +4568,29 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-    </row>
-    <row r="52" spans="1:17" ht="27">
+    </row>
+    <row r="52" spans="1:16" ht="27">
       <c r="A52" s="10" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
-      <c r="J52" s="10" t="s">
-        <v>167</v>
+      <c r="J52" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -4319,30 +4598,29 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-    </row>
-    <row r="53" spans="1:17" ht="27">
+    </row>
+    <row r="53" spans="1:16" ht="27">
       <c r="A53" s="10" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
-      <c r="J53" s="19" t="s">
-        <v>396</v>
+      <c r="J53" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -4350,30 +4628,29 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-    </row>
-    <row r="54" spans="1:17" ht="27">
+    </row>
+    <row r="54" spans="1:16" ht="27">
       <c r="A54" s="10" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -4381,30 +4658,29 @@
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-    </row>
-    <row r="55" spans="1:17">
+    </row>
+    <row r="55" spans="1:16" ht="27">
       <c r="A55" s="10" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -4412,30 +4688,29 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-    </row>
-    <row r="56" spans="1:17">
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="10" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
@@ -4443,30 +4718,29 @@
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-    </row>
-    <row r="57" spans="1:17" ht="27">
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="10" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>386</v>
+        <v>124</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
-      <c r="J57" s="10" t="s">
-        <v>167</v>
+      <c r="J57" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -4474,298 +4748,289 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
+    </row>
+    <row r="58" spans="1:16" ht="27">
+      <c r="A58" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
+      <c r="J58" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="19" t="s">
-        <v>396</v>
-      </c>
+      <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N59" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O59" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-    </row>
-    <row r="60" spans="1:17">
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="10" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
+      <c r="L60" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="M60" s="10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="O60" s="10" t="s">
-        <v>60</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="O60" s="10"/>
       <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-    </row>
-    <row r="61" spans="1:17">
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="10" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
+      <c r="L61" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="O61" s="10"/>
-      <c r="P61" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q61" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="P61" s="10"/>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="10" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
+      <c r="O62" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="P62" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q62" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="10" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="19" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
-      <c r="M63" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N63" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
       <c r="O63" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-    </row>
-    <row r="64" spans="1:17" ht="27">
+        <v>73</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="10" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="19" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
+      <c r="L64" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="M64" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+    </row>
+    <row r="65" spans="1:16" ht="27">
+      <c r="A65" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="N64" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="O64" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
+      <c r="L65" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-    </row>
-    <row r="66" spans="1:17" ht="27">
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>207</v>
+        <v>148</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
@@ -4773,30 +5038,29 @@
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-    </row>
-    <row r="67" spans="1:17" ht="27">
+    </row>
+    <row r="67" spans="1:16" ht="27">
       <c r="A67" s="10" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
@@ -4804,30 +5068,29 @@
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-    </row>
-    <row r="68" spans="1:17" ht="27">
+    </row>
+    <row r="68" spans="1:16" ht="27">
       <c r="A68" s="10" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
@@ -4835,30 +5098,29 @@
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-    </row>
-    <row r="69" spans="1:17">
+    </row>
+    <row r="69" spans="1:16" ht="27">
       <c r="A69" s="10" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -4866,20 +5128,19 @@
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-    </row>
-    <row r="70" spans="1:17">
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="10" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>385</v>
+        <v>161</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>43</v>
@@ -4889,7 +5150,7 @@
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
@@ -4897,191 +5158,185 @@
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="10"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
+      <c r="J71" s="19" t="s">
+        <v>340</v>
+      </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="10"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="19" t="s">
-        <v>396</v>
-      </c>
+      <c r="J72" s="10"/>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
-      <c r="M72" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="N72" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O72" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
       <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-    </row>
-    <row r="73" spans="1:17">
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>225</v>
+        <v>165</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
+      <c r="L73" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="M73" s="10" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="O73" s="10" t="s">
-        <v>72</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="O73" s="10"/>
       <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-    </row>
-    <row r="74" spans="1:17">
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="10" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
+      <c r="L74" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="M74" s="10" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O74" s="10" t="s">
-        <v>91</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="O74" s="10"/>
       <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-    </row>
-    <row r="75" spans="1:17">
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="10" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>234</v>
+        <v>58</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="19" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
+      <c r="L75" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-    </row>
-    <row r="76" spans="1:17">
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="10" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="19" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -5089,30 +5344,29 @@
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-    </row>
-    <row r="77" spans="1:17">
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="10" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="19" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -5120,30 +5374,29 @@
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-    </row>
-    <row r="78" spans="1:17">
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="10" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="19" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
@@ -5151,30 +5404,29 @@
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-    </row>
-    <row r="79" spans="1:17" ht="27">
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="10" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="19" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
@@ -5182,30 +5434,29 @@
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-    </row>
-    <row r="80" spans="1:17">
+    </row>
+    <row r="80" spans="1:16" ht="27">
       <c r="A80" s="10" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="19" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
@@ -5213,30 +5464,29 @@
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-    </row>
-    <row r="81" spans="1:17">
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="10" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -5244,30 +5494,29 @@
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-    </row>
-    <row r="82" spans="1:17" ht="27">
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="10" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -5275,20 +5524,19 @@
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-    </row>
-    <row r="83" spans="1:17" ht="28.5">
+    </row>
+    <row r="83" spans="1:16" ht="27">
       <c r="A83" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>394</v>
+        <v>198</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>43</v>
@@ -5298,7 +5546,7 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="19" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -5306,85 +5554,70 @@
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
+    </row>
+    <row r="84" spans="1:16" ht="28.5">
+      <c r="A84" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
+      <c r="J84" s="19" t="s">
+        <v>340</v>
+      </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="10">
-        <v>3001</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" s="10">
-        <v>1</v>
-      </c>
-      <c r="G85" s="10">
-        <v>1</v>
-      </c>
-      <c r="H85" s="10">
-        <v>1</v>
-      </c>
-      <c r="I85" s="10">
-        <v>1</v>
-      </c>
-      <c r="J85" s="10">
-        <v>1</v>
-      </c>
-      <c r="K85" s="10">
-        <v>1</v>
-      </c>
-      <c r="L85" s="10">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-    </row>
-    <row r="86" spans="1:17">
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="10">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>42</v>
+        <v>204</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F86" s="10">
         <v>1</v>
@@ -5404,116 +5637,107 @@
       <c r="K86" s="10">
         <v>1</v>
       </c>
-      <c r="L86" s="10">
-        <v>3</v>
-      </c>
+      <c r="L86" s="10"/>
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
-    </row>
-    <row r="87" spans="1:17">
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="10">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>42</v>
+        <v>205</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F87" s="10">
         <v>1</v>
       </c>
       <c r="G87" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K87" s="10">
         <v>1</v>
       </c>
-      <c r="L87" s="10">
-        <v>3</v>
-      </c>
+      <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
-    </row>
-    <row r="88" spans="1:17">
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="10">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>94</v>
+        <v>206</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F88" s="10">
         <v>1</v>
       </c>
       <c r="G88" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K88" s="10">
         <v>1</v>
       </c>
-      <c r="L88" s="10">
-        <v>3</v>
-      </c>
+      <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-    </row>
-    <row r="89" spans="1:17">
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="10">
-        <v>4001</v>
+        <v>3004</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>144</v>
+        <v>208</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F89" s="10">
         <v>1</v>
@@ -5528,49 +5752,63 @@
         <v>1</v>
       </c>
       <c r="J89" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="10">
-        <v>0</v>
-      </c>
-      <c r="L89" s="10">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L89" s="10"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
-    </row>
-    <row r="90" spans="1:17">
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="10">
-        <v>3005</v>
+        <v>4001</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
+        <v>207</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" s="10">
+        <v>1</v>
+      </c>
+      <c r="G90" s="10">
+        <v>1</v>
+      </c>
+      <c r="H90" s="10">
+        <v>1</v>
+      </c>
+      <c r="I90" s="10">
+        <v>1</v>
+      </c>
+      <c r="J90" s="10">
+        <v>0</v>
+      </c>
+      <c r="K90" s="10">
+        <v>0</v>
+      </c>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
-      <c r="Q90" s="10"/>
-    </row>
-    <row r="91" spans="1:17">
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="10">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -5586,14 +5824,13 @@
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="10"/>
-    </row>
-    <row r="92" spans="1:17">
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="10">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -5609,14 +5846,13 @@
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="10"/>
-    </row>
-    <row r="93" spans="1:17">
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="10">
-        <v>4005</v>
+        <v>3007</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -5632,14 +5868,13 @@
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
-      <c r="Q93" s="10"/>
-    </row>
-    <row r="94" spans="1:17">
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="10">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -5655,14 +5890,13 @@
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
-      <c r="Q94" s="10"/>
-    </row>
-    <row r="95" spans="1:17">
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="10">
-        <v>3008</v>
+        <v>4006</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -5678,18 +5912,15 @@
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
-      <c r="Q95" s="10"/>
-    </row>
-    <row r="96" spans="1:17">
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="10">
-        <v>4007</v>
+        <v>3008</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>272</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C96" s="10"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
@@ -5703,17 +5934,16 @@
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
-      <c r="Q96" s="10"/>
-    </row>
-    <row r="97" spans="1:17">
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="10">
-        <v>3009</v>
+        <v>4007</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
@@ -5728,17 +5958,16 @@
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
-      <c r="Q97" s="10"/>
-    </row>
-    <row r="98" spans="1:17">
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="10">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -5753,17 +5982,16 @@
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
-      <c r="Q98" s="10"/>
-    </row>
-    <row r="99" spans="1:17">
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="10">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
@@ -5778,17 +6006,16 @@
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
-      <c r="Q99" s="10"/>
-    </row>
-    <row r="100" spans="1:17">
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="10">
-        <v>4008</v>
+        <v>3011</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
@@ -5803,36 +6030,58 @@
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
-      <c r="Q100" s="10"/>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="10">
+        <v>4008</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5845,53 +6094,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5899,16 +6148,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5916,16 +6165,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
@@ -5933,16 +6182,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -5950,16 +6199,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5967,16 +6216,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5984,16 +6233,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6001,16 +6250,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6018,16 +6267,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6035,16 +6284,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="C12" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6052,16 +6301,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6069,16 +6318,16 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="D14" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6086,16 +6335,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="D15" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
@@ -6103,16 +6352,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="D16" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6120,16 +6369,16 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="C17" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="D17" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6137,102 +6386,119 @@
         <v>14</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
-        <v>101</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>379</v>
-      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>257</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>381</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
+        <v>202</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
         <v>203</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>383</v>
+      <c r="B30" s="18" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -6245,10 +6511,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6261,53 +6527,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6315,16 +6581,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6332,16 +6598,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6349,16 +6615,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5">
@@ -6366,16 +6632,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6383,16 +6649,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6400,16 +6666,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -6417,16 +6683,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31.5">
@@ -6434,16 +6700,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
@@ -6451,16 +6717,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.5">
@@ -6468,16 +6734,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6485,16 +6751,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6508,16 +6774,16 @@
         <v>101</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6525,33 +6791,33 @@
         <v>102</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <v>103</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>362</v>
+      <c r="B18" s="18" t="s">
+        <v>383</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6559,16 +6825,16 @@
         <v>104</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6576,16 +6842,16 @@
         <v>105</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.5">
@@ -6593,16 +6859,30 @@
         <v>106</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>373</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>107</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="453">
   <si>
     <t>技能ID</t>
   </si>
@@ -1263,9 +1263,6 @@
   </si>
   <si>
     <t>无视对方的防御状态。命中率与伤害值照常计算</t>
-  </si>
-  <si>
-    <t>IgnoreDefence</t>
   </si>
   <si>
     <t>三连击</t>
@@ -1628,14 +1625,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>无视防御力</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>无视防御状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>对方防御力视为0</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1974,6 +1963,79 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视防御状态</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreDefence</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreArmor</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2478,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2664,7 +2726,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>40</v>
@@ -2701,10 +2763,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>43</v>
@@ -2741,10 +2803,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>43</v>
@@ -2778,13 +2840,13 @@
         <v>1103</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>376</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>43</v>
@@ -2822,19 +2884,19 @@
         <v>1104</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -2855,10 +2917,10 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2869,10 +2931,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>43</v>
@@ -2899,7 +2961,7 @@
         <v>47</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>49</v>
@@ -2916,13 +2978,13 @@
         <v>1106</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>43</v>
@@ -2959,10 +3021,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>43</v>
@@ -2999,10 +3061,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>43</v>
@@ -3039,10 +3101,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>43</v>
@@ -3085,10 +3147,10 @@
         <v>57</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>58</v>
@@ -3125,10 +3187,10 @@
         <v>59</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>43</v>
@@ -3140,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I15" s="10">
         <v>0.7</v>
@@ -3155,10 +3217,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="25" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3169,10 +3231,10 @@
         <v>60</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>40</v>
@@ -3215,10 +3277,10 @@
         <v>61</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>58</v>
@@ -3259,10 +3321,10 @@
         <v>63</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>43</v>
@@ -3299,10 +3361,10 @@
         <v>64</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>43</v>
@@ -3336,13 +3398,13 @@
         <v>1303</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>43</v>
@@ -3366,13 +3428,13 @@
         <v>1</v>
       </c>
       <c r="L20" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="M20" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="N20" s="25" t="s">
         <v>350</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>351</v>
       </c>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -3382,13 +3444,13 @@
         <v>1304</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>58</v>
@@ -3431,10 +3493,10 @@
         <v>66</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>43</v>
@@ -3468,13 +3530,13 @@
         <v>1306</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>43</v>
@@ -3512,13 +3574,13 @@
         <v>1401</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>43</v>
@@ -3552,13 +3614,13 @@
         <v>1402</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>43</v>
@@ -3592,13 +3654,13 @@
         <v>1403</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>43</v>
@@ -3636,13 +3698,13 @@
         <v>1404</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>72</v>
@@ -3676,13 +3738,13 @@
         <v>1405</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>58</v>
@@ -3706,13 +3768,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="M28" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="N28" s="19" t="s">
         <v>356</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>357</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -3725,10 +3787,10 @@
         <v>74</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>43</v>
@@ -3765,10 +3827,10 @@
         <v>75</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>43</v>
@@ -3805,10 +3867,10 @@
         <v>76</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>43</v>
@@ -3846,13 +3908,13 @@
         <v>1504</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>43</v>
@@ -3896,13 +3958,13 @@
         <v>1505</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>426</v>
-      </c>
       <c r="D33" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>43</v>
@@ -3933,65 +3995,71 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="19" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+        <v>432</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>449</v>
+      </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="19" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H35" s="10">
         <v>1</v>
@@ -4000,14 +4068,20 @@
         <v>1</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="L35" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>447</v>
+      </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
@@ -4016,13 +4090,13 @@
         <v>1601</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>58</v>
@@ -4056,34 +4130,34 @@
         <v>1602</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>361</v>
-      </c>
       <c r="D37" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F37" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="I37" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="J37" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="H37" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>363</v>
-      </c>
       <c r="K37" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -4099,28 +4173,28 @@
         <v>78</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="G38" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="H38" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="J38" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>366</v>
       </c>
       <c r="K38" s="10">
         <v>1</v>
@@ -4136,13 +4210,13 @@
         <v>1604</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>43</v>
@@ -4176,13 +4250,13 @@
         <v>1605</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>370</v>
-      </c>
       <c r="D40" s="19" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>40</v>
@@ -4219,10 +4293,10 @@
         <v>79</v>
       </c>
       <c r="C41" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>436</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>439</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>43</v>
@@ -4243,7 +4317,7 @@
         <v>0.5</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -4262,7 +4336,7 @@
         <v>81</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>43</v>
@@ -4302,7 +4376,7 @@
         <v>83</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>43</v>
@@ -4342,7 +4416,7 @@
         <v>85</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>43</v>
@@ -4410,7 +4484,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
@@ -4440,7 +4514,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -4470,7 +4544,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -4500,7 +4574,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -4530,7 +4604,7 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -4560,7 +4634,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -4590,7 +4664,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -4650,7 +4724,7 @@
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -4680,7 +4754,7 @@
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -4710,7 +4784,7 @@
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
@@ -4740,7 +4814,7 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -4757,7 +4831,7 @@
         <v>127</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>89</v>
@@ -4818,7 +4892,7 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="10" t="s">
@@ -4854,7 +4928,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="10" t="s">
@@ -4890,7 +4964,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
@@ -4924,7 +4998,7 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
@@ -4958,7 +5032,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10" t="s">
@@ -4994,7 +5068,7 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="10" t="s">
@@ -5030,7 +5104,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
@@ -5060,7 +5134,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
@@ -5090,7 +5164,7 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
@@ -5120,7 +5194,7 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -5150,7 +5224,7 @@
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
@@ -5167,7 +5241,7 @@
         <v>164</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>131</v>
@@ -5180,7 +5254,7 @@
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
@@ -5228,7 +5302,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73" s="10" t="s">
@@ -5264,7 +5338,7 @@
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="10" t="s">
@@ -5300,7 +5374,7 @@
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="10" t="s">
@@ -5336,7 +5410,7 @@
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -5366,7 +5440,7 @@
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -5396,7 +5470,7 @@
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
@@ -5426,7 +5500,7 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
@@ -5456,7 +5530,7 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
@@ -5486,7 +5560,7 @@
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -5516,7 +5590,7 @@
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -5546,7 +5620,7 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -5560,7 +5634,7 @@
         <v>201</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>203</v>
@@ -5576,7 +5650,7 @@
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
@@ -5614,7 +5688,7 @@
         <v>204</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>43</v>
@@ -5654,7 +5728,7 @@
         <v>205</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>43</v>
@@ -5694,7 +5768,7 @@
         <v>206</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>43</v>
@@ -5734,7 +5808,7 @@
         <v>208</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>58</v>
@@ -5774,7 +5848,7 @@
         <v>209</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>58</v>
@@ -6081,7 +6155,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6236,7 +6310,7 @@
         <v>251</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>235</v>
@@ -6253,7 +6327,7 @@
         <v>253</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>243</v>
@@ -6270,13 +6344,13 @@
         <v>255</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6290,7 +6364,7 @@
         <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>258</v>
@@ -6341,7 +6415,7 @@
         <v>266</v>
       </c>
       <c r="D15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>267</v>
@@ -6355,10 +6429,10 @@
         <v>268</v>
       </c>
       <c r="C16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>269</v>
@@ -6386,16 +6460,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6403,16 +6477,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>353</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="D19" t="s">
-        <v>339</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6426,7 +6500,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6434,7 +6508,7 @@
         <v>102</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6442,7 +6516,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6450,7 +6524,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6458,7 +6532,7 @@
         <v>105</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6466,7 +6540,7 @@
         <v>106</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6482,7 +6556,7 @@
         <v>201</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6490,7 +6564,7 @@
         <v>202</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6498,7 +6572,7 @@
         <v>203</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6513,8 +6587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6666,10 +6740,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>322</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>288</v>
@@ -6751,16 +6825,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>288</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6797,7 +6871,7 @@
         <v>305</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>306</v>
@@ -6808,16 +6882,16 @@
         <v>103</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>307</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>308</v>
+        <v>284</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6825,16 +6899,16 @@
         <v>104</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>288</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6842,33 +6916,33 @@
         <v>105</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>288</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.5">
       <c r="A21">
         <v>106</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>275</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6876,13 +6950,16 @@
         <v>107</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>275</v>
+        <v>284</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="455">
   <si>
     <t>技能ID</t>
   </si>
@@ -2036,6 +2036,27 @@
   </si>
   <si>
     <t>IgnoreArmor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2540,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3730,8 +3751,12 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
+      <c r="O27" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="10">
@@ -6588,7 +6613,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6905,7 +6930,7 @@
         <v>309</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>310</v>
@@ -6922,7 +6947,7 @@
         <v>312</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>313</v>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -884,12 +884,6 @@
     <t>祝福</t>
   </si>
   <si>
-    <t>完全抵御下次伤害</t>
-  </si>
-  <si>
-    <t>Blessed</t>
-  </si>
-  <si>
     <t>诅咒(1)</t>
   </si>
   <si>
@@ -2057,6 +2051,14 @@
       </rPr>
       <t>00</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blessed</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全抵御下次伤害</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2747,7 +2749,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>40</v>
@@ -2784,10 +2786,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>43</v>
@@ -2824,10 +2826,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>43</v>
@@ -2861,13 +2863,13 @@
         <v>1103</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>373</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>375</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>43</v>
@@ -2905,19 +2907,19 @@
         <v>1104</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>380</v>
-      </c>
       <c r="D8" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -2938,10 +2940,10 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2952,10 +2954,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>43</v>
@@ -2982,7 +2984,7 @@
         <v>47</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>49</v>
@@ -2999,13 +3001,13 @@
         <v>1106</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>43</v>
@@ -3042,10 +3044,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>43</v>
@@ -3082,10 +3084,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>43</v>
@@ -3122,10 +3124,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>43</v>
@@ -3168,10 +3170,10 @@
         <v>57</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>58</v>
@@ -3208,10 +3210,10 @@
         <v>59</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>43</v>
@@ -3223,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I15" s="10">
         <v>0.7</v>
@@ -3238,10 +3240,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3252,10 +3254,10 @@
         <v>60</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>40</v>
@@ -3298,10 +3300,10 @@
         <v>61</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>58</v>
@@ -3342,10 +3344,10 @@
         <v>63</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>43</v>
@@ -3382,10 +3384,10 @@
         <v>64</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>43</v>
@@ -3419,13 +3421,13 @@
         <v>1303</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>43</v>
@@ -3449,13 +3451,13 @@
         <v>1</v>
       </c>
       <c r="L20" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="N20" s="25" t="s">
         <v>348</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>350</v>
       </c>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -3465,13 +3467,13 @@
         <v>1304</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>58</v>
@@ -3514,10 +3516,10 @@
         <v>66</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>43</v>
@@ -3551,13 +3553,13 @@
         <v>1306</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>43</v>
@@ -3595,13 +3597,13 @@
         <v>1401</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>43</v>
@@ -3635,13 +3637,13 @@
         <v>1402</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>43</v>
@@ -3675,13 +3677,13 @@
         <v>1403</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>43</v>
@@ -3719,13 +3721,13 @@
         <v>1404</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>411</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>413</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>72</v>
@@ -3752,10 +3754,10 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3763,13 +3765,13 @@
         <v>1405</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>58</v>
@@ -3793,13 +3795,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="N28" s="19" t="s">
         <v>354</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>356</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -3812,10 +3814,10 @@
         <v>74</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>43</v>
@@ -3852,10 +3854,10 @@
         <v>75</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>43</v>
@@ -3892,10 +3894,10 @@
         <v>76</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>43</v>
@@ -3933,13 +3935,13 @@
         <v>1504</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>421</v>
-      </c>
       <c r="D32" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>43</v>
@@ -3983,13 +3985,13 @@
         <v>1505</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>43</v>
@@ -4020,71 +4022,71 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>428</v>
-      </c>
       <c r="D34" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="K34" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>432</v>
-      </c>
       <c r="L34" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="C35" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>429</v>
-      </c>
       <c r="D35" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H35" s="10">
         <v>1</v>
@@ -4093,19 +4095,19 @@
         <v>1</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
       </c>
       <c r="L35" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="N35" s="19" t="s">
         <v>445</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>447</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -4115,13 +4117,13 @@
         <v>1601</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>58</v>
@@ -4155,34 +4157,34 @@
         <v>1602</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -4198,28 +4200,28 @@
         <v>78</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="J38" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>365</v>
       </c>
       <c r="K38" s="10">
         <v>1</v>
@@ -4235,13 +4237,13 @@
         <v>1604</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>43</v>
@@ -4275,13 +4277,13 @@
         <v>1605</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>40</v>
@@ -4318,10 +4320,10 @@
         <v>79</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>43</v>
@@ -4342,7 +4344,7 @@
         <v>0.5</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -4361,7 +4363,7 @@
         <v>81</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>43</v>
@@ -4401,7 +4403,7 @@
         <v>83</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>43</v>
@@ -4441,7 +4443,7 @@
         <v>85</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>43</v>
@@ -4509,7 +4511,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
@@ -4539,7 +4541,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -4569,7 +4571,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -4599,7 +4601,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -4629,7 +4631,7 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -4659,7 +4661,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -4689,7 +4691,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -4749,7 +4751,7 @@
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -4779,7 +4781,7 @@
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -4809,7 +4811,7 @@
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
@@ -4839,7 +4841,7 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -4856,7 +4858,7 @@
         <v>127</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>89</v>
@@ -4917,7 +4919,7 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="10" t="s">
@@ -4953,7 +4955,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="10" t="s">
@@ -4989,7 +4991,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
@@ -5023,7 +5025,7 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
@@ -5057,7 +5059,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10" t="s">
@@ -5093,7 +5095,7 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="10" t="s">
@@ -5129,7 +5131,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
@@ -5159,7 +5161,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
@@ -5189,7 +5191,7 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
@@ -5219,7 +5221,7 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -5249,7 +5251,7 @@
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
@@ -5266,7 +5268,7 @@
         <v>164</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>131</v>
@@ -5279,7 +5281,7 @@
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
@@ -5327,7 +5329,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73" s="10" t="s">
@@ -5363,7 +5365,7 @@
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="10" t="s">
@@ -5399,7 +5401,7 @@
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="10" t="s">
@@ -5435,7 +5437,7 @@
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -5465,7 +5467,7 @@
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -5495,7 +5497,7 @@
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
@@ -5525,7 +5527,7 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
@@ -5555,7 +5557,7 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
@@ -5585,7 +5587,7 @@
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -5615,7 +5617,7 @@
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -5645,7 +5647,7 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -5659,7 +5661,7 @@
         <v>201</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>203</v>
@@ -5675,7 +5677,7 @@
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
@@ -5713,7 +5715,7 @@
         <v>204</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>43</v>
@@ -5753,7 +5755,7 @@
         <v>205</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>43</v>
@@ -5793,7 +5795,7 @@
         <v>206</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>43</v>
@@ -5833,7 +5835,7 @@
         <v>208</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>58</v>
@@ -5873,7 +5875,7 @@
         <v>209</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>58</v>
@@ -6179,8 +6181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6335,7 +6337,7 @@
         <v>251</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>235</v>
@@ -6352,7 +6354,7 @@
         <v>253</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>243</v>
@@ -6369,13 +6371,13 @@
         <v>255</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6389,9 +6391,9 @@
         <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>338</v>
-      </c>
-      <c r="E12" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6437,13 +6439,13 @@
         <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>454</v>
       </c>
       <c r="D15" t="s">
-        <v>338</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>267</v>
+        <v>336</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
@@ -6451,16 +6453,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6468,16 +6470,16 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>270</v>
-      </c>
-      <c r="C17" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" t="s">
-        <v>288</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6485,16 +6487,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>332</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>334</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6502,16 +6504,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>351</v>
-      </c>
-      <c r="D19" t="s">
-        <v>338</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6525,7 +6527,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6533,7 +6535,7 @@
         <v>102</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6541,7 +6543,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6549,7 +6551,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6557,7 +6559,7 @@
         <v>105</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6565,7 +6567,7 @@
         <v>106</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6581,7 +6583,7 @@
         <v>201</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6589,7 +6591,7 @@
         <v>202</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6597,7 +6599,7 @@
         <v>203</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6612,8 +6614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6655,7 +6657,7 @@
         <v>231</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6669,7 +6671,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -6686,7 +6688,7 @@
         <v>234</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>236</v>
@@ -6697,16 +6699,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6714,16 +6716,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5">
@@ -6734,13 +6736,13 @@
         <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6748,16 +6750,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="21" t="s">
         <v>287</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6765,16 +6767,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>288</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -6782,16 +6784,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31.5">
@@ -6799,16 +6801,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>294</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
@@ -6819,13 +6821,13 @@
         <v>67</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.5">
@@ -6836,13 +6838,13 @@
         <v>69</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6850,16 +6852,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>317</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6873,16 +6875,16 @@
         <v>101</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6890,16 +6892,16 @@
         <v>102</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6907,16 +6909,16 @@
         <v>103</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6924,16 +6926,16 @@
         <v>104</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6941,16 +6943,16 @@
         <v>105</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.5">
@@ -6958,16 +6960,16 @@
         <v>106</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6975,16 +6977,16 @@
         <v>107</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="466">
   <si>
     <t>技能ID</t>
   </si>
@@ -1561,10 +1561,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>轰天巨锤的绝技。震慑全体。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>圣盾之环轻击</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2059,6 +2055,98 @@
   </si>
   <si>
     <t>完全抵御下次伤害</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>将兽牙抡向地面发出震荡波，震慑全体。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2563,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2749,7 +2837,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>40</v>
@@ -2786,10 +2874,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>43</v>
@@ -2826,10 +2914,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>43</v>
@@ -2863,13 +2951,13 @@
         <v>1103</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>373</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>43</v>
@@ -2889,8 +2977,8 @@
       <c r="J7" s="10">
         <v>1.2</v>
       </c>
-      <c r="K7" s="10">
-        <v>0.5</v>
+      <c r="K7" s="19" t="s">
+        <v>454</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -2907,19 +2995,19 @@
         <v>1104</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -2933,17 +3021,17 @@
       <c r="J8" s="10">
         <v>0.25</v>
       </c>
-      <c r="K8" s="10">
-        <v>10</v>
+      <c r="K8" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2954,10 +3042,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>43</v>
@@ -2984,7 +3072,7 @@
         <v>47</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>49</v>
@@ -3001,13 +3089,13 @@
         <v>1106</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>43</v>
@@ -3027,8 +3115,8 @@
       <c r="J10" s="10">
         <v>0.2</v>
       </c>
-      <c r="K10" s="10">
-        <v>0</v>
+      <c r="K10" s="19" t="s">
+        <v>456</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -3044,10 +3132,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>43</v>
@@ -3084,10 +3172,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>43</v>
@@ -3107,8 +3195,8 @@
       <c r="J12" s="10">
         <v>2</v>
       </c>
-      <c r="K12" s="10">
-        <v>1.5</v>
+      <c r="K12" s="19" t="s">
+        <v>457</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -3124,10 +3212,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>43</v>
@@ -3147,8 +3235,8 @@
       <c r="J13" s="10">
         <v>1</v>
       </c>
-      <c r="K13" s="10">
-        <v>3</v>
+      <c r="K13" s="19" t="s">
+        <v>459</v>
       </c>
       <c r="L13" s="13" t="s">
         <v>55</v>
@@ -3170,10 +3258,10 @@
         <v>57</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>58</v>
@@ -3193,8 +3281,8 @@
       <c r="J14" s="10">
         <v>2</v>
       </c>
-      <c r="K14" s="10">
-        <v>1.5</v>
+      <c r="K14" s="19" t="s">
+        <v>457</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -3210,10 +3298,10 @@
         <v>59</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>43</v>
@@ -3225,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I15" s="10">
         <v>0.7</v>
@@ -3233,17 +3321,17 @@
       <c r="J15" s="10">
         <v>0.3</v>
       </c>
-      <c r="K15" s="10">
-        <v>1</v>
+      <c r="K15" s="19" t="s">
+        <v>458</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="P15" s="25" t="s">
         <v>391</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3254,10 +3342,10 @@
         <v>60</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>40</v>
@@ -3300,10 +3388,10 @@
         <v>61</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>58</v>
@@ -3323,8 +3411,8 @@
       <c r="J17" s="10">
         <v>0.7</v>
       </c>
-      <c r="K17" s="10">
-        <v>2</v>
+      <c r="K17" s="19" t="s">
+        <v>460</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -3344,10 +3432,10 @@
         <v>63</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>43</v>
@@ -3384,10 +3472,10 @@
         <v>64</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>43</v>
@@ -3407,8 +3495,8 @@
       <c r="J19" s="10">
         <v>0.5</v>
       </c>
-      <c r="K19" s="10">
-        <v>1.5</v>
+      <c r="K19" s="19" t="s">
+        <v>461</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
@@ -3421,13 +3509,13 @@
         <v>1303</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>43</v>
@@ -3447,8 +3535,8 @@
       <c r="J20" s="10">
         <v>0.3</v>
       </c>
-      <c r="K20" s="10">
-        <v>1</v>
+      <c r="K20" s="19" t="s">
+        <v>462</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>346</v>
@@ -3467,13 +3555,13 @@
         <v>1304</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>398</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>58</v>
@@ -3493,8 +3581,8 @@
       <c r="J21" s="10">
         <v>0.5</v>
       </c>
-      <c r="K21" s="10">
-        <v>1</v>
+      <c r="K21" s="19" t="s">
+        <v>457</v>
       </c>
       <c r="L21" s="13" t="s">
         <v>65</v>
@@ -3516,10 +3604,10 @@
         <v>66</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>43</v>
@@ -3539,8 +3627,8 @@
       <c r="J22" s="10">
         <v>2</v>
       </c>
-      <c r="K22" s="10">
-        <v>0.9</v>
+      <c r="K22" s="19" t="s">
+        <v>457</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -3553,13 +3641,13 @@
         <v>1306</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>400</v>
-      </c>
       <c r="D23" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>43</v>
@@ -3597,13 +3685,13 @@
         <v>1401</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>43</v>
@@ -3623,8 +3711,8 @@
       <c r="J24" s="10">
         <v>1</v>
       </c>
-      <c r="K24" s="10">
-        <v>0.8</v>
+      <c r="K24" s="19" t="s">
+        <v>456</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
@@ -3637,13 +3725,13 @@
         <v>1402</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>43</v>
@@ -3663,8 +3751,8 @@
       <c r="J25" s="10">
         <v>0.7</v>
       </c>
-      <c r="K25" s="10">
-        <v>1.3</v>
+      <c r="K25" s="19" t="s">
+        <v>457</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
@@ -3677,13 +3765,13 @@
         <v>1403</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>43</v>
@@ -3703,8 +3791,8 @@
       <c r="J26" s="10">
         <v>1</v>
       </c>
-      <c r="K26" s="10">
-        <v>1</v>
+      <c r="K26" s="19" t="s">
+        <v>463</v>
       </c>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
@@ -3721,13 +3809,13 @@
         <v>1404</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>72</v>
@@ -3747,17 +3835,17 @@
       <c r="J27" s="10">
         <v>1</v>
       </c>
-      <c r="K27" s="10">
-        <v>1</v>
+      <c r="K27" s="19" t="s">
+        <v>461</v>
       </c>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="P27" s="25" t="s">
         <v>451</v>
-      </c>
-      <c r="P27" s="25" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3765,13 +3853,13 @@
         <v>1405</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>410</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>411</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>58</v>
@@ -3814,10 +3902,10 @@
         <v>74</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>43</v>
@@ -3854,10 +3942,10 @@
         <v>75</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>43</v>
@@ -3877,8 +3965,8 @@
       <c r="J30" s="10">
         <v>0.8</v>
       </c>
-      <c r="K30" s="10">
-        <v>1</v>
+      <c r="K30" s="19" t="s">
+        <v>457</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -3894,10 +3982,10 @@
         <v>76</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>43</v>
@@ -3935,13 +4023,13 @@
         <v>1504</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>43</v>
@@ -3985,13 +4073,13 @@
         <v>1505</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>43</v>
@@ -4022,72 +4110,72 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="G34" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="H34" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="K34" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="H34" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>430</v>
-      </c>
       <c r="L34" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M34" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="N34" s="19" t="s">
         <v>446</v>
-      </c>
-      <c r="N34" s="19" t="s">
-        <v>447</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>429</v>
-      </c>
       <c r="H35" s="10">
         <v>1</v>
       </c>
@@ -4095,19 +4183,19 @@
         <v>1</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
       </c>
       <c r="L35" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="M35" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="N35" s="19" t="s">
         <v>444</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>445</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -4123,7 +4211,7 @@
         <v>355</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>58</v>
@@ -4163,7 +4251,7 @@
         <v>358</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>58</v>
@@ -4184,7 +4272,7 @@
         <v>360</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>359</v>
+        <v>464</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -4200,10 +4288,10 @@
         <v>78</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>364</v>
+        <v>465</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>58</v>
@@ -4237,13 +4325,13 @@
         <v>1604</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>43</v>
@@ -4277,13 +4365,13 @@
         <v>1605</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>367</v>
-      </c>
       <c r="D40" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>40</v>
@@ -4320,10 +4408,10 @@
         <v>79</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>43</v>
@@ -4344,7 +4432,7 @@
         <v>0.5</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -4363,7 +4451,7 @@
         <v>81</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>43</v>
@@ -4403,7 +4491,7 @@
         <v>83</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>43</v>
@@ -4443,7 +4531,7 @@
         <v>85</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>43</v>
@@ -5715,7 +5803,7 @@
         <v>204</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>43</v>
@@ -5755,7 +5843,7 @@
         <v>205</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>43</v>
@@ -5795,7 +5883,7 @@
         <v>206</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>43</v>
@@ -5835,7 +5923,7 @@
         <v>208</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>58</v>
@@ -5875,7 +5963,7 @@
         <v>209</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>58</v>
@@ -6181,7 +6269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
@@ -6439,13 +6527,13 @@
         <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D15" t="s">
         <v>336</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
@@ -6909,7 +6997,7 @@
         <v>103</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>305</v>
@@ -6918,7 +7006,7 @@
         <v>282</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6977,16 +7065,16 @@
         <v>107</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>282</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="500">
   <si>
     <t>技能ID</t>
   </si>
@@ -1278,79 +1278,79 @@
   </si>
   <si>
     <t>必打断</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若对方在出招状态，攻击一定能将对方打断</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ForceInterrupt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>乱射</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>额外造成9次伤害，每次攻击随机目标</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CrazyShot</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连射</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>额外造成2次伤害，攻击下一目标</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>灵气循环</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>灵气共鸣</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>灵之幻境</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>月之领域</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>日之领域</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>灵力解放</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>秘术光环：自身所有攻击变为全体攻击并能够击倒对手。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>秘术光环：极大地增强法术威力和吟唱速度，但同时提高消耗。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>灵气偷取</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暗月魔影</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>激昂</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1364,11 +1364,11 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻防速上升20%</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1383,58 +1383,58 @@
       </rPr>
       <t>xcited</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>灵气过载</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>光辉灵盾</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Behit</t>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>命中回避暴击抗暴下降</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>逐渐流失生命</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻防下降50%</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Paralized</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>14</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1451,19 +1451,19 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不会被击退</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>霸体</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1478,11 +1478,11 @@
       </rPr>
       <t>ndure</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1497,30 +1497,30 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>用兽牙尖利的一面刺向敌人。</t>
   </si>
   <si>
     <t>巨兽之牙轻击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>巨兽之牙重击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>将兽牙像大锤一样轮向敌人。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1535,15 +1535,15 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1558,69 +1558,69 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>圣盾之环轻击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>圣盾之环重击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>架起盾，能够抵挡近战攻击并使敌人进入麻痹状态。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>掷出环，附带的雷属性效果有几率让敌人进入麻痹状态。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Slash</t>
   </si>
   <si>
     <t>绝技：背刺</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>隐藏自身的杀气，悄悄绕到敌人背后进行攻击。如果不被敌人察觉，则可造成巨大伤害。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Thrust</t>
   </si>
   <si>
     <t>快速冲到对方面前挥出一击，适合偷袭。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>用尽全力向对方刺去。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>绝技：毁灭投掷</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>绝技：无限突刺</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>将钩爪向敌人投掷出去，虽然能够造成很大杀伤，但却会暂时失去武器。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对方防御力视为0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1635,43 +1635,43 @@
       </rPr>
       <t>lunt</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>附带冰霜之力的三连击，有机会将敌人冰冻。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>冰霜刺剑的绝技。只要不被敌人攻击到，就可以无限连击的突刺攻击。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>拔刀向敌人头顶竖直砍去。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>拔刀横扫敌人，造成更多伤害，但速度和命中略逊一筹。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>将刀刃拔出的一闪攻击，会使目标流血。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>拔刀横扫全部敌人，造成更多伤害，但速度和命中略逊一筹。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>从收刀开始出招，力图瞬间将敌人斩杀的强力技能。出招较慢，但却非常容易暴击。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1688,7 +1688,7 @@
       </rPr>
       <t>03</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1705,79 +1705,79 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>为了弥补渴求血液的自身，让敌人血债血偿。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>切开自己的身体，进入流血状态。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>麓元自己研习的招式，威力虽大却极耗体力。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>绝技：石破天惊</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>绝技：次元斩</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>以肉眼看不见的速度斩向全部敌人，会使目标气虚。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>绝技：制裁</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>制裁对手，但手下留情。效果与双方的实力差距有关。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>重武系轻攻击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>重武系重攻击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>斩出一道剑气伤害敌人。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>单手持剑，刺向敌人。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>双手持剑，砍向敌人。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>横向挥舞的斩击。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>跳劈，虽然威力很大，但命中率较差。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>绝技：厄运一击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>绝技：疯狂一击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>绝技：开天辟地</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1792,47 +1792,47 @@
       </rPr>
       <t>lunt</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邪恶的一击，虽然攻击力很高甚至能秒杀敌人，但也存在着反噬自己的可能。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>无视敌我攻击战场上全部单位的强力一击。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>威震八方的一击，大几率将对方击倒。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>射出一箭，刺穿敌人。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>蓄力射击，瞄准时间长，但几乎必中。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>绝技：三连火焰矢</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>绝技：连续狙击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>利用弓箭的火之力点燃三发箭矢同时击出，可能点燃敌人。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>利用弓的刃部发起攻击，不消耗弹药。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>将当前弹药库存全部射出依次攻击全部敌人。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1847,7 +1847,7 @@
       </rPr>
       <t>506</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1862,23 +1862,23 @@
       </rPr>
       <t>507</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>毒弹</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>狂乱弹</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>击中后释放毒气，虽然威力很弱，但可能令敌方中毒。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>击中后释放迷烟，虽然威力很弱，但可能令敌方狂乱。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1893,19 +1893,19 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对麻痹状态的敌人使用，能够极大地击退敌人。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1921,51 +1921,51 @@
       </rPr>
       <t>one</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Slash</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Thrust</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>100,100,100</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4,102,107</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Neutral</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>无视防御状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1980,11 +1980,11 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1999,7 +1999,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2014,23 +2014,23 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IgnoreDefence</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>破甲</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IgnoreArmor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>107</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2047,15 +2047,15 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Blessed</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>完全抵御下次伤害</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2070,19 +2070,19 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2097,15 +2097,15 @@
       </rPr>
       <t>.5</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2120,11 +2120,11 @@
       </rPr>
       <t>.5</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2139,22 +2139,357 @@
       </rPr>
       <t>.5</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1.5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>将兽牙抡向地面发出震荡波，震慑全体。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01,102</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00,100</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定比例伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ixedDamage</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定对敌方造成10%（BOSS减半）伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱决定伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据当前我方金钱决定伤害值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oneyDamage</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机附加BUFF</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>随机为目标附加B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UFF</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ddRandomBuff</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2174,12 +2509,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2241,21 +2570,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2274,6 +2627,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2284,12 +2652,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2323,17 +2700,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2341,17 +2712,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2365,18 +2733,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2649,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2716,10 +3105,10 @@
       <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="9" t="s">
@@ -2766,13 +3155,13 @@
       <c r="M2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2810,19 +3199,19 @@
       <c r="K3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2836,7 +3225,7 @@
       <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="23" t="s">
         <v>431</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -2862,98 +3251,98 @@
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="10">
+      <c r="A5" s="26">
         <v>1101</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="F5" s="26">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26">
+        <v>1</v>
+      </c>
+      <c r="I5" s="26">
         <v>3</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="26">
         <v>3</v>
       </c>
-      <c r="K5" s="10">
-        <v>1</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="K5" s="26">
+        <v>1</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="10">
+      <c r="A6" s="26">
         <v>1102</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="26">
         <v>1.5</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="26">
         <v>0.9</v>
       </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="H6" s="26">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26">
+        <v>1</v>
+      </c>
+      <c r="J6" s="26">
+        <v>1</v>
+      </c>
+      <c r="K6" s="26">
         <v>2</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:16" ht="27">
       <c r="A7" s="10">
         <v>1103</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>371</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -2977,16 +3366,16 @@
       <c r="J7" s="10">
         <v>1.2</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
         <v>3</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <v>100</v>
       </c>
     </row>
@@ -2994,19 +3383,19 @@
       <c r="A8" s="10">
         <v>1104</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>380</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="17" t="s">
         <v>379</v>
       </c>
       <c r="G8" s="10">
@@ -3021,16 +3410,16 @@
       <c r="J8" s="10">
         <v>0.25</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="25" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="22" t="s">
         <v>434</v>
       </c>
     </row>
@@ -3041,7 +3430,7 @@
       <c r="B9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -3068,19 +3457,19 @@
       <c r="K9" s="10">
         <v>2</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3088,10 +3477,10 @@
       <c r="A10" s="10">
         <v>1106</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>383</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -3115,94 +3504,94 @@
       <c r="J10" s="10">
         <v>0.2</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="10">
+      <c r="A11" s="26">
         <v>1201</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+      <c r="F11" s="26">
+        <v>1</v>
+      </c>
+      <c r="G11" s="26">
+        <v>1</v>
+      </c>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
+      <c r="J11" s="26">
+        <v>1</v>
+      </c>
+      <c r="K11" s="26">
+        <v>1</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="10">
+      <c r="A12" s="26">
         <v>1202</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="26">
         <v>1.2</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="26">
         <v>0.8</v>
       </c>
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="H12" s="26">
+        <v>1</v>
+      </c>
+      <c r="I12" s="26">
         <v>0.7</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="26">
         <v>2</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="10">
@@ -3211,7 +3600,7 @@
       <c r="B13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>386</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -3235,20 +3624,20 @@
       <c r="J13" s="10">
         <v>1</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
     </row>
     <row r="14" spans="1:16" ht="27">
       <c r="A14" s="10">
@@ -3257,7 +3646,7 @@
       <c r="B14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>387</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -3281,14 +3670,14 @@
       <c r="J14" s="10">
         <v>2</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16" ht="27">
       <c r="A15" s="10">
@@ -3297,7 +3686,7 @@
       <c r="B15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -3312,7 +3701,7 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="17" t="s">
         <v>389</v>
       </c>
       <c r="I15" s="10">
@@ -3321,16 +3710,16 @@
       <c r="J15" s="10">
         <v>0.3</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="25" t="s">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="P15" s="25" t="s">
+      <c r="P15" s="22" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3341,7 +3730,7 @@
       <c r="B16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>393</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -3368,17 +3757,17 @@
       <c r="K16" s="10">
         <v>0</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="10">
@@ -3387,7 +3776,7 @@
       <c r="B17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>392</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -3411,110 +3800,110 @@
       <c r="J17" s="10">
         <v>0.7</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13" t="s">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="10">
+      <c r="A18" s="26">
         <v>1301</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10">
-        <v>1</v>
-      </c>
-      <c r="J18" s="10">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10">
-        <v>1</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="F18" s="26">
+        <v>1</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1</v>
+      </c>
+      <c r="I18" s="26">
+        <v>1</v>
+      </c>
+      <c r="J18" s="26">
+        <v>1</v>
+      </c>
+      <c r="K18" s="26">
+        <v>1</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="10">
+      <c r="A19" s="26">
         <v>1302</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="26">
         <v>1.3</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="26">
         <v>0.9</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="26">
         <v>1.2</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="26">
         <v>0.8</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="26">
         <v>0.5</v>
       </c>
-      <c r="K19" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="K19" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="10">
         <v>1303</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>380</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -3535,29 +3924,29 @@
       <c r="J20" s="10">
         <v>0.3</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="N20" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="10">
         <v>1304</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>397</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -3581,20 +3970,20 @@
       <c r="J21" s="10">
         <v>0.5</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="10">
@@ -3603,7 +3992,7 @@
       <c r="B22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>402</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -3627,26 +4016,26 @@
       <c r="J22" s="10">
         <v>2</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="10">
         <v>1306</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>380</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -3670,104 +4059,104 @@
       <c r="K23" s="10">
         <v>0</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13" t="s">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="10">
+      <c r="A24" s="26">
         <v>1401</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-      <c r="I24" s="10">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10">
-        <v>1</v>
-      </c>
-      <c r="K24" s="19" t="s">
+      <c r="F24" s="26">
+        <v>1</v>
+      </c>
+      <c r="G24" s="26">
+        <v>1</v>
+      </c>
+      <c r="H24" s="26">
+        <v>1</v>
+      </c>
+      <c r="I24" s="26">
+        <v>1</v>
+      </c>
+      <c r="J24" s="26">
+        <v>1</v>
+      </c>
+      <c r="K24" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="10">
+      <c r="A25" s="26">
         <v>1402</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="26">
         <v>1.5</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="26">
         <v>0.7</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="26">
         <v>1.2</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="26">
         <v>0.7</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="26">
         <v>0.7</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:16" ht="27">
       <c r="A26" s="10">
         <v>1403</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>411</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -3791,16 +4180,16 @@
       <c r="J26" s="10">
         <v>1</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13" t="s">
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P26" s="13" t="s">
+      <c r="P26" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3808,13 +4197,13 @@
       <c r="A27" s="10">
         <v>1404</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>410</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -3835,16 +4224,16 @@
       <c r="J27" s="10">
         <v>1</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13" t="s">
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="P27" s="25" t="s">
+      <c r="P27" s="22" t="s">
         <v>451</v>
       </c>
     </row>
@@ -3852,13 +4241,13 @@
       <c r="A28" s="10">
         <v>1405</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>410</v>
       </c>
       <c r="E28" s="10" t="s">
@@ -3882,97 +4271,101 @@
       <c r="K28" s="10">
         <v>1</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="17" t="s">
         <v>354</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="10">
+      <c r="A29" s="26">
         <v>1501</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="10">
-        <v>1</v>
-      </c>
-      <c r="J29" s="10">
-        <v>1</v>
-      </c>
-      <c r="K29" s="10">
-        <v>1</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="F29" s="26">
+        <v>1</v>
+      </c>
+      <c r="G29" s="26">
+        <v>1</v>
+      </c>
+      <c r="H29" s="26">
+        <v>1</v>
+      </c>
+      <c r="I29" s="26">
+        <v>1</v>
+      </c>
+      <c r="J29" s="26">
+        <v>1</v>
+      </c>
+      <c r="K29" s="26">
+        <v>1</v>
+      </c>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="10">
+      <c r="A30" s="26">
         <v>1502</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="26">
         <v>1.2</v>
       </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="10">
+      <c r="G30" s="26">
+        <v>1</v>
+      </c>
+      <c r="H30" s="26">
         <v>2</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="26">
         <v>0.25</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="26">
         <v>0.8</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="10">
@@ -3981,7 +4374,7 @@
       <c r="B31" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>419</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -4022,10 +4415,10 @@
       <c r="A32" s="10">
         <v>1504</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>418</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -4072,10 +4465,10 @@
       <c r="A33" s="10">
         <v>1505</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>420</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -4109,71 +4502,71 @@
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>380</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="17" t="s">
         <v>429</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="17" t="s">
         <v>446</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>380</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="17" t="s">
         <v>428</v>
       </c>
       <c r="H35" s="10">
@@ -4182,97 +4575,75 @@
       <c r="I35" s="10">
         <v>1</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="17" t="s">
         <v>428</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N35" s="17" t="s">
         <v>444</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="10">
-        <v>1601</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="10">
-        <v>1</v>
-      </c>
-      <c r="I36" s="10">
-        <v>1</v>
-      </c>
-      <c r="J36" s="10">
-        <v>1</v>
-      </c>
-      <c r="K36" s="10">
-        <v>1</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="10">
-        <v>1602</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>380</v>
+        <v>1601</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>464</v>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10">
+        <v>1</v>
+      </c>
+      <c r="J37" s="10">
+        <v>1</v>
+      </c>
+      <c r="K37" s="10">
+        <v>1</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -4282,37 +4653,37 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="10">
-        <v>1603</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D38" s="19" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>380</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="H38" s="19" t="s">
+      <c r="F38" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="G38" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="I38" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="J38" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="K38" s="10">
-        <v>1</v>
+      <c r="J38" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>464</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -4322,62 +4693,68 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="10">
-        <v>1604</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>432</v>
+        <v>1603</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>380</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="10">
-        <v>1</v>
-      </c>
-      <c r="I39" s="10">
-        <v>1</v>
-      </c>
-      <c r="J39" s="10">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>363</v>
       </c>
       <c r="K39" s="10">
         <v>1</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="L39" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>490</v>
+      </c>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="10">
-        <v>1605</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>439</v>
+        <v>1604</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>432</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F40" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="10">
         <v>1</v>
@@ -4392,32 +4769,38 @@
         <v>1</v>
       </c>
       <c r="K40" s="10">
-        <v>0</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>468</v>
+      </c>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="10">
-        <v>1606</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>433</v>
+        <v>1605</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>439</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F41" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="10">
         <v>1</v>
@@ -4426,32 +4809,38 @@
         <v>1</v>
       </c>
       <c r="I41" s="10">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>470</v>
+      </c>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="10">
-        <v>1607</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>436</v>
+        <v>1606</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>433</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>43</v>
@@ -4466,31 +4855,35 @@
         <v>1</v>
       </c>
       <c r="I42" s="10">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J42" s="10">
-        <v>1</v>
-      </c>
-      <c r="K42" s="10">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>368</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
+      <c r="O42" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="P42" s="17" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="10">
-        <v>1608</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>82</v>
+        <v>1607</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>436</v>
       </c>
       <c r="E43" s="10" t="s">
@@ -4517,24 +4910,28 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
+      <c r="O43" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="10">
-        <v>1609</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>84</v>
+        <v>1608</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>82</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>436</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F44" s="10">
         <v>1</v>
@@ -4557,66 +4954,84 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
+      <c r="O44" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
+      <c r="A45" s="10">
+        <v>1609</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10">
+        <v>1</v>
+      </c>
+      <c r="I45" s="10">
+        <v>1</v>
+      </c>
+      <c r="J45" s="10">
+        <v>1</v>
+      </c>
+      <c r="K45" s="10">
+        <v>1</v>
+      </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
+      <c r="O45" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="P45" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>89</v>
@@ -4628,7 +5043,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K47" s="10"/>
@@ -4640,25 +5055,25 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
-      <c r="J48" s="19" t="s">
+      <c r="J48" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K48" s="10"/>
@@ -4670,25 +5085,25 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
-      <c r="J49" s="19" t="s">
+      <c r="J49" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K49" s="10"/>
@@ -4700,25 +5115,25 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
-      <c r="J50" s="19" t="s">
+      <c r="J50" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K50" s="10"/>
@@ -4730,25 +5145,25 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
-      <c r="J51" s="19" t="s">
+      <c r="J51" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K51" s="10"/>
@@ -4758,27 +5173,27 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="1:16" ht="27">
+    <row r="52" spans="1:16">
       <c r="A52" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
-      <c r="J52" s="19" t="s">
+      <c r="J52" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K52" s="10"/>
@@ -4790,13 +5205,13 @@
     </row>
     <row r="53" spans="1:16" ht="27">
       <c r="A53" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>89</v>
@@ -4808,8 +5223,8 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
-      <c r="J53" s="10" t="s">
-        <v>112</v>
+      <c r="J53" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -4820,26 +5235,26 @@
     </row>
     <row r="54" spans="1:16" ht="27">
       <c r="A54" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="19" t="s">
-        <v>337</v>
+      <c r="J54" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -4850,25 +5265,25 @@
     </row>
     <row r="55" spans="1:16" ht="27">
       <c r="A55" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>114</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
-      <c r="J55" s="19" t="s">
+      <c r="J55" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K55" s="10"/>
@@ -4878,27 +5293,27 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" ht="27">
       <c r="A56" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
-      <c r="J56" s="19" t="s">
+      <c r="J56" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K56" s="10"/>
@@ -4910,25 +5325,25 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
-      <c r="J57" s="19" t="s">
+      <c r="J57" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K57" s="10"/>
@@ -4938,28 +5353,28 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" spans="1:16" ht="27">
+    <row r="58" spans="1:16">
       <c r="A58" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>327</v>
+        <v>124</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="10" t="s">
-        <v>112</v>
+      <c r="J58" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
@@ -4968,17 +5383,29 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
+    <row r="59" spans="1:16" ht="27">
+      <c r="A59" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
+      <c r="J59" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
@@ -4987,50 +5414,32 @@
       <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M60" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N60" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>131</v>
@@ -5042,7 +5451,7 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
-      <c r="J61" s="19" t="s">
+      <c r="J61" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K61" s="10"/>
@@ -5050,7 +5459,7 @@
         <v>47</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>49</v>
@@ -5060,59 +5469,61 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="19" t="s">
+      <c r="J62" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P62" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="L62" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="19" t="s">
+      <c r="J63" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K63" s="10"/>
@@ -5120,7 +5531,7 @@
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P63" s="10" t="s">
         <v>51</v>
@@ -5128,49 +5539,47 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="19" t="s">
-        <v>338</v>
+      <c r="J64" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="K64" s="10"/>
-      <c r="L64" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M64" s="10" t="s">
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P64" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N64" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-    </row>
-    <row r="65" spans="1:16" ht="27">
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>131</v>
@@ -5182,15 +5591,15 @@
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
-      <c r="J65" s="19" t="s">
-        <v>337</v>
+      <c r="J65" s="17" t="s">
+        <v>338</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>49</v>
@@ -5198,87 +5607,99 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" ht="27">
       <c r="A66" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="19" t="s">
+      <c r="J66" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
+      <c r="L66" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
     </row>
-    <row r="67" spans="1:16" ht="27">
+    <row r="67" spans="1:16">
       <c r="A67" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="19" t="s">
+      <c r="J67" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
+      <c r="L67" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="M67" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="N67" s="17" t="s">
+        <v>490</v>
+      </c>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="27">
       <c r="A68" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="19" t="s">
+      <c r="J68" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K68" s="10"/>
@@ -5290,25 +5711,25 @@
     </row>
     <row r="69" spans="1:16" ht="27">
       <c r="A69" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>155</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="19" t="s">
+      <c r="J69" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K69" s="10"/>
@@ -5318,15 +5739,15 @@
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" ht="27">
       <c r="A70" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>158</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>131</v>
@@ -5338,7 +5759,7 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="19" t="s">
+      <c r="J70" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K70" s="10"/>
@@ -5350,25 +5771,25 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>326</v>
+        <v>160</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="19" t="s">
+      <c r="J71" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K71" s="10"/>
@@ -5379,16 +5800,28 @@
       <c r="P71" s="10"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="10"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
+      <c r="A72" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
+      <c r="J72" s="17" t="s">
+        <v>337</v>
+      </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
@@ -5397,50 +5830,32 @@
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M73" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N73" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>168</v>
@@ -5452,7 +5867,7 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="19" t="s">
+      <c r="J74" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K74" s="10"/>
@@ -5460,7 +5875,7 @@
         <v>56</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>56</v>
@@ -5470,79 +5885,85 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>168</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
-      <c r="J75" s="19" t="s">
+      <c r="J75" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="10" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>168</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
-      <c r="J76" s="19" t="s">
-        <v>339</v>
+      <c r="J76" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
+      <c r="L76" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N76" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>181</v>
+        <v>176</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>168</v>
@@ -5554,8 +5975,8 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
-      <c r="J77" s="19" t="s">
-        <v>338</v>
+      <c r="J77" s="17" t="s">
+        <v>339</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -5566,103 +5987,115 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>181</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>168</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
-      <c r="J78" s="19" t="s">
-        <v>340</v>
+      <c r="J78" s="17" t="s">
+        <v>338</v>
       </c>
       <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>168</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
-      <c r="J79" s="19" t="s">
-        <v>337</v>
+      <c r="J79" s="17" t="s">
+        <v>340</v>
       </c>
       <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
+      <c r="L79" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="M79" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="N79" s="17" t="s">
+        <v>495</v>
+      </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
     </row>
-    <row r="80" spans="1:16" ht="27">
+    <row r="80" spans="1:16">
       <c r="A80" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>168</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
-      <c r="J80" s="19" t="s">
-        <v>341</v>
+      <c r="J80" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
+      <c r="L80" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="M80" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="N80" s="17" t="s">
+        <v>497</v>
+      </c>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" ht="27">
       <c r="A81" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>190</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>168</v>
@@ -5674,8 +6107,8 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
-      <c r="J81" s="19" t="s">
-        <v>337</v>
+      <c r="J81" s="17" t="s">
+        <v>341</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -5686,25 +6119,25 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>168</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
-      <c r="J82" s="19" t="s">
+      <c r="J82" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K82" s="10"/>
@@ -5714,27 +6147,27 @@
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
     </row>
-    <row r="83" spans="1:16" ht="27">
+    <row r="83" spans="1:16">
       <c r="A83" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>168</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
-      <c r="J83" s="19" t="s">
+      <c r="J83" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K83" s="10"/>
@@ -5744,47 +6177,65 @@
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
     </row>
-    <row r="84" spans="1:16" ht="28.5">
+    <row r="84" spans="1:16" ht="27">
       <c r="A84" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>335</v>
+        <v>198</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>168</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
-      <c r="J84" s="19" t="s">
+      <c r="J84" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
+      <c r="L84" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="M84" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="N84" s="17" t="s">
+        <v>499</v>
+      </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
     </row>
-    <row r="85" spans="1:16">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
+    <row r="85" spans="1:16" ht="28.5">
+      <c r="A85" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
+      <c r="J85" s="17" t="s">
+        <v>337</v>
+      </c>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
@@ -5793,57 +6244,35 @@
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="10">
-        <v>3001</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="10">
-        <v>1</v>
-      </c>
-      <c r="G86" s="10">
-        <v>1</v>
-      </c>
-      <c r="H86" s="10">
-        <v>1</v>
-      </c>
-      <c r="I86" s="10">
-        <v>1</v>
-      </c>
-      <c r="J86" s="10">
-        <v>1</v>
-      </c>
-      <c r="K86" s="10">
-        <v>1</v>
-      </c>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="27"/>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="10">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>437</v>
+        <v>204</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>436</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>43</v>
@@ -5874,16 +6303,16 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="10">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>436</v>
+        <v>205</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>437</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>43</v>
@@ -5892,16 +6321,16 @@
         <v>1</v>
       </c>
       <c r="G88" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K88" s="10">
         <v>1</v>
@@ -5914,34 +6343,34 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="10">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D89" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="17" t="s">
         <v>436</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F89" s="10">
         <v>1</v>
       </c>
       <c r="G89" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" s="10">
         <v>1</v>
@@ -5954,16 +6383,16 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="10">
-        <v>4001</v>
+        <v>3004</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>207</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>438</v>
+        <v>208</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>436</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>58</v>
@@ -5981,10 +6410,10 @@
         <v>1</v>
       </c>
       <c r="J90" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
@@ -5994,20 +6423,38 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="10">
-        <v>3005</v>
+        <v>4001</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
+        <v>207</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" s="10">
+        <v>1</v>
+      </c>
+      <c r="G91" s="10">
+        <v>1</v>
+      </c>
+      <c r="H91" s="10">
+        <v>1</v>
+      </c>
+      <c r="I91" s="10">
+        <v>1</v>
+      </c>
+      <c r="J91" s="10">
+        <v>0</v>
+      </c>
+      <c r="K91" s="10">
+        <v>0</v>
+      </c>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
@@ -6016,10 +6463,10 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="10">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -6038,10 +6485,10 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="10">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -6060,10 +6507,10 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="10">
-        <v>4005</v>
+        <v>3007</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -6082,10 +6529,10 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="10">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -6104,10 +6551,10 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="10">
-        <v>3008</v>
+        <v>4006</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -6126,14 +6573,12 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="10">
-        <v>4007</v>
+        <v>3008</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>217</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
@@ -6150,13 +6595,13 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="10">
-        <v>3009</v>
+        <v>4007</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -6174,13 +6619,13 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="10">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
@@ -6198,13 +6643,13 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="10">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
@@ -6222,13 +6667,13 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="10">
-        <v>4008</v>
+        <v>3011</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
@@ -6245,20 +6690,44 @@
       <c r="P101" s="10"/>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
+      <c r="A102" s="10">
+        <v>4008</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -6270,7 +6739,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6413,7 +6882,7 @@
       <c r="D8" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6430,7 +6899,7 @@
       <c r="D9" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="21" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6447,7 +6916,7 @@
       <c r="D10" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="21" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6464,7 +6933,7 @@
       <c r="D11" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="21" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6481,7 +6950,7 @@
       <c r="D12" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="21" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6498,7 +6967,7 @@
       <c r="D13" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="19" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6515,7 +6984,7 @@
       <c r="D14" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="19" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6532,7 +7001,7 @@
       <c r="D15" t="s">
         <v>336</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="21" t="s">
         <v>452</v>
       </c>
     </row>
@@ -6549,7 +7018,7 @@
       <c r="D16" t="s">
         <v>336</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="19" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6566,7 +7035,7 @@
       <c r="D17" t="s">
         <v>286</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="19" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6574,16 +7043,16 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>332</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="20" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6591,22 +7060,22 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>349</v>
       </c>
       <c r="D19" t="s">
         <v>336</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="20" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
@@ -6614,7 +7083,7 @@
       <c r="A21">
         <v>101</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6622,7 +7091,7 @@
       <c r="A22">
         <v>102</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6630,7 +7099,7 @@
       <c r="A23">
         <v>103</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6638,7 +7107,7 @@
       <c r="A24">
         <v>104</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6646,7 +7115,7 @@
       <c r="A25">
         <v>105</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6654,7 +7123,7 @@
       <c r="A26">
         <v>106</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6662,7 +7131,7 @@
       <c r="A27">
         <v>107</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6670,7 +7139,7 @@
       <c r="A28">
         <v>201</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6678,7 +7147,7 @@
       <c r="A29">
         <v>202</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6686,12 +7155,12 @@
       <c r="A30">
         <v>203</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>324</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -6700,10 +7169,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6846,7 +7315,7 @@
       <c r="D8" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6857,13 +7326,13 @@
       <c r="B9" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>319</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6897,7 +7366,7 @@
       <c r="D11" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="18" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6948,137 +7417,188 @@
       <c r="D14" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="18" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>101</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>300</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>477</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>301</v>
+        <v>273</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>102</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>303</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>483</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>304</v>
+        <v>286</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
-        <v>103</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>447</v>
-      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>282</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>310</v>
+        <v>302</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>282</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
-        <v>106</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>313</v>
+        <v>103</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>314</v>
+        <v>282</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>107</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>378</v>
+        <v>104</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>105</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.5">
+      <c r="A24">
+        <v>106</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>107</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>449</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="498">
   <si>
     <t>技能ID</t>
   </si>
@@ -2455,14 +2455,6 @@
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -3040,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80:N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6055,7 +6047,7 @@
       <c r="A80" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="30" t="s">
         <v>187</v>
       </c>
       <c r="C80" s="10" t="s">
@@ -6075,15 +6067,9 @@
         <v>337</v>
       </c>
       <c r="K80" s="10"/>
-      <c r="L80" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="M80" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="N80" s="17" t="s">
-        <v>497</v>
-      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
@@ -6202,13 +6188,13 @@
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M84" s="17" t="s">
         <v>492</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="493">
   <si>
     <t>技能ID</t>
   </si>
@@ -1033,9 +1033,6 @@
     <t>Throw</t>
   </si>
   <si>
-    <t>ContinousShot</t>
-  </si>
-  <si>
     <t>吸血</t>
   </si>
   <si>
@@ -1286,26 +1283,6 @@
   </si>
   <si>
     <t>ForceInterrupt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>乱射</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外造成9次伤害，每次攻击随机目标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CrazyShot</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>连射</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外造成2次伤害，攻击下一目标</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1607,19 +1584,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>绝技：无限突刺</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>将钩爪向敌人投掷出去，虽然能够造成很大杀伤，但却会暂时失去武器。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对方防御力视为0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1646,10 +1615,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>冰霜刺剑的绝技。只要不被敌人攻击到，就可以无限连击的突刺攻击。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>拔刀向敌人头顶竖直砍去。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1667,10 +1632,6 @@
   </si>
   <si>
     <t>从收刀开始出招，力图瞬间将敌人斩杀的强力技能。出招较慢，但却非常容易暴击。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2058,8 +2019,16 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -2068,20 +2037,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
+      <t>.5</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2104,12 +2069,8 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2123,7 +2084,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
+    <t>1.5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>将兽牙抡向地面发出震荡波，震慑全体。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2137,20 +2106,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>.5</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>将兽牙抡向地面发出震荡波，震慑全体。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2164,7 +2125,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>0</t>
+      <t>00</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2183,12 +2144,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
+      <t>01,102</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2202,8 +2159,58 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>01,102</t>
-    </r>
+      <t>00,100</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定比例伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ixedDamage</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定对敌方造成10%（BOSS减半）伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱决定伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据当前我方金钱决定伤害值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oneyDamage</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机附加BUFF</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2217,17 +2224,43 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>00,100</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定比例伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>随机为目标附加B</t>
     </r>
     <r>
       <rPr>
@@ -2236,113 +2269,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ixedDamage</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定对敌方造成10%（BOSS减半）伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱决定伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据当前我方金钱决定伤害值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>oneyDamage</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机附加BUFF</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>随机为目标附加B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>UFF</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ddRandomBuff</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2476,12 +2403,69 @@
     <t>5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ddRandomBuff</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>十连击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加9次伤害结算，但未命中时停止</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combo10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续向敌人突刺多次。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：冰皇之怒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2599,6 +2583,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2658,7 +2649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2713,9 +2704,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2730,9 +2718,6 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2751,6 +2736,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3032,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80:N80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3217,8 +3211,8 @@
       <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>431</v>
+      <c r="D4" s="22" t="s">
+        <v>421</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>40</v>
@@ -3248,97 +3242,97 @@
       <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="26">
+      <c r="A5" s="24">
         <v>1101</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="26">
-        <v>1</v>
-      </c>
-      <c r="G5" s="26">
-        <v>1</v>
-      </c>
-      <c r="H5" s="26">
-        <v>1</v>
-      </c>
-      <c r="I5" s="26">
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
+      <c r="I5" s="24">
         <v>3</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="24">
         <v>3</v>
       </c>
-      <c r="K5" s="26">
-        <v>1</v>
-      </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
+      <c r="K5" s="24">
+        <v>1</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>1102</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="C6" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <v>1.5</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>0.9</v>
       </c>
-      <c r="H6" s="26">
-        <v>1</v>
-      </c>
-      <c r="I6" s="26">
-        <v>1</v>
-      </c>
-      <c r="J6" s="26">
-        <v>1</v>
-      </c>
-      <c r="K6" s="26">
+      <c r="H6" s="24">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24">
+        <v>1</v>
+      </c>
+      <c r="J6" s="24">
+        <v>1</v>
+      </c>
+      <c r="K6" s="24">
         <v>2</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
     </row>
     <row r="7" spans="1:16" ht="27">
       <c r="A7" s="10">
         <v>1103</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>43</v>
@@ -3358,8 +3352,8 @@
       <c r="J7" s="10">
         <v>1.2</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>454</v>
+      <c r="K7" s="31">
+        <v>10</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -3376,19 +3370,19 @@
         <v>1104</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>379</v>
+      <c r="F8" s="31">
+        <v>1</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -3402,17 +3396,17 @@
       <c r="J8" s="10">
         <v>0.25</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>455</v>
+      <c r="K8" s="31">
+        <v>5</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>434</v>
+      <c r="O8" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3423,10 +3417,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>43</v>
@@ -3452,8 +3446,8 @@
       <c r="L9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="22" t="s">
-        <v>382</v>
+      <c r="M9" s="21" t="s">
+        <v>374</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>49</v>
@@ -3465,27 +3459,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="27">
+    <row r="10" spans="1:16">
       <c r="A10" s="10">
         <v>1106</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>376</v>
+      <c r="B10" s="10" t="s">
+        <v>492</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
+      <c r="F10" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0.6</v>
       </c>
       <c r="H10" s="10">
         <v>1</v>
@@ -3497,93 +3491,97 @@
         <v>0.2</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="O10" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>1201</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E11" s="26" t="s">
+      <c r="C11" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="26">
-        <v>1</v>
-      </c>
-      <c r="G11" s="26">
-        <v>1</v>
-      </c>
-      <c r="H11" s="26">
-        <v>1</v>
-      </c>
-      <c r="I11" s="26">
-        <v>1</v>
-      </c>
-      <c r="J11" s="26">
-        <v>1</v>
-      </c>
-      <c r="K11" s="26">
-        <v>1</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="F11" s="24">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24">
+        <v>1</v>
+      </c>
+      <c r="I11" s="24">
+        <v>1</v>
+      </c>
+      <c r="J11" s="24">
+        <v>1</v>
+      </c>
+      <c r="K11" s="24">
+        <v>1</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="26">
+      <c r="A12" s="24">
         <v>1202</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E12" s="26" t="s">
+      <c r="C12" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="24">
         <v>1.2</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="24">
         <v>0.8</v>
       </c>
-      <c r="H12" s="26">
-        <v>1</v>
-      </c>
-      <c r="I12" s="26">
+      <c r="H12" s="24">
+        <v>1</v>
+      </c>
+      <c r="I12" s="24">
         <v>0.7</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="24">
         <v>2</v>
       </c>
-      <c r="K12" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="K12" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="10">
@@ -3593,10 +3591,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>43</v>
@@ -3617,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>55</v>
@@ -3639,10 +3637,10 @@
         <v>57</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>58</v>
@@ -3663,7 +3661,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -3679,10 +3677,10 @@
         <v>59</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>43</v>
@@ -3693,8 +3691,8 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>389</v>
+      <c r="H15" s="31">
+        <v>5</v>
       </c>
       <c r="I15" s="10">
         <v>0.7</v>
@@ -3703,16 +3701,16 @@
         <v>0.3</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>391</v>
+      <c r="O15" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3723,10 +3721,10 @@
         <v>60</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>40</v>
@@ -3769,10 +3767,10 @@
         <v>61</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>58</v>
@@ -3793,7 +3791,7 @@
         <v>0.7</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
@@ -3806,97 +3804,97 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="26">
+      <c r="A18" s="24">
         <v>1301</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="E18" s="26" t="s">
+      <c r="C18" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="26">
-        <v>1</v>
-      </c>
-      <c r="G18" s="26">
-        <v>1</v>
-      </c>
-      <c r="H18" s="26">
-        <v>1</v>
-      </c>
-      <c r="I18" s="26">
-        <v>1</v>
-      </c>
-      <c r="J18" s="26">
-        <v>1</v>
-      </c>
-      <c r="K18" s="26">
-        <v>1</v>
-      </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="24">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24">
+        <v>1</v>
+      </c>
+      <c r="K18" s="24">
+        <v>1</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="26">
+      <c r="A19" s="24">
         <v>1302</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E19" s="26" t="s">
+      <c r="C19" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <v>1.3</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="24">
         <v>0.9</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="24">
         <v>1.2</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="24">
         <v>0.8</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="24">
         <v>0.5</v>
       </c>
-      <c r="K19" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="K19" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="10">
         <v>1303</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>43</v>
@@ -3917,16 +3915,16 @@
         <v>0.3</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>348</v>
+        <v>340</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>342</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -3936,13 +3934,13 @@
         <v>1304</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>58</v>
@@ -3963,7 +3961,7 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>65</v>
@@ -3985,10 +3983,10 @@
         <v>66</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>43</v>
@@ -4009,7 +4007,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
@@ -4022,13 +4020,13 @@
         <v>1306</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>43</v>
@@ -4062,97 +4060,97 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="26">
+      <c r="A24" s="24">
         <v>1401</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E24" s="26" t="s">
+      <c r="B24" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="26">
-        <v>1</v>
-      </c>
-      <c r="G24" s="26">
-        <v>1</v>
-      </c>
-      <c r="H24" s="26">
-        <v>1</v>
-      </c>
-      <c r="I24" s="26">
-        <v>1</v>
-      </c>
-      <c r="J24" s="26">
-        <v>1</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
+      <c r="F24" s="24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="26">
+      <c r="A25" s="24">
         <v>1402</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E25" s="26" t="s">
+      <c r="B25" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <v>1.5</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="24">
         <v>0.7</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="24">
         <v>1.2</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="24">
         <v>0.7</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="24">
         <v>0.7</v>
       </c>
-      <c r="K25" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
+      <c r="K25" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
     </row>
     <row r="26" spans="1:16" ht="27">
       <c r="A26" s="10">
         <v>1403</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>43</v>
@@ -4173,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -4190,13 +4188,13 @@
         <v>1404</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>72</v>
@@ -4217,16 +4215,16 @@
         <v>1</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="P27" s="22" t="s">
-        <v>451</v>
+        <v>440</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -4234,13 +4232,13 @@
         <v>1405</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>58</v>
@@ -4264,99 +4262,99 @@
         <v>1</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="26">
+      <c r="A29" s="24">
         <v>1501</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="E29" s="26" t="s">
+      <c r="C29" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="26">
-        <v>1</v>
-      </c>
-      <c r="G29" s="26">
-        <v>1</v>
-      </c>
-      <c r="H29" s="26">
-        <v>1</v>
-      </c>
-      <c r="I29" s="26">
-        <v>1</v>
-      </c>
-      <c r="J29" s="26">
-        <v>1</v>
-      </c>
-      <c r="K29" s="26">
-        <v>1</v>
-      </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
+      <c r="F29" s="24">
+        <v>1</v>
+      </c>
+      <c r="G29" s="24">
+        <v>1</v>
+      </c>
+      <c r="H29" s="24">
+        <v>1</v>
+      </c>
+      <c r="I29" s="24">
+        <v>1</v>
+      </c>
+      <c r="J29" s="24">
+        <v>1</v>
+      </c>
+      <c r="K29" s="24">
+        <v>1</v>
+      </c>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="26">
+      <c r="A30" s="24">
         <v>1502</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="E30" s="26" t="s">
+      <c r="C30" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="24">
         <v>1.2</v>
       </c>
-      <c r="G30" s="26">
-        <v>1</v>
-      </c>
-      <c r="H30" s="26">
+      <c r="G30" s="24">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24">
         <v>2</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="24">
         <v>0.25</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="24">
         <v>0.8</v>
       </c>
-      <c r="K30" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="P30" s="26" t="s">
-        <v>487</v>
+      <c r="K30" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="P30" s="24" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -4367,10 +4365,10 @@
         <v>76</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>43</v>
@@ -4408,13 +4406,13 @@
         <v>1504</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>43</v>
@@ -4457,14 +4455,14 @@
       <c r="A33" s="10">
         <v>1505</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>417</v>
+      <c r="B33" s="27" t="s">
+        <v>407</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>43</v>
@@ -4495,71 +4493,71 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="17" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="17" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="H35" s="10">
         <v>1</v>
@@ -4568,53 +4566,53 @@
         <v>1</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="10">
         <v>1601</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>58</v>
@@ -4648,34 +4646,34 @@
         <v>1602</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -4691,40 +4689,40 @@
         <v>78</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K39" s="10">
         <v>1</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
@@ -4734,13 +4732,13 @@
         <v>1604</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>43</v>
@@ -4764,13 +4762,13 @@
         <v>1</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="M40" s="17" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -4779,14 +4777,14 @@
       <c r="A41" s="10">
         <v>1605</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>365</v>
+      <c r="B41" s="27" t="s">
+        <v>359</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>40</v>
@@ -4810,13 +4808,13 @@
         <v>0</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -4825,14 +4823,14 @@
       <c r="A42" s="10">
         <v>1606</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>43</v>
@@ -4853,30 +4851,30 @@
         <v>0.5</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="17" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="10">
         <v>1607</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>43</v>
@@ -4903,7 +4901,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="17" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="P43" s="10" t="s">
         <v>51</v>
@@ -4913,14 +4911,14 @@
       <c r="A44" s="10">
         <v>1608</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>58</v>
@@ -4947,7 +4945,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="17" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>51</v>
@@ -4957,14 +4955,14 @@
       <c r="A45" s="10">
         <v>1609</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>99</v>
@@ -4991,29 +4989,29 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="17" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="10" t="s">
@@ -5036,7 +5034,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -5066,7 +5064,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -5096,7 +5094,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -5109,7 +5107,7 @@
       <c r="A50" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="27" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="10" t="s">
@@ -5126,7 +5124,7 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -5139,7 +5137,7 @@
       <c r="A51" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="27" t="s">
         <v>101</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -5156,7 +5154,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -5186,7 +5184,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -5216,7 +5214,7 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -5229,7 +5227,7 @@
       <c r="A54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -5259,7 +5257,7 @@
       <c r="A55" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="27" t="s">
         <v>114</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -5276,7 +5274,7 @@
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -5289,7 +5287,7 @@
       <c r="A56" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -5306,7 +5304,7 @@
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
@@ -5336,7 +5334,7 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -5366,7 +5364,7 @@
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
@@ -5379,11 +5377,11 @@
       <c r="A59" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>89</v>
@@ -5406,22 +5404,22 @@
       <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="10" t="s">
@@ -5444,7 +5442,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="10" t="s">
@@ -5480,7 +5478,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10" t="s">
@@ -5516,7 +5514,7 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
@@ -5550,7 +5548,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
@@ -5584,7 +5582,7 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="17" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="10" t="s">
@@ -5620,7 +5618,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="10" t="s">
@@ -5656,17 +5654,17 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="17" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
@@ -5675,7 +5673,7 @@
       <c r="A68" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="28" t="s">
         <v>152</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -5692,7 +5690,7 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
@@ -5705,7 +5703,7 @@
       <c r="A69" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="28" t="s">
         <v>155</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -5722,7 +5720,7 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -5735,7 +5733,7 @@
       <c r="A70" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="28" t="s">
         <v>158</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -5752,7 +5750,7 @@
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
@@ -5765,7 +5763,7 @@
       <c r="A71" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="28" t="s">
         <v>161</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -5782,7 +5780,7 @@
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
@@ -5795,11 +5793,11 @@
       <c r="A72" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="28" t="s">
         <v>164</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>131</v>
@@ -5812,7 +5810,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
@@ -5822,22 +5820,22 @@
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="26"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="10" t="s">
@@ -5860,7 +5858,7 @@
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="10" t="s">
@@ -5896,7 +5894,7 @@
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="10" t="s">
@@ -5932,7 +5930,7 @@
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10" t="s">
@@ -5951,7 +5949,7 @@
       <c r="A77" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="28" t="s">
         <v>177</v>
       </c>
       <c r="C77" s="10" t="s">
@@ -5968,7 +5966,7 @@
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="17" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -5981,7 +5979,7 @@
       <c r="A78" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="28" t="s">
         <v>181</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -5998,7 +5996,7 @@
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="17" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="17"/>
@@ -6028,17 +6026,17 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="17" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="17" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="M79" s="17" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
@@ -6047,7 +6045,7 @@
       <c r="A80" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="28" t="s">
         <v>187</v>
       </c>
       <c r="C80" s="10" t="s">
@@ -6064,7 +6062,7 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="17"/>
@@ -6077,7 +6075,7 @@
       <c r="A81" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="28" t="s">
         <v>190</v>
       </c>
       <c r="C81" s="10" t="s">
@@ -6094,7 +6092,7 @@
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="17" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -6124,7 +6122,7 @@
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -6137,7 +6135,7 @@
       <c r="A83" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="28" t="s">
         <v>196</v>
       </c>
       <c r="C83" s="10" t="s">
@@ -6154,7 +6152,7 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -6184,17 +6182,17 @@
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="17" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M84" s="17" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
@@ -6203,8 +6201,8 @@
       <c r="A85" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B85" s="30" t="s">
-        <v>335</v>
+      <c r="B85" s="28" t="s">
+        <v>329</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>203</v>
@@ -6220,7 +6218,7 @@
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
@@ -6230,22 +6228,22 @@
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="10">
@@ -6258,7 +6256,7 @@
         <v>204</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>43</v>
@@ -6298,7 +6296,7 @@
         <v>205</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>43</v>
@@ -6338,7 +6336,7 @@
         <v>206</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>43</v>
@@ -6378,7 +6376,7 @@
         <v>208</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>58</v>
@@ -6418,7 +6416,7 @@
         <v>209</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>58</v>
@@ -6868,7 +6866,7 @@
       <c r="D8" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6880,12 +6878,12 @@
         <v>251</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6897,12 +6895,12 @@
         <v>253</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6914,13 +6912,13 @@
         <v>255</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>345</v>
+      <c r="E11" s="20" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6934,9 +6932,9 @@
         <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>336</v>
-      </c>
-      <c r="E12" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6953,7 +6951,7 @@
       <c r="D13" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6970,7 +6968,7 @@
       <c r="D14" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6982,13 +6980,13 @@
         <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D15" t="s">
-        <v>336</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>452</v>
+        <v>330</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
@@ -6999,12 +6997,12 @@
         <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D16" t="s">
-        <v>336</v>
-      </c>
-      <c r="E16" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7021,7 +7019,7 @@
       <c r="D17" t="s">
         <v>286</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7030,16 +7028,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>333</v>
+      <c r="E18" s="19" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7047,16 +7045,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D19" t="s">
-        <v>336</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>351</v>
+        <v>330</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7070,7 +7068,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7078,7 +7076,7 @@
         <v>102</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7086,7 +7084,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7094,7 +7092,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7102,7 +7100,7 @@
         <v>105</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7110,7 +7108,7 @@
         <v>106</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7126,7 +7124,7 @@
         <v>201</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7134,7 +7132,7 @@
         <v>202</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7142,7 +7140,7 @@
         <v>203</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -7155,10 +7153,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7301,286 +7299,269 @@
       <c r="D8" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="30" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>319</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
+      <c r="E9" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.5">
       <c r="A10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="31.5">
+        <v>273</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
+      <c r="E11" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.5">
       <c r="A12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>295</v>
+        <v>69</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>273</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="31.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>463</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>298</v>
+      <c r="E13" s="29" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>316</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>465</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>317</v>
+        <v>273</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>475</v>
+        <v>467</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>471</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>474</v>
+        <v>286</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>478</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>483</v>
+        <v>101</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>484</v>
+        <v>282</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18">
+        <v>102</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>101</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>300</v>
+        <v>103</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>301</v>
+      <c r="E19" s="16" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>282</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>103</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>305</v>
+        <v>105</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.5">
       <c r="A22">
-        <v>104</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>307</v>
+        <v>106</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>105</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>310</v>
+        <v>107</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>371</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.5">
+      <c r="E23" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>312</v>
+        <v>486</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>313</v>
+        <v>487</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>107</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="494">
   <si>
     <t>技能ID</t>
   </si>
@@ -884,19 +884,7 @@
     <t>祝福</t>
   </si>
   <si>
-    <t>诅咒(1)</t>
-  </si>
-  <si>
-    <t>Cursed1</t>
-  </si>
-  <si>
-    <t>诅咒(2）</t>
-  </si>
-  <si>
     <t>造成的伤害100%反噬给自己</t>
-  </si>
-  <si>
-    <t>Cursed2</t>
   </si>
   <si>
     <t>effectString</t>
@@ -1000,13 +988,39 @@
     </r>
   </si>
   <si>
+    <t>BackStab</t>
+  </si>
+  <si>
+    <t>投掷</t>
+  </si>
+  <si>
+    <t>当前装备武器变为空手</t>
+  </si>
+  <si>
+    <t>AfterDamage</t>
+  </si>
+  <si>
+    <t>Throw</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>B</t>
+      <t>吸取伤害的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10%</t>
     </r>
     <r>
       <rPr>
@@ -1014,26 +1028,14 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>eforeHit</t>
-    </r>
-  </si>
-  <si>
-    <t>BackStab</t>
-  </si>
-  <si>
-    <t>投掷</t>
-  </si>
-  <si>
-    <t>当前装备武器变为空手</t>
-  </si>
-  <si>
-    <t>AfterDamage</t>
-  </si>
-  <si>
-    <t>Throw</t>
-  </si>
-  <si>
-    <t>吸血</t>
+      <t>回复到自己生命</t>
+    </r>
+  </si>
+  <si>
+    <t>AbsorbDamage</t>
+  </si>
+  <si>
+    <t>兽类杀手</t>
   </si>
   <si>
     <r>
@@ -1042,7 +1044,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>吸取伤害的</t>
+      <t>若对象带有</t>
     </r>
     <r>
       <rPr>
@@ -1050,7 +1052,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>10%</t>
+      <t>“</t>
     </r>
     <r>
       <rPr>
@@ -1058,23 +1060,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>回复到自己生命</t>
-    </r>
-  </si>
-  <si>
-    <t>AbsorbDamage</t>
-  </si>
-  <si>
-    <t>兽类杀手</t>
-  </si>
-  <si>
+      <t>兽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”Tag</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>若对象带有</t>
+      <t>，则伤害</t>
     </r>
     <r>
       <rPr>
@@ -1082,7 +1084,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>“</t>
+      <t xml:space="preserve"> + 25%</t>
     </r>
     <r>
       <rPr>
@@ -1090,7 +1092,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>兽</t>
+      <t>。若对象为灵气型，则伤害为</t>
     </r>
     <r>
       <rPr>
@@ -1098,15 +1100,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>”Tag</t>
-    </r>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>BeastKiller</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>，则伤害</t>
+      <t>该回合伤害将敌方</t>
     </r>
     <r>
       <rPr>
@@ -1114,7 +1121,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> + 25%</t>
+      <t>HP</t>
     </r>
     <r>
       <rPr>
@@ -1122,7 +1129,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>。若对象为灵气型，则伤害为</t>
+      <t>置为自身</t>
     </r>
     <r>
       <rPr>
@@ -1130,11 +1137,11 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>BeastKiller</t>
+      <t xml:space="preserve"> + 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Sanction</t>
   </si>
   <si>
     <r>
@@ -1143,7 +1150,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>该回合伤害将敌方</t>
+      <t>若对方</t>
     </r>
     <r>
       <rPr>
@@ -1159,7 +1166,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>置为自身</t>
+      <t>低于自己则有</t>
     </r>
     <r>
       <rPr>
@@ -1167,20 +1174,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> + 1</t>
-    </r>
-  </si>
-  <si>
-    <t>Sanction</t>
-  </si>
-  <si>
+      <t>50%</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>若对方</t>
+      <t>几率秒杀敌人，否则有</t>
     </r>
     <r>
       <rPr>
@@ -1188,7 +1190,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>HP</t>
+      <t>50%</t>
     </r>
     <r>
       <rPr>
@@ -1196,38 +1198,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>低于自己则有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>几率秒杀敌人，否则有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>几率伤害自己。</t>
     </r>
   </si>
@@ -1327,20 +1297,6 @@
   </si>
   <si>
     <t>激昂</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>防御为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1623,14 +1579,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>将刀刃拔出的一闪攻击，会使目标流血。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>拔刀横扫全部敌人，造成更多伤害，但速度和命中略逊一筹。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>从收刀开始出招，力图瞬间将敌人斩杀的强力技能。出招较慢，但却非常容易暴击。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1689,10 +1637,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>以肉眼看不见的速度斩向全部敌人，会使目标气虚。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>绝技：制裁</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2458,6 +2402,96 @@
   </si>
   <si>
     <t>绝技：冰皇之怒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>以肉眼看不见的速度斩向全部敌人，容易使目标气虚。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔刀横扫全部敌人，造成更多伤害，但速度和命中略逊一筹。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>将两把刀同时拔出的一闪攻击，容易使目标流血。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cursed</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Afte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rHit</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2649,7 +2683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2745,6 +2779,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3026,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3212,7 +3249,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>40</v>
@@ -3249,10 +3286,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>43</v>
@@ -3289,10 +3326,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>43</v>
@@ -3326,13 +3363,13 @@
         <v>1103</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>43</v>
@@ -3370,13 +3407,13 @@
         <v>1104</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
@@ -3403,10 +3440,10 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="21" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3417,10 +3454,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>43</v>
@@ -3447,7 +3484,7 @@
         <v>47</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>49</v>
@@ -3464,13 +3501,13 @@
         <v>1106</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>43</v>
@@ -3491,16 +3528,16 @@
         <v>0.2</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3511,10 +3548,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>43</v>
@@ -3551,10 +3588,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>43</v>
@@ -3575,7 +3612,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
@@ -3591,10 +3628,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>377</v>
+        <v>489</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>43</v>
@@ -3615,19 +3652,23 @@
         <v>1</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="12" t="s">
-        <v>51</v>
+      <c r="M13" s="21" t="s">
+        <v>485</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="O13" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="27">
       <c r="A14" s="10">
@@ -3637,10 +3678,10 @@
         <v>57</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>378</v>
+        <v>488</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>58</v>
@@ -3661,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -3677,10 +3718,10 @@
         <v>59</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>43</v>
@@ -3701,16 +3742,16 @@
         <v>0.3</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="21" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3721,10 +3762,10 @@
         <v>60</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>40</v>
@@ -3767,10 +3808,10 @@
         <v>61</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>58</v>
@@ -3791,7 +3832,7 @@
         <v>0.7</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
@@ -3811,10 +3852,10 @@
         <v>63</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>43</v>
@@ -3851,10 +3892,10 @@
         <v>64</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>43</v>
@@ -3875,7 +3916,7 @@
         <v>0.5</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -3888,13 +3929,13 @@
         <v>1303</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>43</v>
@@ -3915,16 +3956,16 @@
         <v>0.3</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -3934,13 +3975,13 @@
         <v>1304</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>387</v>
+        <v>484</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>58</v>
@@ -3961,7 +4002,7 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>65</v>
@@ -3983,10 +4024,10 @@
         <v>66</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>43</v>
@@ -4007,7 +4048,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
@@ -4020,13 +4061,13 @@
         <v>1306</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>43</v>
@@ -4064,13 +4105,13 @@
         <v>1401</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>43</v>
@@ -4091,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -4104,13 +4145,13 @@
         <v>1402</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>43</v>
@@ -4131,7 +4172,7 @@
         <v>0.7</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
@@ -4144,13 +4185,13 @@
         <v>1403</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>43</v>
@@ -4171,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -4188,13 +4229,13 @@
         <v>1404</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>72</v>
@@ -4215,16 +4256,16 @@
         <v>1</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -4232,13 +4273,13 @@
         <v>1405</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>58</v>
@@ -4262,13 +4303,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -4281,10 +4322,10 @@
         <v>74</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>43</v>
@@ -4321,10 +4362,10 @@
         <v>75</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>43</v>
@@ -4345,16 +4386,16 @@
         <v>0.8</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
       <c r="O30" s="24" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -4365,10 +4406,10 @@
         <v>76</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>43</v>
@@ -4406,13 +4447,13 @@
         <v>1504</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>43</v>
@@ -4456,13 +4497,13 @@
         <v>1505</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>43</v>
@@ -4493,71 +4534,71 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="17" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="17" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="H35" s="10">
         <v>1</v>
@@ -4566,19 +4607,19 @@
         <v>1</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -4606,13 +4647,13 @@
         <v>1601</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>58</v>
@@ -4646,34 +4687,34 @@
         <v>1602</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -4689,40 +4730,40 @@
         <v>78</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K39" s="10">
         <v>1</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
@@ -4732,13 +4773,13 @@
         <v>1604</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>43</v>
@@ -4762,13 +4803,13 @@
         <v>1</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="M40" s="17" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -4778,13 +4819,13 @@
         <v>1605</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>40</v>
@@ -4808,13 +4849,13 @@
         <v>0</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -4827,10 +4868,10 @@
         <v>79</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>43</v>
@@ -4851,16 +4892,16 @@
         <v>0.5</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="17" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -4874,7 +4915,7 @@
         <v>81</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>43</v>
@@ -4901,7 +4942,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="17" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="P43" s="10" t="s">
         <v>51</v>
@@ -4918,7 +4959,7 @@
         <v>83</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>58</v>
@@ -4945,7 +4986,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="17" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>51</v>
@@ -4962,7 +5003,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>99</v>
@@ -4989,7 +5030,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="17" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>51</v>
@@ -5034,7 +5075,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -5064,7 +5105,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -5094,7 +5135,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -5124,7 +5165,7 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -5154,7 +5195,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -5184,7 +5225,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -5214,7 +5255,7 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -5274,7 +5315,7 @@
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -5304,7 +5345,7 @@
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
@@ -5334,7 +5375,7 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -5364,7 +5405,7 @@
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
@@ -5381,7 +5422,7 @@
         <v>127</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>89</v>
@@ -5442,7 +5483,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="10" t="s">
@@ -5478,7 +5519,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10" t="s">
@@ -5514,7 +5555,7 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
@@ -5548,7 +5589,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
@@ -5582,7 +5623,7 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="17" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="10" t="s">
@@ -5618,7 +5659,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="10" t="s">
@@ -5654,17 +5695,17 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="17" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
@@ -5690,7 +5731,7 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
@@ -5720,7 +5761,7 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -5750,7 +5791,7 @@
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
@@ -5780,7 +5821,7 @@
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
@@ -5797,7 +5838,7 @@
         <v>164</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>131</v>
@@ -5810,7 +5851,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
@@ -5858,7 +5899,7 @@
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="10" t="s">
@@ -5894,7 +5935,7 @@
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="10" t="s">
@@ -5930,7 +5971,7 @@
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10" t="s">
@@ -5966,7 +6007,7 @@
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="17" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -5996,7 +6037,7 @@
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="17" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="17"/>
@@ -6026,17 +6067,17 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="17" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="17" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="M79" s="17" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
@@ -6062,7 +6103,7 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="17"/>
@@ -6092,7 +6133,7 @@
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="17" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -6122,7 +6163,7 @@
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -6152,7 +6193,7 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -6182,17 +6223,17 @@
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="17" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="M84" s="17" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
@@ -6202,7 +6243,7 @@
         <v>201</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>203</v>
@@ -6218,7 +6259,7 @@
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
@@ -6256,7 +6297,7 @@
         <v>204</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>43</v>
@@ -6296,7 +6337,7 @@
         <v>205</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>43</v>
@@ -6336,7 +6377,7 @@
         <v>206</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>43</v>
@@ -6376,7 +6417,7 @@
         <v>208</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>58</v>
@@ -6416,7 +6457,7 @@
         <v>209</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>58</v>
@@ -6720,10 +6761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6878,7 +6919,7 @@
         <v>251</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>235</v>
@@ -6895,7 +6936,7 @@
         <v>253</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>243</v>
@@ -6912,13 +6953,13 @@
         <v>255</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6932,7 +6973,7 @@
         <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>258</v>
@@ -6980,47 +7021,47 @@
         <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D15" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" t="s">
-        <v>325</v>
+      <c r="B16" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>337</v>
       </c>
       <c r="D16" t="s">
-        <v>330</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>267</v>
+        <v>324</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>268</v>
+      <c r="B17" s="16" t="s">
+        <v>491</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>270</v>
+        <v>281</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7028,119 +7069,102 @@
         <v>14</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="D19" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>345</v>
-      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20">
+        <v>101</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>328</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>202</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>203</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7155,8 +7179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7198,7 +7222,7 @@
         <v>231</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7212,7 +7236,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -7229,7 +7253,7 @@
         <v>234</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>236</v>
@@ -7240,16 +7264,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7257,16 +7281,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5">
@@ -7277,13 +7301,13 @@
         <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>492</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7291,16 +7315,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -7308,16 +7332,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5">
@@ -7325,16 +7349,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75">
@@ -7345,13 +7369,13 @@
         <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5">
@@ -7362,13 +7386,13 @@
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7376,16 +7400,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7393,16 +7417,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7410,16 +7434,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>471</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>286</v>
+        <v>462</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7433,16 +7457,16 @@
         <v>101</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>282</v>
+        <v>492</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7450,16 +7474,16 @@
         <v>102</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>282</v>
+        <v>492</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7467,16 +7491,16 @@
         <v>103</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>282</v>
+        <v>492</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7484,16 +7508,16 @@
         <v>104</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>282</v>
+        <v>492</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7501,16 +7525,16 @@
         <v>105</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>282</v>
+        <v>492</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.5">
@@ -7518,16 +7542,16 @@
         <v>106</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7535,16 +7559,16 @@
         <v>107</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>282</v>
+        <v>492</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7552,16 +7576,16 @@
         <v>108</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>478</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>282</v>
+        <v>492</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -893,31 +893,10 @@
     <t>EFFECTTRIGGER</t>
   </si>
   <si>
-    <t>OnDamage</t>
-  </si>
-  <si>
     <t>切换攻击</t>
   </si>
   <si>
     <t>以切换后的武器发动轻攻击一次</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>witchWeapon</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2491,6 +2470,24 @@
         <charset val="134"/>
       </rPr>
       <t>rHit</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>witchWeapon</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3249,7 +3246,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>40</v>
@@ -3286,10 +3283,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>43</v>
@@ -3326,10 +3323,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>43</v>
@@ -3363,13 +3360,13 @@
         <v>1103</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>358</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>360</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>43</v>
@@ -3407,13 +3404,13 @@
         <v>1104</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>364</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>366</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
@@ -3440,10 +3437,10 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3454,10 +3451,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>43</v>
@@ -3484,7 +3481,7 @@
         <v>47</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>49</v>
@@ -3501,13 +3498,13 @@
         <v>1106</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>43</v>
@@ -3528,16 +3525,16 @@
         <v>0.2</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3548,10 +3545,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>43</v>
@@ -3588,10 +3585,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>43</v>
@@ -3612,7 +3609,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
@@ -3628,10 +3625,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>43</v>
@@ -3652,22 +3649,22 @@
         <v>1</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>55</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>56</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="27">
@@ -3678,10 +3675,10 @@
         <v>57</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>58</v>
@@ -3702,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -3718,10 +3715,10 @@
         <v>59</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>43</v>
@@ -3742,16 +3739,16 @@
         <v>0.3</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3762,10 +3759,10 @@
         <v>60</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>40</v>
@@ -3808,10 +3805,10 @@
         <v>61</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>58</v>
@@ -3832,7 +3829,7 @@
         <v>0.7</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
@@ -3852,10 +3849,10 @@
         <v>63</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>43</v>
@@ -3892,10 +3889,10 @@
         <v>64</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>43</v>
@@ -3916,7 +3913,7 @@
         <v>0.5</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -3929,13 +3926,13 @@
         <v>1303</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>43</v>
@@ -3956,16 +3953,16 @@
         <v>0.3</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L20" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="N20" s="21" t="s">
         <v>334</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>336</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -3975,13 +3972,13 @@
         <v>1304</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>58</v>
@@ -4002,7 +3999,7 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>65</v>
@@ -4024,10 +4021,10 @@
         <v>66</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>43</v>
@@ -4048,7 +4045,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
@@ -4061,13 +4058,13 @@
         <v>1306</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>43</v>
@@ -4105,13 +4102,13 @@
         <v>1401</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>43</v>
@@ -4132,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -4145,13 +4142,13 @@
         <v>1402</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>43</v>
@@ -4172,7 +4169,7 @@
         <v>0.7</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
@@ -4185,13 +4182,13 @@
         <v>1403</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>43</v>
@@ -4212,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -4229,13 +4226,13 @@
         <v>1404</v>
       </c>
       <c r="B27" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>389</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>391</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>72</v>
@@ -4256,16 +4253,16 @@
         <v>1</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -4273,13 +4270,13 @@
         <v>1405</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>58</v>
@@ -4303,13 +4300,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="N28" s="17" t="s">
         <v>340</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>342</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -4322,10 +4319,10 @@
         <v>74</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>43</v>
@@ -4362,10 +4359,10 @@
         <v>75</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>43</v>
@@ -4386,16 +4383,16 @@
         <v>0.8</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
       <c r="O30" s="24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -4406,10 +4403,10 @@
         <v>76</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>43</v>
@@ -4447,13 +4444,13 @@
         <v>1504</v>
       </c>
       <c r="B32" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>399</v>
-      </c>
       <c r="D32" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>43</v>
@@ -4497,13 +4494,13 @@
         <v>1505</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>43</v>
@@ -4534,71 +4531,71 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>406</v>
-      </c>
       <c r="D34" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="K34" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="G34" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="L34" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>407</v>
-      </c>
       <c r="D35" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H35" s="10">
         <v>1</v>
@@ -4607,19 +4604,19 @@
         <v>1</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
       </c>
       <c r="L35" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="N35" s="17" t="s">
         <v>423</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>425</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -4647,13 +4644,13 @@
         <v>1601</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>58</v>
@@ -4687,34 +4684,34 @@
         <v>1602</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -4730,40 +4727,40 @@
         <v>78</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J39" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>351</v>
-      </c>
       <c r="K39" s="10">
         <v>1</v>
       </c>
       <c r="L39" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="N39" s="17" t="s">
         <v>466</v>
-      </c>
-      <c r="M39" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="N39" s="17" t="s">
-        <v>468</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
@@ -4773,13 +4770,13 @@
         <v>1604</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>43</v>
@@ -4803,13 +4800,13 @@
         <v>1</v>
       </c>
       <c r="L40" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="N40" s="17" t="s">
         <v>445</v>
-      </c>
-      <c r="M40" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="N40" s="17" t="s">
-        <v>447</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -4819,13 +4816,13 @@
         <v>1605</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>40</v>
@@ -4849,13 +4846,13 @@
         <v>0</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -4868,10 +4865,10 @@
         <v>79</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>43</v>
@@ -4892,16 +4889,16 @@
         <v>0.5</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -4915,7 +4912,7 @@
         <v>81</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>43</v>
@@ -4942,7 +4939,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P43" s="10" t="s">
         <v>51</v>
@@ -4959,7 +4956,7 @@
         <v>83</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>58</v>
@@ -4986,7 +4983,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>51</v>
@@ -5003,7 +5000,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>99</v>
@@ -5030,7 +5027,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>51</v>
@@ -5075,7 +5072,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -5105,7 +5102,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -5135,7 +5132,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -5165,7 +5162,7 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -5195,7 +5192,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -5225,7 +5222,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -5255,7 +5252,7 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -5315,7 +5312,7 @@
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -5345,7 +5342,7 @@
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
@@ -5375,7 +5372,7 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -5405,7 +5402,7 @@
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
@@ -5422,7 +5419,7 @@
         <v>127</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>89</v>
@@ -5483,7 +5480,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="10" t="s">
@@ -5519,7 +5516,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10" t="s">
@@ -5555,7 +5552,7 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
@@ -5589,7 +5586,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
@@ -5623,7 +5620,7 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="10" t="s">
@@ -5659,7 +5656,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="10" t="s">
@@ -5695,17 +5692,17 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
@@ -5731,7 +5728,7 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
@@ -5761,7 +5758,7 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -5791,7 +5788,7 @@
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
@@ -5821,7 +5818,7 @@
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
@@ -5838,7 +5835,7 @@
         <v>164</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>131</v>
@@ -5851,7 +5848,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
@@ -5899,7 +5896,7 @@
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="10" t="s">
@@ -5935,7 +5932,7 @@
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="10" t="s">
@@ -5971,7 +5968,7 @@
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10" t="s">
@@ -6007,7 +6004,7 @@
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -6037,7 +6034,7 @@
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="17"/>
@@ -6067,17 +6064,17 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="M79" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="N79" s="17" t="s">
         <v>471</v>
-      </c>
-      <c r="M79" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="N79" s="17" t="s">
-        <v>473</v>
       </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
@@ -6103,7 +6100,7 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="17"/>
@@ -6133,7 +6130,7 @@
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -6163,7 +6160,7 @@
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -6193,7 +6190,7 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -6223,17 +6220,17 @@
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M84" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
@@ -6243,7 +6240,7 @@
         <v>201</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>203</v>
@@ -6259,7 +6256,7 @@
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
@@ -6297,7 +6294,7 @@
         <v>204</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>43</v>
@@ -6337,7 +6334,7 @@
         <v>205</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>43</v>
@@ -6377,7 +6374,7 @@
         <v>206</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>43</v>
@@ -6417,7 +6414,7 @@
         <v>208</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>58</v>
@@ -6457,7 +6454,7 @@
         <v>209</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>58</v>
@@ -6919,7 +6916,7 @@
         <v>251</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>235</v>
@@ -6936,7 +6933,7 @@
         <v>253</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>243</v>
@@ -6953,13 +6950,13 @@
         <v>255</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6973,7 +6970,7 @@
         <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>258</v>
@@ -7021,13 +7018,13 @@
         <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7035,16 +7032,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="D16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>337</v>
-      </c>
-      <c r="D16" t="s">
-        <v>324</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7052,16 +7049,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C17" t="s">
         <v>266</v>
       </c>
       <c r="D17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7069,16 +7066,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7092,7 +7089,7 @@
         <v>101</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7100,7 +7097,7 @@
         <v>102</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7108,7 +7105,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7116,7 +7113,7 @@
         <v>104</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7124,7 +7121,7 @@
         <v>105</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7132,7 +7129,7 @@
         <v>106</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7148,7 +7145,7 @@
         <v>201</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7156,7 +7153,7 @@
         <v>202</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7164,7 +7161,7 @@
         <v>203</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -7180,7 +7177,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7253,7 +7250,7 @@
         <v>234</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>269</v>
+        <v>492</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>236</v>
@@ -7264,16 +7261,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7281,16 +7278,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5">
@@ -7301,13 +7298,13 @@
         <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7315,16 +7312,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>280</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -7332,16 +7329,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5">
@@ -7349,16 +7346,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>286</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75">
@@ -7369,13 +7366,13 @@
         <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5">
@@ -7386,13 +7383,13 @@
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7400,16 +7397,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>454</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7417,16 +7414,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>455</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7434,16 +7431,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7457,16 +7454,16 @@
         <v>101</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7474,16 +7471,16 @@
         <v>102</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7491,16 +7488,16 @@
         <v>103</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7508,16 +7505,16 @@
         <v>104</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7525,16 +7522,16 @@
         <v>105</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.5">
@@ -7542,16 +7539,16 @@
         <v>106</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7559,16 +7556,16 @@
         <v>107</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7576,16 +7573,16 @@
         <v>108</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -1416,18 +1416,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>用兽牙尖利的一面刺向敌人。</t>
-  </si>
-  <si>
     <t>巨兽之牙轻击</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>巨兽之牙重击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>将兽牙像大锤一样轮向敌人。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1485,10 +1478,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>掷出环，附带的雷属性效果有几率让敌人进入麻痹状态。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1500,26 +1489,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>隐藏自身的杀气，悄悄绕到敌人背后进行攻击。如果不被敌人察觉，则可造成巨大伤害。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Thrust</t>
   </si>
   <si>
-    <t>快速冲到对方面前挥出一击，适合偷袭。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用尽全力向对方刺去。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>绝技：毁灭投掷</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>将钩爪向敌人投掷出去，虽然能够造成很大杀伤，但却会暂时失去武器。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1542,23 +1515,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>附带冰霜之力的三连击，有机会将敌人冰冻。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>拔刀向敌人头顶竖直砍去。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>拔刀横扫敌人，造成更多伤害，但速度和命中略逊一筹。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>从收刀开始出招，力图瞬间将敌人斩杀的强力技能。出招较慢，但却非常容易暴击。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1596,18 +1553,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>为了弥补渴求血液的自身，让敌人血债血偿。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>切开自己的身体，进入流血状态。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>麓元自己研习的招式，威力虽大却极耗体力。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>绝技：石破天惊</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1629,26 +1578,6 @@
   </si>
   <si>
     <t>重武系重攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩出一道剑气伤害敌人。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>单手持剑，刺向敌人。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>双手持剑，砍向敌人。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>横向挥舞的斩击。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳劈，虽然威力很大，但命中率较差。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1679,43 +1608,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>邪恶的一击，虽然攻击力很高甚至能秒杀敌人，但也存在着反噬自己的可能。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>无视敌我攻击战场上全部单位的强力一击。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>威震八方的一击，大几率将对方击倒。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>射出一箭，刺穿敌人。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄力射击，瞄准时间长，但几乎必中。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>绝技：三连火焰矢</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>绝技：连续狙击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用弓箭的火之力点燃三发箭矢同时击出，可能点燃敌人。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用弓的刃部发起攻击，不消耗弹药。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>将当前弹药库存全部射出依次攻击全部敌人。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1757,14 +1654,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>击中后释放毒气，虽然威力很弱，但可能令敌方中毒。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中后释放迷烟，虽然威力很弱，但可能令敌方狂乱。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>0.</t>
     </r>
@@ -1785,10 +1674,6 @@
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>对麻痹状态的敌人使用，能够极大地击退敌人。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2011,10 +1896,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>将兽牙抡向地面发出震荡波，震慑全体。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>7</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2376,15 +2257,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>连续向敌人突刺多次。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>绝技：冰皇之怒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>以肉眼看不见的速度斩向全部敌人，容易使目标气虚。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2439,14 +2312,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>拔刀横扫全部敌人，造成更多伤害，但速度和命中略逊一筹。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>将两把刀同时拔出的一闪攻击，容易使目标流血。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Cursed</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2490,6 +2355,108 @@
       <t>witchWeapon</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">快速冲到对方面前挥出一击,造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用尽全力向对方刺去,造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">隐藏杀气，悄悄绕到未察觉的敌人背后进行攻击。成功后造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">将钩爪向敌人投掷出去，会暂时失去武器。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">附带冰霜之力的三连击，有机会将敌人冰冻。每一击造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">连续向敌人突刺多次，直到未命中为止。每一击造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">拔刀向敌人头顶竖直砍去,造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">拔刀横扫敌人,造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">将两把刀同时拔出的一闪攻击，容易使目标流血。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">拔刀横扫全部敌人,造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">瞬间拔刀将敌人斩杀的居合攻击。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">为了满足渴求血液的自身，让全体敌人血债血偿。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">单手持剑，刺向敌人，造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">双手持剑，砍向敌人，造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">麓元自己研习的招式，威力虽大却极耗体力。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">以肉眼看不见的速度斩向全部敌人，容易使目标气虚。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">斩出一道剑气伤害敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">横向挥舞的斩击，造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳起在空中大力劈下，造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">借助恶魔力量的一击，攻击力很高，但也存在着反噬自己的可能。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">无视敌我攻击战场上全部单位的强力一击。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">威震八方的一击，大几率将对方击倒。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">射出一箭，刺穿敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蓄力射击，瞄准时间长，但几乎必中。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">利用弓的刃部发起攻击，不消耗弹药。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">利用弓箭的火之力点燃三发箭矢同时击出，可能点燃敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">将当前弹药库存全部射出依次攻击全部敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">击中后释放毒气，虽然威力很弱，但可能令敌方中毒。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">击中后释放迷烟，虽然威力很弱，但可能令敌方狂乱。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用兽牙尖利的一面刺向敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">将兽牙像大锤一样轮向敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">将兽牙抡向地面发出震荡波，震慑全体。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">掷出环，附带的雷属性效果有几率让敌人进入麻痹状态。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">对麻痹状态的敌人使用，能够极大地击退敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
   </si>
 </sst>
 </file>
@@ -2680,7 +2647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2779,6 +2746,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3060,15 +3030,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="16" style="8" customWidth="1"/>
-    <col min="3" max="3" width="47.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="47.875" style="33" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="8" customWidth="1"/>
     <col min="5" max="5" width="16" style="8" customWidth="1"/>
     <col min="6" max="11" width="10.25" style="8" customWidth="1"/>
@@ -3246,7 +3216,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>40</v>
@@ -3275,7 +3245,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="27">
       <c r="A5" s="24">
         <v>1101</v>
       </c>
@@ -3283,10 +3253,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>359</v>
+        <v>460</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>43</v>
@@ -3315,7 +3285,7 @@
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="27">
       <c r="A6" s="24">
         <v>1102</v>
       </c>
@@ -3323,10 +3293,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>360</v>
+        <v>461</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>43</v>
@@ -3360,13 +3330,13 @@
         <v>1103</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>357</v>
+        <v>462</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>43</v>
@@ -3404,13 +3374,13 @@
         <v>1104</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>362</v>
+        <v>463</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
@@ -3437,13 +3407,13 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="21" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="27">
       <c r="A9" s="10">
         <v>1105</v>
       </c>
@@ -3451,10 +3421,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>365</v>
+        <v>464</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>43</v>
@@ -3481,7 +3451,7 @@
         <v>47</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>49</v>
@@ -3493,18 +3463,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="27">
       <c r="A10" s="10">
         <v>1106</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>43</v>
@@ -3525,19 +3495,19 @@
         <v>0.2</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="27">
       <c r="A11" s="24">
         <v>1201</v>
       </c>
@@ -3545,10 +3515,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>43</v>
@@ -3577,7 +3547,7 @@
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="27">
       <c r="A12" s="24">
         <v>1202</v>
       </c>
@@ -3585,10 +3555,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>368</v>
+        <v>467</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>43</v>
@@ -3609,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
@@ -3617,7 +3587,7 @@
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="27">
       <c r="A13" s="10">
         <v>1203</v>
       </c>
@@ -3625,10 +3595,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>43</v>
@@ -3649,22 +3619,22 @@
         <v>1</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>55</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>56</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="27">
@@ -3675,10 +3645,10 @@
         <v>57</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>58</v>
@@ -3699,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -3715,10 +3685,10 @@
         <v>59</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>369</v>
+        <v>470</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>43</v>
@@ -3739,16 +3709,16 @@
         <v>0.3</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="21" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3759,10 +3729,10 @@
         <v>60</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>40</v>
@@ -3797,7 +3767,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="27">
       <c r="A17" s="10">
         <v>1207</v>
       </c>
@@ -3805,10 +3775,10 @@
         <v>61</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>372</v>
+        <v>471</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>58</v>
@@ -3829,7 +3799,7 @@
         <v>0.7</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
@@ -3841,7 +3811,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="27">
       <c r="A18" s="24">
         <v>1301</v>
       </c>
@@ -3849,10 +3819,10 @@
         <v>63</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>43</v>
@@ -3881,7 +3851,7 @@
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" ht="27">
       <c r="A19" s="24">
         <v>1302</v>
       </c>
@@ -3889,10 +3859,10 @@
         <v>64</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>383</v>
+        <v>473</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>43</v>
@@ -3913,7 +3883,7 @@
         <v>0.5</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -3921,18 +3891,18 @@
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="27">
       <c r="A20" s="10">
         <v>1303</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>374</v>
+        <v>474</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>43</v>
@@ -3953,7 +3923,7 @@
         <v>0.3</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>332</v>
@@ -3967,18 +3937,18 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="27">
       <c r="A21" s="10">
         <v>1304</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>58</v>
@@ -3999,7 +3969,7 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>65</v>
@@ -4013,7 +3983,7 @@
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="27">
       <c r="A22" s="10">
         <v>1305</v>
       </c>
@@ -4021,10 +3991,10 @@
         <v>66</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>381</v>
+        <v>476</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>43</v>
@@ -4045,7 +4015,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
@@ -4058,13 +4028,13 @@
         <v>1306</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>43</v>
@@ -4097,18 +4067,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="27">
       <c r="A24" s="24">
         <v>1401</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>384</v>
+        <v>477</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>43</v>
@@ -4129,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -4137,18 +4107,18 @@
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" ht="27">
       <c r="A25" s="24">
         <v>1402</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>385</v>
+        <v>478</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>43</v>
@@ -4169,7 +4139,7 @@
         <v>0.7</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
@@ -4177,18 +4147,18 @@
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="1:16" ht="27">
+    <row r="26" spans="1:16" ht="40.5">
       <c r="A26" s="10">
         <v>1403</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>390</v>
+        <v>479</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>43</v>
@@ -4209,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -4221,18 +4191,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" ht="27">
       <c r="A27" s="10">
         <v>1404</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>72</v>
@@ -4253,30 +4223,30 @@
         <v>1</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="27">
       <c r="A28" s="10">
         <v>1405</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>58</v>
@@ -4311,7 +4281,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" ht="27">
       <c r="A29" s="24">
         <v>1501</v>
       </c>
@@ -4319,10 +4289,10 @@
         <v>74</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>43</v>
@@ -4351,7 +4321,7 @@
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="27">
       <c r="A30" s="24">
         <v>1502</v>
       </c>
@@ -4359,10 +4329,10 @@
         <v>75</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>43</v>
@@ -4383,19 +4353,19 @@
         <v>0.8</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
       <c r="O30" s="24" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="27">
       <c r="A31" s="10">
         <v>1503</v>
       </c>
@@ -4403,10 +4373,10 @@
         <v>76</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>398</v>
+        <v>484</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>43</v>
@@ -4444,13 +4414,13 @@
         <v>1504</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>397</v>
+        <v>485</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>43</v>
@@ -4489,18 +4459,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" ht="27">
       <c r="A33" s="10">
         <v>1505</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>399</v>
+        <v>486</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>43</v>
@@ -4529,73 +4499,73 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" ht="27">
       <c r="A34" s="17" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>404</v>
+        <v>487</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" ht="27">
       <c r="A35" s="17" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>405</v>
+        <v>488</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="H35" s="10">
         <v>1</v>
@@ -4604,19 +4574,19 @@
         <v>1</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -4639,18 +4609,18 @@
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" ht="27">
       <c r="A37" s="10">
         <v>1601</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>341</v>
+        <v>489</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>58</v>
@@ -4679,39 +4649,39 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" ht="27">
       <c r="A38" s="10">
         <v>1602</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>344</v>
+        <v>490</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -4719,7 +4689,7 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" ht="27">
       <c r="A39" s="10">
         <v>1603</v>
       </c>
@@ -4727,56 +4697,56 @@
         <v>78</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>349</v>
-      </c>
       <c r="K39" s="10">
         <v>1</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" ht="27">
       <c r="A40" s="10">
         <v>1604</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>353</v>
+        <v>492</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>43</v>
@@ -4800,13 +4770,13 @@
         <v>1</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="M40" s="17" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -4816,13 +4786,13 @@
         <v>1605</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>40</v>
@@ -4846,18 +4816,18 @@
         <v>0</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" ht="27">
       <c r="A42" s="10">
         <v>1606</v>
       </c>
@@ -4865,10 +4835,10 @@
         <v>79</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>409</v>
+        <v>493</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>43</v>
@@ -4889,16 +4859,16 @@
         <v>0.5</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="17" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -4912,7 +4882,7 @@
         <v>81</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>43</v>
@@ -4939,7 +4909,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="17" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="P43" s="10" t="s">
         <v>51</v>
@@ -4956,7 +4926,7 @@
         <v>83</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>58</v>
@@ -4983,7 +4953,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="17" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>51</v>
@@ -5000,7 +4970,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>99</v>
@@ -5027,7 +4997,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="17" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>51</v>
@@ -5696,13 +5666,13 @@
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="17" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
@@ -6068,13 +6038,13 @@
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="17" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="M79" s="17" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
@@ -6224,13 +6194,13 @@
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="17" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="M84" s="17" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
@@ -6294,7 +6264,7 @@
         <v>204</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>43</v>
@@ -6334,7 +6304,7 @@
         <v>205</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>43</v>
@@ -6374,7 +6344,7 @@
         <v>206</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>43</v>
@@ -6414,7 +6384,7 @@
         <v>208</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>58</v>
@@ -6454,7 +6424,7 @@
         <v>209</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>58</v>
@@ -6738,7 +6708,7 @@
     <row r="103" spans="1:16">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
+      <c r="C103" s="10"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
@@ -7018,13 +6988,13 @@
         <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="D15" t="s">
         <v>322</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7049,7 +7019,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="C17" t="s">
         <v>266</v>
@@ -7058,7 +7028,7 @@
         <v>279</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7176,8 +7146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7250,7 +7220,7 @@
         <v>234</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>236</v>
@@ -7267,7 +7237,7 @@
         <v>270</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>271</v>
@@ -7284,7 +7254,7 @@
         <v>273</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>274</v>
@@ -7301,7 +7271,7 @@
         <v>275</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>276</v>
@@ -7318,7 +7288,7 @@
         <v>278</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>280</v>
@@ -7335,7 +7305,7 @@
         <v>282</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>283</v>
@@ -7352,7 +7322,7 @@
         <v>285</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>286</v>
@@ -7369,7 +7339,7 @@
         <v>287</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>288</v>
@@ -7386,7 +7356,7 @@
         <v>289</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>290</v>
@@ -7397,16 +7367,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7414,16 +7384,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7431,16 +7401,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7460,7 +7430,7 @@
         <v>292</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>293</v>
@@ -7477,7 +7447,7 @@
         <v>295</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>296</v>
@@ -7488,16 +7458,16 @@
         <v>103</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>297</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7511,7 +7481,7 @@
         <v>299</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>300</v>
@@ -7528,7 +7498,7 @@
         <v>302</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>303</v>
@@ -7545,7 +7515,7 @@
         <v>305</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>306</v>
@@ -7556,16 +7526,16 @@
         <v>107</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7573,16 +7543,16 @@
         <v>108</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="497">
   <si>
     <t>技能ID</t>
   </si>
@@ -2458,12 +2458,36 @@
   <si>
     <t xml:space="preserve">对麻痹状态的敌人使用，能够极大地击退敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
   </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>asIcon</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含图标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2588,6 +2612,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2647,7 +2678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2749,6 +2780,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3030,7 +3064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3547,7 +3581,7 @@
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
     </row>
-    <row r="12" spans="1:16" ht="27">
+    <row r="12" spans="1:16">
       <c r="A12" s="24">
         <v>1202</v>
       </c>
@@ -4147,7 +4181,7 @@
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="1:16" ht="40.5">
+    <row r="26" spans="1:16" ht="27">
       <c r="A26" s="10">
         <v>1403</v>
       </c>
@@ -6728,10 +6762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6742,7 +6776,7 @@
     <col min="5" max="6" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>226</v>
       </c>
@@ -6758,8 +6792,11 @@
       <c r="E1" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="34" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -6775,8 +6812,11 @@
       <c r="E2" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="34" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -6792,8 +6832,11 @@
       <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -6809,8 +6852,11 @@
       <c r="E4" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6826,8 +6872,11 @@
       <c r="E5" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
+      <c r="F5" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -6843,8 +6892,11 @@
       <c r="E6" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
+      <c r="F6" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -6860,8 +6912,11 @@
       <c r="E7" s="6" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -6877,8 +6932,11 @@
       <c r="E8" s="19" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6894,8 +6952,11 @@
       <c r="E9" s="20" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6911,8 +6972,11 @@
       <c r="E10" s="20" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>7</v>
       </c>
@@ -6928,8 +6992,11 @@
       <c r="E11" s="20" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6945,8 +7012,11 @@
       <c r="E12" s="20" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6962,8 +7032,11 @@
       <c r="E13" s="18" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>10</v>
       </c>
@@ -6979,8 +7052,11 @@
       <c r="E14" s="18" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>11</v>
       </c>
@@ -6996,8 +7072,11 @@
       <c r="E15" s="20" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7013,8 +7092,11 @@
       <c r="E16" s="19" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>13</v>
       </c>
@@ -7030,8 +7112,11 @@
       <c r="E17" s="32" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>14</v>
       </c>
@@ -7047,14 +7132,17 @@
       <c r="E18" s="19" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>101</v>
       </c>
@@ -7062,7 +7150,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>102</v>
       </c>
@@ -7070,7 +7158,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>103</v>
       </c>
@@ -7078,7 +7166,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>104</v>
       </c>
@@ -7086,7 +7174,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>105</v>
       </c>
@@ -7094,7 +7182,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>106</v>
       </c>
@@ -7102,7 +7190,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>107</v>
       </c>
@@ -7110,7 +7198,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>201</v>
       </c>
@@ -7118,7 +7206,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>202</v>
       </c>
@@ -7126,7 +7214,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>203</v>
       </c>
@@ -7137,7 +7225,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -2463,23 +2463,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>asIcon</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含图标</t>
+    <t>bornBuff</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生BUFF</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2678,7 +2666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2783,6 +2771,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6765,7 +6759,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6852,8 +6846,8 @@
       <c r="E4" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
+      <c r="F4" s="35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6872,8 +6866,8 @@
       <c r="E5" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="6" t="b">
-        <v>0</v>
+      <c r="F5" s="36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
@@ -6892,8 +6886,8 @@
       <c r="E6" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="6" t="b">
-        <v>1</v>
+      <c r="F6" s="36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
@@ -6912,8 +6906,8 @@
       <c r="E7" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="6" t="b">
-        <v>0</v>
+      <c r="F7" s="36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6932,8 +6926,8 @@
       <c r="E8" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="6" t="b">
-        <v>1</v>
+      <c r="F8" s="36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6952,8 +6946,8 @@
       <c r="E9" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="F9" s="6" t="b">
-        <v>1</v>
+      <c r="F9" s="36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6972,8 +6966,8 @@
       <c r="E10" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="F10" s="6" t="b">
-        <v>1</v>
+      <c r="F10" s="36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6992,8 +6986,8 @@
       <c r="E11" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="F11" s="6" t="b">
-        <v>0</v>
+      <c r="F11" s="36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7012,8 +7006,8 @@
       <c r="E12" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="6" t="b">
-        <v>0</v>
+      <c r="F12" s="36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7032,8 +7026,8 @@
       <c r="E13" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="6" t="b">
-        <v>0</v>
+      <c r="F13" s="36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7052,8 +7046,8 @@
       <c r="E14" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="6" t="b">
-        <v>0</v>
+      <c r="F14" s="36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7072,8 +7066,8 @@
       <c r="E15" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="F15" s="6" t="b">
-        <v>1</v>
+      <c r="F15" s="36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7092,8 +7086,8 @@
       <c r="E16" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="F16" s="6" t="b">
-        <v>1</v>
+      <c r="F16" s="36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7112,8 +7106,8 @@
       <c r="E17" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="F17" s="6" t="b">
-        <v>0</v>
+      <c r="F17" s="36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7132,8 +7126,8 @@
       <c r="E18" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="F18" s="6" t="b">
-        <v>0</v>
+      <c r="F18" s="36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="501">
   <si>
     <t>技能ID</t>
   </si>
@@ -2468,6 +2468,22 @@
   </si>
   <si>
     <t>天生BUFF</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视守护状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视守护对象强制命中目标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreGuard</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -6758,7 +6774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -7226,10 +7242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7637,6 +7653,23 @@
         <v>447</v>
       </c>
     </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>109</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="512">
   <si>
     <t>技能ID</t>
   </si>
@@ -164,9 +164,6 @@
     <t>冰霜突刺</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>拔刀术·十字斩</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -546,9 +540,6 @@
   </si>
   <si>
     <t>召唤天雷攻击对手全体，可能造成麻痹。</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>2204</t>
@@ -752,9 +743,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>不死</t>
-  </si>
-  <si>
     <t>无论如何也不会死亡</t>
   </si>
   <si>
@@ -767,13 +755,180 @@
     <t>流血</t>
   </si>
   <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Bleed</t>
+  </si>
+  <si>
+    <t>气虚</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>生命值减少最大生命值的</t>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rozen</t>
+    </r>
+  </si>
+  <si>
+    <t>Burnt</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>麻痹</t>
+  </si>
+  <si>
+    <t>击倒</t>
+  </si>
+  <si>
+    <t>Knockout</t>
+  </si>
+  <si>
+    <t>狂乱</t>
+  </si>
+  <si>
+    <t>Bezerk</t>
+  </si>
+  <si>
+    <t>失魂</t>
+  </si>
+  <si>
+    <t>Insane</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>造成的伤害100%反噬给自己</t>
+  </si>
+  <si>
+    <t>effectString</t>
+  </si>
+  <si>
+    <t>EFFECTTRIGGER</t>
+  </si>
+  <si>
+    <t>切换攻击</t>
+  </si>
+  <si>
+    <t>以切换后的武器发动轻攻击一次</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>witchAttack</t>
+    </r>
+  </si>
+  <si>
+    <t>瞬杀</t>
+  </si>
+  <si>
+    <t>伤害强制更改为对象当前HP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nstantKill</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若敌人处于前摇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或后摇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时则强制命中，否则强制不中</t>
+    </r>
+  </si>
+  <si>
+    <t>BackStab</t>
+  </si>
+  <si>
+    <t>投掷</t>
+  </si>
+  <si>
+    <t>当前装备武器变为空手</t>
+  </si>
+  <si>
+    <t>AfterDamage</t>
+  </si>
+  <si>
+    <t>Throw</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吸取伤害的</t>
     </r>
     <r>
       <rPr>
@@ -781,26 +936,31 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>5%</t>
-    </r>
-  </si>
-  <si>
-    <t>Ready</t>
-  </si>
-  <si>
-    <t>Bleed</t>
-  </si>
-  <si>
-    <t>气虚</t>
-  </si>
-  <si>
+      <t>10%</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>最大生命值降低</t>
+      <t>回复到自己生命</t>
+    </r>
+  </si>
+  <si>
+    <t>AbsorbDamage</t>
+  </si>
+  <si>
+    <t>兽类杀手</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若对象带有</t>
     </r>
     <r>
       <rPr>
@@ -808,190 +968,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>50%</t>
-    </r>
-  </si>
-  <si>
-    <t>Weak</t>
-  </si>
-  <si>
-    <t>冰冻</t>
-  </si>
-  <si>
-    <t>时间轴上停止5秒</t>
-  </si>
-  <si>
+      <t>“</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rozen</t>
-    </r>
-  </si>
-  <si>
-    <t>烧伤</t>
-  </si>
-  <si>
-    <t>Burnt</t>
-  </si>
-  <si>
-    <t>中毒</t>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>麻痹</t>
-  </si>
-  <si>
-    <t>击倒</t>
-  </si>
-  <si>
-    <t>回到时间轴0点，并且容易被暴击</t>
-  </si>
-  <si>
-    <t>Knockout</t>
-  </si>
-  <si>
-    <t>狂乱</t>
-  </si>
-  <si>
-    <t>攻击力上升，但行动不受限制且可能攻击友方</t>
-  </si>
-  <si>
-    <t>Bezerk</t>
-  </si>
-  <si>
-    <t>失魂</t>
-  </si>
-  <si>
-    <t>只能选择[跳过]</t>
-  </si>
-  <si>
-    <t>Insane</t>
-  </si>
-  <si>
-    <t>祝福</t>
-  </si>
-  <si>
-    <t>造成的伤害100%反噬给自己</t>
-  </si>
-  <si>
-    <t>effectString</t>
-  </si>
-  <si>
-    <t>EFFECTTRIGGER</t>
-  </si>
-  <si>
-    <t>切换攻击</t>
-  </si>
-  <si>
-    <t>以切换后的武器发动轻攻击一次</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>witchAttack</t>
-    </r>
-  </si>
-  <si>
-    <t>瞬杀</t>
-  </si>
-  <si>
-    <t>伤害强制更改为对象当前HP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nstantKill</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若敌人处于前摇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或后摇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时则强制命中，否则强制不中</t>
-    </r>
-  </si>
-  <si>
-    <t>BackStab</t>
-  </si>
-  <si>
-    <t>投掷</t>
-  </si>
-  <si>
-    <t>当前装备武器变为空手</t>
-  </si>
-  <si>
-    <t>AfterDamage</t>
-  </si>
-  <si>
-    <t>Throw</t>
-  </si>
-  <si>
-    <t>吸血</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吸取伤害的</t>
+      <t>兽</t>
     </r>
     <r>
       <rPr>
@@ -999,7 +984,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>10%</t>
+      <t>”Tag</t>
     </r>
     <r>
       <rPr>
@@ -1007,23 +992,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>回复到自己生命</t>
-    </r>
-  </si>
-  <si>
-    <t>AbsorbDamage</t>
-  </si>
-  <si>
-    <t>兽类杀手</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若对象带有</t>
+      <t>，则伤害</t>
     </r>
     <r>
       <rPr>
@@ -1031,7 +1000,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>“</t>
+      <t xml:space="preserve"> + 25%</t>
     </r>
     <r>
       <rPr>
@@ -1039,7 +1008,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>兽</t>
+      <t>。若对象为灵气型，则伤害为</t>
     </r>
     <r>
       <rPr>
@@ -1047,15 +1016,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>”Tag</t>
-    </r>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>BeastKiller</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>，则伤害</t>
+      <t>该回合伤害将敌方</t>
     </r>
     <r>
       <rPr>
@@ -1063,7 +1037,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> + 25%</t>
+      <t>HP</t>
     </r>
     <r>
       <rPr>
@@ -1071,7 +1045,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>。若对象为灵气型，则伤害为</t>
+      <t>置为自身</t>
     </r>
     <r>
       <rPr>
@@ -1079,11 +1053,11 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>BeastKiller</t>
+      <t xml:space="preserve"> + 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Sanction</t>
   </si>
   <si>
     <r>
@@ -1092,7 +1066,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>该回合伤害将敌方</t>
+      <t>若对方</t>
     </r>
     <r>
       <rPr>
@@ -1108,7 +1082,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>置为自身</t>
+      <t>低于自己则有</t>
     </r>
     <r>
       <rPr>
@@ -1116,20 +1090,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> + 1</t>
-    </r>
-  </si>
-  <si>
-    <t>Sanction</t>
-  </si>
-  <si>
+      <t>50%</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>若对方</t>
+      <t>几率秒杀敌人，否则有</t>
     </r>
     <r>
       <rPr>
@@ -1137,7 +1106,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>HP</t>
+      <t>50%</t>
     </r>
     <r>
       <rPr>
@@ -1145,212 +1114,313 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>低于自己则有</t>
+      <t>几率伤害自己。</t>
+    </r>
+  </si>
+  <si>
+    <t>DevilHit</t>
+  </si>
+  <si>
+    <t>必中</t>
+  </si>
+  <si>
+    <t>强制命中</t>
+  </si>
+  <si>
+    <t>ForceHit</t>
+  </si>
+  <si>
+    <t>必暴击</t>
+  </si>
+  <si>
+    <t>若对方未格挡，则强制暴击</t>
+  </si>
+  <si>
+    <t>ForceCrit</t>
+  </si>
+  <si>
+    <t>无视对方的防御状态。命中率与伤害值照常计算</t>
+  </si>
+  <si>
+    <t>三连击</t>
+  </si>
+  <si>
+    <t>追加2次伤害结算</t>
+  </si>
+  <si>
+    <t>Combo3</t>
+  </si>
+  <si>
+    <t>二连击</t>
+  </si>
+  <si>
+    <t>追加1次伤害结算</t>
+  </si>
+  <si>
+    <t>Combo2</t>
+  </si>
+  <si>
+    <t>必打断</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>若对方在出招状态，攻击一定能将对方打断</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceInterrupt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气循环</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气共鸣</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵之幻境</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>月之领域</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日之领域</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵力解放</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘术光环：自身所有攻击变为全体攻击并能够击倒对手。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘术光环：极大地增强法术威力和吟唱速度，但同时提高消耗。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气偷取</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗月魔影</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>激昂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻防速上升20%</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50%</t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xcited</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气过载</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>光辉灵盾</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behit</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paralized</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被击退</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸体</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>几率秒杀敌人，否则有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>几率伤害自己。</t>
-    </r>
-  </si>
-  <si>
-    <t>DevilHit</t>
-  </si>
-  <si>
-    <t>必中</t>
-  </si>
-  <si>
-    <t>强制命中</t>
-  </si>
-  <si>
-    <t>ForceHit</t>
-  </si>
-  <si>
-    <t>必暴击</t>
-  </si>
-  <si>
-    <t>若对方未格挡，则强制暴击</t>
-  </si>
-  <si>
-    <t>ForceCrit</t>
-  </si>
-  <si>
-    <t>无视对方的防御状态。命中率与伤害值照常计算</t>
-  </si>
-  <si>
-    <t>三连击</t>
-  </si>
-  <si>
-    <t>追加2次伤害结算</t>
-  </si>
-  <si>
-    <t>Combo3</t>
-  </si>
-  <si>
-    <t>二连击</t>
-  </si>
-  <si>
-    <t>追加1次伤害结算</t>
-  </si>
-  <si>
-    <t>Combo2</t>
-  </si>
-  <si>
-    <t>必打断</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>若对方在出招状态，攻击一定能将对方打断</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceInterrupt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵气循环</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵气共鸣</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵之幻境</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>月之领域</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>日之领域</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵力解放</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘术光环：自身所有攻击变为全体攻击并能够击倒对手。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘术光环：极大地增强法术威力和吟唱速度，但同时提高消耗。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵气偷取</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗月魔影</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>激昂</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻防速上升20%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>xcited</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵气过载</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>光辉灵盾</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Behit</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中回避暴击抗暴下降</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>逐渐流失生命</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻防下降50%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paralized</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>ndure</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨兽之牙轻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨兽之牙重击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣盾之环轻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣盾之环重击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>架起盾，能够抵挡近战攻击并使敌人进入麻痹状态。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash</t>
+  </si>
+  <si>
+    <t>绝技：背刺</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thrust</t>
+  </si>
+  <si>
+    <t>绝技：毁灭投掷</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方防御力视为0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lunt</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1361,161 +1431,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被击退</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸体</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ndure</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨兽之牙轻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨兽之牙重击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣盾之环轻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣盾之环重击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>架起盾，能够抵挡近战攻击并使敌人进入麻痹状态。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slash</t>
-  </si>
-  <si>
-    <t>绝技：背刺</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thrust</t>
-  </si>
-  <si>
-    <t>绝技：毁灭投掷</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方防御力视为0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>lunt</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
+      <t>03</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1531,8 +1448,249 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>03</t>
-    </r>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>切开自己的身体，进入流血状态。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：石破天惊</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：次元斩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：制裁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>制裁对手，但手下留情。效果与双方的实力差距有关。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重武系轻攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重武系重攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：厄运一击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：疯狂一击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：开天辟地</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lunt</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：三连火焰矢</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技：连续狙击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>506</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>507</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒弹</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂乱弹</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>one</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thrust</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,102,107</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视防御状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreDefence</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreArmor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1553,48 +1711,24 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>切开自己的身体，进入流血状态。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝技：石破天惊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝技：次元斩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝技：制裁</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>制裁对手，但手下留情。效果与双方的实力差距有关。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>重武系轻攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>重武系重攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝技：厄运一击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝技：疯狂一击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝技：开天辟地</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
+    <t>Blessed</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全抵御下次伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1603,16 +1737,35 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>lunt</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝技：三连火焰矢</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝技：连续狙击</t>
+      <t>.5</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1626,8 +1779,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>506</t>
-    </r>
+      <t>.5</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1641,21 +1798,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>507</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒弹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂乱弹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0.</t>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1664,7 +1817,190 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>5</t>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01,102</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00,100</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定比例伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ixedDamage</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定对敌方造成10%（BOSS减半）伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱决定伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据当前我方金钱决定伤害值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oneyDamage</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机附加BUFF</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>随机为目标附加B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UFF</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1673,67 +2009,18 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>one</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slash</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thrust</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,100,100</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,102,107</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>无视防御状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
+      <t>0</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1756,49 +2043,39 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
+    <t>5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>IgnoreDefence</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>破甲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>IgnoreArmor</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
+        <color rgb="FF9C6500"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ddRandomBuff</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>十连击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加9次伤害结算，但未命中时停止</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combo10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1819,61 +2096,41 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Blessed</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全抵御下次伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+    <t>绝技：冰皇之怒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>.5</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>.5</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1883,20 +2140,289 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>.5</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cursed</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Afte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rHit</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>witchWeapon</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">快速冲到对方面前挥出一击,造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用尽全力向对方刺去,造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">隐藏杀气，悄悄绕到未察觉的敌人背后进行攻击。成功后造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">将钩爪向敌人投掷出去，会暂时失去武器。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">附带冰霜之力的三连击，有机会将敌人冰冻。每一击造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">连续向敌人突刺多次，直到未命中为止。每一击造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">拔刀向敌人头顶竖直砍去,造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">拔刀横扫敌人,造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">将两把刀同时拔出的一闪攻击，容易使目标流血。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">拔刀横扫全部敌人,造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">瞬间拔刀将敌人斩杀的居合攻击。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">为了满足渴求血液的自身，让全体敌人血债血偿。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">单手持剑，刺向敌人，造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">双手持剑，砍向敌人，造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">麓元自己研习的招式，威力虽大却极耗体力。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">以肉眼看不见的速度斩向全部敌人，容易使目标气虚。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">斩出一道剑气伤害敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">横向挥舞的斩击，造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳起在空中大力劈下，造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">借助恶魔力量的一击，攻击力很高，但也存在着反噬自己的可能。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">无视敌我攻击战场上全部单位的强力一击。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">威震八方的一击，大几率将对方击倒。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">射出一箭，刺穿敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蓄力射击，瞄准时间长，但几乎必中。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">利用弓的刃部发起攻击，不消耗弹药。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">利用弓箭的火之力点燃三发箭矢同时击出，可能点燃敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">将当前弹药库存全部射出依次攻击全部敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">击中后释放毒气，虽然威力很弱，但可能令敌方中毒。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">击中后释放迷烟，虽然威力很弱，但可能令敌方狂乱。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用兽牙尖利的一面刺向敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">将兽牙像大锤一样轮向敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">将兽牙抡向地面发出震荡波，震慑全体。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">掷出环，附带的雷属性效果有几率让敌人进入麻痹状态。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">对麻痹状态的敌人使用，能够极大地击退敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bornBuff</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生BUFF</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视守护状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视守护对象强制命中目标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreGuard</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气之身</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器狂人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ready</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoStrategy</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能使用防御和策略</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合流失最大生命值的5%</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>灵气值上限下降5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0%</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼伤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[木]每回合逐渐流失生命</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力上升，但行动不受限制且可能攻击友方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能选择[跳过]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[金]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中、回避、暴击、抗暴下降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25%</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[水]5秒钟行动</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[火]攻击、防御下降50%</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[土]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新开始回合，且容易受到暴击</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1906,16 +2432,14 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1925,16 +2449,14 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1944,299 +2466,48 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>01,102</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>00,100</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定比例伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ixedDamage</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定对敌方造成10%（BOSS减半）伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱决定伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据当前我方金钱决定伤害值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>oneyDamage</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机附加BUFF</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>随机为目标附加B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>UFF</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.5</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF9C6500"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ddRandomBuff</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>十连击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>追加9次伤害结算，但未命中时停止</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combo10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
+      <t>13</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2252,28 +2523,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝技：冰皇之怒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>02</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
+      </rPr>
+      <t>06</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2284,11 +2549,51 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>05</t>
     </r>
@@ -2301,189 +2606,69 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cursed</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>诅咒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnHit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Afte</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>rHit</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnHit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>witchWeapon</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">快速冲到对方面前挥出一击,造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">用尽全力向对方刺去,造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">隐藏杀气，悄悄绕到未察觉的敌人背后进行攻击。成功后造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">将钩爪向敌人投掷出去，会暂时失去武器。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">附带冰霜之力的三连击，有机会将敌人冰冻。每一击造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">连续向敌人突刺多次，直到未命中为止。每一击造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">拔刀向敌人头顶竖直砍去,造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">拔刀横扫敌人,造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">将两把刀同时拔出的一闪攻击，容易使目标流血。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">拔刀横扫全部敌人,造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">瞬间拔刀将敌人斩杀的居合攻击。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">为了满足渴求血液的自身，让全体敌人血债血偿。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">单手持剑，刺向敌人，造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">双手持剑，砍向敌人，造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">麓元自己研习的招式，威力虽大却极耗体力。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">以肉眼看不见的速度斩向全部敌人，容易使目标气虚。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">斩出一道剑气伤害敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">横向挥舞的斩击，造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳起在空中大力劈下，造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">借助恶魔力量的一击，攻击力很高，但也存在着反噬自己的可能。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">无视敌我攻击战场上全部单位的强力一击。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">威震八方的一击，大几率将对方击倒。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">射出一箭，刺穿敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">蓄力射击，瞄准时间长，但几乎必中。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">利用弓的刃部发起攻击，不消耗弹药。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">利用弓箭的火之力点燃三发箭矢同时击出，可能点燃敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">将当前弹药库存全部射出依次攻击全部敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">击中后释放毒气，虽然威力很弱，但可能令敌方中毒。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">击中后释放迷烟，虽然威力很弱，但可能令敌方狂乱。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">用兽牙尖利的一面刺向敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">将兽牙像大锤一样轮向敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">将兽牙抡向地面发出震荡波，震慑全体。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">掷出环，附带的雷属性效果有几率让敌人进入麻痹状态。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">对麻痹状态的敌人使用，能够极大地击退敌人。造成攻击力{0}的伤害和{1}的击退效果。 </t>
-  </si>
-  <si>
-    <t>BOOL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>bornBuff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生BUFF</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>无视守护状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>无视守护对象强制命中目标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnHit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>IgnoreGuard</t>
+      <t>04</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2491,7 +2676,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2623,6 +2808,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2682,7 +2875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2793,6 +2986,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3074,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3260,7 +3456,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>40</v>
@@ -3297,10 +3493,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>43</v>
@@ -3337,10 +3533,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>43</v>
@@ -3374,13 +3570,13 @@
         <v>1103</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>43</v>
@@ -3418,13 +3614,13 @@
         <v>1104</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
@@ -3451,10 +3647,10 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="21" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="27">
@@ -3465,10 +3661,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>43</v>
@@ -3491,20 +3687,20 @@
       <c r="K9" s="10">
         <v>2</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>47</v>
+      <c r="L9" s="21" t="s">
+        <v>492</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="N9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="27">
@@ -3512,13 +3708,13 @@
         <v>1106</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>43</v>
@@ -3539,16 +3735,16 @@
         <v>0.2</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="27">
@@ -3556,13 +3752,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>43</v>
@@ -3596,13 +3792,13 @@
         <v>1202</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>43</v>
@@ -3623,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
@@ -3636,13 +3832,13 @@
         <v>1203</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>43</v>
@@ -3663,22 +3859,22 @@
         <v>1</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>55</v>
+        <v>388</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>493</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="27">
@@ -3686,16 +3882,16 @@
         <v>1204</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="10">
         <v>1.2</v>
@@ -3713,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -3726,13 +3922,13 @@
         <v>1205</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>43</v>
@@ -3753,16 +3949,16 @@
         <v>0.3</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="21" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3770,13 +3966,13 @@
         <v>1206</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>40</v>
@@ -3799,14 +3995,14 @@
       <c r="K16" s="10">
         <v>0</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>55</v>
+      <c r="L16" s="21" t="s">
+        <v>494</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -3816,16 +4012,16 @@
         <v>1207</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="10">
         <v>1.6</v>
@@ -3843,16 +4039,16 @@
         <v>0.7</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="27">
@@ -3860,13 +4056,13 @@
         <v>1301</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>43</v>
@@ -3900,13 +4096,13 @@
         <v>1302</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>43</v>
@@ -3927,7 +4123,7 @@
         <v>0.5</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -3940,13 +4136,13 @@
         <v>1303</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>43</v>
@@ -3967,16 +4163,16 @@
         <v>0.3</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>334</v>
+        <v>391</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>318</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -3986,16 +4182,16 @@
         <v>1304</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="10">
         <v>0.7</v>
@@ -4013,16 +4209,16 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>65</v>
+        <v>386</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>497</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
@@ -4032,13 +4228,13 @@
         <v>1305</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>43</v>
@@ -4059,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
@@ -4072,13 +4268,13 @@
         <v>1306</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>43</v>
@@ -4105,10 +4301,10 @@
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="27">
@@ -4116,13 +4312,13 @@
         <v>1401</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>43</v>
@@ -4143,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -4156,13 +4352,13 @@
         <v>1402</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>43</v>
@@ -4183,7 +4379,7 @@
         <v>0.7</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
@@ -4196,13 +4392,13 @@
         <v>1403</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>43</v>
@@ -4223,16 +4419,16 @@
         <v>1</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="27">
@@ -4240,16 +4436,16 @@
         <v>1404</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F27" s="10">
         <v>2</v>
@@ -4267,16 +4463,16 @@
         <v>1</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="27">
@@ -4284,16 +4480,16 @@
         <v>1405</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F28" s="10">
         <v>0.8</v>
@@ -4314,13 +4510,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -4330,13 +4526,13 @@
         <v>1501</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>43</v>
@@ -4370,13 +4566,13 @@
         <v>1502</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>43</v>
@@ -4397,16 +4593,16 @@
         <v>0.8</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
       <c r="O30" s="24" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="27">
@@ -4414,13 +4610,13 @@
         <v>1503</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>43</v>
@@ -4447,10 +4643,10 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="27">
@@ -4458,13 +4654,13 @@
         <v>1504</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>43</v>
@@ -4487,20 +4683,20 @@
       <c r="K32" s="10">
         <v>1</v>
       </c>
-      <c r="L32" s="10" t="s">
-        <v>56</v>
+      <c r="L32" s="17" t="s">
+        <v>498</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O32" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="27">
@@ -4508,13 +4704,13 @@
         <v>1505</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>43</v>
@@ -4545,71 +4741,71 @@
     </row>
     <row r="34" spans="1:16" ht="27">
       <c r="A34" s="17" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>391</v>
+        <v>363</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>499</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="27">
       <c r="A35" s="17" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="H35" s="10">
         <v>1</v>
@@ -4618,19 +4814,19 @@
         <v>1</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -4658,16 +4854,16 @@
         <v>1601</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F37" s="10">
         <v>1</v>
@@ -4698,34 +4894,34 @@
         <v>1602</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -4738,43 +4934,43 @@
         <v>1603</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="K39" s="10">
         <v>1</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
@@ -4784,13 +4980,13 @@
         <v>1604</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>43</v>
@@ -4813,14 +5009,14 @@
       <c r="K40" s="10">
         <v>1</v>
       </c>
-      <c r="L40" s="10" t="s">
-        <v>413</v>
+      <c r="L40" s="17" t="s">
+        <v>502</v>
       </c>
       <c r="M40" s="17" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -4830,13 +5026,13 @@
         <v>1605</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>40</v>
@@ -4860,13 +5056,13 @@
         <v>0</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>413</v>
+        <v>503</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -4876,13 +5072,13 @@
         <v>1606</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>43</v>
@@ -4903,16 +5099,16 @@
         <v>0.5</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="17" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -4920,13 +5116,13 @@
         <v>1607</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>43</v>
@@ -4953,10 +5149,10 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="17" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -4964,16 +5160,16 @@
         <v>1608</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F44" s="10">
         <v>1</v>
@@ -4997,10 +5193,10 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="17" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -5008,16 +5204,16 @@
         <v>1609</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F45" s="10">
         <v>1</v>
@@ -5041,10 +5237,10 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="17" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -5067,16 +5263,16 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>43</v>
@@ -5086,7 +5282,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -5097,16 +5293,16 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="D48" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>43</v>
@@ -5116,7 +5312,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -5127,26 +5323,26 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="D49" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -5157,26 +5353,26 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="D50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -5187,16 +5383,16 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="D51" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>40</v>
@@ -5206,7 +5402,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -5217,16 +5413,16 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>105</v>
-      </c>
       <c r="D52" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>43</v>
@@ -5236,7 +5432,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -5247,26 +5443,26 @@
     </row>
     <row r="53" spans="1:16" ht="27">
       <c r="A53" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="D53" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -5277,26 +5473,26 @@
     </row>
     <row r="54" spans="1:16" ht="27">
       <c r="A54" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="D54" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -5307,26 +5503,26 @@
     </row>
     <row r="55" spans="1:16" ht="27">
       <c r="A55" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="D55" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -5337,26 +5533,26 @@
     </row>
     <row r="56" spans="1:16" ht="27">
       <c r="A56" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="D56" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
@@ -5367,16 +5563,16 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="D57" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>43</v>
@@ -5386,7 +5582,7 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -5397,26 +5593,26 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>125</v>
-      </c>
       <c r="D58" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
@@ -5427,16 +5623,16 @@
     </row>
     <row r="59" spans="1:16" ht="27">
       <c r="A59" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>40</v>
@@ -5446,7 +5642,7 @@
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
@@ -5475,16 +5671,16 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="D61" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>43</v>
@@ -5494,33 +5690,33 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K61" s="10"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="M61" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M61" s="10" t="s">
+      <c r="N61" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="N61" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="D62" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>43</v>
@@ -5530,67 +5726,67 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K62" s="10"/>
-      <c r="L62" s="10" t="s">
-        <v>47</v>
+      <c r="L62" s="17" t="s">
+        <v>504</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="D63" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P63" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="D64" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>43</v>
@@ -5600,103 +5796,103 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P64" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="D65" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="17" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="K65" s="10"/>
-      <c r="L65" s="10" t="s">
-        <v>62</v>
+      <c r="L65" s="17" t="s">
+        <v>506</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
     <row r="66" spans="1:16" ht="27">
       <c r="A66" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="D66" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K66" s="10"/>
-      <c r="L66" s="10" t="s">
-        <v>47</v>
+      <c r="L66" s="17" t="s">
+        <v>505</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="D67" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>43</v>
@@ -5706,43 +5902,43 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="17" t="s">
-        <v>437</v>
+        <v>507</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="27">
       <c r="A68" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B68" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="D68" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
@@ -5753,26 +5949,26 @@
     </row>
     <row r="69" spans="1:16" ht="27">
       <c r="A69" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>156</v>
-      </c>
       <c r="D69" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -5783,16 +5979,16 @@
     </row>
     <row r="70" spans="1:16" ht="27">
       <c r="A70" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>159</v>
-      </c>
       <c r="D70" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>43</v>
@@ -5802,7 +5998,7 @@
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
@@ -5813,16 +6009,16 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="D71" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>43</v>
@@ -5832,7 +6028,7 @@
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
@@ -5843,16 +6039,16 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>40</v>
@@ -5862,7 +6058,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
@@ -5891,16 +6087,16 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="D74" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>43</v>
@@ -5910,33 +6106,33 @@
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K74" s="10"/>
-      <c r="L74" s="10" t="s">
-        <v>56</v>
+      <c r="L74" s="17" t="s">
+        <v>508</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>171</v>
-      </c>
       <c r="D75" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>43</v>
@@ -5946,79 +6142,79 @@
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K75" s="10"/>
-      <c r="L75" s="10" t="s">
-        <v>56</v>
+      <c r="L75" s="17" t="s">
+        <v>498</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="D76" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K76" s="10"/>
-      <c r="L76" s="10" t="s">
-        <v>175</v>
+      <c r="L76" s="17" t="s">
+        <v>509</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="17" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -6029,26 +6225,26 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="17" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="17"/>
@@ -6059,52 +6255,52 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="17" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="17" t="s">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="M79" s="17" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>43</v>
@@ -6114,7 +6310,7 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="17"/>
@@ -6125,26 +6321,26 @@
     </row>
     <row r="81" spans="1:16" ht="27">
       <c r="A81" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="17" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -6155,26 +6351,26 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -6185,16 +6381,16 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>40</v>
@@ -6204,7 +6400,7 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -6215,16 +6411,16 @@
     </row>
     <row r="84" spans="1:16" ht="27">
       <c r="A84" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>43</v>
@@ -6234,33 +6430,33 @@
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K84" s="10"/>
-      <c r="L84" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="M84" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="N84" s="17" t="s">
-        <v>443</v>
+      <c r="L84" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="M84" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="N84" s="37" t="s">
+        <v>419</v>
       </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="28.5">
       <c r="A85" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>40</v>
@@ -6270,7 +6466,7 @@
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
@@ -6302,13 +6498,13 @@
         <v>3001</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>43</v>
@@ -6342,13 +6538,13 @@
         <v>3002</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>43</v>
@@ -6382,13 +6578,13 @@
         <v>3003</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>43</v>
@@ -6422,16 +6618,16 @@
         <v>3004</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F90" s="10">
         <v>1</v>
@@ -6462,16 +6658,16 @@
         <v>4001</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F91" s="10">
         <v>1</v>
@@ -6502,7 +6698,7 @@
         <v>3005</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -6524,7 +6720,7 @@
         <v>3006</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -6546,7 +6742,7 @@
         <v>3007</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -6568,7 +6764,7 @@
         <v>4005</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -6590,7 +6786,7 @@
         <v>4006</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -6612,7 +6808,7 @@
         <v>3008</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -6634,10 +6830,10 @@
         <v>4007</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -6658,10 +6854,10 @@
         <v>3009</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
@@ -6682,10 +6878,10 @@
         <v>3010</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
@@ -6706,10 +6902,10 @@
         <v>3011</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
@@ -6730,10 +6926,10 @@
         <v>4008</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -6772,10 +6968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6788,22 +6984,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="F1" s="34" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6817,13 +7013,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6837,13 +7033,13 @@
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6854,13 +7050,13 @@
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F4" s="35" t="b">
         <v>1</v>
@@ -6870,197 +7066,184 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>237</v>
+      <c r="B5" s="16" t="s">
+        <v>477</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F5" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="6">
+    <row r="6" spans="1:6">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>242</v>
+      <c r="B6" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>481</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>243</v>
+        <v>479</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>244</v>
+        <v>480</v>
       </c>
       <c r="F6" s="36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="36" t="b">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>249</v>
+        <v>237</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>482</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>250</v>
+        <v>238</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="F8" s="36" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
-        <v>5</v>
+      <c r="A9" s="6">
+        <v>102</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>330</v>
+        <v>240</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>483</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>252</v>
+        <v>232</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="F9" s="36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>329</v>
+        <v>247</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>488</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="F10" s="36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>328</v>
+        <v>245</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>485</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="F11" s="36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>258</v>
+      <c r="A12" s="6">
+        <v>105</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="F12" s="36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>261</v>
+        <v>106</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="F13" s="36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" t="s">
-        <v>263</v>
+        <v>248</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>491</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>264</v>
+        <v>311</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="F14" s="36" t="b">
         <v>1</v>
@@ -7068,149 +7251,173 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" t="s">
-        <v>403</v>
+        <v>250</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>486</v>
       </c>
       <c r="D15" t="s">
-        <v>322</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>402</v>
+        <v>238</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="F15" s="36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>336</v>
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>252</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>335</v>
+        <v>487</v>
       </c>
       <c r="D16" t="s">
-        <v>322</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>337</v>
+        <v>238</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>253</v>
       </c>
       <c r="F16" s="36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>455</v>
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>254</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>384</v>
       </c>
       <c r="D17" t="s">
-        <v>279</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>454</v>
+        <v>311</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>383</v>
       </c>
       <c r="F17" s="36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>235</v>
+        <v>319</v>
+      </c>
+      <c r="D18" t="s">
+        <v>311</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F18" s="36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19">
+        <v>114</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="F19" s="36" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>307</v>
       </c>
+      <c r="D20" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="36" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21">
-        <v>102</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>308</v>
-      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>202</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>309</v>
@@ -7218,18 +7425,34 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>311</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>211</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>212</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7244,8 +7467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7258,19 +7481,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7284,10 +7507,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7301,7 +7524,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -7315,13 +7538,13 @@
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7329,16 +7552,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7346,16 +7569,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5">
@@ -7366,13 +7589,13 @@
         <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7380,16 +7603,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -7397,16 +7620,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5">
@@ -7414,16 +7637,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75">
@@ -7431,16 +7654,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5">
@@ -7448,16 +7671,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7465,16 +7688,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7482,16 +7705,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7499,16 +7722,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7522,16 +7745,16 @@
         <v>101</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7539,16 +7762,16 @@
         <v>102</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7556,16 +7779,16 @@
         <v>103</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7573,16 +7796,16 @@
         <v>104</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7590,16 +7813,16 @@
         <v>105</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.5">
@@ -7607,16 +7830,16 @@
         <v>106</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7624,16 +7847,16 @@
         <v>107</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7641,16 +7864,16 @@
         <v>108</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7658,16 +7881,16 @@
         <v>109</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -3270,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3971,8 +3971,8 @@
       <c r="C16" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>335</v>
+      <c r="D16" s="17" t="s">
+        <v>369</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>40</v>
@@ -4274,7 +4274,7 @@
         <v>348</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>43</v>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="517">
   <si>
     <t>技能ID</t>
   </si>
@@ -638,6 +638,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>并在光环取消时双倍返还给对手。</t>
@@ -770,459 +771,6 @@
     <t>冰冻</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rozen</t>
-    </r>
-  </si>
-  <si>
-    <t>Burnt</t>
-  </si>
-  <si>
-    <t>中毒</t>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>麻痹</t>
-  </si>
-  <si>
-    <t>击倒</t>
-  </si>
-  <si>
-    <t>Knockout</t>
-  </si>
-  <si>
-    <t>狂乱</t>
-  </si>
-  <si>
-    <t>Bezerk</t>
-  </si>
-  <si>
-    <t>失魂</t>
-  </si>
-  <si>
-    <t>Insane</t>
-  </si>
-  <si>
-    <t>祝福</t>
-  </si>
-  <si>
-    <t>造成的伤害100%反噬给自己</t>
-  </si>
-  <si>
-    <t>effectString</t>
-  </si>
-  <si>
-    <t>EFFECTTRIGGER</t>
-  </si>
-  <si>
-    <t>切换攻击</t>
-  </si>
-  <si>
-    <t>以切换后的武器发动轻攻击一次</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>witchAttack</t>
-    </r>
-  </si>
-  <si>
-    <t>瞬杀</t>
-  </si>
-  <si>
-    <t>伤害强制更改为对象当前HP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nstantKill</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若敌人处于前摇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或后摇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时则强制命中，否则强制不中</t>
-    </r>
-  </si>
-  <si>
-    <t>BackStab</t>
-  </si>
-  <si>
-    <t>投掷</t>
-  </si>
-  <si>
-    <t>当前装备武器变为空手</t>
-  </si>
-  <si>
-    <t>AfterDamage</t>
-  </si>
-  <si>
-    <t>Throw</t>
-  </si>
-  <si>
-    <t>吸血</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吸取伤害的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回复到自己生命</t>
-    </r>
-  </si>
-  <si>
-    <t>AbsorbDamage</t>
-  </si>
-  <si>
-    <t>兽类杀手</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若对象带有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”Tag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，则伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> + 25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。若对象为灵气型，则伤害为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>BeastKiller</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该回合伤害将敌方</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>置为自身</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> + 1</t>
-    </r>
-  </si>
-  <si>
-    <t>Sanction</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若对方</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>低于自己则有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>几率秒杀敌人，否则有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>几率伤害自己。</t>
-    </r>
-  </si>
-  <si>
-    <t>DevilHit</t>
-  </si>
-  <si>
-    <t>必中</t>
-  </si>
-  <si>
-    <t>强制命中</t>
-  </si>
-  <si>
-    <t>ForceHit</t>
-  </si>
-  <si>
-    <t>必暴击</t>
-  </si>
-  <si>
-    <t>若对方未格挡，则强制暴击</t>
-  </si>
-  <si>
-    <t>ForceCrit</t>
-  </si>
-  <si>
-    <t>无视对方的防御状态。命中率与伤害值照常计算</t>
-  </si>
-  <si>
-    <t>三连击</t>
-  </si>
-  <si>
-    <t>追加2次伤害结算</t>
-  </si>
-  <si>
-    <t>Combo3</t>
-  </si>
-  <si>
-    <t>二连击</t>
-  </si>
-  <si>
-    <t>追加1次伤害结算</t>
-  </si>
-  <si>
-    <t>Combo2</t>
-  </si>
-  <si>
-    <t>必打断</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>若对方在出招状态，攻击一定能将对方打断</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceInterrupt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵气循环</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵气共鸣</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵之幻境</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>月之领域</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>日之领域</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵力解放</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘术光环：自身所有攻击变为全体攻击并能够击倒对手。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘术光环：极大地增强法术威力和吟唱速度，但同时提高消耗。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵气偷取</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗月魔影</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>激昂</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻防速上升20%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1230,6 +778,480 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rozen</t>
+    </r>
+  </si>
+  <si>
+    <t>Burnt</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>麻痹</t>
+  </si>
+  <si>
+    <t>击倒</t>
+  </si>
+  <si>
+    <t>Knockout</t>
+  </si>
+  <si>
+    <t>狂乱</t>
+  </si>
+  <si>
+    <t>Bezerk</t>
+  </si>
+  <si>
+    <t>失魂</t>
+  </si>
+  <si>
+    <t>Insane</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>造成的伤害100%反噬给自己</t>
+  </si>
+  <si>
+    <t>effectString</t>
+  </si>
+  <si>
+    <t>EFFECTTRIGGER</t>
+  </si>
+  <si>
+    <t>切换攻击</t>
+  </si>
+  <si>
+    <t>以切换后的武器发动轻攻击一次</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>witchAttack</t>
+    </r>
+  </si>
+  <si>
+    <t>瞬杀</t>
+  </si>
+  <si>
+    <t>伤害强制更改为对象当前HP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nstantKill</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若敌人处于前摇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或后摇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时则强制命中，否则强制不中</t>
+    </r>
+  </si>
+  <si>
+    <t>BackStab</t>
+  </si>
+  <si>
+    <t>投掷</t>
+  </si>
+  <si>
+    <t>当前装备武器变为空手</t>
+  </si>
+  <si>
+    <t>AfterDamage</t>
+  </si>
+  <si>
+    <t>Throw</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吸取伤害的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回复到自己生命</t>
+    </r>
+  </si>
+  <si>
+    <t>AbsorbDamage</t>
+  </si>
+  <si>
+    <t>兽类杀手</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若对象带有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”Tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。若对象为灵气型，则伤害为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>BeastKiller</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该回合伤害将敌方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>置为自身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Sanction</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若对方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低于自己则有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率秒杀敌人，否则有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率伤害自己。</t>
+    </r>
+  </si>
+  <si>
+    <t>DevilHit</t>
+  </si>
+  <si>
+    <t>必中</t>
+  </si>
+  <si>
+    <t>强制命中</t>
+  </si>
+  <si>
+    <t>ForceHit</t>
+  </si>
+  <si>
+    <t>必暴击</t>
+  </si>
+  <si>
+    <t>若对方未格挡，则强制暴击</t>
+  </si>
+  <si>
+    <t>ForceCrit</t>
+  </si>
+  <si>
+    <t>无视对方的防御状态。命中率与伤害值照常计算</t>
+  </si>
+  <si>
+    <t>三连击</t>
+  </si>
+  <si>
+    <t>追加2次伤害结算</t>
+  </si>
+  <si>
+    <t>Combo3</t>
+  </si>
+  <si>
+    <t>二连击</t>
+  </si>
+  <si>
+    <t>追加1次伤害结算</t>
+  </si>
+  <si>
+    <t>Combo2</t>
+  </si>
+  <si>
+    <t>必打断</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>若对方在出招状态，攻击一定能将对方打断</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceInterrupt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气循环</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气共鸣</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵之幻境</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>月之领域</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日之领域</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵力解放</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘术光环：自身所有攻击变为全体攻击并能够击倒对手。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘术光环：极大地增强法术威力和吟唱速度，但同时提高消耗。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气偷取</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗月魔影</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>激昂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻防速上升20%</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>xcited</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1267,10 +1289,6 @@
   </si>
   <si>
     <t>Paralized</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1974,6 +1992,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2043,10 +2062,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>A</t>
     </r>
@@ -2055,6 +2070,7 @@
         <sz val="11"/>
         <color rgb="FF9C6500"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2189,6 +2205,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>witchWeapon</t>
@@ -2388,6 +2405,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>命中、回避、暴击、抗暴下降</t>
@@ -2419,6 +2437,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>重新开始回合，且容易受到暴击</t>
@@ -2483,19 +2502,183 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C6500"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>13</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>02</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff添加时机</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffAddTriggers</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2506,169 +2689,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>13</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF9C6500"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>02</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>06</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>04</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>03</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>05</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>05</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>04</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>06</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>115</t>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2686,17 +2733,20 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2704,6 +2754,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2711,6 +2762,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2718,6 +2770,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2734,6 +2787,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2791,6 +2845,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2798,6 +2853,7 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2809,8 +2865,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2875,7 +2930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2986,9 +3041,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3268,10 +3320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3284,18 +3336,19 @@
     <col min="6" max="11" width="10.25" style="8" customWidth="1"/>
     <col min="12" max="12" width="8.5" style="8" customWidth="1"/>
     <col min="13" max="14" width="12.5" style="8" customWidth="1"/>
-    <col min="15" max="15" width="8" style="8" customWidth="1"/>
-    <col min="16" max="16" width="11.875" style="8" customWidth="1"/>
-    <col min="17" max="18" width="11.25" style="8" customWidth="1"/>
-    <col min="19" max="19" width="70.875" style="8" customWidth="1"/>
-    <col min="20" max="21" width="9" style="8"/>
-    <col min="22" max="22" width="10.5" style="8" customWidth="1"/>
-    <col min="23" max="24" width="9" style="8"/>
-    <col min="25" max="25" width="11.625" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="8"/>
+    <col min="15" max="15" width="13.75" style="8" customWidth="1"/>
+    <col min="16" max="16" width="8" style="8" customWidth="1"/>
+    <col min="17" max="17" width="11.875" style="8" customWidth="1"/>
+    <col min="18" max="19" width="11.25" style="8" customWidth="1"/>
+    <col min="20" max="20" width="70.875" style="8" customWidth="1"/>
+    <col min="21" max="22" width="9" style="8"/>
+    <col min="23" max="23" width="10.5" style="8" customWidth="1"/>
+    <col min="24" max="25" width="9" style="8"/>
+    <col min="26" max="26" width="11.625" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3339,13 +3392,16 @@
         <v>13</v>
       </c>
       <c r="O1" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="40.5">
+    <row r="2" spans="1:17" ht="40.5">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -3389,13 +3445,16 @@
         <v>29</v>
       </c>
       <c r="O2" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27">
+    <row r="3" spans="1:17" ht="27">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -3439,13 +3498,16 @@
         <v>37</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>37</v>
+        <v>510</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="9">
         <v>0</v>
       </c>
@@ -3456,7 +3518,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>40</v>
@@ -3484,8 +3546,9 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" ht="27">
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" ht="27">
       <c r="A5" s="24">
         <v>1101</v>
       </c>
@@ -3493,10 +3556,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>43</v>
@@ -3524,8 +3587,9 @@
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
-    </row>
-    <row r="6" spans="1:16" ht="27">
+      <c r="Q5" s="24"/>
+    </row>
+    <row r="6" spans="1:17" ht="27">
       <c r="A6" s="24">
         <v>1102</v>
       </c>
@@ -3533,10 +3597,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>43</v>
@@ -3564,19 +3628,20 @@
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
-    </row>
-    <row r="7" spans="1:16" ht="27">
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="1:17" ht="27">
       <c r="A7" s="10">
         <v>1103</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>337</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>43</v>
@@ -3602,25 +3667,26 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="12">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12">
         <v>3</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="27">
+    <row r="8" spans="1:17" ht="27">
       <c r="A8" s="10">
         <v>1104</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
@@ -3646,14 +3712,15 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="21" t="s">
-        <v>368</v>
-      </c>
+      <c r="O8" s="12"/>
       <c r="P8" s="21" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="27">
+      <c r="Q8" s="21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="27">
       <c r="A9" s="10">
         <v>1105</v>
       </c>
@@ -3661,10 +3728,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>43</v>
@@ -3688,33 +3755,36 @@
         <v>2</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>48</v>
       </c>
       <c r="O9" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="P9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="27">
+    <row r="10" spans="1:17" ht="27">
       <c r="A10" s="10">
         <v>1106</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>43</v>
@@ -3735,19 +3805,20 @@
         <v>0.2</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="27">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="27">
       <c r="A11" s="24">
         <v>1201</v>
       </c>
@@ -3755,10 +3826,10 @@
         <v>51</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>43</v>
@@ -3786,8 +3857,9 @@
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="24"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="24">
         <v>1202</v>
       </c>
@@ -3795,10 +3867,10 @@
         <v>52</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>43</v>
@@ -3819,15 +3891,16 @@
         <v>2</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
-    </row>
-    <row r="13" spans="1:16" ht="27">
+      <c r="Q12" s="24"/>
+    </row>
+    <row r="13" spans="1:17" ht="27">
       <c r="A13" s="10">
         <v>1203</v>
       </c>
@@ -3835,10 +3908,10 @@
         <v>53</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>43</v>
@@ -3859,25 +3932,28 @@
         <v>1</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="21" t="s">
-        <v>428</v>
+      <c r="O13" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="27">
+        <v>426</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="27">
       <c r="A14" s="10">
         <v>1204</v>
       </c>
@@ -3885,10 +3961,10 @@
         <v>55</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>56</v>
@@ -3909,15 +3985,16 @@
         <v>2</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" ht="27">
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" ht="27">
       <c r="A15" s="10">
         <v>1205</v>
       </c>
@@ -3925,10 +4002,10 @@
         <v>57</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>43</v>
@@ -3949,19 +4026,20 @@
         <v>0.3</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="12"/>
+      <c r="P15" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q15" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="P15" s="21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="10">
         <v>1206</v>
       </c>
@@ -3969,10 +4047,10 @@
         <v>58</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>40</v>
@@ -3996,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>50</v>
@@ -4004,10 +4082,13 @@
       <c r="N16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="12"/>
+      <c r="O16" s="12" t="s">
+        <v>515</v>
+      </c>
       <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:16" ht="27">
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" ht="27">
       <c r="A17" s="10">
         <v>1207</v>
       </c>
@@ -4015,10 +4096,10 @@
         <v>59</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>56</v>
@@ -4039,19 +4120,20 @@
         <v>0.7</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="12"/>
+      <c r="P17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="27">
+    <row r="18" spans="1:17" ht="27">
       <c r="A18" s="24">
         <v>1301</v>
       </c>
@@ -4059,10 +4141,10 @@
         <v>61</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>43</v>
@@ -4090,8 +4172,9 @@
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
-    </row>
-    <row r="19" spans="1:16" ht="27">
+      <c r="Q18" s="24"/>
+    </row>
+    <row r="19" spans="1:17" ht="27">
       <c r="A19" s="24">
         <v>1302</v>
       </c>
@@ -4099,10 +4182,10 @@
         <v>62</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>43</v>
@@ -4123,26 +4206,27 @@
         <v>0.5</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
-    </row>
-    <row r="20" spans="1:16" ht="27">
+      <c r="Q19" s="24"/>
+    </row>
+    <row r="20" spans="1:17" ht="27">
       <c r="A20" s="10">
         <v>1303</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>43</v>
@@ -4163,32 +4247,35 @@
         <v>0.3</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O20" s="12"/>
+        <v>390</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>512</v>
+      </c>
       <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:16" ht="27">
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" ht="27">
       <c r="A21" s="10">
         <v>1304</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>56</v>
@@ -4209,10 +4296,10 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>50</v>
@@ -4220,10 +4307,13 @@
       <c r="N21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="O21" s="12"/>
+      <c r="O21" s="12" t="s">
+        <v>312</v>
+      </c>
       <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:16" ht="27">
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" ht="27">
       <c r="A22" s="10">
         <v>1305</v>
       </c>
@@ -4231,10 +4321,10 @@
         <v>64</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>43</v>
@@ -4255,26 +4345,27 @@
         <v>2</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="10">
         <v>1306</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>348</v>
-      </c>
       <c r="D23" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>43</v>
@@ -4300,25 +4391,26 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="12"/>
+      <c r="P23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="Q23" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="27">
+    <row r="24" spans="1:17" ht="27">
       <c r="A24" s="24">
         <v>1401</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>43</v>
@@ -4339,26 +4431,27 @@
         <v>1</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
-    </row>
-    <row r="25" spans="1:16" ht="27">
+      <c r="Q24" s="24"/>
+    </row>
+    <row r="25" spans="1:17" ht="27">
       <c r="A25" s="24">
         <v>1402</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>43</v>
@@ -4379,26 +4472,27 @@
         <v>0.7</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
-    </row>
-    <row r="26" spans="1:16" ht="27">
+      <c r="Q25" s="24"/>
+    </row>
+    <row r="26" spans="1:17" ht="27">
       <c r="A26" s="10">
         <v>1403</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>43</v>
@@ -4419,30 +4513,31 @@
         <v>1</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="12" t="s">
+      <c r="O26" s="12"/>
+      <c r="P26" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="Q26" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="27">
+    <row r="27" spans="1:17" ht="27">
       <c r="A27" s="10">
         <v>1404</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>70</v>
@@ -4463,30 +4558,31 @@
         <v>1</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="12" t="s">
+      <c r="O27" s="12"/>
+      <c r="P27" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q27" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="P27" s="21" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="27">
+    </row>
+    <row r="28" spans="1:17" ht="27">
       <c r="A28" s="10">
         <v>1405</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>353</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>354</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>56</v>
@@ -4510,18 +4606,21 @@
         <v>1</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M28" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="N28" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="N28" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="O28" s="10"/>
+      <c r="O28" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" ht="27">
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="27">
       <c r="A29" s="24">
         <v>1501</v>
       </c>
@@ -4529,10 +4628,10 @@
         <v>72</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>43</v>
@@ -4560,8 +4659,9 @@
       <c r="N29" s="24"/>
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
-    </row>
-    <row r="30" spans="1:16" ht="27">
+      <c r="Q29" s="24"/>
+    </row>
+    <row r="30" spans="1:17" ht="27">
       <c r="A30" s="24">
         <v>1502</v>
       </c>
@@ -4569,10 +4669,10 @@
         <v>73</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>43</v>
@@ -4593,19 +4693,20 @@
         <v>0.8</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
-      <c r="O30" s="24" t="s">
+      <c r="O30" s="24"/>
+      <c r="P30" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q30" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="P30" s="24" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="27">
+    </row>
+    <row r="31" spans="1:17" ht="27">
       <c r="A31" s="10">
         <v>1503</v>
       </c>
@@ -4613,10 +4714,10 @@
         <v>74</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>43</v>
@@ -4642,25 +4743,26 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="10" t="s">
+      <c r="O31" s="10"/>
+      <c r="P31" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P31" s="10" t="s">
+      <c r="Q31" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="27">
+    <row r="32" spans="1:17" ht="27">
       <c r="A32" s="10">
         <v>1504</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>43</v>
@@ -4684,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>47</v>
@@ -4693,24 +4795,27 @@
         <v>54</v>
       </c>
       <c r="O32" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="P32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P32" s="10" t="s">
+      <c r="Q32" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="27">
+    <row r="33" spans="1:17" ht="27">
       <c r="A33" s="10">
         <v>1505</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>43</v>
@@ -4738,75 +4843,79 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" ht="27">
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" ht="27">
       <c r="A34" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="H34" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="K34" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>363</v>
-      </c>
       <c r="L34" s="17" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M34" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="N34" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="N34" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" ht="27">
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" ht="27">
       <c r="A35" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>362</v>
-      </c>
       <c r="H35" s="10">
         <v>1</v>
       </c>
@@ -4814,24 +4923,27 @@
         <v>1</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M35" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="N35" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="N35" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="O35" s="10"/>
+      <c r="O35" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -4848,19 +4960,20 @@
       <c r="N36" s="24"/>
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
-    </row>
-    <row r="37" spans="1:16" ht="27">
+      <c r="Q36" s="24"/>
+    </row>
+    <row r="37" spans="1:17" ht="27">
       <c r="A37" s="10">
         <v>1601</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>56</v>
@@ -4888,48 +5001,50 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-    </row>
-    <row r="38" spans="1:16" ht="27">
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="1:17" ht="27">
       <c r="A38" s="10">
         <v>1602</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F38" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="I38" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="J38" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>327</v>
-      </c>
       <c r="K38" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-    </row>
-    <row r="39" spans="1:16" ht="27">
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17" ht="27">
       <c r="A39" s="10">
         <v>1603</v>
       </c>
@@ -4937,56 +5052,59 @@
         <v>76</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F39" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="H39" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="J39" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="H39" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>330</v>
-      </c>
       <c r="K39" s="10">
         <v>1</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M39" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="N39" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="N39" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="O39" s="10"/>
+      <c r="O39" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P39" s="10"/>
-    </row>
-    <row r="40" spans="1:16" ht="27">
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17" ht="27">
       <c r="A40" s="10">
         <v>1604</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>43</v>
@@ -5010,29 +5128,32 @@
         <v>1</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M40" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="N40" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="N40" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="O40" s="10"/>
+      <c r="O40" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P40" s="10"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="10">
         <v>1605</v>
       </c>
       <c r="B41" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>333</v>
-      </c>
       <c r="D41" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>40</v>
@@ -5056,18 +5177,21 @@
         <v>0</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M41" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="N41" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="N41" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="O41" s="10"/>
+      <c r="O41" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P41" s="10"/>
-    </row>
-    <row r="42" spans="1:16" ht="27">
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17" ht="27">
       <c r="A42" s="10">
         <v>1606</v>
       </c>
@@ -5075,10 +5199,10 @@
         <v>77</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>43</v>
@@ -5099,19 +5223,20 @@
         <v>0.5</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="17" t="s">
+      <c r="O42" s="10"/>
+      <c r="P42" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q42" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="P42" s="17" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="10">
         <v>1607</v>
       </c>
@@ -5122,7 +5247,7 @@
         <v>79</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>43</v>
@@ -5148,14 +5273,15 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
-      <c r="O43" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="P43" s="10" t="s">
+      <c r="O43" s="10"/>
+      <c r="P43" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q43" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:17">
       <c r="A44" s="10">
         <v>1608</v>
       </c>
@@ -5166,7 +5292,7 @@
         <v>81</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>56</v>
@@ -5192,14 +5318,15 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="P44" s="10" t="s">
+      <c r="O44" s="10"/>
+      <c r="P44" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q44" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:17">
       <c r="A45" s="10">
         <v>1609</v>
       </c>
@@ -5210,7 +5337,7 @@
         <v>83</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>97</v>
@@ -5236,14 +5363,15 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="P45" s="10" t="s">
+      <c r="O45" s="10"/>
+      <c r="P45" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q45" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:17">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -5260,8 +5388,9 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
       <c r="P46" s="25"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46" s="25"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="10" t="s">
         <v>84</v>
       </c>
@@ -5290,8 +5419,9 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="10" t="s">
         <v>88</v>
       </c>
@@ -5320,8 +5450,9 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="10" t="s">
         <v>91</v>
       </c>
@@ -5350,8 +5481,9 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="10" t="s">
         <v>94</v>
       </c>
@@ -5380,8 +5512,9 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="10" t="s">
         <v>98</v>
       </c>
@@ -5410,8 +5543,9 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="10" t="s">
         <v>101</v>
       </c>
@@ -5440,8 +5574,9 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
-    </row>
-    <row r="53" spans="1:16" ht="27">
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="1:17" ht="27">
       <c r="A53" s="10" t="s">
         <v>104</v>
       </c>
@@ -5470,8 +5605,9 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
-    </row>
-    <row r="54" spans="1:16" ht="27">
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="1:17" ht="27">
       <c r="A54" s="10" t="s">
         <v>107</v>
       </c>
@@ -5500,8 +5636,9 @@
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
-    </row>
-    <row r="55" spans="1:16" ht="27">
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="1:17" ht="27">
       <c r="A55" s="10" t="s">
         <v>111</v>
       </c>
@@ -5530,8 +5667,9 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
-    </row>
-    <row r="56" spans="1:16" ht="27">
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="1:17" ht="27">
       <c r="A56" s="10" t="s">
         <v>114</v>
       </c>
@@ -5560,8 +5698,9 @@
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="10" t="s">
         <v>118</v>
       </c>
@@ -5590,8 +5729,9 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="10" t="s">
         <v>121</v>
       </c>
@@ -5620,8 +5760,9 @@
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
-    </row>
-    <row r="59" spans="1:16" ht="27">
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="1:17" ht="27">
       <c r="A59" s="10" t="s">
         <v>124</v>
       </c>
@@ -5650,8 +5791,9 @@
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -5668,8 +5810,9 @@
       <c r="N60" s="24"/>
       <c r="O60" s="24"/>
       <c r="P60" s="24"/>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60" s="24"/>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="10" t="s">
         <v>126</v>
       </c>
@@ -5694,7 +5837,7 @@
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M61" s="10" t="s">
         <v>47</v>
@@ -5702,10 +5845,13 @@
       <c r="N61" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O61" s="10"/>
+      <c r="O61" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P61" s="10"/>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="10" t="s">
         <v>130</v>
       </c>
@@ -5730,7 +5876,7 @@
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M62" s="10" t="s">
         <v>133</v>
@@ -5738,10 +5884,13 @@
       <c r="N62" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O62" s="10"/>
+      <c r="O62" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P62" s="10"/>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="10" t="s">
         <v>134</v>
       </c>
@@ -5768,14 +5917,15 @@
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
-      <c r="O63" s="10" t="s">
+      <c r="O63" s="10"/>
+      <c r="P63" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P63" s="10" t="s">
+      <c r="Q63" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:17">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -5802,14 +5952,15 @@
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
-      <c r="O64" s="10" t="s">
+      <c r="O64" s="10"/>
+      <c r="P64" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P64" s="10" t="s">
+      <c r="Q64" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:17">
       <c r="A65" s="10" t="s">
         <v>140</v>
       </c>
@@ -5834,7 +5985,7 @@
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="17" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M65" s="10" t="s">
         <v>50</v>
@@ -5842,10 +5993,13 @@
       <c r="N65" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O65" s="10"/>
+      <c r="O65" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P65" s="10"/>
-    </row>
-    <row r="66" spans="1:16" ht="27">
+      <c r="Q65" s="10"/>
+    </row>
+    <row r="66" spans="1:17" ht="27">
       <c r="A66" s="10" t="s">
         <v>143</v>
       </c>
@@ -5870,7 +6024,7 @@
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="17" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M66" s="10" t="s">
         <v>133</v>
@@ -5878,10 +6032,13 @@
       <c r="N66" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O66" s="10"/>
+      <c r="O66" s="10" t="s">
+        <v>516</v>
+      </c>
       <c r="P66" s="10"/>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="10" t="s">
         <v>146</v>
       </c>
@@ -5906,18 +6063,21 @@
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="17" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="O67" s="10"/>
+        <v>414</v>
+      </c>
+      <c r="O67" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P67" s="10"/>
-    </row>
-    <row r="68" spans="1:16" ht="27">
+      <c r="Q67" s="10"/>
+    </row>
+    <row r="68" spans="1:17" ht="27">
       <c r="A68" s="10" t="s">
         <v>149</v>
       </c>
@@ -5946,8 +6106,9 @@
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
-    </row>
-    <row r="69" spans="1:16" ht="27">
+      <c r="Q68" s="10"/>
+    </row>
+    <row r="69" spans="1:17" ht="27">
       <c r="A69" s="10" t="s">
         <v>152</v>
       </c>
@@ -5976,8 +6137,9 @@
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
-    </row>
-    <row r="70" spans="1:16" ht="27">
+      <c r="Q69" s="10"/>
+    </row>
+    <row r="70" spans="1:17" ht="27">
       <c r="A70" s="10" t="s">
         <v>155</v>
       </c>
@@ -6006,8 +6168,9 @@
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70" s="10"/>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="10" t="s">
         <v>158</v>
       </c>
@@ -6036,8 +6199,9 @@
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71" s="10"/>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="10" t="s">
         <v>161</v>
       </c>
@@ -6066,8 +6230,9 @@
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72" s="10"/>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="24"/>
       <c r="B73" s="26"/>
       <c r="C73" s="24"/>
@@ -6084,8 +6249,9 @@
       <c r="N73" s="24"/>
       <c r="O73" s="24"/>
       <c r="P73" s="24"/>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73" s="24"/>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="10" t="s">
         <v>163</v>
       </c>
@@ -6110,7 +6276,7 @@
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M74" s="10" t="s">
         <v>47</v>
@@ -6118,10 +6284,13 @@
       <c r="N74" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="O74" s="10"/>
+      <c r="O74" s="10" t="s">
+        <v>516</v>
+      </c>
       <c r="P74" s="10"/>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74" s="10"/>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="10" t="s">
         <v>167</v>
       </c>
@@ -6146,7 +6315,7 @@
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="17" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M75" s="10" t="s">
         <v>133</v>
@@ -6154,10 +6323,13 @@
       <c r="N75" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="O75" s="10"/>
+      <c r="O75" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P75" s="10"/>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75" s="10"/>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="10" t="s">
         <v>170</v>
       </c>
@@ -6182,7 +6354,7 @@
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="17" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M76" s="10" t="s">
         <v>47</v>
@@ -6190,10 +6362,13 @@
       <c r="N76" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O76" s="10"/>
+      <c r="O76" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P76" s="10"/>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76" s="10"/>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="10" t="s">
         <v>173</v>
       </c>
@@ -6222,8 +6397,9 @@
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77" s="10"/>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="10" t="s">
         <v>177</v>
       </c>
@@ -6250,10 +6426,11 @@
       <c r="L78" s="17"/>
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
-      <c r="O78" s="10"/>
+      <c r="O78" s="17"/>
       <c r="P78" s="10"/>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78" s="10"/>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="10" t="s">
         <v>180</v>
       </c>
@@ -6278,18 +6455,21 @@
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="17" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M79" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="N79" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="N79" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="O79" s="10"/>
+      <c r="O79" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="P79" s="10"/>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79" s="10"/>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="10" t="s">
         <v>183</v>
       </c>
@@ -6316,10 +6496,11 @@
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
-      <c r="O80" s="10"/>
+      <c r="O80" s="17"/>
       <c r="P80" s="10"/>
-    </row>
-    <row r="81" spans="1:16" ht="27">
+      <c r="Q80" s="10"/>
+    </row>
+    <row r="81" spans="1:17" ht="27">
       <c r="A81" s="10" t="s">
         <v>186</v>
       </c>
@@ -6348,8 +6529,9 @@
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81" s="10"/>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="10" t="s">
         <v>189</v>
       </c>
@@ -6378,8 +6560,9 @@
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82" s="10"/>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="10" t="s">
         <v>192</v>
       </c>
@@ -6408,8 +6591,9 @@
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
-    </row>
-    <row r="84" spans="1:16" ht="27">
+      <c r="Q83" s="10"/>
+    </row>
+    <row r="84" spans="1:17" ht="27">
       <c r="A84" s="10" t="s">
         <v>195</v>
       </c>
@@ -6433,19 +6617,22 @@
         <v>312</v>
       </c>
       <c r="K84" s="10"/>
-      <c r="L84" s="37" t="s">
-        <v>511</v>
-      </c>
-      <c r="M84" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="N84" s="37" t="s">
-        <v>419</v>
-      </c>
-      <c r="O84" s="10"/>
+      <c r="L84" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="M84" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="N84" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="O84" s="17" t="s">
+        <v>384</v>
+      </c>
       <c r="P84" s="10"/>
-    </row>
-    <row r="85" spans="1:16" ht="28.5">
+      <c r="Q84" s="10"/>
+    </row>
+    <row r="85" spans="1:17" ht="28.5">
       <c r="A85" s="10" t="s">
         <v>198</v>
       </c>
@@ -6474,8 +6661,9 @@
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85" s="10"/>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -6492,8 +6680,9 @@
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
       <c r="P86" s="25"/>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86" s="25"/>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="10">
         <v>3001</v>
       </c>
@@ -6504,7 +6693,7 @@
         <v>201</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>43</v>
@@ -6532,8 +6721,9 @@
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87" s="10"/>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="10">
         <v>3002</v>
       </c>
@@ -6544,7 +6734,7 @@
         <v>202</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>43</v>
@@ -6572,8 +6762,9 @@
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88" s="10"/>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="10">
         <v>3003</v>
       </c>
@@ -6584,7 +6775,7 @@
         <v>203</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>43</v>
@@ -6612,8 +6803,9 @@
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="Q89" s="10"/>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="10">
         <v>3004</v>
       </c>
@@ -6624,7 +6816,7 @@
         <v>205</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>56</v>
@@ -6652,8 +6844,9 @@
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="Q90" s="10"/>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="10">
         <v>4001</v>
       </c>
@@ -6664,7 +6857,7 @@
         <v>206</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>56</v>
@@ -6692,8 +6885,9 @@
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="Q91" s="10"/>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="10">
         <v>3005</v>
       </c>
@@ -6714,8 +6908,9 @@
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="Q92" s="10"/>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="10">
         <v>3006</v>
       </c>
@@ -6736,8 +6931,9 @@
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="Q93" s="10"/>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="10">
         <v>3007</v>
       </c>
@@ -6758,8 +6954,9 @@
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="Q94" s="10"/>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="10">
         <v>4005</v>
       </c>
@@ -6780,8 +6977,9 @@
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="Q95" s="10"/>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="10">
         <v>4006</v>
       </c>
@@ -6802,8 +7000,9 @@
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="Q96" s="10"/>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="10">
         <v>3008</v>
       </c>
@@ -6824,8 +7023,9 @@
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="Q97" s="10"/>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="10">
         <v>4007</v>
       </c>
@@ -6848,8 +7048,9 @@
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="Q98" s="10"/>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="10">
         <v>3009</v>
       </c>
@@ -6872,8 +7073,9 @@
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="Q99" s="10"/>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="10">
         <v>3010</v>
       </c>
@@ -6896,8 +7098,9 @@
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="Q100" s="10"/>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="10">
         <v>3011</v>
       </c>
@@ -6920,8 +7123,9 @@
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="Q101" s="10"/>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="10">
         <v>4008</v>
       </c>
@@ -6944,8 +7148,9 @@
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="Q102" s="10"/>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="10"/>
@@ -6999,7 +7204,7 @@
         <v>227</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7019,7 +7224,7 @@
         <v>229</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7039,7 +7244,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7067,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>234</v>
@@ -7087,16 +7292,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>480</v>
       </c>
       <c r="F6" s="36" t="b">
         <v>1</v>
@@ -7117,7 +7322,7 @@
         <v>237</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>238</v>
@@ -7137,7 +7342,7 @@
         <v>240</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>232</v>
@@ -7157,7 +7362,7 @@
         <v>247</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>232</v>
@@ -7177,7 +7382,7 @@
         <v>245</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>238</v>
@@ -7197,7 +7402,7 @@
         <v>242</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>232</v>
@@ -7214,10 +7419,10 @@
         <v>106</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>232</v>
@@ -7237,7 +7442,7 @@
         <v>248</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D14" t="s">
         <v>311</v>
@@ -7257,7 +7462,7 @@
         <v>250</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D15" t="s">
         <v>238</v>
@@ -7277,7 +7482,7 @@
         <v>252</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D16" t="s">
         <v>238</v>
@@ -7297,13 +7502,13 @@
         <v>254</v>
       </c>
       <c r="C17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D17" t="s">
         <v>311</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F17" s="36" t="b">
         <v>0</v>
@@ -7314,16 +7519,16 @@
         <v>113</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D18" t="s">
         <v>311</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F18" s="36" t="b">
         <v>0</v>
@@ -7334,7 +7539,7 @@
         <v>114</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C19" t="s">
         <v>255</v>
@@ -7343,7 +7548,7 @@
         <v>268</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F19" s="36" t="b">
         <v>1</v>
@@ -7541,7 +7746,7 @@
         <v>231</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>233</v>
@@ -7558,7 +7763,7 @@
         <v>259</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>260</v>
@@ -7575,7 +7780,7 @@
         <v>262</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>263</v>
@@ -7592,7 +7797,7 @@
         <v>264</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>265</v>
@@ -7609,7 +7814,7 @@
         <v>267</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>269</v>
@@ -7626,7 +7831,7 @@
         <v>271</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>272</v>
@@ -7643,7 +7848,7 @@
         <v>274</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>275</v>
@@ -7660,7 +7865,7 @@
         <v>276</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>277</v>
@@ -7677,7 +7882,7 @@
         <v>278</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>279</v>
@@ -7688,16 +7893,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>400</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7705,16 +7910,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="D14" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>404</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7722,16 +7927,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7751,7 +7956,7 @@
         <v>281</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>282</v>
@@ -7768,7 +7973,7 @@
         <v>284</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>285</v>
@@ -7779,16 +7984,16 @@
         <v>103</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>286</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7802,7 +8007,7 @@
         <v>288</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>289</v>
@@ -7819,7 +8024,7 @@
         <v>291</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>292</v>
@@ -7836,7 +8041,7 @@
         <v>294</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>295</v>
@@ -7847,16 +8052,16 @@
         <v>107</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>379</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7864,16 +8069,16 @@
         <v>108</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7881,16 +8086,16 @@
         <v>109</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/SkillData.xlsx
+++ b/Documents/ExcelData/SkillData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="523">
   <si>
     <t>技能ID</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>短剑系轻攻击</t>
   </si>
   <si>
     <t>SingleEnemy</t>
@@ -2716,6 +2713,34 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>短剑系轻攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3322,8 +3347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="O79" sqref="O79"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3392,7 +3417,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>14</v>
@@ -3445,7 +3470,7 @@
         <v>29</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>30</v>
@@ -3498,7 +3523,7 @@
         <v>37</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>37</v>
@@ -3518,7 +3543,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>40</v>
@@ -3553,16 +3578,16 @@
         <v>1101</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>43</v>
       </c>
       <c r="F5" s="24">
         <v>1</v>
@@ -3594,25 +3619,25 @@
         <v>1102</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="G6" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="24">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>516</v>
       </c>
       <c r="I6" s="24">
         <v>1</v>
@@ -3635,16 +3660,16 @@
         <v>1103</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>336</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="10">
         <v>6</v>
@@ -3680,16 +3705,16 @@
         <v>1104</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="31">
         <v>1</v>
@@ -3697,8 +3722,8 @@
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="10">
-        <v>1</v>
+      <c r="H8" s="10" t="s">
+        <v>517</v>
       </c>
       <c r="I8" s="10">
         <v>10</v>
@@ -3714,10 +3739,10 @@
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="27">
@@ -3725,16 +3750,16 @@
         <v>1105</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="10">
         <v>0.5</v>
@@ -3755,22 +3780,22 @@
         <v>2</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="P9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="P9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="27">
@@ -3778,16 +3803,16 @@
         <v>1106</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="31">
         <v>0.75</v>
@@ -3805,17 +3830,17 @@
         <v>0.2</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q10" s="21" t="s">
         <v>422</v>
-      </c>
-      <c r="Q10" s="21" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="27">
@@ -3823,16 +3848,16 @@
         <v>1201</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="24">
         <v>1</v>
@@ -3864,19 +3889,19 @@
         <v>1202</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="24">
-        <v>1.2</v>
+        <v>42</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>519</v>
       </c>
       <c r="G12" s="24">
         <v>0.8</v>
@@ -3884,14 +3909,14 @@
       <c r="H12" s="24">
         <v>1</v>
       </c>
-      <c r="I12" s="24">
-        <v>0.7</v>
+      <c r="I12" s="24" t="s">
+        <v>520</v>
       </c>
       <c r="J12" s="24">
         <v>2</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
@@ -3905,16 +3930,16 @@
         <v>1203</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="10">
         <v>3</v>
@@ -3932,25 +3957,25 @@
         <v>1</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M13" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="P13" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="N13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="P13" s="21" t="s">
+      <c r="Q13" s="21" t="s">
         <v>426</v>
-      </c>
-      <c r="Q13" s="21" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="27">
@@ -3958,16 +3983,16 @@
         <v>1204</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="F14" s="10">
         <v>1.2</v>
@@ -3985,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -3999,16 +4024,16 @@
         <v>1205</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -4026,17 +4051,17 @@
         <v>0.3</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q15" s="21" t="s">
         <v>341</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4044,13 +4069,13 @@
         <v>1206</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>40</v>
@@ -4074,16 +4099,16 @@
         <v>0</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -4093,16 +4118,16 @@
         <v>1207</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="10">
         <v>1.6</v>
@@ -4120,17 +4145,17 @@
         <v>0.7</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="27">
@@ -4138,16 +4163,16 @@
         <v>1301</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="24">
         <v>1</v>
@@ -4179,16 +4204,16 @@
         <v>1302</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="24">
         <v>1.3</v>
@@ -4206,7 +4231,7 @@
         <v>0.5</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -4220,16 +4245,16 @@
         <v>1303</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="10">
         <v>2</v>
@@ -4247,19 +4272,19 @@
         <v>0.3</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L20" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>514</v>
-      </c>
       <c r="N20" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="O20" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>512</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -4269,16 +4294,16 @@
         <v>1304</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="10">
         <v>0.7</v>
@@ -4296,19 +4321,19 @@
         <v>0.5</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
@@ -4318,16 +4343,16 @@
         <v>1305</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="10">
         <v>1.9</v>
@@ -4345,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
@@ -4359,16 +4384,16 @@
         <v>1306</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>347</v>
-      </c>
       <c r="D23" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="10">
         <v>2.5</v>
@@ -4393,10 +4418,10 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="27">
@@ -4404,16 +4429,16 @@
         <v>1401</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="24">
         <v>1</v>
@@ -4431,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -4445,16 +4470,16 @@
         <v>1402</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="24">
         <v>1.5</v>
@@ -4465,14 +4490,14 @@
       <c r="H25" s="24">
         <v>1.2</v>
       </c>
-      <c r="I25" s="24">
-        <v>0.7</v>
+      <c r="I25" s="24" t="s">
+        <v>522</v>
       </c>
       <c r="J25" s="24">
         <v>0.7</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
@@ -4486,16 +4511,16 @@
         <v>1403</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="10">
         <v>1.5</v>
@@ -4513,17 +4538,17 @@
         <v>1</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q26" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="27">
@@ -4531,16 +4556,16 @@
         <v>1404</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="10">
         <v>2</v>
@@ -4558,17 +4583,17 @@
         <v>1</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q27" s="21" t="s">
         <v>380</v>
-      </c>
-      <c r="Q27" s="2